--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoj-my.sharepoint.com/personal/mayooran_eng_jfn_ac_lk/Documents/MC3020_2025_App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maids\OneDrive - University of Jaffna\Documents\GitHub\MC3020_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C2D21A26-6521-4E0F-854A-B21FD996C94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939FCD19-3C01-4353-9D9A-090601D8C184}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1255,7 +1254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1627,7 +1626,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,18 +1769,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="60% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Neutral 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="2"/>
+    <cellStyle name="60% - Accent3 2" xfId="3"/>
+    <cellStyle name="60% - Accent4 2" xfId="4"/>
+    <cellStyle name="60% - Accent5 2" xfId="5"/>
+    <cellStyle name="60% - Accent6 2" xfId="6"/>
+    <cellStyle name="Neutral 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Title 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Title 2" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2057,11 +2065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2110,7 +2118,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6">
+        <v>52</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
@@ -2125,7 +2135,9 @@
       <c r="E3" s="9"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10">
+        <v>52</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
@@ -2140,7 +2152,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>52</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
@@ -2155,7 +2169,9 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <v>52</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
@@ -2170,7 +2186,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="45" t="s">
@@ -2184,7 +2202,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="11">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="45" t="s">
@@ -2198,7 +2218,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="45" t="s">
@@ -2212,7 +2234,9 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="45" t="s">
@@ -2226,7 +2250,9 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="45" t="s">
@@ -2240,7 +2266,9 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="45" t="s">
@@ -2254,7 +2282,9 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="45" t="s">
@@ -2268,7 +2298,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="45" t="s">
@@ -2282,7 +2314,9 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="45" t="s">
@@ -2296,7 +2330,9 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="45" t="s">
@@ -2310,7 +2346,9 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="45" t="s">
@@ -2324,7 +2362,9 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="45" t="s">
@@ -2338,7 +2378,9 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>52.01</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="45" t="s">
@@ -2352,7 +2394,9 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="45" t="s">
@@ -2366,7 +2410,9 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="45" t="s">
@@ -2380,7 +2426,9 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="45" t="s">
@@ -2394,7 +2442,9 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="45" t="s">
@@ -2408,7 +2458,9 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="45" t="s">
@@ -2422,7 +2474,9 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="45" t="s">
@@ -2436,7 +2490,9 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="45" t="s">
@@ -2450,7 +2506,9 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="45" t="s">
@@ -2464,7 +2522,9 @@
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="11">
+        <v>52.02</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="45" t="s">
@@ -2478,7 +2538,9 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="45" t="s">
@@ -2492,7 +2554,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="45" t="s">
@@ -2506,7 +2570,9 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="45" t="s">
@@ -2520,7 +2586,9 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="45" t="s">
@@ -2534,7 +2602,9 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="45" t="s">
@@ -2548,7 +2618,9 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="45" t="s">
@@ -2562,7 +2634,9 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="45" t="s">
@@ -2576,7 +2650,9 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="45" t="s">
@@ -2590,7 +2666,9 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="45" t="s">
@@ -2604,7 +2682,9 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="11">
+        <v>52.03</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="45" t="s">
@@ -2618,7 +2698,9 @@
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="45" t="s">
@@ -2632,7 +2714,9 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="45" t="s">
@@ -2646,7 +2730,9 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="45" t="s">
@@ -2660,7 +2746,9 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="45" t="s">
@@ -2674,7 +2762,9 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="45" t="s">
@@ -2688,7 +2778,9 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="45" t="s">
@@ -2702,7 +2794,9 @@
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="45" t="s">
@@ -2716,7 +2810,9 @@
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="45" t="s">
@@ -2730,7 +2826,9 @@
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="11">
+        <v>52.04</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="45" t="s">
@@ -2744,7 +2842,9 @@
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="45" t="s">
@@ -2758,7 +2858,9 @@
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="45" t="s">
@@ -2772,7 +2874,9 @@
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="45" t="s">
@@ -2786,7 +2890,9 @@
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="45" t="s">
@@ -2800,7 +2906,9 @@
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="45" t="s">
@@ -2814,7 +2922,9 @@
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="45" t="s">
@@ -2828,7 +2938,9 @@
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="H53" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="45" t="s">
@@ -2842,7 +2954,9 @@
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="11">
+        <v>52.05</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="45" t="s">
@@ -2856,7 +2970,9 @@
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="45" t="s">
@@ -2870,7 +2986,9 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="45" t="s">
@@ -2884,7 +3002,9 @@
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="45" t="s">
@@ -2898,7 +3018,9 @@
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="45" t="s">
@@ -2912,7 +3034,9 @@
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="45" t="s">
@@ -2926,7 +3050,9 @@
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="45" t="s">
@@ -2940,7 +3066,9 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="45" t="s">
@@ -2954,7 +3082,9 @@
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="45" t="s">
@@ -2968,7 +3098,9 @@
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="45" t="s">
@@ -2982,7 +3114,9 @@
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="11">
+        <v>52.06</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="45" t="s">
@@ -2996,7 +3130,9 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="45" t="s">
@@ -3010,7 +3146,9 @@
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="45" t="s">
@@ -3024,7 +3162,9 @@
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="45" t="s">
@@ -3038,7 +3178,9 @@
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="45" t="s">
@@ -3052,7 +3194,9 @@
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="45" t="s">
@@ -3066,7 +3210,9 @@
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="45" t="s">
@@ -3080,7 +3226,9 @@
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="45" t="s">
@@ -3094,7 +3242,9 @@
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="45" t="s">
@@ -3108,7 +3258,9 @@
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="11">
+        <v>52.07</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="45" t="s">
@@ -3122,7 +3274,9 @@
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="H74" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="45" t="s">
@@ -3136,7 +3290,9 @@
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="H75" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="45" t="s">
@@ -3150,7 +3306,9 @@
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="H76" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="45" t="s">
@@ -3164,7 +3322,9 @@
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="45" t="s">
@@ -3178,7 +3338,9 @@
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="45" t="s">
@@ -3192,7 +3354,9 @@
       <c r="E79" s="4"/>
       <c r="F79" s="5"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="45" t="s">
@@ -3206,7 +3370,9 @@
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="45" t="s">
@@ -3220,7 +3386,9 @@
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="45" t="s">
@@ -3234,7 +3402,9 @@
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="45" t="s">
@@ -3248,7 +3418,9 @@
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+      <c r="H83" s="11">
+        <v>52.08</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="45" t="s">
@@ -3262,7 +3434,9 @@
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="45" t="s">
@@ -3276,7 +3450,9 @@
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="45" t="s">
@@ -3290,7 +3466,9 @@
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="H86" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="45" t="s">
@@ -3304,7 +3482,9 @@
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="H87" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="45" t="s">
@@ -3318,7 +3498,9 @@
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
+      <c r="H88" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="45" t="s">
@@ -3332,7 +3514,9 @@
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="45" t="s">
@@ -3346,7 +3530,9 @@
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="45" t="s">
@@ -3360,7 +3546,9 @@
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="H91" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="45" t="s">
@@ -3374,7 +3562,9 @@
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
+      <c r="H92" s="11">
+        <v>52.09</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="45" t="s">
@@ -3388,7 +3578,9 @@
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+      <c r="H93" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="45" t="s">
@@ -3402,7 +3594,9 @@
       <c r="E94" s="4"/>
       <c r="F94" s="5"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
+      <c r="H94" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="45" t="s">
@@ -3416,7 +3610,9 @@
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="H95" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="45" t="s">
@@ -3430,7 +3626,9 @@
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="45" t="s">
@@ -3444,7 +3642,9 @@
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="H97" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="45" t="s">
@@ -3458,7 +3658,9 @@
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="H98" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="45" t="s">
@@ -3472,7 +3674,9 @@
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="H99" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="45" t="s">
@@ -3486,7 +3690,9 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="H100" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="45" t="s">
@@ -3500,7 +3706,9 @@
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+      <c r="H101" s="11">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="45" t="s">
@@ -3514,7 +3722,9 @@
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
+      <c r="H102" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="45" t="s">
@@ -3528,7 +3738,9 @@
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
+      <c r="H103" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="45" t="s">
@@ -3542,7 +3754,9 @@
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="H104" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="45" t="s">
@@ -3556,7 +3770,9 @@
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="H105" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="45" t="s">
@@ -3570,7 +3786,9 @@
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
+      <c r="H106" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="45" t="s">
@@ -3584,7 +3802,9 @@
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="H107" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="45" t="s">
@@ -3598,7 +3818,9 @@
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="H108" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="45" t="s">
@@ -3612,7 +3834,9 @@
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="H109" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="45" t="s">
@@ -3626,7 +3850,9 @@
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="H110" s="11">
+        <v>52.11</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="45" t="s">
@@ -3640,7 +3866,9 @@
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="H111" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="45" t="s">
@@ -3654,7 +3882,9 @@
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
+      <c r="H112" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="45" t="s">
@@ -3668,7 +3898,9 @@
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="H113" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="45" t="s">
@@ -3682,7 +3914,9 @@
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
+      <c r="H114" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="45" t="s">
@@ -3696,7 +3930,9 @@
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="H115" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="45" t="s">
@@ -3710,7 +3946,9 @@
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="H116" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="45" t="s">
@@ -3724,7 +3962,9 @@
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="H117" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="45" t="s">
@@ -3738,7 +3978,9 @@
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
+      <c r="H118" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="45" t="s">
@@ -3752,7 +3994,9 @@
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
+      <c r="H119" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="45" t="s">
@@ -3766,7 +4010,9 @@
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="H120" s="11">
+        <v>52.12</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="45" t="s">
@@ -3780,7 +4026,9 @@
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="H121" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="45" t="s">
@@ -3794,7 +4042,9 @@
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="H122" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="45" t="s">
@@ -3808,7 +4058,9 @@
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+      <c r="H123" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="45" t="s">
@@ -3822,7 +4074,9 @@
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
+      <c r="H124" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="45" t="s">
@@ -3836,7 +4090,9 @@
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
+      <c r="H125" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="45" t="s">
@@ -3850,7 +4106,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
+      <c r="H126" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="45" t="s">
@@ -3864,7 +4122,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="H127" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="45" t="s">
@@ -3878,7 +4138,9 @@
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="H128" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="45" t="s">
@@ -3892,7 +4154,9 @@
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
+      <c r="H129" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="45" t="s">
@@ -3906,7 +4170,9 @@
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="H130" s="11">
+        <v>52.13</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="45" t="s">
@@ -3920,7 +4186,9 @@
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="H131" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="45" t="s">
@@ -3934,7 +4202,9 @@
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="H132" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="45" t="s">
@@ -3948,7 +4218,9 @@
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="H133" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="45" t="s">
@@ -3962,7 +4234,9 @@
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="H134" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="45" t="s">
@@ -3976,7 +4250,9 @@
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+      <c r="H135" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="45" t="s">
@@ -3990,7 +4266,9 @@
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="H136" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="45" t="s">
@@ -4004,7 +4282,9 @@
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="H137" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="45" t="s">
@@ -4018,7 +4298,9 @@
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="H138" s="11">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="45" t="s">
@@ -4032,7 +4314,9 @@
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="H139" s="15">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="45" t="s">
@@ -4046,7 +4330,9 @@
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
+      <c r="H140" s="16">
+        <v>52.14</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="45" t="s">
@@ -4060,7 +4346,9 @@
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="H141" s="10">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="45" t="s">
@@ -4074,7 +4362,9 @@
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
+      <c r="H142" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="45" t="s">
@@ -4088,7 +4378,9 @@
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+      <c r="H143" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="45" t="s">
@@ -4102,7 +4394,9 @@
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="H144" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="45" t="s">
@@ -4116,7 +4410,9 @@
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
+      <c r="H145" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="45" t="s">
@@ -4130,7 +4426,9 @@
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="H146" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="45" t="s">
@@ -4144,7 +4442,9 @@
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
+      <c r="H147" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="45" t="s">
@@ -4158,7 +4458,9 @@
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="H148" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="45" t="s">
@@ -4172,7 +4474,9 @@
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
+      <c r="H149" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="45" t="s">
@@ -4186,7 +4490,9 @@
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+      <c r="H150" s="11">
+        <v>52.15</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="45" t="s">
@@ -4200,7 +4506,9 @@
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
+      <c r="H151" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="45" t="s">
@@ -4214,7 +4522,9 @@
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
+      <c r="H152" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="45" t="s">
@@ -4228,7 +4538,9 @@
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
+      <c r="H153" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="45" t="s">
@@ -4242,7 +4554,9 @@
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
+      <c r="H154" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="45" t="s">
@@ -4256,7 +4570,9 @@
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
+      <c r="H155" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="45" t="s">
@@ -4270,7 +4586,9 @@
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="H156" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="45" t="s">
@@ -4284,7 +4602,9 @@
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="H157" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="45" t="s">
@@ -4298,7 +4618,9 @@
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
+      <c r="H158" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="45" t="s">
@@ -4312,7 +4634,9 @@
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="H159" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="45" t="s">
@@ -4326,7 +4650,9 @@
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
+      <c r="H160" s="11">
+        <v>52.16</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="45" t="s">
@@ -4340,7 +4666,9 @@
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
+      <c r="H161" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="45" t="s">
@@ -4354,7 +4682,9 @@
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
       <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
+      <c r="H162" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="45" t="s">
@@ -4368,7 +4698,9 @@
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
+      <c r="H163" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="45" t="s">
@@ -4382,7 +4714,9 @@
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
       <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
+      <c r="H164" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="45" t="s">
@@ -4396,7 +4730,9 @@
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
+      <c r="H165" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="46" t="s">
@@ -4410,7 +4746,9 @@
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
       <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
+      <c r="H166" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="46" t="s">
@@ -4424,7 +4762,9 @@
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
+      <c r="H167" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="46" t="s">
@@ -4438,7 +4778,9 @@
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
       <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
+      <c r="H168" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="46" t="s">
@@ -4452,7 +4794,9 @@
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
+      <c r="H169" s="11">
+        <v>52.17</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="46" t="s">
@@ -4466,7 +4810,9 @@
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
       <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
+      <c r="H170" s="11">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="46" t="s">
@@ -4480,7 +4826,9 @@
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
       <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
+      <c r="H171" s="15">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="46" t="s">
@@ -4494,7 +4842,9 @@
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
+      <c r="H172" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="46" t="s">
@@ -4508,7 +4858,9 @@
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
+      <c r="H173" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="46" t="s">
@@ -4522,7 +4874,9 @@
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
+      <c r="H174" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="46" t="s">
@@ -4536,7 +4890,9 @@
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
+      <c r="H175" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="46" t="s">
@@ -4550,7 +4906,9 @@
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
+      <c r="H176" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="46" t="s">
@@ -4564,7 +4922,9 @@
       <c r="E177" s="23"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
+      <c r="H177" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="46" t="s">
@@ -4578,7 +4938,9 @@
       <c r="E178" s="23"/>
       <c r="F178" s="3"/>
       <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
+      <c r="H178" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="46" t="s">
@@ -4592,7 +4954,9 @@
       <c r="E179" s="27"/>
       <c r="F179" s="28"/>
       <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
+      <c r="H179" s="50">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="46" t="s">
@@ -4606,7 +4970,9 @@
       <c r="E180" s="27"/>
       <c r="F180" s="28"/>
       <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
+      <c r="H180" s="50">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="46" t="s">
@@ -4620,7 +4986,9 @@
       <c r="E181" s="9"/>
       <c r="F181" s="31"/>
       <c r="G181" s="32"/>
-      <c r="H181" s="32"/>
+      <c r="H181" s="51">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="46" t="s">
@@ -4634,7 +5002,9 @@
       <c r="E182" s="34"/>
       <c r="F182" s="3"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
+      <c r="H182" s="51">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="46" t="s">
@@ -4648,7 +5018,9 @@
       <c r="E183" s="26"/>
       <c r="F183" s="3"/>
       <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
+      <c r="H183" s="51">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="46" t="s">
@@ -4662,7 +5034,9 @@
       <c r="E184" s="4"/>
       <c r="F184" s="3"/>
       <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
+      <c r="H184" s="51">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="46" t="s">
@@ -4676,7 +5050,9 @@
       <c r="E185" s="29"/>
       <c r="F185" s="3"/>
       <c r="G185" s="38"/>
-      <c r="H185" s="38"/>
+      <c r="H185" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="46" t="s">
@@ -4690,7 +5066,9 @@
       <c r="E186" s="29"/>
       <c r="F186" s="3"/>
       <c r="G186" s="38"/>
-      <c r="H186" s="38"/>
+      <c r="H186" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="46" t="s">
@@ -4704,7 +5082,9 @@
       <c r="E187" s="34"/>
       <c r="F187" s="5"/>
       <c r="G187" s="38"/>
-      <c r="H187" s="38"/>
+      <c r="H187" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="46" t="s">
@@ -4718,7 +5098,9 @@
       <c r="E188" s="34"/>
       <c r="F188" s="5"/>
       <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
+      <c r="H188" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="45" t="s">
@@ -4732,7 +5114,9 @@
       <c r="E189" s="29"/>
       <c r="F189" s="3"/>
       <c r="G189" s="25"/>
-      <c r="H189" s="25"/>
+      <c r="H189" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="45" t="s">
@@ -4746,7 +5130,9 @@
       <c r="E190" s="4"/>
       <c r="F190" s="3"/>
       <c r="G190" s="25"/>
-      <c r="H190" s="25"/>
+      <c r="H190" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="45" t="s">
@@ -4760,7 +5146,9 @@
       <c r="E191" s="29"/>
       <c r="F191" s="5"/>
       <c r="G191" s="25"/>
-      <c r="H191" s="25"/>
+      <c r="H191" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="45" t="s">
@@ -4774,7 +5162,9 @@
       <c r="E192" s="26"/>
       <c r="F192" s="5"/>
       <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
+      <c r="H192" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
       <c r="A193" s="45" t="s">
@@ -4788,7 +5178,9 @@
       <c r="E193" s="39"/>
       <c r="F193" s="3"/>
       <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
+      <c r="H193" s="6">
+        <v>52.18</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
       <c r="A194" s="45" t="s">
@@ -4802,7 +5194,9 @@
       <c r="E194" s="24"/>
       <c r="F194" s="41"/>
       <c r="G194" s="25"/>
-      <c r="H194" s="25"/>
+      <c r="H194" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
       <c r="A195" s="45" t="s">
@@ -4816,7 +5210,9 @@
       <c r="E195" s="29"/>
       <c r="F195" s="43"/>
       <c r="G195" s="25"/>
-      <c r="H195" s="25"/>
+      <c r="H195" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
       <c r="A196" s="45" t="s">
@@ -4830,7 +5226,9 @@
       <c r="E196" s="34"/>
       <c r="F196" s="5"/>
       <c r="G196" s="25"/>
-      <c r="H196" s="25"/>
+      <c r="H196" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
       <c r="A197" s="45" t="s">
@@ -4844,7 +5242,9 @@
       <c r="E197" s="34"/>
       <c r="F197" s="5"/>
       <c r="G197" s="25"/>
-      <c r="H197" s="25"/>
+      <c r="H197" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
       <c r="A198" s="45" t="s">
@@ -4858,7 +5258,9 @@
       <c r="E198" s="4"/>
       <c r="F198" s="3"/>
       <c r="G198" s="25"/>
-      <c r="H198" s="25"/>
+      <c r="H198" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
       <c r="A199" s="45" t="s">
@@ -4872,7 +5274,9 @@
       <c r="E199" s="29"/>
       <c r="F199" s="3"/>
       <c r="G199" s="25"/>
-      <c r="H199" s="25"/>
+      <c r="H199" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
       <c r="A200" s="45" t="s">
@@ -4886,7 +5290,9 @@
       <c r="E200" s="39"/>
       <c r="F200" s="3"/>
       <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
+      <c r="H200" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
       <c r="A201" s="45" t="s">
@@ -4900,7 +5306,9 @@
       <c r="E201" s="24"/>
       <c r="F201" s="41"/>
       <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
+      <c r="H201" s="6">
+        <v>52.19</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
       <c r="A202" s="49" t="s">
@@ -4908,6 +5316,9 @@
       </c>
       <c r="B202" s="49" t="s">
         <v>409</v>
+      </c>
+      <c r="H202" s="52">
+        <v>52.08</v>
       </c>
     </row>
   </sheetData>
@@ -4926,6 +5337,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5069,12 +5486,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
@@ -5082,13 +5493,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1255,7 +1255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,8 +1335,18 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Book Antiqua"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,8 +1407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1604,12 +1620,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1626,7 +1653,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,9 +1784,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1768,16 +1792,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2068,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2081,36 +2122,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="2"/>
@@ -2118,16 +2159,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>52</v>
+      <c r="H2" s="48">
+        <v>0.5</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>208</v>
       </c>
       <c r="C3" s="7"/>
@@ -2135,16 +2176,16 @@
       <c r="E3" s="9"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10">
-        <v>52</v>
+      <c r="H3" s="48">
+        <v>0.5</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="2"/>
@@ -2152,16 +2193,16 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>52</v>
+      <c r="H4" s="48">
+        <v>0.5</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>210</v>
       </c>
       <c r="C5" s="2"/>
@@ -2169,16 +2210,16 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11">
-        <v>52</v>
+      <c r="H5" s="49">
+        <v>1</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="2"/>
@@ -2186,15 +2227,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="45" t="s">
+      <c r="H6" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="2"/>
@@ -2202,15 +2243,15 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="45" t="s">
+      <c r="H7" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>213</v>
       </c>
       <c r="C8" s="2"/>
@@ -2218,15 +2259,15 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="45" t="s">
+      <c r="H8" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="2"/>
@@ -2234,15 +2275,15 @@
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="45" t="s">
+      <c r="H9" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="2"/>
@@ -2250,15 +2291,15 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="45" t="s">
+      <c r="H10" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="2"/>
@@ -2266,15 +2307,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="45" t="s">
+      <c r="H11" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>217</v>
       </c>
       <c r="C12" s="2"/>
@@ -2282,15 +2323,15 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="45" t="s">
+      <c r="H12" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>218</v>
       </c>
       <c r="C13" s="2"/>
@@ -2298,15 +2339,15 @@
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="45" t="s">
+      <c r="H13" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>219</v>
       </c>
       <c r="C14" s="2"/>
@@ -2314,15 +2355,15 @@
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="45" t="s">
+      <c r="H14" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="2"/>
@@ -2330,15 +2371,15 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="45" t="s">
+      <c r="H15" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="2"/>
@@ -2346,15 +2387,15 @@
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="45" t="s">
+      <c r="H16" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5">
+      <c r="A17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>222</v>
       </c>
       <c r="C17" s="2"/>
@@ -2362,15 +2403,15 @@
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="45" t="s">
+      <c r="H17" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5">
+      <c r="A18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>223</v>
       </c>
       <c r="C18" s="2"/>
@@ -2378,15 +2419,15 @@
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11">
-        <v>52.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="45" t="s">
+      <c r="H18" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5">
+      <c r="A19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>224</v>
       </c>
       <c r="C19" s="2"/>
@@ -2394,15 +2435,15 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="45" t="s">
+      <c r="H19" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5">
+      <c r="A20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>225</v>
       </c>
       <c r="C20" s="2"/>
@@ -2410,15 +2451,15 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="45" t="s">
+      <c r="H20" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5">
+      <c r="A21" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>226</v>
       </c>
       <c r="C21" s="2"/>
@@ -2426,15 +2467,15 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="45" t="s">
+      <c r="H21" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5">
+      <c r="A22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="2"/>
@@ -2442,15 +2483,15 @@
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="45" t="s">
+      <c r="H22" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5">
+      <c r="A23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>228</v>
       </c>
       <c r="C23" s="2"/>
@@ -2458,15 +2499,15 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="45" t="s">
+      <c r="H23" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5">
+      <c r="A24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>229</v>
       </c>
       <c r="C24" s="2"/>
@@ -2474,15 +2515,15 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="45" t="s">
+      <c r="H24" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5">
+      <c r="A25" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="2"/>
@@ -2490,15 +2531,15 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="45" t="s">
+      <c r="H25" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5">
+      <c r="A26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="2"/>
@@ -2506,15 +2547,15 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="45" t="s">
+      <c r="H26" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5">
+      <c r="A27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="2"/>
@@ -2522,15 +2563,15 @@
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="45" t="s">
+      <c r="H27" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5">
+      <c r="A28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="2"/>
@@ -2538,15 +2579,15 @@
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="45" t="s">
+      <c r="H28" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5">
+      <c r="A29" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="2"/>
@@ -2554,15 +2595,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="45" t="s">
+      <c r="H29" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5">
+      <c r="A30" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="2"/>
@@ -2570,15 +2611,15 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="45" t="s">
+      <c r="H30" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5">
+      <c r="A31" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="2"/>
@@ -2586,15 +2627,15 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="45" t="s">
+      <c r="H31" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5">
+      <c r="A32" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="2"/>
@@ -2602,15 +2643,15 @@
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="45" t="s">
+      <c r="H32" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5">
+      <c r="A33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>238</v>
       </c>
       <c r="C33" s="2"/>
@@ -2618,15 +2659,15 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="45" t="s">
+      <c r="H33" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5">
+      <c r="A34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="2"/>
@@ -2634,15 +2675,15 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="45" t="s">
+      <c r="H34" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5">
+      <c r="A35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="2"/>
@@ -2650,15 +2691,15 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="45" t="s">
+      <c r="H35" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5">
+      <c r="A36" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>241</v>
       </c>
       <c r="C36" s="2"/>
@@ -2666,15 +2707,15 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="45" t="s">
+      <c r="H36" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5">
+      <c r="A37" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="2"/>
@@ -2682,15 +2723,15 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="11">
-        <v>52.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="45" t="s">
+      <c r="H37" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5">
+      <c r="A38" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="2"/>
@@ -2698,15 +2739,15 @@
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="45" t="s">
+      <c r="H38" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5">
+      <c r="A39" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>244</v>
       </c>
       <c r="C39" s="2"/>
@@ -2714,15 +2755,15 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="45" t="s">
+      <c r="H39" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5">
+      <c r="A40" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="2"/>
@@ -2730,15 +2771,15 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="45" t="s">
+      <c r="H40" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5">
+      <c r="A41" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>246</v>
       </c>
       <c r="C41" s="2"/>
@@ -2746,15 +2787,15 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="H41" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5">
+      <c r="A42" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>247</v>
       </c>
       <c r="C42" s="2"/>
@@ -2762,15 +2803,15 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="45" t="s">
+      <c r="H42" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>248</v>
       </c>
       <c r="C43" s="2"/>
@@ -2778,15 +2819,15 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="45" t="s">
+      <c r="H43" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>249</v>
       </c>
       <c r="C44" s="2"/>
@@ -2794,15 +2835,15 @@
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="45" t="s">
+      <c r="H44" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5">
+      <c r="A45" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="2"/>
@@ -2810,15 +2851,15 @@
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="45" t="s">
+      <c r="H45" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5">
+      <c r="A46" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>251</v>
       </c>
       <c r="C46" s="2"/>
@@ -2826,15 +2867,15 @@
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>52.04</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="45" t="s">
+      <c r="H46" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5">
+      <c r="A47" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>252</v>
       </c>
       <c r="C47" s="2"/>
@@ -2842,15 +2883,15 @@
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="45" t="s">
+      <c r="H47" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5">
+      <c r="A48" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="44" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="2"/>
@@ -2858,15 +2899,15 @@
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="45" t="s">
+      <c r="H48" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5">
+      <c r="A49" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="44" t="s">
         <v>254</v>
       </c>
       <c r="C49" s="2"/>
@@ -2874,15 +2915,15 @@
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="45" t="s">
+      <c r="H49" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5">
+      <c r="A50" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>255</v>
       </c>
       <c r="C50" s="2"/>
@@ -2890,15 +2931,15 @@
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="45" t="s">
+      <c r="H50" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5">
+      <c r="A51" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>256</v>
       </c>
       <c r="C51" s="2"/>
@@ -2906,15 +2947,15 @@
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="45" t="s">
+      <c r="H51" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5">
+      <c r="A52" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="44" t="s">
         <v>257</v>
       </c>
       <c r="C52" s="2"/>
@@ -2922,15 +2963,15 @@
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="45" t="s">
+      <c r="H52" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5">
+      <c r="A53" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="44" t="s">
         <v>258</v>
       </c>
       <c r="C53" s="2"/>
@@ -2938,15 +2979,15 @@
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="45" t="s">
+      <c r="H53" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5">
+      <c r="A54" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="44" t="s">
         <v>259</v>
       </c>
       <c r="C54" s="2"/>
@@ -2954,15 +2995,15 @@
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="45" t="s">
+      <c r="H54" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5">
+      <c r="A55" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="44" t="s">
         <v>260</v>
       </c>
       <c r="C55" s="2"/>
@@ -2970,15 +3011,15 @@
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="45" t="s">
+      <c r="H55" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5">
+      <c r="A56" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="44" t="s">
         <v>261</v>
       </c>
       <c r="C56" s="2"/>
@@ -2986,15 +3027,15 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="45" t="s">
+      <c r="H56" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5">
+      <c r="A57" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="44" t="s">
         <v>262</v>
       </c>
       <c r="C57" s="2"/>
@@ -3002,15 +3043,15 @@
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="45" t="s">
+      <c r="H57" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5">
+      <c r="A58" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>263</v>
       </c>
       <c r="C58" s="2"/>
@@ -3018,15 +3059,15 @@
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="45" t="s">
+      <c r="H58" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5">
+      <c r="A59" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>264</v>
       </c>
       <c r="C59" s="2"/>
@@ -3034,15 +3075,15 @@
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="45" t="s">
+      <c r="H59" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5">
+      <c r="A60" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="44" t="s">
         <v>265</v>
       </c>
       <c r="C60" s="2"/>
@@ -3050,15 +3091,15 @@
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="45" t="s">
+      <c r="H60" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5">
+      <c r="A61" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="44" t="s">
         <v>266</v>
       </c>
       <c r="C61" s="2"/>
@@ -3066,15 +3107,15 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="45" t="s">
+      <c r="H61" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5">
+      <c r="A62" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="44" t="s">
         <v>267</v>
       </c>
       <c r="C62" s="2"/>
@@ -3082,15 +3123,15 @@
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="45" t="s">
+      <c r="H62" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5">
+      <c r="A63" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>268</v>
       </c>
       <c r="C63" s="2"/>
@@ -3098,15 +3139,15 @@
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="45" t="s">
+      <c r="H63" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5">
+      <c r="A64" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>269</v>
       </c>
       <c r="C64" s="2"/>
@@ -3114,15 +3155,15 @@
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11">
-        <v>52.06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="45" t="s">
+      <c r="H64" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5">
+      <c r="A65" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="44" t="s">
         <v>270</v>
       </c>
       <c r="C65" s="2"/>
@@ -3130,15 +3171,15 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="45" t="s">
+      <c r="H65" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5">
+      <c r="A66" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>271</v>
       </c>
       <c r="C66" s="2"/>
@@ -3146,15 +3187,15 @@
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="45" t="s">
+      <c r="H66" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5">
+      <c r="A67" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="44" t="s">
         <v>272</v>
       </c>
       <c r="C67" s="2"/>
@@ -3162,15 +3203,15 @@
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="45" t="s">
+      <c r="H67" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5">
+      <c r="A68" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="44" t="s">
         <v>273</v>
       </c>
       <c r="C68" s="2"/>
@@ -3178,15 +3219,15 @@
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="45" t="s">
+      <c r="H68" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5">
+      <c r="A69" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="44" t="s">
         <v>274</v>
       </c>
       <c r="C69" s="2"/>
@@ -3194,15 +3235,15 @@
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="45" t="s">
+      <c r="H69" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5">
+      <c r="A70" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="44" t="s">
         <v>275</v>
       </c>
       <c r="C70" s="2"/>
@@ -3210,15 +3251,15 @@
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="45" t="s">
+      <c r="H70" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5">
+      <c r="A71" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="44" t="s">
         <v>276</v>
       </c>
       <c r="C71" s="2"/>
@@ -3226,15 +3267,15 @@
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="45" t="s">
+      <c r="H71" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5">
+      <c r="A72" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="44" t="s">
         <v>277</v>
       </c>
       <c r="C72" s="2"/>
@@ -3242,15 +3283,15 @@
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="45" t="s">
+      <c r="H72" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5">
+      <c r="A73" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="44" t="s">
         <v>278</v>
       </c>
       <c r="C73" s="2"/>
@@ -3258,15 +3299,15 @@
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="11">
-        <v>52.07</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="45" t="s">
+      <c r="H73" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5">
+      <c r="A74" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="44" t="s">
         <v>279</v>
       </c>
       <c r="C74" s="2"/>
@@ -3274,15 +3315,15 @@
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="45" t="s">
+      <c r="H74" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5">
+      <c r="A75" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="44" t="s">
         <v>280</v>
       </c>
       <c r="C75" s="2"/>
@@ -3290,15 +3331,15 @@
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="45" t="s">
+      <c r="H75" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5">
+      <c r="A76" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>281</v>
       </c>
       <c r="C76" s="2"/>
@@ -3306,15 +3347,15 @@
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="45" t="s">
+      <c r="H76" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.5">
+      <c r="A77" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="44" t="s">
         <v>282</v>
       </c>
       <c r="C77" s="2"/>
@@ -3322,15 +3363,15 @@
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="45" t="s">
+      <c r="H77" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5">
+      <c r="A78" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="44" t="s">
         <v>283</v>
       </c>
       <c r="C78" s="2"/>
@@ -3338,15 +3379,15 @@
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="45" t="s">
+      <c r="H78" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5">
+      <c r="A79" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="44" t="s">
         <v>284</v>
       </c>
       <c r="C79" s="2"/>
@@ -3354,15 +3395,15 @@
       <c r="E79" s="4"/>
       <c r="F79" s="5"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="45" t="s">
+      <c r="H79" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5">
+      <c r="A80" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="44" t="s">
         <v>285</v>
       </c>
       <c r="C80" s="2"/>
@@ -3370,15 +3411,15 @@
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="45" t="s">
+      <c r="H80" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5">
+      <c r="A81" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="44" t="s">
         <v>286</v>
       </c>
       <c r="C81" s="2"/>
@@ -3386,15 +3427,15 @@
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="45" t="s">
+      <c r="H81" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5">
+      <c r="A82" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="44" t="s">
         <v>287</v>
       </c>
       <c r="C82" s="2"/>
@@ -3402,15 +3443,15 @@
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="45" t="s">
+      <c r="H82" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5">
+      <c r="A83" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="44" t="s">
         <v>288</v>
       </c>
       <c r="C83" s="2"/>
@@ -3418,15 +3459,15 @@
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="11">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="45" t="s">
+      <c r="H83" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5">
+      <c r="A84" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="44" t="s">
         <v>289</v>
       </c>
       <c r="C84" s="2"/>
@@ -3434,15 +3475,15 @@
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="45" t="s">
+      <c r="H84" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5">
+      <c r="A85" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="44" t="s">
         <v>290</v>
       </c>
       <c r="C85" s="2"/>
@@ -3450,15 +3491,15 @@
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="45" t="s">
+      <c r="H85" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5">
+      <c r="A86" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="44" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="2"/>
@@ -3466,15 +3507,15 @@
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="45" t="s">
+      <c r="H86" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.5">
+      <c r="A87" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="44" t="s">
         <v>292</v>
       </c>
       <c r="C87" s="2"/>
@@ -3482,15 +3523,15 @@
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="45" t="s">
+      <c r="H87" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.5">
+      <c r="A88" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>293</v>
       </c>
       <c r="C88" s="2"/>
@@ -3498,15 +3539,15 @@
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="45" t="s">
+      <c r="H88" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5">
+      <c r="A89" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="44" t="s">
         <v>294</v>
       </c>
       <c r="C89" s="2"/>
@@ -3514,15 +3555,15 @@
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="45" t="s">
+      <c r="H89" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5">
+      <c r="A90" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="44" t="s">
         <v>295</v>
       </c>
       <c r="C90" s="2"/>
@@ -3530,15 +3571,15 @@
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="45" t="s">
+      <c r="H90" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.5">
+      <c r="A91" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="44" t="s">
         <v>296</v>
       </c>
       <c r="C91" s="2"/>
@@ -3546,15 +3587,15 @@
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="45" t="s">
+      <c r="H91" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.5">
+      <c r="A92" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="44" t="s">
         <v>297</v>
       </c>
       <c r="C92" s="2"/>
@@ -3562,15 +3603,15 @@
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="11">
-        <v>52.09</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="45" t="s">
+      <c r="H92" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.5">
+      <c r="A93" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="44" t="s">
         <v>298</v>
       </c>
       <c r="C93" s="2"/>
@@ -3578,15 +3619,15 @@
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="45" t="s">
+      <c r="H93" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.5">
+      <c r="A94" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="44" t="s">
         <v>299</v>
       </c>
       <c r="C94" s="2"/>
@@ -3594,15 +3635,15 @@
       <c r="E94" s="4"/>
       <c r="F94" s="5"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="45" t="s">
+      <c r="H94" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.5">
+      <c r="A95" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="44" t="s">
         <v>300</v>
       </c>
       <c r="C95" s="2"/>
@@ -3610,15 +3651,15 @@
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="45" t="s">
+      <c r="H95" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5">
+      <c r="A96" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="44" t="s">
         <v>301</v>
       </c>
       <c r="C96" s="2"/>
@@ -3626,15 +3667,15 @@
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="45" t="s">
+      <c r="H96" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5">
+      <c r="A97" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="44" t="s">
         <v>302</v>
       </c>
       <c r="C97" s="2"/>
@@ -3642,15 +3683,15 @@
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="45" t="s">
+      <c r="H97" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.5">
+      <c r="A98" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="44" t="s">
         <v>303</v>
       </c>
       <c r="C98" s="2"/>
@@ -3658,15 +3699,15 @@
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="45" t="s">
+      <c r="H98" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.5">
+      <c r="A99" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="44" t="s">
         <v>304</v>
       </c>
       <c r="C99" s="2"/>
@@ -3674,15 +3715,15 @@
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="45" t="s">
+      <c r="H99" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.5">
+      <c r="A100" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="44" t="s">
         <v>305</v>
       </c>
       <c r="C100" s="2"/>
@@ -3690,15 +3731,15 @@
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="45" t="s">
+      <c r="H100" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.5">
+      <c r="A101" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="44" t="s">
         <v>306</v>
       </c>
       <c r="C101" s="2"/>
@@ -3706,15 +3747,15 @@
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="45" t="s">
+      <c r="H101" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.5">
+      <c r="A102" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="44" t="s">
         <v>307</v>
       </c>
       <c r="C102" s="2"/>
@@ -3722,15 +3763,15 @@
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="45" t="s">
+      <c r="H102" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.5">
+      <c r="A103" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="44" t="s">
         <v>308</v>
       </c>
       <c r="C103" s="2"/>
@@ -3738,15 +3779,15 @@
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
       <c r="G103" s="12"/>
-      <c r="H103" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="45" t="s">
+      <c r="H103" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.5">
+      <c r="A104" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="44" t="s">
         <v>309</v>
       </c>
       <c r="C104" s="2"/>
@@ -3754,15 +3795,15 @@
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="45" t="s">
+      <c r="H104" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.5">
+      <c r="A105" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="44" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="2"/>
@@ -3770,15 +3811,15 @@
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="45" t="s">
+      <c r="H105" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.5">
+      <c r="A106" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="44" t="s">
         <v>311</v>
       </c>
       <c r="C106" s="2"/>
@@ -3786,15 +3827,15 @@
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="45" t="s">
+      <c r="H106" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.5">
+      <c r="A107" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="44" t="s">
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
@@ -3802,15 +3843,15 @@
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="45" t="s">
+      <c r="H107" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.5">
+      <c r="A108" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="44" t="s">
         <v>313</v>
       </c>
       <c r="C108" s="2"/>
@@ -3818,15 +3859,15 @@
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="45" t="s">
+      <c r="H108" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.5">
+      <c r="A109" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="44" t="s">
         <v>314</v>
       </c>
       <c r="C109" s="2"/>
@@ -3834,15 +3875,15 @@
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="45" t="s">
+      <c r="H109" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.5">
+      <c r="A110" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="44" t="s">
         <v>315</v>
       </c>
       <c r="C110" s="2"/>
@@ -3850,15 +3891,15 @@
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="11">
-        <v>52.11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="45" t="s">
+      <c r="H110" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.5">
+      <c r="A111" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="44" t="s">
         <v>316</v>
       </c>
       <c r="C111" s="2"/>
@@ -3866,15 +3907,15 @@
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="45" t="s">
+      <c r="H111" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.5">
+      <c r="A112" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="44" t="s">
         <v>317</v>
       </c>
       <c r="C112" s="2"/>
@@ -3882,15 +3923,15 @@
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="45" t="s">
+      <c r="H112" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.5">
+      <c r="A113" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="44" t="s">
         <v>318</v>
       </c>
       <c r="C113" s="2"/>
@@ -3898,15 +3939,15 @@
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="45" t="s">
+      <c r="H113" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.5">
+      <c r="A114" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="44" t="s">
         <v>319</v>
       </c>
       <c r="C114" s="2"/>
@@ -3914,15 +3955,15 @@
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="45" t="s">
+      <c r="H114" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.5">
+      <c r="A115" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="44" t="s">
         <v>320</v>
       </c>
       <c r="C115" s="2"/>
@@ -3930,15 +3971,15 @@
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="45" t="s">
+      <c r="H115" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.5">
+      <c r="A116" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="44" t="s">
         <v>321</v>
       </c>
       <c r="C116" s="2"/>
@@ -3946,15 +3987,15 @@
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="45" t="s">
+      <c r="H116" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16.5">
+      <c r="A117" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="44" t="s">
         <v>322</v>
       </c>
       <c r="C117" s="2"/>
@@ -3962,15 +4003,15 @@
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75">
-      <c r="A118" s="45" t="s">
+      <c r="H117" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.5">
+      <c r="A118" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="44" t="s">
         <v>323</v>
       </c>
       <c r="C118" s="2"/>
@@ -3978,15 +4019,15 @@
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="45" t="s">
+      <c r="H118" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.5">
+      <c r="A119" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="44" t="s">
         <v>324</v>
       </c>
       <c r="C119" s="2"/>
@@ -3994,15 +4035,15 @@
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="45" t="s">
+      <c r="H119" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.5">
+      <c r="A120" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="44" t="s">
         <v>325</v>
       </c>
       <c r="C120" s="2"/>
@@ -4010,15 +4051,15 @@
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="11">
-        <v>52.12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75">
-      <c r="A121" s="45" t="s">
+      <c r="H120" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.5">
+      <c r="A121" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="44" t="s">
         <v>326</v>
       </c>
       <c r="C121" s="2"/>
@@ -4026,15 +4067,15 @@
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="45" t="s">
+      <c r="H121" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.5">
+      <c r="A122" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="44" t="s">
         <v>327</v>
       </c>
       <c r="C122" s="2"/>
@@ -4042,15 +4083,15 @@
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="45" t="s">
+      <c r="H122" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.5">
+      <c r="A123" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="45" t="s">
+      <c r="B123" s="44" t="s">
         <v>328</v>
       </c>
       <c r="C123" s="2"/>
@@ -4058,15 +4099,15 @@
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="45" t="s">
+      <c r="H123" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16.5">
+      <c r="A124" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="44" t="s">
         <v>329</v>
       </c>
       <c r="C124" s="2"/>
@@ -4074,15 +4115,15 @@
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="45" t="s">
+      <c r="H124" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16.5">
+      <c r="A125" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="45" t="s">
+      <c r="B125" s="44" t="s">
         <v>330</v>
       </c>
       <c r="C125" s="2"/>
@@ -4090,15 +4131,15 @@
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="45" t="s">
+      <c r="H125" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16.5">
+      <c r="A126" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="45" t="s">
+      <c r="B126" s="44" t="s">
         <v>331</v>
       </c>
       <c r="C126" s="2"/>
@@ -4106,15 +4147,15 @@
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75">
-      <c r="A127" s="45" t="s">
+      <c r="H126" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16.5">
+      <c r="A127" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="44" t="s">
         <v>332</v>
       </c>
       <c r="C127" s="2"/>
@@ -4122,15 +4163,15 @@
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75">
-      <c r="A128" s="45" t="s">
+      <c r="H127" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16.5">
+      <c r="A128" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C128" s="2"/>
@@ -4138,15 +4179,15 @@
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75">
-      <c r="A129" s="45" t="s">
+      <c r="H128" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16.5">
+      <c r="A129" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="44" t="s">
         <v>334</v>
       </c>
       <c r="C129" s="2"/>
@@ -4154,15 +4195,15 @@
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75">
-      <c r="A130" s="45" t="s">
+      <c r="H129" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16.5">
+      <c r="A130" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="44" t="s">
         <v>335</v>
       </c>
       <c r="C130" s="2"/>
@@ -4170,15 +4211,15 @@
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="11">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75">
-      <c r="A131" s="45" t="s">
+      <c r="H130" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16.5">
+      <c r="A131" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="44" t="s">
         <v>336</v>
       </c>
       <c r="C131" s="2"/>
@@ -4186,15 +4227,15 @@
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="45" t="s">
+      <c r="H131" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16.5">
+      <c r="A132" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="44" t="s">
         <v>337</v>
       </c>
       <c r="C132" s="2"/>
@@ -4202,15 +4243,15 @@
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="45" t="s">
+      <c r="H132" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16.5">
+      <c r="A133" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="44" t="s">
         <v>338</v>
       </c>
       <c r="C133" s="2"/>
@@ -4218,15 +4259,15 @@
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="45" t="s">
+      <c r="H133" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16.5">
+      <c r="A134" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="44" t="s">
         <v>339</v>
       </c>
       <c r="C134" s="2"/>
@@ -4234,15 +4275,15 @@
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="45" t="s">
+      <c r="H134" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16.5">
+      <c r="A135" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="44" t="s">
         <v>340</v>
       </c>
       <c r="C135" s="2"/>
@@ -4250,15 +4291,15 @@
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75">
-      <c r="A136" s="45" t="s">
+      <c r="H135" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16.5">
+      <c r="A136" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="44" t="s">
         <v>341</v>
       </c>
       <c r="C136" s="2"/>
@@ -4266,15 +4307,15 @@
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="45" t="s">
+      <c r="H136" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.5">
+      <c r="A137" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="45" t="s">
+      <c r="B137" s="44" t="s">
         <v>342</v>
       </c>
       <c r="C137" s="2"/>
@@ -4282,15 +4323,15 @@
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75">
-      <c r="A138" s="45" t="s">
+      <c r="H137" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.5">
+      <c r="A138" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="44" t="s">
         <v>343</v>
       </c>
       <c r="C138" s="2"/>
@@ -4298,15 +4339,15 @@
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="11">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="45" t="s">
+      <c r="H138" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16.5">
+      <c r="A139" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="44" t="s">
         <v>344</v>
       </c>
       <c r="C139" s="2"/>
@@ -4314,15 +4355,15 @@
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="15">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75">
-      <c r="A140" s="45" t="s">
+      <c r="H139" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16.5">
+      <c r="A140" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="44" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="2"/>
@@ -4330,15 +4371,15 @@
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="16">
-        <v>52.14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75">
-      <c r="A141" s="45" t="s">
+      <c r="H140" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16.5">
+      <c r="A141" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="45" t="s">
+      <c r="B141" s="44" t="s">
         <v>346</v>
       </c>
       <c r="C141" s="2"/>
@@ -4346,15 +4387,15 @@
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="10">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75">
-      <c r="A142" s="45" t="s">
+      <c r="H141" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16.5">
+      <c r="A142" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="44" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="2"/>
@@ -4362,15 +4403,15 @@
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="45" t="s">
+      <c r="H142" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16.5">
+      <c r="A143" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="44" t="s">
         <v>348</v>
       </c>
       <c r="C143" s="2"/>
@@ -4378,15 +4419,15 @@
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="45" t="s">
+      <c r="H143" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16.5">
+      <c r="A144" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B144" s="44" t="s">
         <v>349</v>
       </c>
       <c r="C144" s="2"/>
@@ -4394,15 +4435,15 @@
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75">
-      <c r="A145" s="45" t="s">
+      <c r="H144" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16.5">
+      <c r="A145" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="45" t="s">
+      <c r="B145" s="44" t="s">
         <v>350</v>
       </c>
       <c r="C145" s="2"/>
@@ -4410,15 +4451,15 @@
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75">
-      <c r="A146" s="45" t="s">
+      <c r="H145" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16.5">
+      <c r="A146" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="44" t="s">
         <v>351</v>
       </c>
       <c r="C146" s="2"/>
@@ -4426,15 +4467,15 @@
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75">
-      <c r="A147" s="45" t="s">
+      <c r="H146" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16.5">
+      <c r="A147" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="45" t="s">
+      <c r="B147" s="44" t="s">
         <v>352</v>
       </c>
       <c r="C147" s="2"/>
@@ -4442,15 +4483,15 @@
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="45" t="s">
+      <c r="H147" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.5">
+      <c r="A148" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="44" t="s">
         <v>353</v>
       </c>
       <c r="C148" s="2"/>
@@ -4458,15 +4499,15 @@
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="45" t="s">
+      <c r="H148" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16.5">
+      <c r="A149" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="45" t="s">
+      <c r="B149" s="44" t="s">
         <v>354</v>
       </c>
       <c r="C149" s="2"/>
@@ -4474,15 +4515,15 @@
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="45" t="s">
+      <c r="H149" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16.5">
+      <c r="A150" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B150" s="44" t="s">
         <v>355</v>
       </c>
       <c r="C150" s="2"/>
@@ -4490,15 +4531,15 @@
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="11">
-        <v>52.15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.75">
-      <c r="A151" s="45" t="s">
+      <c r="H150" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16.5">
+      <c r="A151" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="45" t="s">
+      <c r="B151" s="44" t="s">
         <v>356</v>
       </c>
       <c r="C151" s="2"/>
@@ -4506,15 +4547,15 @@
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75">
-      <c r="A152" s="45" t="s">
+      <c r="H151" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.5">
+      <c r="A152" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="45" t="s">
+      <c r="B152" s="44" t="s">
         <v>357</v>
       </c>
       <c r="C152" s="2"/>
@@ -4522,15 +4563,15 @@
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="15.75">
-      <c r="A153" s="45" t="s">
+      <c r="H152" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.5">
+      <c r="A153" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="44" t="s">
         <v>358</v>
       </c>
       <c r="C153" s="2"/>
@@ -4538,15 +4579,15 @@
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="15.75">
-      <c r="A154" s="45" t="s">
+      <c r="H153" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.5">
+      <c r="A154" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="44" t="s">
         <v>359</v>
       </c>
       <c r="C154" s="2"/>
@@ -4554,15 +4595,15 @@
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.75">
-      <c r="A155" s="45" t="s">
+      <c r="H154" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16.5">
+      <c r="A155" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B155" s="44" t="s">
         <v>360</v>
       </c>
       <c r="C155" s="2"/>
@@ -4570,15 +4611,15 @@
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.75">
-      <c r="A156" s="45" t="s">
+      <c r="H155" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16.5">
+      <c r="A156" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="44" t="s">
         <v>361</v>
       </c>
       <c r="C156" s="2"/>
@@ -4586,15 +4627,15 @@
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75">
-      <c r="A157" s="45" t="s">
+      <c r="H156" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16.5">
+      <c r="A157" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="44" t="s">
         <v>362</v>
       </c>
       <c r="C157" s="2"/>
@@ -4602,15 +4643,15 @@
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="45" t="s">
+      <c r="H157" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16.5">
+      <c r="A158" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="45" t="s">
+      <c r="B158" s="44" t="s">
         <v>363</v>
       </c>
       <c r="C158" s="2"/>
@@ -4618,15 +4659,15 @@
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.75">
-      <c r="A159" s="45" t="s">
+      <c r="H158" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16.5">
+      <c r="A159" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="45" t="s">
+      <c r="B159" s="44" t="s">
         <v>364</v>
       </c>
       <c r="C159" s="2"/>
@@ -4634,15 +4675,15 @@
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.75">
-      <c r="A160" s="45" t="s">
+      <c r="H159" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16.5">
+      <c r="A160" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="44" t="s">
         <v>365</v>
       </c>
       <c r="C160" s="2"/>
@@ -4650,15 +4691,15 @@
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="11">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="45" t="s">
+      <c r="H160" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="16.5">
+      <c r="A161" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B161" s="44" t="s">
         <v>366</v>
       </c>
       <c r="C161" s="2"/>
@@ -4666,15 +4707,15 @@
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="45" t="s">
+      <c r="H161" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16.5">
+      <c r="A162" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="45" t="s">
+      <c r="B162" s="44" t="s">
         <v>367</v>
       </c>
       <c r="C162" s="2"/>
@@ -4682,15 +4723,15 @@
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
       <c r="G162" s="11"/>
-      <c r="H162" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="45" t="s">
+      <c r="H162" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16.5">
+      <c r="A163" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B163" s="44" t="s">
         <v>368</v>
       </c>
       <c r="C163" s="2"/>
@@ -4698,15 +4739,15 @@
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
       <c r="G163" s="11"/>
-      <c r="H163" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="45" t="s">
+      <c r="H163" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16.5">
+      <c r="A164" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="44" t="s">
         <v>369</v>
       </c>
       <c r="C164" s="2"/>
@@ -4714,15 +4755,15 @@
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
       <c r="G164" s="11"/>
-      <c r="H164" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="45" t="s">
+      <c r="H164" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16.5">
+      <c r="A165" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="45" t="s">
+      <c r="B165" s="44" t="s">
         <v>370</v>
       </c>
       <c r="C165" s="2"/>
@@ -4730,15 +4771,15 @@
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="46" t="s">
+      <c r="H165" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16.5">
+      <c r="A166" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="45" t="s">
         <v>371</v>
       </c>
       <c r="C166" s="2"/>
@@ -4746,15 +4787,15 @@
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
       <c r="G166" s="11"/>
-      <c r="H166" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="46" t="s">
+      <c r="H166" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16.5">
+      <c r="A167" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="45" t="s">
         <v>372</v>
       </c>
       <c r="C167" s="2"/>
@@ -4762,15 +4803,15 @@
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="46" t="s">
+      <c r="H167" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16.5">
+      <c r="A168" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="45" t="s">
         <v>373</v>
       </c>
       <c r="C168" s="2"/>
@@ -4778,15 +4819,15 @@
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
       <c r="G168" s="11"/>
-      <c r="H168" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="46" t="s">
+      <c r="H168" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16.5">
+      <c r="A169" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="46" t="s">
+      <c r="B169" s="45" t="s">
         <v>374</v>
       </c>
       <c r="C169" s="2"/>
@@ -4794,15 +4835,15 @@
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="11">
-        <v>52.17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="46" t="s">
+      <c r="H169" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16.5">
+      <c r="A170" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="45" t="s">
         <v>375</v>
       </c>
       <c r="C170" s="2"/>
@@ -4810,15 +4851,15 @@
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
       <c r="G170" s="11"/>
-      <c r="H170" s="11">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="46" t="s">
+      <c r="H170" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16.5">
+      <c r="A171" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="45" t="s">
         <v>376</v>
       </c>
       <c r="C171" s="2"/>
@@ -4826,15 +4867,15 @@
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
       <c r="G171" s="15"/>
-      <c r="H171" s="15">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="46" t="s">
+      <c r="H171" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16.5">
+      <c r="A172" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="45" t="s">
         <v>377</v>
       </c>
       <c r="C172" s="2"/>
@@ -4842,15 +4883,15 @@
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="46" t="s">
+      <c r="H172" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16.5">
+      <c r="A173" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="45" t="s">
         <v>378</v>
       </c>
       <c r="C173" s="2"/>
@@ -4858,15 +4899,15 @@
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="46" t="s">
+      <c r="H173" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="16.5">
+      <c r="A174" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="45" t="s">
         <v>379</v>
       </c>
       <c r="C174" s="2"/>
@@ -4874,15 +4915,15 @@
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="46" t="s">
+      <c r="H174" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="16.5">
+      <c r="A175" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="45" t="s">
         <v>380</v>
       </c>
       <c r="C175" s="2"/>
@@ -4890,15 +4931,15 @@
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="46" t="s">
+      <c r="H175" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="16.5">
+      <c r="A176" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="45" t="s">
         <v>381</v>
       </c>
       <c r="C176" s="20"/>
@@ -4906,15 +4947,15 @@
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="46" t="s">
+      <c r="H176" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="16.5">
+      <c r="A177" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="45" t="s">
         <v>382</v>
       </c>
       <c r="C177" s="22"/>
@@ -4922,15 +4963,15 @@
       <c r="E177" s="23"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="46" t="s">
+      <c r="H177" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16.5">
+      <c r="A178" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="45" t="s">
         <v>383</v>
       </c>
       <c r="C178" s="24"/>
@@ -4938,15 +4979,15 @@
       <c r="E178" s="23"/>
       <c r="F178" s="3"/>
       <c r="G178" s="25"/>
-      <c r="H178" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="46" t="s">
+      <c r="H178" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="16.5">
+      <c r="A179" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="45" t="s">
         <v>384</v>
       </c>
       <c r="C179" s="13"/>
@@ -4954,15 +4995,15 @@
       <c r="E179" s="27"/>
       <c r="F179" s="28"/>
       <c r="G179" s="29"/>
-      <c r="H179" s="50">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="46" t="s">
+      <c r="H179" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16.5">
+      <c r="A180" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="45" t="s">
         <v>385</v>
       </c>
       <c r="C180" s="13"/>
@@ -4970,15 +5011,15 @@
       <c r="E180" s="27"/>
       <c r="F180" s="28"/>
       <c r="G180" s="29"/>
-      <c r="H180" s="50">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="46" t="s">
+      <c r="H180" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16.5">
+      <c r="A181" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="45" t="s">
         <v>386</v>
       </c>
       <c r="C181" s="30"/>
@@ -4986,15 +5027,15 @@
       <c r="E181" s="9"/>
       <c r="F181" s="31"/>
       <c r="G181" s="32"/>
-      <c r="H181" s="51">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="46" t="s">
+      <c r="H181" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16.5">
+      <c r="A182" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="45" t="s">
         <v>387</v>
       </c>
       <c r="C182" s="33"/>
@@ -5002,15 +5043,15 @@
       <c r="E182" s="34"/>
       <c r="F182" s="3"/>
       <c r="G182" s="35"/>
-      <c r="H182" s="51">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="46" t="s">
+      <c r="H182" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16.5">
+      <c r="A183" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="45" t="s">
         <v>388</v>
       </c>
       <c r="C183" s="33"/>
@@ -5018,15 +5059,15 @@
       <c r="E183" s="26"/>
       <c r="F183" s="3"/>
       <c r="G183" s="35"/>
-      <c r="H183" s="51">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="46" t="s">
+      <c r="H183" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="16.5">
+      <c r="A184" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="45" t="s">
         <v>389</v>
       </c>
       <c r="C184" s="36"/>
@@ -5034,15 +5075,15 @@
       <c r="E184" s="4"/>
       <c r="F184" s="3"/>
       <c r="G184" s="35"/>
-      <c r="H184" s="51">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="46" t="s">
+      <c r="H184" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="16.5">
+      <c r="A185" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="45" t="s">
         <v>390</v>
       </c>
       <c r="C185" s="37"/>
@@ -5050,15 +5091,15 @@
       <c r="E185" s="29"/>
       <c r="F185" s="3"/>
       <c r="G185" s="38"/>
-      <c r="H185" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="46" t="s">
+      <c r="H185" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="16.5">
+      <c r="A186" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="45" t="s">
         <v>391</v>
       </c>
       <c r="C186" s="37"/>
@@ -5066,15 +5107,15 @@
       <c r="E186" s="29"/>
       <c r="F186" s="3"/>
       <c r="G186" s="38"/>
-      <c r="H186" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="46" t="s">
+      <c r="H186" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="16.5">
+      <c r="A187" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="45" t="s">
         <v>392</v>
       </c>
       <c r="C187" s="37"/>
@@ -5082,15 +5123,15 @@
       <c r="E187" s="34"/>
       <c r="F187" s="5"/>
       <c r="G187" s="38"/>
-      <c r="H187" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="46" t="s">
+      <c r="H187" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="16.5">
+      <c r="A188" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="45" t="s">
         <v>393</v>
       </c>
       <c r="C188" s="37"/>
@@ -5098,15 +5139,15 @@
       <c r="E188" s="34"/>
       <c r="F188" s="5"/>
       <c r="G188" s="25"/>
-      <c r="H188" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="45" t="s">
+      <c r="H188" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="16.5">
+      <c r="A189" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="45" t="s">
+      <c r="B189" s="44" t="s">
         <v>394</v>
       </c>
       <c r="C189" s="37"/>
@@ -5114,15 +5155,15 @@
       <c r="E189" s="29"/>
       <c r="F189" s="3"/>
       <c r="G189" s="25"/>
-      <c r="H189" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="45" t="s">
+      <c r="H189" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="16.5">
+      <c r="A190" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="45" t="s">
+      <c r="B190" s="44" t="s">
         <v>395</v>
       </c>
       <c r="C190" s="36"/>
@@ -5130,15 +5171,15 @@
       <c r="E190" s="4"/>
       <c r="F190" s="3"/>
       <c r="G190" s="25"/>
-      <c r="H190" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="45" t="s">
+      <c r="H190" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="16.5">
+      <c r="A191" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="45" t="s">
+      <c r="B191" s="44" t="s">
         <v>396</v>
       </c>
       <c r="C191" s="37"/>
@@ -5146,15 +5187,15 @@
       <c r="E191" s="29"/>
       <c r="F191" s="5"/>
       <c r="G191" s="25"/>
-      <c r="H191" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="45" t="s">
+      <c r="H191" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16.5">
+      <c r="A192" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="44" t="s">
         <v>397</v>
       </c>
       <c r="C192" s="37"/>
@@ -5162,15 +5203,15 @@
       <c r="E192" s="26"/>
       <c r="F192" s="5"/>
       <c r="G192" s="25"/>
-      <c r="H192" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.75">
-      <c r="A193" s="45" t="s">
+      <c r="H192" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="16.5">
+      <c r="A193" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="45" t="s">
+      <c r="B193" s="44" t="s">
         <v>398</v>
       </c>
       <c r="C193" s="36"/>
@@ -5178,15 +5219,15 @@
       <c r="E193" s="39"/>
       <c r="F193" s="3"/>
       <c r="G193" s="25"/>
-      <c r="H193" s="6">
-        <v>52.18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75">
-      <c r="A194" s="45" t="s">
+      <c r="H193" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="16.5">
+      <c r="A194" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="45" t="s">
+      <c r="B194" s="44" t="s">
         <v>399</v>
       </c>
       <c r="C194" s="36"/>
@@ -5194,15 +5235,15 @@
       <c r="E194" s="24"/>
       <c r="F194" s="41"/>
       <c r="G194" s="25"/>
-      <c r="H194" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.75">
-      <c r="A195" s="45" t="s">
+      <c r="H194" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="16.5">
+      <c r="A195" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="45" t="s">
+      <c r="B195" s="44" t="s">
         <v>400</v>
       </c>
       <c r="C195" s="37"/>
@@ -5210,15 +5251,15 @@
       <c r="E195" s="29"/>
       <c r="F195" s="43"/>
       <c r="G195" s="25"/>
-      <c r="H195" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75">
-      <c r="A196" s="45" t="s">
+      <c r="H195" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="16.5">
+      <c r="A196" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="45" t="s">
+      <c r="B196" s="44" t="s">
         <v>401</v>
       </c>
       <c r="C196" s="36"/>
@@ -5226,15 +5267,15 @@
       <c r="E196" s="34"/>
       <c r="F196" s="5"/>
       <c r="G196" s="25"/>
-      <c r="H196" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.75">
-      <c r="A197" s="45" t="s">
+      <c r="H196" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="16.5">
+      <c r="A197" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="45" t="s">
+      <c r="B197" s="44" t="s">
         <v>402</v>
       </c>
       <c r="C197" s="37"/>
@@ -5242,15 +5283,15 @@
       <c r="E197" s="34"/>
       <c r="F197" s="5"/>
       <c r="G197" s="25"/>
-      <c r="H197" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.75">
-      <c r="A198" s="45" t="s">
+      <c r="H197" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="16.5">
+      <c r="A198" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="45" t="s">
+      <c r="B198" s="44" t="s">
         <v>403</v>
       </c>
       <c r="C198" s="36"/>
@@ -5258,15 +5299,15 @@
       <c r="E198" s="4"/>
       <c r="F198" s="3"/>
       <c r="G198" s="25"/>
-      <c r="H198" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75">
-      <c r="A199" s="45" t="s">
+      <c r="H198" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="16.5">
+      <c r="A199" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="45" t="s">
+      <c r="B199" s="44" t="s">
         <v>404</v>
       </c>
       <c r="C199" s="37"/>
@@ -5274,15 +5315,15 @@
       <c r="E199" s="29"/>
       <c r="F199" s="3"/>
       <c r="G199" s="25"/>
-      <c r="H199" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75">
-      <c r="A200" s="45" t="s">
+      <c r="H199" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="16.5">
+      <c r="A200" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="44" t="s">
         <v>405</v>
       </c>
       <c r="C200" s="36"/>
@@ -5290,35 +5331,40 @@
       <c r="E200" s="39"/>
       <c r="F200" s="3"/>
       <c r="G200" s="25"/>
-      <c r="H200" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75">
-      <c r="A201" s="45" t="s">
+      <c r="H200" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="16.5">
+      <c r="A201" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="45" t="s">
+      <c r="B201" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="36"/>
-      <c r="D201" s="44"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="41"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="6">
-        <v>52.19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75">
-      <c r="A202" s="49" t="s">
+      <c r="C201" s="52"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="55"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="16.5">
+      <c r="A202" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="49" t="s">
+      <c r="B202" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="H202" s="52">
-        <v>52.08</v>
+      <c r="C202" s="58"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="58"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5328,21 +5374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5486,20 +5517,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
-  <ds:schemaRefs/>
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5132194-61b6-4507-86ae-3af00c68c385"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1249,13 +1249,16 @@
   </si>
   <si>
     <t>MALALASEKARA M.D.P.R</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,6 +1347,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Book Antiqua"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1653,7 +1662,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1819,6 +1828,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2109,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2159,8 +2171,8 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="48">
-        <v>0.5</v>
+      <c r="H2" s="59" t="s">
+        <v>410</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5369,11 +5381,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5517,12 +5535,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5533,12 +5545,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5554,6 +5560,12 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1251,14 +1251,35 @@
     <t>MALALASEKARA M.D.P.R</t>
   </si>
   <si>
-    <t>50</t>
+    <t>2021/E/120</t>
+  </si>
+  <si>
+    <t>BANDARA P.G.D.D.M.</t>
+  </si>
+  <si>
+    <t>2020/E/143</t>
+  </si>
+  <si>
+    <t>SANJEEVAN R.</t>
+  </si>
+  <si>
+    <t>2020/E/154</t>
+  </si>
+  <si>
+    <t>THAJEEVAN T.</t>
+  </si>
+  <si>
+    <t>2020/E/199</t>
+  </si>
+  <si>
+    <t>SILVA W.R.S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,23 +1360,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Book Antiqua"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Book Antiqua"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Book Antiqua"/>
+      <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,14 +1427,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1522,41 +1527,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1649,6 +1619,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1662,7 +1670,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,9 +1687,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,58 +1696,40 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1757,17 +1744,11 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1775,10 +1756,7 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1801,36 +1779,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2119,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,3249 +2135,3313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="59" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="59" t="s">
-        <v>410</v>
+      <c r="G2" s="47"/>
+      <c r="H2" s="60">
+        <v>0.75</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="48">
-        <v>0.5</v>
+      <c r="G3" s="48"/>
+      <c r="H3" s="60">
+        <v>0.75</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="48">
+      <c r="G4" s="49"/>
+      <c r="H4" s="60">
         <v>0.5</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="34" t="s">
         <v>210</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="49">
-        <v>1</v>
+      <c r="G5" s="49"/>
+      <c r="H5" s="60">
+        <v>0.75</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="44" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="34" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="44" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="44" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="34" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="44" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="34" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="44" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="34" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="44" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>217</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="44" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="34" t="s">
         <v>218</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="44" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="34" t="s">
         <v>219</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="44" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="44" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="34" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="44" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
+      <c r="A17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="34" t="s">
         <v>222</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="48">
+      <c r="G17" s="49"/>
+      <c r="H17" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:8" ht="15.75">
+      <c r="A18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>223</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="44" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
+      <c r="A19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="34" t="s">
         <v>224</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="44" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
+      <c r="A20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="34" t="s">
         <v>225</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="44" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
+      <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="34" t="s">
         <v>226</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="44" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
+      <c r="A22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="34" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="44" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
+      <c r="A23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5">
-      <c r="A24" s="44" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
+      <c r="A24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="44" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
+      <c r="A25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="34" t="s">
         <v>230</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="44" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
+      <c r="A26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="34" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5">
-      <c r="A27" s="44" t="s">
+      <c r="G26" s="49"/>
+      <c r="H26" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
+      <c r="A27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5">
-      <c r="A28" s="44" t="s">
+      <c r="G27" s="49"/>
+      <c r="H27" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
+      <c r="A28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5">
-      <c r="A29" s="44" t="s">
+      <c r="G28" s="49"/>
+      <c r="H28" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="44" t="s">
+      <c r="G29" s="49"/>
+      <c r="H29" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="34" t="s">
         <v>235</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="44" t="s">
+      <c r="G30" s="49"/>
+      <c r="H30" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="34" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5">
-      <c r="A32" s="44" t="s">
+      <c r="G31" s="49"/>
+      <c r="H31" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
+      <c r="A32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="34" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5">
-      <c r="A33" s="44" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="A33" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="34" t="s">
         <v>238</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5">
-      <c r="A34" s="44" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
+      <c r="A34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="34" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5">
-      <c r="A35" s="44" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
+      <c r="A35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="34" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5">
-      <c r="A36" s="44" t="s">
+      <c r="G35" s="49"/>
+      <c r="H35" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="A36" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="34" t="s">
         <v>241</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5">
-      <c r="A37" s="44" t="s">
+      <c r="G36" s="49"/>
+      <c r="H36" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
+      <c r="A37" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="34" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5">
-      <c r="A38" s="44" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
+      <c r="A38" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="34" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5">
-      <c r="A39" s="44" t="s">
+      <c r="G38" s="49"/>
+      <c r="H38" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
+      <c r="A39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="34" t="s">
         <v>244</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5">
-      <c r="A40" s="44" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="34" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5">
-      <c r="A41" s="44" t="s">
+      <c r="G40" s="49"/>
+      <c r="H40" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
+      <c r="A41" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="34" t="s">
         <v>246</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5">
-      <c r="A42" s="44" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75">
+      <c r="A42" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="34" t="s">
         <v>247</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5">
-      <c r="A43" s="44" t="s">
+      <c r="G42" s="49"/>
+      <c r="H42" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
+      <c r="A43" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5">
-      <c r="A44" s="44" t="s">
+      <c r="G43" s="49"/>
+      <c r="H43" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75">
+      <c r="A44" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5">
-      <c r="A45" s="44" t="s">
+      <c r="G44" s="49"/>
+      <c r="H44" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
+      <c r="A45" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5">
-      <c r="A46" s="44" t="s">
+      <c r="G45" s="49"/>
+      <c r="H45" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="A46" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5">
-      <c r="A47" s="44" t="s">
+      <c r="G46" s="49"/>
+      <c r="H46" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
+      <c r="A47" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5">
-      <c r="A48" s="44" t="s">
+      <c r="G47" s="49"/>
+      <c r="H47" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
+      <c r="A48" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="34" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5">
-      <c r="A49" s="44" t="s">
+      <c r="G48" s="49"/>
+      <c r="H48" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
+      <c r="A49" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="34" t="s">
         <v>254</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5">
-      <c r="A50" s="44" t="s">
+      <c r="G49" s="50"/>
+      <c r="H49" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75">
+      <c r="A50" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="34" t="s">
         <v>255</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5">
-      <c r="A51" s="44" t="s">
+      <c r="G50" s="49"/>
+      <c r="H50" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75">
+      <c r="A51" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5">
-      <c r="A52" s="44" t="s">
+      <c r="G51" s="49"/>
+      <c r="H51" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75">
+      <c r="A52" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5">
-      <c r="A53" s="44" t="s">
+      <c r="G52" s="49"/>
+      <c r="H52" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75">
+      <c r="A53" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="34" t="s">
         <v>258</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5">
-      <c r="A54" s="44" t="s">
+      <c r="G53" s="49"/>
+      <c r="H53" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75">
+      <c r="A54" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5">
-      <c r="A55" s="44" t="s">
+      <c r="G54" s="49"/>
+      <c r="H54" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75">
+      <c r="A55" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5">
-      <c r="A56" s="44" t="s">
+      <c r="G55" s="49"/>
+      <c r="H55" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
+      <c r="A56" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="34" t="s">
         <v>261</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5">
-      <c r="A57" s="44" t="s">
+      <c r="G56" s="50"/>
+      <c r="H56" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
+      <c r="A57" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="34" t="s">
         <v>262</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5">
-      <c r="A58" s="44" t="s">
+      <c r="G57" s="49"/>
+      <c r="H57" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75">
+      <c r="A58" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="34" t="s">
         <v>263</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5">
-      <c r="A59" s="44" t="s">
+      <c r="G58" s="49"/>
+      <c r="H58" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75">
+      <c r="A59" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="34" t="s">
         <v>264</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5">
-      <c r="A60" s="44" t="s">
+      <c r="G59" s="49"/>
+      <c r="H59" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75">
+      <c r="A60" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="34" t="s">
         <v>265</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5">
-      <c r="A61" s="44" t="s">
+      <c r="G60" s="49"/>
+      <c r="H60" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75">
+      <c r="A61" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="34" t="s">
         <v>266</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="48">
+      <c r="G61" s="49"/>
+      <c r="H61" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5">
-      <c r="A62" s="44" t="s">
+    <row r="62" spans="1:8" ht="15.75">
+      <c r="A62" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5">
-      <c r="A63" s="44" t="s">
+      <c r="G62" s="49"/>
+      <c r="H62" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75">
+      <c r="A63" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="34" t="s">
         <v>268</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5">
-      <c r="A64" s="44" t="s">
+      <c r="G63" s="49"/>
+      <c r="H63" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75">
+      <c r="A64" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="34" t="s">
         <v>269</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5">
-      <c r="A65" s="44" t="s">
+      <c r="G64" s="49"/>
+      <c r="H64" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75">
+      <c r="A65" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="34" t="s">
         <v>270</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5">
-      <c r="A66" s="44" t="s">
+      <c r="G65" s="49"/>
+      <c r="H65" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75">
+      <c r="A66" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="34" t="s">
         <v>271</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5">
-      <c r="A67" s="44" t="s">
+      <c r="G66" s="49"/>
+      <c r="H66" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75">
+      <c r="A67" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="34" t="s">
         <v>272</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5">
-      <c r="A68" s="44" t="s">
+      <c r="G67" s="49"/>
+      <c r="H67" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75">
+      <c r="A68" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="34" t="s">
         <v>273</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5">
-      <c r="A69" s="44" t="s">
+      <c r="G68" s="49"/>
+      <c r="H68" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75">
+      <c r="A69" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="34" t="s">
         <v>274</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5">
-      <c r="A70" s="44" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75">
+      <c r="A70" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="34" t="s">
         <v>275</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5">
-      <c r="A71" s="44" t="s">
+      <c r="G70" s="49"/>
+      <c r="H70" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75">
+      <c r="A71" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="34" t="s">
         <v>276</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5">
-      <c r="A72" s="44" t="s">
+      <c r="G71" s="49"/>
+      <c r="H71" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75">
+      <c r="A72" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="34" t="s">
         <v>277</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5">
-      <c r="A73" s="44" t="s">
+      <c r="G72" s="49"/>
+      <c r="H72" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75">
+      <c r="A73" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="34" t="s">
         <v>278</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5">
-      <c r="A74" s="44" t="s">
+      <c r="G73" s="49"/>
+      <c r="H73" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75">
+      <c r="A74" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="34" t="s">
         <v>279</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5">
-      <c r="A75" s="44" t="s">
+      <c r="G74" s="50"/>
+      <c r="H74" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75">
+      <c r="A75" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="34" t="s">
         <v>280</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5">
-      <c r="A76" s="44" t="s">
+      <c r="G75" s="50"/>
+      <c r="H75" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75">
+      <c r="A76" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="34" t="s">
         <v>281</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5">
-      <c r="A77" s="44" t="s">
+      <c r="G76" s="49"/>
+      <c r="H76" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75">
+      <c r="A77" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="34" t="s">
         <v>282</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5">
-      <c r="A78" s="44" t="s">
+      <c r="G77" s="49"/>
+      <c r="H77" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75">
+      <c r="A78" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="34" t="s">
         <v>283</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5">
-      <c r="A79" s="44" t="s">
+      <c r="G78" s="49"/>
+      <c r="H78" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75">
+      <c r="A79" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="34" t="s">
         <v>284</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="4"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="48">
+      <c r="G79" s="49"/>
+      <c r="H79" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5">
-      <c r="A80" s="44" t="s">
+    <row r="80" spans="1:8" ht="15.75">
+      <c r="A80" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="34" t="s">
         <v>285</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5">
-      <c r="A81" s="44" t="s">
+      <c r="G80" s="49"/>
+      <c r="H80" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75">
+      <c r="A81" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="34" t="s">
         <v>286</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.5">
-      <c r="A82" s="44" t="s">
+      <c r="G81" s="49"/>
+      <c r="H81" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75">
+      <c r="A82" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="34" t="s">
         <v>287</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="8"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.5">
-      <c r="A83" s="44" t="s">
+      <c r="G82" s="49"/>
+      <c r="H82" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75">
+      <c r="A83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="34" t="s">
         <v>288</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="8"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16.5">
-      <c r="A84" s="44" t="s">
+      <c r="G83" s="49"/>
+      <c r="H83" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75">
+      <c r="A84" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="34" t="s">
         <v>289</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5">
-      <c r="A85" s="44" t="s">
+      <c r="G84" s="49"/>
+      <c r="H84" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75">
+      <c r="A85" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="34" t="s">
         <v>290</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="13"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5">
-      <c r="A86" s="44" t="s">
+      <c r="G85" s="49"/>
+      <c r="H85" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75">
+      <c r="A86" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5">
-      <c r="A87" s="44" t="s">
+      <c r="G86" s="50"/>
+      <c r="H86" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75">
+      <c r="A87" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5">
-      <c r="A88" s="44" t="s">
+      <c r="G87" s="49"/>
+      <c r="H87" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75">
+      <c r="A88" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="34" t="s">
         <v>293</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="48">
+      <c r="G88" s="49"/>
+      <c r="H88" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16.5">
-      <c r="A89" s="44" t="s">
+    <row r="89" spans="1:8" ht="15.75">
+      <c r="A89" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="34" t="s">
         <v>294</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16.5">
-      <c r="A90" s="44" t="s">
+      <c r="G89" s="49"/>
+      <c r="H89" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75">
+      <c r="A90" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="34" t="s">
         <v>295</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="8"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5">
-      <c r="A91" s="44" t="s">
+      <c r="G90" s="49"/>
+      <c r="H90" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75">
+      <c r="A91" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="34" t="s">
         <v>296</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="8"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5">
-      <c r="A92" s="44" t="s">
+      <c r="G91" s="49"/>
+      <c r="H91" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75">
+      <c r="A92" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="34" t="s">
         <v>297</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.5">
-      <c r="A93" s="44" t="s">
+      <c r="G92" s="49"/>
+      <c r="H92" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75">
+      <c r="A93" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="34" t="s">
         <v>298</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="8"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5">
-      <c r="A94" s="44" t="s">
+      <c r="G93" s="50"/>
+      <c r="H93" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75">
+      <c r="A94" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="34" t="s">
         <v>299</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="4"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.5">
-      <c r="A95" s="44" t="s">
+      <c r="G94" s="49"/>
+      <c r="H94" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75">
+      <c r="A95" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="34" t="s">
         <v>300</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="8"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5">
-      <c r="A96" s="44" t="s">
+      <c r="G95" s="49"/>
+      <c r="H95" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75">
+      <c r="A96" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="34" t="s">
         <v>301</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="4"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="16.5">
-      <c r="A97" s="44" t="s">
+      <c r="G96" s="49"/>
+      <c r="H96" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75">
+      <c r="A97" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="34" t="s">
         <v>302</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="4"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="16.5">
-      <c r="A98" s="44" t="s">
+      <c r="G97" s="49"/>
+      <c r="H97" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75">
+      <c r="A98" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="34" t="s">
         <v>303</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="4"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="16.5">
-      <c r="A99" s="44" t="s">
+      <c r="G98" s="49"/>
+      <c r="H98" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75">
+      <c r="A99" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="34" t="s">
         <v>304</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="16.5">
-      <c r="A100" s="44" t="s">
+      <c r="G99" s="49"/>
+      <c r="H99" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75">
+      <c r="A100" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="34" t="s">
         <v>305</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="48">
+      <c r="G100" s="49"/>
+      <c r="H100" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16.5">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:8" ht="15.75">
+      <c r="A101" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="34" t="s">
         <v>306</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="16.5">
-      <c r="A102" s="44" t="s">
+      <c r="G101" s="49"/>
+      <c r="H101" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75">
+      <c r="A102" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="34" t="s">
         <v>307</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="16.5">
-      <c r="A103" s="44" t="s">
+      <c r="G102" s="49"/>
+      <c r="H102" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75">
+      <c r="A103" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="34" t="s">
         <v>308</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="16.5">
-      <c r="A104" s="44" t="s">
+      <c r="G103" s="50"/>
+      <c r="H103" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75">
+      <c r="A104" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="34" t="s">
         <v>309</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="8"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="4"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16.5">
-      <c r="A105" s="44" t="s">
+      <c r="G104" s="49"/>
+      <c r="H104" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75">
+      <c r="A105" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="34" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="16.5">
-      <c r="A106" s="44" t="s">
+      <c r="G105" s="49"/>
+      <c r="H105" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75">
+      <c r="A106" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="34" t="s">
         <v>311</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="4"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="16.5">
-      <c r="A107" s="44" t="s">
+      <c r="G106" s="49"/>
+      <c r="H106" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75">
+      <c r="A107" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="34" t="s">
         <v>312</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="14"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16.5">
-      <c r="A108" s="44" t="s">
+      <c r="G107" s="49"/>
+      <c r="H107" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75">
+      <c r="A108" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="34" t="s">
         <v>313</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="4"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="16.5">
-      <c r="A109" s="44" t="s">
+      <c r="G108" s="49"/>
+      <c r="H108" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75">
+      <c r="A109" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="34" t="s">
         <v>314</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="14"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="16.5">
-      <c r="A110" s="44" t="s">
+      <c r="G109" s="49"/>
+      <c r="H109" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75">
+      <c r="A110" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="34" t="s">
         <v>315</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="14"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="4"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="16.5">
-      <c r="A111" s="44" t="s">
+      <c r="G110" s="49"/>
+      <c r="H110" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75">
+      <c r="A111" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="34" t="s">
         <v>316</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="14"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="16.5">
-      <c r="A112" s="44" t="s">
+      <c r="G111" s="49"/>
+      <c r="H111" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75">
+      <c r="A112" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="34" t="s">
         <v>317</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="14"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="4"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="16.5">
-      <c r="A113" s="44" t="s">
+      <c r="G112" s="49"/>
+      <c r="H112" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75">
+      <c r="A113" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="34" t="s">
         <v>318</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="14"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="16.5">
-      <c r="A114" s="44" t="s">
+      <c r="G113" s="49"/>
+      <c r="H113" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75">
+      <c r="A114" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="44" t="s">
+      <c r="B114" s="34" t="s">
         <v>319</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="14"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="4"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="16.5">
-      <c r="A115" s="44" t="s">
+      <c r="G114" s="49"/>
+      <c r="H114" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75">
+      <c r="A115" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="34" t="s">
         <v>320</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="14"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="16.5">
-      <c r="A116" s="44" t="s">
+      <c r="G115" s="49"/>
+      <c r="H115" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75">
+      <c r="A116" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="34" t="s">
         <v>321</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="14"/>
+      <c r="D116" s="10"/>
       <c r="E116" s="4"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="16.5">
-      <c r="A117" s="44" t="s">
+      <c r="G116" s="49"/>
+      <c r="H116" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75">
+      <c r="A117" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="34" t="s">
         <v>322</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="14"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="16.5">
-      <c r="A118" s="44" t="s">
+      <c r="G117" s="49"/>
+      <c r="H117" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75">
+      <c r="A118" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="34" t="s">
         <v>323</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="14"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="4"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16.5">
-      <c r="A119" s="44" t="s">
+      <c r="G118" s="49"/>
+      <c r="H118" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75">
+      <c r="A119" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="34" t="s">
         <v>324</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="14"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="4"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="16.5">
-      <c r="A120" s="44" t="s">
+      <c r="G119" s="49"/>
+      <c r="H119" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75">
+      <c r="A120" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="14"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="4"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="16.5">
-      <c r="A121" s="44" t="s">
+      <c r="G120" s="49"/>
+      <c r="H120" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75">
+      <c r="A121" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="44" t="s">
+      <c r="B121" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="14"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="4"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="16.5">
-      <c r="A122" s="44" t="s">
+      <c r="G121" s="49"/>
+      <c r="H121" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75">
+      <c r="A122" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="44" t="s">
+      <c r="B122" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="14"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="4"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="16.5">
-      <c r="A123" s="44" t="s">
+      <c r="G122" s="49"/>
+      <c r="H122" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75">
+      <c r="A123" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="44" t="s">
+      <c r="B123" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="14"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="4"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="16.5">
-      <c r="A124" s="44" t="s">
+      <c r="G123" s="49"/>
+      <c r="H123" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75">
+      <c r="A124" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="B124" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="14"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="4"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="16.5">
-      <c r="A125" s="44" t="s">
+      <c r="G124" s="49"/>
+      <c r="H124" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75">
+      <c r="A125" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="34" t="s">
         <v>330</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="14"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="4"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="16.5">
-      <c r="A126" s="44" t="s">
+      <c r="G125" s="49"/>
+      <c r="H125" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75">
+      <c r="A126" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="34" t="s">
         <v>331</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="14"/>
+      <c r="D126" s="10"/>
       <c r="E126" s="4"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="16.5">
-      <c r="A127" s="44" t="s">
+      <c r="G126" s="49"/>
+      <c r="H126" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75">
+      <c r="A127" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="44" t="s">
+      <c r="B127" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="14"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="4"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="16.5">
-      <c r="A128" s="44" t="s">
+      <c r="G127" s="49"/>
+      <c r="H127" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75">
+      <c r="A128" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="44" t="s">
+      <c r="B128" s="34" t="s">
         <v>333</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="14"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="16.5">
-      <c r="A129" s="44" t="s">
+      <c r="G128" s="49"/>
+      <c r="H128" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75">
+      <c r="A129" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="34" t="s">
         <v>334</v>
       </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="14"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="16.5">
-      <c r="A130" s="44" t="s">
+      <c r="G129" s="49"/>
+      <c r="H129" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75">
+      <c r="A130" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="44" t="s">
+      <c r="B130" s="34" t="s">
         <v>335</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="14"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="16.5">
-      <c r="A131" s="44" t="s">
+      <c r="G130" s="49"/>
+      <c r="H130" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75">
+      <c r="A131" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="44" t="s">
+      <c r="B131" s="34" t="s">
         <v>336</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="14"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16.5">
-      <c r="A132" s="44" t="s">
+      <c r="G131" s="49"/>
+      <c r="H131" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75">
+      <c r="A132" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="44" t="s">
+      <c r="B132" s="34" t="s">
         <v>337</v>
       </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="14"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="16.5">
-      <c r="A133" s="44" t="s">
+      <c r="G132" s="49"/>
+      <c r="H132" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75">
+      <c r="A133" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="34" t="s">
         <v>338</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="14"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="16.5">
-      <c r="A134" s="44" t="s">
+      <c r="G133" s="49"/>
+      <c r="H133" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75">
+      <c r="A134" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="44" t="s">
+      <c r="B134" s="34" t="s">
         <v>339</v>
       </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="14"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="16.5">
-      <c r="A135" s="44" t="s">
+      <c r="G134" s="49"/>
+      <c r="H134" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75">
+      <c r="A135" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="44" t="s">
+      <c r="B135" s="34" t="s">
         <v>340</v>
       </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="14"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="16.5">
-      <c r="A136" s="44" t="s">
+      <c r="G135" s="49"/>
+      <c r="H135" s="60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75">
+      <c r="A136" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="44" t="s">
+      <c r="B136" s="34" t="s">
         <v>341</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="14"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="4"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="16.5">
-      <c r="A137" s="44" t="s">
+      <c r="G136" s="49"/>
+      <c r="H136" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75">
+      <c r="A137" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="44" t="s">
+      <c r="B137" s="34" t="s">
         <v>342</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="14"/>
+      <c r="D137" s="10"/>
       <c r="E137" s="4"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="16.5">
-      <c r="A138" s="44" t="s">
+      <c r="G137" s="49"/>
+      <c r="H137" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75">
+      <c r="A138" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="34" t="s">
         <v>343</v>
       </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="14"/>
+      <c r="D138" s="10"/>
       <c r="E138" s="4"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="48">
+      <c r="G138" s="49"/>
+      <c r="H138" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16.5">
-      <c r="A139" s="44" t="s">
+    <row r="139" spans="1:8" ht="15.75">
+      <c r="A139" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="44" t="s">
+      <c r="B139" s="34" t="s">
         <v>344</v>
       </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="14"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="4"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="16.5">
-      <c r="A140" s="44" t="s">
+      <c r="G139" s="51"/>
+      <c r="H139" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75">
+      <c r="A140" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="44" t="s">
+      <c r="B140" s="34" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="14"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="16.5">
-      <c r="A141" s="44" t="s">
+      <c r="G140" s="52"/>
+      <c r="H140" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75">
+      <c r="A141" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="44" t="s">
+      <c r="B141" s="34" t="s">
         <v>346</v>
       </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="14"/>
+      <c r="D141" s="10"/>
       <c r="E141" s="4"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="16.5">
-      <c r="A142" s="44" t="s">
+      <c r="G141" s="48"/>
+      <c r="H141" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75">
+      <c r="A142" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="44" t="s">
+      <c r="B142" s="34" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="14"/>
+      <c r="D142" s="10"/>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="16.5">
-      <c r="A143" s="44" t="s">
+      <c r="G142" s="49"/>
+      <c r="H142" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75">
+      <c r="A143" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="34" t="s">
         <v>348</v>
       </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="14"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="16.5">
-      <c r="A144" s="44" t="s">
+      <c r="G143" s="49"/>
+      <c r="H143" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75">
+      <c r="A144" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="34" t="s">
         <v>349</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="14"/>
+      <c r="D144" s="10"/>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="16.5">
-      <c r="A145" s="44" t="s">
+      <c r="G144" s="49"/>
+      <c r="H144" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75">
+      <c r="A145" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="44" t="s">
+      <c r="B145" s="34" t="s">
         <v>350</v>
       </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="14"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="16.5">
-      <c r="A146" s="44" t="s">
+      <c r="G145" s="49"/>
+      <c r="H145" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75">
+      <c r="A146" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="44" t="s">
+      <c r="B146" s="34" t="s">
         <v>351</v>
       </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="14"/>
+      <c r="D146" s="10"/>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="16.5">
-      <c r="A147" s="44" t="s">
+      <c r="G146" s="49"/>
+      <c r="H146" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75">
+      <c r="A147" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="44" t="s">
+      <c r="B147" s="34" t="s">
         <v>352</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="14"/>
+      <c r="D147" s="10"/>
       <c r="E147" s="4"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16.5">
-      <c r="A148" s="44" t="s">
+      <c r="G147" s="49"/>
+      <c r="H147" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75">
+      <c r="A148" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="44" t="s">
+      <c r="B148" s="34" t="s">
         <v>353</v>
       </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="14"/>
+      <c r="D148" s="10"/>
       <c r="E148" s="4"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="16.5">
-      <c r="A149" s="44" t="s">
+      <c r="G148" s="49"/>
+      <c r="H148" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75">
+      <c r="A149" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="44" t="s">
+      <c r="B149" s="34" t="s">
         <v>354</v>
       </c>
       <c r="C149" s="2"/>
-      <c r="D149" s="14"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="16.5">
-      <c r="A150" s="44" t="s">
+      <c r="G149" s="49"/>
+      <c r="H149" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75">
+      <c r="A150" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="44" t="s">
+      <c r="B150" s="34" t="s">
         <v>355</v>
       </c>
       <c r="C150" s="2"/>
-      <c r="D150" s="13"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="16.5">
-      <c r="A151" s="44" t="s">
+      <c r="G150" s="49"/>
+      <c r="H150" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75">
+      <c r="A151" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="44" t="s">
+      <c r="B151" s="34" t="s">
         <v>356</v>
       </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="14"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="16.5">
-      <c r="A152" s="44" t="s">
+      <c r="G151" s="49"/>
+      <c r="H151" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75">
+      <c r="A152" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="34" t="s">
         <v>357</v>
       </c>
       <c r="C152" s="2"/>
-      <c r="D152" s="14"/>
+      <c r="D152" s="10"/>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="16.5">
-      <c r="A153" s="44" t="s">
+      <c r="G152" s="49"/>
+      <c r="H152" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75">
+      <c r="A153" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="44" t="s">
+      <c r="B153" s="34" t="s">
         <v>358</v>
       </c>
       <c r="C153" s="2"/>
-      <c r="D153" s="14"/>
+      <c r="D153" s="10"/>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="16.5">
-      <c r="A154" s="44" t="s">
+      <c r="G153" s="49"/>
+      <c r="H153" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75">
+      <c r="A154" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="44" t="s">
+      <c r="B154" s="34" t="s">
         <v>359</v>
       </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="14"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="16.5">
-      <c r="A155" s="44" t="s">
+      <c r="G154" s="49"/>
+      <c r="H154" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75">
+      <c r="A155" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="44" t="s">
+      <c r="B155" s="34" t="s">
         <v>360</v>
       </c>
       <c r="C155" s="2"/>
-      <c r="D155" s="14"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="16.5">
-      <c r="A156" s="44" t="s">
+      <c r="G155" s="49"/>
+      <c r="H155" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75">
+      <c r="A156" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="44" t="s">
+      <c r="B156" s="34" t="s">
         <v>361</v>
       </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="14"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="16.5">
-      <c r="A157" s="44" t="s">
+      <c r="G156" s="49"/>
+      <c r="H156" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75">
+      <c r="A157" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="44" t="s">
+      <c r="B157" s="34" t="s">
         <v>362</v>
       </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="14"/>
+      <c r="D157" s="10"/>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="48">
+      <c r="G157" s="49"/>
+      <c r="H157" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16.5">
-      <c r="A158" s="44" t="s">
+    <row r="158" spans="1:8" ht="15.75">
+      <c r="A158" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="44" t="s">
+      <c r="B158" s="34" t="s">
         <v>363</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="14"/>
+      <c r="D158" s="10"/>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="16.5">
-      <c r="A159" s="44" t="s">
+      <c r="G158" s="49"/>
+      <c r="H158" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75">
+      <c r="A159" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="44" t="s">
+      <c r="B159" s="34" t="s">
         <v>364</v>
       </c>
       <c r="C159" s="2"/>
-      <c r="D159" s="14"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="16.5">
-      <c r="A160" s="44" t="s">
+      <c r="G159" s="49"/>
+      <c r="H159" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75">
+      <c r="A160" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="44" t="s">
+      <c r="B160" s="34" t="s">
         <v>365</v>
       </c>
       <c r="C160" s="2"/>
-      <c r="D160" s="14"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="4"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="16.5">
-      <c r="A161" s="44" t="s">
+      <c r="G160" s="49"/>
+      <c r="H160" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.75">
+      <c r="A161" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="44" t="s">
+      <c r="B161" s="34" t="s">
         <v>366</v>
       </c>
       <c r="C161" s="2"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="4"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="16.5">
-      <c r="A162" s="44" t="s">
+      <c r="G161" s="49"/>
+      <c r="H161" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75">
+      <c r="A162" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="44" t="s">
+      <c r="B162" s="34" t="s">
         <v>367</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="14"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="4"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="48">
+      <c r="G162" s="49"/>
+      <c r="H162" s="60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16.5">
-      <c r="A163" s="44" t="s">
+    <row r="163" spans="1:8" ht="15.75">
+      <c r="A163" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="34" t="s">
         <v>368</v>
       </c>
       <c r="C163" s="2"/>
-      <c r="D163" s="14"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="4"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="16.5">
-      <c r="A164" s="44" t="s">
+      <c r="G163" s="49"/>
+      <c r="H163" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75">
+      <c r="A164" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="34" t="s">
         <v>369</v>
       </c>
       <c r="C164" s="2"/>
-      <c r="D164" s="14"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="4"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="48">
+      <c r="G164" s="49"/>
+      <c r="H164" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16.5">
-      <c r="A165" s="44" t="s">
+    <row r="165" spans="1:8" ht="15.75">
+      <c r="A165" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="44" t="s">
+      <c r="B165" s="34" t="s">
         <v>370</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="14"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="16.5">
-      <c r="A166" s="45" t="s">
+      <c r="G165" s="49"/>
+      <c r="H165" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="45" t="s">
+      <c r="B166" s="35" t="s">
         <v>371</v>
       </c>
       <c r="C166" s="2"/>
-      <c r="D166" s="14"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="4"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="16.5">
-      <c r="A167" s="45" t="s">
+      <c r="G166" s="49"/>
+      <c r="H166" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="45" t="s">
+      <c r="B167" s="35" t="s">
         <v>372</v>
       </c>
       <c r="C167" s="2"/>
-      <c r="D167" s="14"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="4"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="48">
+      <c r="G167" s="49"/>
+      <c r="H167" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16.5">
-      <c r="A168" s="45" t="s">
+    <row r="168" spans="1:8">
+      <c r="A168" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="35" t="s">
         <v>373</v>
       </c>
       <c r="C168" s="2"/>
-      <c r="D168" s="8"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="16.5">
-      <c r="A169" s="45" t="s">
+      <c r="G168" s="49"/>
+      <c r="H168" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B169" s="35" t="s">
         <v>374</v>
       </c>
       <c r="C169" s="2"/>
-      <c r="D169" s="8"/>
+      <c r="D169" s="7"/>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="16.5">
-      <c r="A170" s="45" t="s">
+      <c r="G169" s="49"/>
+      <c r="H169" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="45" t="s">
+      <c r="B170" s="35" t="s">
         <v>375</v>
       </c>
       <c r="C170" s="2"/>
-      <c r="D170" s="8"/>
+      <c r="D170" s="7"/>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="16.5">
-      <c r="A171" s="45" t="s">
+      <c r="G170" s="49"/>
+      <c r="H170" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="35" t="s">
         <v>376</v>
       </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="17"/>
+      <c r="D171" s="11"/>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="16.5">
-      <c r="A172" s="45" t="s">
+      <c r="G171" s="51"/>
+      <c r="H171" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="35" t="s">
         <v>377</v>
       </c>
       <c r="C172" s="2"/>
-      <c r="D172" s="18"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="4"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="16.5">
-      <c r="A173" s="45" t="s">
+      <c r="G172" s="47"/>
+      <c r="H172" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="45" t="s">
+      <c r="B173" s="35" t="s">
         <v>378</v>
       </c>
       <c r="C173" s="2"/>
-      <c r="D173" s="18"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="4"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="16.5">
-      <c r="A174" s="45" t="s">
+      <c r="G173" s="47"/>
+      <c r="H173" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="45" t="s">
+      <c r="B174" s="35" t="s">
         <v>379</v>
       </c>
       <c r="C174" s="2"/>
-      <c r="D174" s="18"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="4"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="16.5">
-      <c r="A175" s="45" t="s">
+      <c r="G174" s="47"/>
+      <c r="H174" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="45" t="s">
+      <c r="B175" s="35" t="s">
         <v>380</v>
       </c>
       <c r="C175" s="2"/>
-      <c r="D175" s="19"/>
+      <c r="D175" s="13"/>
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="16.5">
-      <c r="A176" s="45" t="s">
+      <c r="G175" s="47"/>
+      <c r="H175" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="45" t="s">
+      <c r="B176" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
       <c r="E176" s="4"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="16.5">
-      <c r="A177" s="45" t="s">
+      <c r="G176" s="47"/>
+      <c r="H176" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="45" t="s">
+      <c r="B177" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="22"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="23"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="17"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="48">
+      <c r="G177" s="47"/>
+      <c r="H177" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C178" s="18"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16.5">
-      <c r="A178" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B178" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="48">
+    <row r="179" spans="1:8">
+      <c r="A179" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16.5">
-      <c r="A179" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="16.5">
-      <c r="A180" s="45" t="s">
+    <row r="180" spans="1:8">
+      <c r="A180" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="45" t="s">
+      <c r="B180" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="16.5">
-      <c r="A181" s="45" t="s">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="16.5">
-      <c r="A182" s="45" t="s">
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B182" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="34"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="26"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="16.5">
-      <c r="A183" s="45" t="s">
+      <c r="G182" s="55"/>
+      <c r="H182" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="45" t="s">
+      <c r="B183" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="26"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="19"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="16.5">
-      <c r="A184" s="45" t="s">
+      <c r="G183" s="55"/>
+      <c r="H183" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
       <c r="E184" s="4"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="48">
+      <c r="G184" s="55"/>
+      <c r="H184" s="60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16.5">
-      <c r="A185" s="45" t="s">
+    <row r="185" spans="1:8">
+      <c r="A185" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="45" t="s">
+      <c r="B185" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="37"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="29"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="38"/>
-      <c r="H185" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="16.5">
-      <c r="A186" s="45" t="s">
+      <c r="G185" s="56"/>
+      <c r="H185" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="45" t="s">
+      <c r="B186" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="37"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="29"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="38"/>
-      <c r="H186" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="16.5">
-      <c r="A187" s="45" t="s">
+      <c r="G186" s="56"/>
+      <c r="H186" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="37"/>
-      <c r="D187" s="37"/>
-      <c r="E187" s="34"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="26"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="38"/>
-      <c r="H187" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="16.5">
-      <c r="A188" s="45" t="s">
+      <c r="G187" s="56"/>
+      <c r="H187" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="34"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="26"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="16.5">
-      <c r="A189" s="44" t="s">
+      <c r="G188" s="53"/>
+      <c r="H188" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15.75">
+      <c r="A189" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="44" t="s">
+      <c r="B189" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="37"/>
-      <c r="D189" s="37"/>
-      <c r="E189" s="29"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="3"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="16.5">
-      <c r="A190" s="44" t="s">
+      <c r="G189" s="53"/>
+      <c r="H189" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15.75">
+      <c r="A190" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="44" t="s">
+      <c r="B190" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="36"/>
-      <c r="D190" s="13"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="9"/>
       <c r="E190" s="4"/>
       <c r="F190" s="3"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="16.5">
-      <c r="A191" s="44" t="s">
+      <c r="G190" s="53"/>
+      <c r="H190" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15.75">
+      <c r="A191" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="44" t="s">
+      <c r="B191" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="37"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="29"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="16.5">
-      <c r="A192" s="44" t="s">
+      <c r="G191" s="53"/>
+      <c r="H191" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15.75">
+      <c r="A192" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="44" t="s">
+      <c r="B192" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="26"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="19"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="16.5">
-      <c r="A193" s="44" t="s">
+      <c r="G192" s="53"/>
+      <c r="H192" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75">
+      <c r="A193" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="44" t="s">
+      <c r="B193" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="36"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="39"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="29"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="16.5">
-      <c r="A194" s="44" t="s">
+      <c r="G193" s="53"/>
+      <c r="H193" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75">
+      <c r="A194" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="44" t="s">
+      <c r="B194" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="36"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="41"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="16.5">
-      <c r="A195" s="44" t="s">
+      <c r="C194" s="27"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75">
+      <c r="A195" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="44" t="s">
+      <c r="B195" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="37"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="43"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="16.5">
-      <c r="A196" s="44" t="s">
+      <c r="C195" s="28"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="53"/>
+      <c r="H195" s="60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75">
+      <c r="A196" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="44" t="s">
+      <c r="B196" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="36"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="34"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="26"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="16.5">
-      <c r="A197" s="44" t="s">
+      <c r="G196" s="53"/>
+      <c r="H196" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75">
+      <c r="A197" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="37"/>
-      <c r="D197" s="37"/>
-      <c r="E197" s="34"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="26"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="16.5">
-      <c r="A198" s="44" t="s">
+      <c r="G197" s="53"/>
+      <c r="H197" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75">
+      <c r="A198" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="44" t="s">
+      <c r="B198" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
       <c r="E198" s="4"/>
       <c r="F198" s="3"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="16.5">
-      <c r="A199" s="44" t="s">
+      <c r="G198" s="53"/>
+      <c r="H198" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75">
+      <c r="A199" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="44" t="s">
+      <c r="B199" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="37"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="29"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="3"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="16.5">
-      <c r="A200" s="44" t="s">
+      <c r="G199" s="53"/>
+      <c r="H199" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75">
+      <c r="A200" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="36"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="39"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="29"/>
       <c r="F200" s="3"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="16.5">
-      <c r="A201" s="51" t="s">
+      <c r="G200" s="53"/>
+      <c r="H200" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75">
+      <c r="A201" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="51" t="s">
+      <c r="B201" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="52"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="56"/>
-      <c r="H201" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="16.5">
-      <c r="A202" s="57" t="s">
+      <c r="C201" s="39"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="41"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15.75">
+      <c r="A202" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="57" t="s">
+      <c r="B202" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="58"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="58"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="44"/>
+      <c r="E202" s="44"/>
+      <c r="F202" s="44"/>
       <c r="G202" s="58"/>
-      <c r="H202" s="50">
-        <v>1</v>
+      <c r="H202" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75">
+      <c r="A203" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B203" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C203" s="44"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="44"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="60">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75">
+      <c r="A204" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="B204" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75">
+      <c r="A205" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="B205" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="C205" s="44"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="44"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75">
+      <c r="A206" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="B206" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="44"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="60">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -5386,12 +5451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5535,6 +5594,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5545,6 +5610,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5560,12 +5631,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1279,7 +1279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,12 +1292,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="PMingliU"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1660,178 +1654,175 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2120,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="M197" sqref="M197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,3314 +2125,3310 @@
     <col min="7" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="60">
-        <v>0.75</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="60">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="60">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="34" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="60">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="34" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="34" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="60">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="34" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="34" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="34" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="34" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="34" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="34" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="34" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="A14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="34" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="A15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="60">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="34" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="60">
-        <v>1</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="60">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="60">
-        <v>1</v>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="60">
-        <v>1</v>
+      <c r="C19" s="1"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="60">
-        <v>0.5</v>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="60">
-        <v>0.75</v>
+      <c r="C21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="60">
-        <v>0.5</v>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="60">
-        <v>0.5</v>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="60">
-        <v>0.75</v>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="60">
-        <v>0.5</v>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="60">
-        <v>0.75</v>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="60">
-        <v>1</v>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="60">
-        <v>1</v>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="60">
-        <v>1</v>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="60">
-        <v>1</v>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="60">
-        <v>1</v>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="60">
-        <v>0.75</v>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="60">
-        <v>1</v>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="60">
-        <v>1</v>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="60">
-        <v>1</v>
+      <c r="C35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="60">
-        <v>0.5</v>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="60">
-        <v>0.75</v>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="60">
-        <v>1</v>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="60">
-        <v>1</v>
+      <c r="C39" s="1"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="60">
-        <v>1</v>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="60">
-        <v>1</v>
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="60">
-        <v>0.75</v>
+      <c r="C42" s="1"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="60">
-        <v>0.5</v>
+      <c r="C43" s="1"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="60">
-        <v>0.5</v>
+      <c r="C44" s="1"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="60">
-        <v>1</v>
+      <c r="C45" s="1"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="60">
-        <v>0.5</v>
+      <c r="C46" s="1"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="60">
-        <v>1</v>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="60">
-        <v>1</v>
+      <c r="C48" s="1"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="60">
-        <v>1</v>
+      <c r="C49" s="1"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="60">
-        <v>1</v>
+      <c r="C50" s="1"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="60">
-        <v>1</v>
+      <c r="C51" s="1"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="60">
-        <v>1</v>
+      <c r="C52" s="1"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="60">
-        <v>0.5</v>
+      <c r="C53" s="1"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="60">
-        <v>1</v>
+      <c r="C54" s="1"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="60">
-        <v>1</v>
+      <c r="C55" s="1"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="60">
-        <v>1</v>
+      <c r="C56" s="1"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="60">
-        <v>1</v>
+      <c r="C57" s="1"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="60">
-        <v>1</v>
+      <c r="C58" s="1"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="60">
-        <v>1</v>
+      <c r="C59" s="1"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="60">
-        <v>1</v>
+      <c r="C60" s="1"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="60">
+      <c r="C61" s="1"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="60">
-        <v>1</v>
+      <c r="C62" s="1"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="60">
-        <v>1</v>
+      <c r="C63" s="1"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="60">
-        <v>1</v>
+      <c r="C64" s="1"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="60">
-        <v>1</v>
+      <c r="C65" s="1"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="60">
-        <v>1</v>
+      <c r="C66" s="1"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="60">
-        <v>1</v>
+      <c r="C67" s="1"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="60">
-        <v>0.75</v>
+      <c r="C68" s="1"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="60">
-        <v>1</v>
+      <c r="C69" s="1"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="60">
-        <v>1</v>
+      <c r="C70" s="1"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="60">
-        <v>1</v>
+      <c r="C71" s="1"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="60">
-        <v>1</v>
+      <c r="C72" s="1"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="60">
-        <v>1</v>
+      <c r="C73" s="1"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="60">
-        <v>0.75</v>
+      <c r="C74" s="1"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="60">
-        <v>1</v>
+      <c r="C75" s="1"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="60">
-        <v>1</v>
+      <c r="C76" s="1"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="60">
-        <v>1</v>
+      <c r="C77" s="1"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="60">
-        <v>1</v>
+      <c r="C78" s="1"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="60">
+      <c r="C79" s="1"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="60">
-        <v>0.5</v>
+      <c r="C80" s="1"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="60">
-        <v>1</v>
+      <c r="C81" s="1"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="60">
-        <v>1</v>
+      <c r="C82" s="1"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="60">
-        <v>1</v>
+      <c r="C83" s="1"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="60">
-        <v>1</v>
+      <c r="C84" s="1"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="60">
-        <v>1</v>
+      <c r="C85" s="1"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="60">
-        <v>1</v>
+      <c r="C86" s="1"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="60">
-        <v>1</v>
+      <c r="C87" s="1"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="60">
+      <c r="C88" s="1"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="60">
-        <v>0.5</v>
+      <c r="C89" s="1"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="60">
-        <v>0.75</v>
+      <c r="C90" s="1"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="60">
-        <v>1</v>
+      <c r="C91" s="1"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="60">
-        <v>1</v>
+      <c r="C92" s="1"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="60">
-        <v>0.75</v>
+      <c r="C93" s="1"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="60">
-        <v>1</v>
+      <c r="C94" s="1"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="34" t="s">
+      <c r="A95" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="60">
-        <v>1</v>
+      <c r="C95" s="1"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="60">
-        <v>0.5</v>
+      <c r="C96" s="1"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="60">
-        <v>1</v>
+      <c r="C97" s="1"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="60">
-        <v>1</v>
+      <c r="C98" s="1"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="60">
-        <v>1</v>
+      <c r="C99" s="1"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="60">
+      <c r="C100" s="1"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="60">
-        <v>1</v>
+      <c r="C101" s="1"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="60">
-        <v>1</v>
+      <c r="C102" s="1"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="60">
-        <v>0.5</v>
+      <c r="C103" s="1"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="60">
-        <v>0.5</v>
+      <c r="C104" s="1"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="60">
-        <v>1</v>
+      <c r="C105" s="1"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="60">
-        <v>1</v>
+      <c r="C106" s="1"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="60">
-        <v>1</v>
+      <c r="C107" s="1"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="60">
-        <v>1</v>
+      <c r="C108" s="1"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="60">
-        <v>1</v>
+      <c r="C109" s="1"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="60">
-        <v>0.75</v>
+      <c r="C110" s="1"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="60">
-        <v>0.75</v>
+      <c r="C111" s="1"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="60">
-        <v>1</v>
+      <c r="C112" s="1"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="60">
-        <v>1</v>
+      <c r="C113" s="1"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="60">
-        <v>1</v>
+      <c r="C114" s="1"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="60">
-        <v>1</v>
+      <c r="C115" s="1"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="60">
-        <v>0.75</v>
+      <c r="C116" s="1"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="60">
-        <v>0.5</v>
+      <c r="C117" s="1"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="60">
-        <v>1</v>
+      <c r="C118" s="1"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="60">
-        <v>0.5</v>
+      <c r="C119" s="1"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="60">
-        <v>1</v>
+      <c r="C120" s="1"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="60">
-        <v>1</v>
+      <c r="C121" s="1"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="60">
-        <v>1</v>
+      <c r="C122" s="1"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="60">
-        <v>1</v>
+      <c r="C123" s="1"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="60">
-        <v>1</v>
+      <c r="C124" s="1"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="60">
-        <v>1</v>
+      <c r="C125" s="1"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="60">
-        <v>1</v>
+      <c r="C126" s="1"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="60">
-        <v>1</v>
+      <c r="C127" s="1"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="60">
-        <v>0.75</v>
+      <c r="C128" s="1"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="49"/>
-      <c r="H129" s="60">
-        <v>1</v>
+      <c r="C129" s="1"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="60">
-        <v>1</v>
+      <c r="C130" s="1"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="49"/>
-      <c r="H131" s="60">
-        <v>1</v>
+      <c r="C131" s="1"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="49"/>
-      <c r="H132" s="60">
-        <v>0.75</v>
+      <c r="C132" s="1"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="60">
-        <v>1</v>
+      <c r="C133" s="1"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="60">
-        <v>1</v>
+      <c r="C134" s="1"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="60">
-        <v>0.25</v>
+      <c r="C135" s="1"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="59">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="60">
-        <v>1</v>
+      <c r="C136" s="1"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="60">
-        <v>0.75</v>
+      <c r="C137" s="1"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="60">
+      <c r="C138" s="1"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="60">
-        <v>1</v>
+      <c r="C139" s="1"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="60">
-        <v>1</v>
+      <c r="C140" s="1"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
-      <c r="A141" s="34" t="s">
+      <c r="A141" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="60">
-        <v>0.75</v>
+      <c r="C141" s="1"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="60">
-        <v>1</v>
+      <c r="C142" s="1"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="60">
-        <v>0.5</v>
+      <c r="C143" s="1"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="60">
-        <v>1</v>
+      <c r="C144" s="1"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="60">
-        <v>1</v>
+      <c r="C145" s="1"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="60">
-        <v>1</v>
+      <c r="C146" s="1"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="60">
-        <v>1</v>
+      <c r="C147" s="1"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="60">
-        <v>0.5</v>
+      <c r="C148" s="1"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="60">
-        <v>1</v>
+      <c r="C149" s="1"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="60">
-        <v>1</v>
+      <c r="C150" s="1"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="60">
-        <v>1</v>
+      <c r="C151" s="1"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
-      <c r="A152" s="34" t="s">
+      <c r="A152" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="49"/>
-      <c r="H152" s="60">
-        <v>1</v>
+      <c r="C152" s="1"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="49"/>
-      <c r="H153" s="60">
-        <v>1</v>
+      <c r="C153" s="1"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="60">
-        <v>1</v>
+      <c r="C154" s="1"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="49"/>
-      <c r="H155" s="60">
-        <v>0.75</v>
+      <c r="C155" s="1"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="49"/>
-      <c r="H156" s="60">
-        <v>0.75</v>
+      <c r="C156" s="1"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="49"/>
-      <c r="H157" s="60">
+      <c r="C157" s="1"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="49"/>
-      <c r="H158" s="60">
-        <v>1</v>
+      <c r="C158" s="1"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="60">
-        <v>0.5</v>
+      <c r="C159" s="1"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="60">
-        <v>1</v>
+      <c r="C160" s="1"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="34" t="s">
+      <c r="A161" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="60">
-        <v>1</v>
+      <c r="C161" s="1"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="60">
-        <v>0.75</v>
+      <c r="C162" s="1"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="34" t="s">
+      <c r="A163" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="49"/>
-      <c r="H163" s="60">
-        <v>1</v>
+      <c r="C163" s="1"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="49"/>
-      <c r="H164" s="60">
+      <c r="C164" s="1"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="49"/>
-      <c r="H165" s="60">
-        <v>1</v>
+      <c r="C165" s="1"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="35" t="s">
+      <c r="A166" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="35" t="s">
+      <c r="B166" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="60">
-        <v>1</v>
+      <c r="C166" s="1"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="35" t="s">
+      <c r="A167" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="60">
+      <c r="C167" s="1"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="49"/>
-      <c r="H168" s="60">
-        <v>1</v>
+      <c r="C168" s="1"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="35" t="s">
+      <c r="A169" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="49"/>
-      <c r="H169" s="60">
-        <v>1</v>
+      <c r="C169" s="1"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="35" t="s">
+      <c r="A170" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="60">
-        <v>1</v>
+      <c r="C170" s="1"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="35" t="s">
+      <c r="B171" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="60">
-        <v>1</v>
+      <c r="C171" s="1"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="60">
-        <v>0.5</v>
+      <c r="C172" s="1"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="35" t="s">
+      <c r="A173" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="60">
-        <v>0.5</v>
+      <c r="C173" s="1"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="60">
-        <v>1</v>
+      <c r="C174" s="1"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="60">
-        <v>1</v>
+      <c r="C175" s="1"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="35" t="s">
+      <c r="A176" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="14"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="60">
-        <v>1</v>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="35" t="s">
+      <c r="A177" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="47"/>
-      <c r="H177" s="60">
-        <v>0.75</v>
+      <c r="C177" s="15"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="46"/>
+      <c r="H177" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="35" t="s">
+      <c r="A178" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="18"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="53"/>
-      <c r="H178" s="60">
-        <v>0.5</v>
+      <c r="C178" s="17"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="60">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="60">
-        <v>1</v>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="35" t="s">
+      <c r="A181" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="60">
-        <v>1</v>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="35" t="s">
+      <c r="A182" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="25"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="60">
-        <v>1</v>
+      <c r="C182" s="24"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="35" t="s">
+      <c r="A183" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="60">
-        <v>1</v>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="54"/>
+      <c r="H183" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="35" t="s">
+      <c r="A184" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="35" t="s">
+      <c r="B184" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="60">
-        <v>0.5</v>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="56"/>
-      <c r="H185" s="60">
-        <v>1</v>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="35" t="s">
+      <c r="A186" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="28"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="56"/>
-      <c r="H186" s="60">
-        <v>0.75</v>
+      <c r="C186" s="27"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="56"/>
-      <c r="H187" s="60">
-        <v>1</v>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="53"/>
-      <c r="H188" s="60">
-        <v>0.75</v>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="52"/>
+      <c r="H188" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="34" t="s">
+      <c r="A189" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="34" t="s">
+      <c r="B189" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="53"/>
-      <c r="H189" s="60">
-        <v>1</v>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="52"/>
+      <c r="H189" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="34" t="s">
+      <c r="B190" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="27"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="53"/>
-      <c r="H190" s="60">
-        <v>0.75</v>
+      <c r="C190" s="26"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="34" t="s">
+      <c r="A191" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="53"/>
-      <c r="H191" s="60">
-        <v>1</v>
+      <c r="C191" s="27"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="34" t="s">
+      <c r="A192" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="34" t="s">
+      <c r="B192" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="53"/>
-      <c r="H192" s="60">
-        <v>1</v>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
-      <c r="A193" s="34" t="s">
+      <c r="A193" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B193" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="53"/>
-      <c r="H193" s="60">
-        <v>1</v>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
-      <c r="A194" s="34" t="s">
+      <c r="A194" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="34" t="s">
+      <c r="B194" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="27"/>
-      <c r="D194" s="30"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="53"/>
-      <c r="H194" s="60">
-        <v>0.75</v>
+      <c r="C194" s="26"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="52"/>
+      <c r="H194" s="59">
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="34" t="s">
+      <c r="B195" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="28"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="53"/>
-      <c r="H195" s="60">
-        <v>1</v>
+      <c r="C195" s="27"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="52"/>
+      <c r="H195" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
-      <c r="A196" s="34" t="s">
+      <c r="A196" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="B196" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="27"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="53"/>
-      <c r="H196" s="60">
-        <v>1</v>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
-      <c r="A197" s="34" t="s">
+      <c r="A197" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="34" t="s">
+      <c r="B197" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="53"/>
-      <c r="H197" s="60">
-        <v>1</v>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
-      <c r="A198" s="34" t="s">
+      <c r="A198" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="34" t="s">
+      <c r="B198" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="27"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="53"/>
-      <c r="H198" s="60">
-        <v>1</v>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="28"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="53"/>
-      <c r="H199" s="60">
-        <v>1</v>
+      <c r="C199" s="27"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
-      <c r="A200" s="34" t="s">
+      <c r="A200" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="27"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="53"/>
-      <c r="H200" s="60">
-        <v>1</v>
+      <c r="C200" s="26"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
-      <c r="A201" s="38" t="s">
+      <c r="A201" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="39"/>
-      <c r="D201" s="40"/>
-      <c r="E201" s="41"/>
-      <c r="F201" s="42"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="60">
-        <v>1</v>
+      <c r="C201" s="38"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="41"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="43" t="s">
+      <c r="B202" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="44"/>
-      <c r="D202" s="44"/>
-      <c r="E202" s="44"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="58"/>
-      <c r="H202" s="60">
-        <v>1</v>
+      <c r="C202" s="43"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="59">
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="45" t="s">
+      <c r="A203" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="44"/>
-      <c r="D203" s="44"/>
-      <c r="E203" s="44"/>
-      <c r="F203" s="44"/>
-      <c r="G203" s="58"/>
-      <c r="H203" s="60">
-        <v>0.25</v>
+      <c r="C203" s="43"/>
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="59">
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
-      <c r="A204" s="45" t="s">
+      <c r="A204" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="45" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="44"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="44"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="60">
-        <v>0.5</v>
+      <c r="C204" s="43"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
-      <c r="A205" s="45" t="s">
+      <c r="A205" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="44"/>
-      <c r="D205" s="44"/>
-      <c r="E205" s="44"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="58"/>
-      <c r="H205" s="60">
-        <v>0.5</v>
+      <c r="C205" s="43"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="59">
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
-      <c r="A206" s="45" t="s">
+      <c r="A206" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="44"/>
-      <c r="D206" s="44"/>
-      <c r="E206" s="44"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="58"/>
-      <c r="H206" s="60">
-        <v>0.25</v>
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="59">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5451,9 +5438,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5601,15 +5591,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5623,16 +5622,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1292,34 +1292,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -1342,11 +1342,13 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1664,7 +1666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,7 +1824,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2111,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J2" sqref="J2:M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2125,7 +2130,7 @@
     <col min="7" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2156,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
@@ -2163,11 +2168,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="46"/>
-      <c r="H2" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="H2" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -2179,11 +2185,12 @@
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="H3" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -2195,11 +2202,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="48"/>
-      <c r="H4" s="59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="H4" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
@@ -2211,11 +2219,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+      <c r="H5" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
@@ -2227,11 +2236,12 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="48"/>
-      <c r="H6" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+      <c r="H6" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
@@ -2243,11 +2253,12 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
+      <c r="H7" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
@@ -2259,11 +2270,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
+      <c r="H8" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
@@ -2275,11 +2287,12 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="48"/>
-      <c r="H9" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
+      <c r="H9" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
@@ -2291,11 +2304,12 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+      <c r="H10" s="60">
+        <v>100</v>
+      </c>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="33" t="s">
         <v>16</v>
       </c>
@@ -2307,11 +2321,12 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="48"/>
-      <c r="H11" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+      <c r="H11" s="60">
+        <v>100</v>
+      </c>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
@@ -2323,11 +2338,12 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="48"/>
-      <c r="H12" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+      <c r="H12" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
@@ -2339,11 +2355,12 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="G13" s="48"/>
-      <c r="H13" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+      <c r="H13" s="60">
+        <v>100</v>
+      </c>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="33" t="s">
         <v>19</v>
       </c>
@@ -2355,11 +2372,12 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="48"/>
-      <c r="H14" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
+      <c r="H14" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="33" t="s">
         <v>20</v>
       </c>
@@ -2371,11 +2389,12 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
+      <c r="H15" s="60">
+        <v>50</v>
+      </c>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
@@ -2387,11 +2406,12 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
+      <c r="H16" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="33" t="s">
         <v>22</v>
       </c>
@@ -2403,11 +2423,12 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="59">
+      <c r="H17" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="33" t="s">
         <v>23</v>
       </c>
@@ -2419,11 +2440,12 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
+      <c r="H18" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
@@ -2435,11 +2457,12 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
+      <c r="H19" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
@@ -2451,11 +2474,12 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="48"/>
-      <c r="H20" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
+      <c r="H20" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
@@ -2467,11 +2491,12 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
+      <c r="H21" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="33" t="s">
         <v>27</v>
       </c>
@@ -2483,11 +2508,12 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
+      <c r="H22" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="33" t="s">
         <v>28</v>
       </c>
@@ -2499,11 +2525,12 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="59">
+      <c r="H23" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
@@ -2515,11 +2542,12 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
+      <c r="H24" s="60">
+        <v>50</v>
+      </c>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="33" t="s">
         <v>30</v>
       </c>
@@ -2531,11 +2559,12 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
+      <c r="H25" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="33" t="s">
         <v>31</v>
       </c>
@@ -2547,11 +2576,12 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="48"/>
-      <c r="H26" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+      <c r="H26" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="33" t="s">
         <v>32</v>
       </c>
@@ -2563,11 +2593,12 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
+      <c r="H27" s="60">
+        <v>100</v>
+      </c>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="33" t="s">
         <v>33</v>
       </c>
@@ -2579,11 +2610,12 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="48"/>
-      <c r="H28" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
+      <c r="H28" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J28" s="59"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="33" t="s">
         <v>34</v>
       </c>
@@ -2595,11 +2627,12 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+      <c r="H29" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="33" t="s">
         <v>35</v>
       </c>
@@ -2611,11 +2644,12 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="48"/>
-      <c r="H30" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
+      <c r="H30" s="60">
+        <v>100</v>
+      </c>
+      <c r="J30" s="59"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="33" t="s">
         <v>36</v>
       </c>
@@ -2627,11 +2661,12 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
-      <c r="H31" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+      <c r="H31" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="33" t="s">
         <v>37</v>
       </c>
@@ -2643,11 +2678,12 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="49"/>
-      <c r="H32" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
+      <c r="H32" s="60">
+        <v>50</v>
+      </c>
+      <c r="J32" s="59"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="33" t="s">
         <v>38</v>
       </c>
@@ -2659,11 +2695,12 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="48"/>
-      <c r="H33" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
+      <c r="H33" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J33" s="59"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="33" t="s">
         <v>39</v>
       </c>
@@ -2675,11 +2712,12 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="48"/>
-      <c r="H34" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
+      <c r="H34" s="60">
+        <v>100</v>
+      </c>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="33" t="s">
         <v>40</v>
       </c>
@@ -2691,11 +2729,12 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
+      <c r="H35" s="60">
+        <v>100</v>
+      </c>
+      <c r="J35" s="59"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="33" t="s">
         <v>41</v>
       </c>
@@ -2707,11 +2746,12 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="48"/>
-      <c r="H36" s="59">
+      <c r="H36" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="33" t="s">
         <v>42</v>
       </c>
@@ -2723,11 +2763,12 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="48"/>
-      <c r="H37" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
+      <c r="H37" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J37" s="59"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="33" t="s">
         <v>43</v>
       </c>
@@ -2739,11 +2780,12 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="48"/>
-      <c r="H38" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
+      <c r="H38" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="33" t="s">
         <v>44</v>
       </c>
@@ -2755,11 +2797,12 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="48"/>
-      <c r="H39" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
+      <c r="H39" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="33" t="s">
         <v>45</v>
       </c>
@@ -2771,11 +2814,12 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="48"/>
-      <c r="H40" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
+      <c r="H40" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="33" t="s">
         <v>46</v>
       </c>
@@ -2787,11 +2831,12 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
+      <c r="H41" s="60">
+        <v>100</v>
+      </c>
+      <c r="J41" s="59"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="33" t="s">
         <v>47</v>
       </c>
@@ -2803,11 +2848,12 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75">
+      <c r="H42" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="33" t="s">
         <v>48</v>
       </c>
@@ -2819,11 +2865,12 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75">
+      <c r="H43" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="33" t="s">
         <v>49</v>
       </c>
@@ -2835,11 +2882,12 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
       <c r="G44" s="48"/>
-      <c r="H44" s="59">
+      <c r="H44" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75">
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="33" t="s">
         <v>50</v>
       </c>
@@ -2851,11 +2899,12 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75">
+      <c r="H45" s="60">
+        <v>100</v>
+      </c>
+      <c r="J45" s="59"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="33" t="s">
         <v>51</v>
       </c>
@@ -2867,11 +2916,12 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="48"/>
-      <c r="H46" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75">
+      <c r="H46" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="33" t="s">
         <v>52</v>
       </c>
@@ -2883,11 +2933,12 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="48"/>
-      <c r="H47" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75">
+      <c r="H47" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J47" s="59"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="33" t="s">
         <v>53</v>
       </c>
@@ -2899,11 +2950,12 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="48"/>
-      <c r="H48" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75">
+      <c r="H48" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J48" s="59"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="33" t="s">
         <v>54</v>
       </c>
@@ -2915,11 +2967,12 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
       <c r="G49" s="49"/>
-      <c r="H49" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
+      <c r="H49" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J49" s="59"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="33" t="s">
         <v>55</v>
       </c>
@@ -2931,11 +2984,12 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
       <c r="G50" s="48"/>
-      <c r="H50" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75">
+      <c r="H50" s="60">
+        <v>100</v>
+      </c>
+      <c r="J50" s="59"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="33" t="s">
         <v>56</v>
       </c>
@@ -2947,11 +3001,12 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
       <c r="G51" s="48"/>
-      <c r="H51" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75">
+      <c r="H51" s="60">
+        <v>100</v>
+      </c>
+      <c r="J51" s="59"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="33" t="s">
         <v>57</v>
       </c>
@@ -2963,11 +3018,12 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
       <c r="G52" s="48"/>
-      <c r="H52" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
+      <c r="H52" s="60">
+        <v>100</v>
+      </c>
+      <c r="J52" s="59"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="33" t="s">
         <v>58</v>
       </c>
@@ -2979,11 +3035,12 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
       <c r="G53" s="48"/>
-      <c r="H53" s="59">
+      <c r="H53" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
+      <c r="J53" s="59"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="33" t="s">
         <v>59</v>
       </c>
@@ -2995,11 +3052,12 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
       <c r="G54" s="48"/>
-      <c r="H54" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75">
+      <c r="H54" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J54" s="59"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="33" t="s">
         <v>60</v>
       </c>
@@ -3011,11 +3069,12 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
       <c r="G55" s="48"/>
-      <c r="H55" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
+      <c r="H55" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J55" s="59"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="33" t="s">
         <v>61</v>
       </c>
@@ -3027,11 +3086,12 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
       <c r="G56" s="49"/>
-      <c r="H56" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
+      <c r="H56" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J56" s="59"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="33" t="s">
         <v>62</v>
       </c>
@@ -3043,11 +3103,12 @@
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
       <c r="G57" s="48"/>
-      <c r="H57" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
+      <c r="H57" s="60">
+        <v>100</v>
+      </c>
+      <c r="J57" s="59"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="33" t="s">
         <v>63</v>
       </c>
@@ -3059,11 +3120,12 @@
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
       <c r="G58" s="48"/>
-      <c r="H58" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
+      <c r="H58" s="60">
+        <v>100</v>
+      </c>
+      <c r="J58" s="59"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="33" t="s">
         <v>64</v>
       </c>
@@ -3075,11 +3137,12 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4"/>
       <c r="G59" s="48"/>
-      <c r="H59" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
+      <c r="H59" s="60">
+        <v>100</v>
+      </c>
+      <c r="J59" s="59"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="33" t="s">
         <v>65</v>
       </c>
@@ -3091,11 +3154,12 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
       <c r="G60" s="48"/>
-      <c r="H60" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75">
+      <c r="H60" s="60">
+        <v>100</v>
+      </c>
+      <c r="J60" s="59"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="33" t="s">
         <v>66</v>
       </c>
@@ -3107,11 +3171,12 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
       <c r="G61" s="48"/>
-      <c r="H61" s="59">
+      <c r="H61" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
+      <c r="J61" s="59"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="33" t="s">
         <v>67</v>
       </c>
@@ -3123,11 +3188,12 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
       <c r="G62" s="48"/>
-      <c r="H62" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75">
+      <c r="H62" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J62" s="59"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="33" t="s">
         <v>68</v>
       </c>
@@ -3139,11 +3205,12 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
       <c r="G63" s="48"/>
-      <c r="H63" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75">
+      <c r="H63" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J63" s="59"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="33" t="s">
         <v>69</v>
       </c>
@@ -3155,11 +3222,12 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
       <c r="G64" s="48"/>
-      <c r="H64" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75">
+      <c r="H64" s="60">
+        <v>100</v>
+      </c>
+      <c r="J64" s="59"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="33" t="s">
         <v>70</v>
       </c>
@@ -3171,11 +3239,12 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
       <c r="G65" s="48"/>
-      <c r="H65" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75">
+      <c r="H65" s="60">
+        <v>100</v>
+      </c>
+      <c r="J65" s="59"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="33" t="s">
         <v>71</v>
       </c>
@@ -3187,11 +3256,12 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
       <c r="G66" s="48"/>
-      <c r="H66" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75">
+      <c r="H66" s="60">
+        <v>100</v>
+      </c>
+      <c r="J66" s="59"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
       <c r="A67" s="33" t="s">
         <v>72</v>
       </c>
@@ -3203,11 +3273,12 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
       <c r="G67" s="48"/>
-      <c r="H67" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75">
+      <c r="H67" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J67" s="59"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
       <c r="A68" s="33" t="s">
         <v>73</v>
       </c>
@@ -3219,11 +3290,12 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
       <c r="G68" s="48"/>
-      <c r="H68" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75">
+      <c r="H68" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J68" s="59"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
       <c r="A69" s="33" t="s">
         <v>74</v>
       </c>
@@ -3235,11 +3307,12 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
       <c r="G69" s="49"/>
-      <c r="H69" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75">
+      <c r="H69" s="60">
+        <v>100</v>
+      </c>
+      <c r="J69" s="59"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
       <c r="A70" s="33" t="s">
         <v>75</v>
       </c>
@@ -3251,11 +3324,12 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4"/>
       <c r="G70" s="48"/>
-      <c r="H70" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75">
+      <c r="H70" s="60">
+        <v>100</v>
+      </c>
+      <c r="J70" s="59"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="33" t="s">
         <v>76</v>
       </c>
@@ -3267,11 +3341,12 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
       <c r="G71" s="48"/>
-      <c r="H71" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75">
+      <c r="H71" s="60">
+        <v>100</v>
+      </c>
+      <c r="J71" s="59"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="33" t="s">
         <v>77</v>
       </c>
@@ -3283,11 +3358,12 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
       <c r="G72" s="48"/>
-      <c r="H72" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75">
+      <c r="H72" s="60">
+        <v>100</v>
+      </c>
+      <c r="J72" s="59"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="33" t="s">
         <v>78</v>
       </c>
@@ -3299,11 +3375,12 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
       <c r="G73" s="48"/>
-      <c r="H73" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75">
+      <c r="H73" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J73" s="59"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="33" t="s">
         <v>79</v>
       </c>
@@ -3315,11 +3392,12 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
       <c r="G74" s="49"/>
-      <c r="H74" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75">
+      <c r="H74" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J74" s="59"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="33" t="s">
         <v>80</v>
       </c>
@@ -3331,11 +3409,12 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
       <c r="G75" s="49"/>
-      <c r="H75" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75">
+      <c r="H75" s="60">
+        <v>100</v>
+      </c>
+      <c r="J75" s="59"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="33" t="s">
         <v>81</v>
       </c>
@@ -3347,11 +3426,12 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
       <c r="G76" s="48"/>
-      <c r="H76" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75">
+      <c r="H76" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J76" s="59"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="33" t="s">
         <v>82</v>
       </c>
@@ -3363,11 +3443,12 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4"/>
       <c r="G77" s="48"/>
-      <c r="H77" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75">
+      <c r="H77" s="60">
+        <v>100</v>
+      </c>
+      <c r="J77" s="59"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="33" t="s">
         <v>83</v>
       </c>
@@ -3379,11 +3460,12 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
       <c r="G78" s="48"/>
-      <c r="H78" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75">
+      <c r="H78" s="60">
+        <v>100</v>
+      </c>
+      <c r="J78" s="59"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="33" t="s">
         <v>84</v>
       </c>
@@ -3395,11 +3477,12 @@
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
       <c r="G79" s="48"/>
-      <c r="H79" s="59">
+      <c r="H79" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75">
+      <c r="J79" s="59"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="33" t="s">
         <v>85</v>
       </c>
@@ -3411,11 +3494,12 @@
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
       <c r="G80" s="48"/>
-      <c r="H80" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75">
+      <c r="H80" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J80" s="59"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="33" t="s">
         <v>86</v>
       </c>
@@ -3427,11 +3511,12 @@
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
       <c r="G81" s="48"/>
-      <c r="H81" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75">
+      <c r="H81" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J81" s="59"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="33" t="s">
         <v>87</v>
       </c>
@@ -3443,11 +3528,12 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4"/>
       <c r="G82" s="48"/>
-      <c r="H82" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75">
+      <c r="H82" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J82" s="59"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="33" t="s">
         <v>88</v>
       </c>
@@ -3459,11 +3545,12 @@
       <c r="E83" s="3"/>
       <c r="F83" s="4"/>
       <c r="G83" s="48"/>
-      <c r="H83" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75">
+      <c r="H83" s="60">
+        <v>100</v>
+      </c>
+      <c r="J83" s="59"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="33" t="s">
         <v>89</v>
       </c>
@@ -3475,11 +3562,12 @@
       <c r="E84" s="3"/>
       <c r="F84" s="4"/>
       <c r="G84" s="48"/>
-      <c r="H84" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75">
+      <c r="H84" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J84" s="59"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
       <c r="A85" s="33" t="s">
         <v>90</v>
       </c>
@@ -3491,11 +3579,12 @@
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
       <c r="G85" s="48"/>
-      <c r="H85" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75">
+      <c r="H85" s="60">
+        <v>100</v>
+      </c>
+      <c r="J85" s="59"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="33" t="s">
         <v>91</v>
       </c>
@@ -3507,11 +3596,12 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
       <c r="G86" s="49"/>
-      <c r="H86" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75">
+      <c r="H86" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J86" s="59"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75">
       <c r="A87" s="33" t="s">
         <v>92</v>
       </c>
@@ -3523,11 +3613,12 @@
       <c r="E87" s="3"/>
       <c r="F87" s="4"/>
       <c r="G87" s="48"/>
-      <c r="H87" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75">
+      <c r="H87" s="60">
+        <v>100</v>
+      </c>
+      <c r="J87" s="59"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="33" t="s">
         <v>93</v>
       </c>
@@ -3539,11 +3630,12 @@
       <c r="E88" s="3"/>
       <c r="F88" s="4"/>
       <c r="G88" s="48"/>
-      <c r="H88" s="59">
+      <c r="H88" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75">
+      <c r="J88" s="59"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="33" t="s">
         <v>94</v>
       </c>
@@ -3555,11 +3647,12 @@
       <c r="E89" s="3"/>
       <c r="F89" s="4"/>
       <c r="G89" s="48"/>
-      <c r="H89" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75">
+      <c r="H89" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J89" s="59"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="33" t="s">
         <v>95</v>
       </c>
@@ -3571,11 +3664,12 @@
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
       <c r="G90" s="48"/>
-      <c r="H90" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75">
+      <c r="H90" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J90" s="59"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="33" t="s">
         <v>96</v>
       </c>
@@ -3587,11 +3681,12 @@
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
       <c r="G91" s="48"/>
-      <c r="H91" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75">
+      <c r="H91" s="60">
+        <v>100</v>
+      </c>
+      <c r="J91" s="59"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="33" t="s">
         <v>97</v>
       </c>
@@ -3603,11 +3698,12 @@
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
       <c r="G92" s="48"/>
-      <c r="H92" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75">
+      <c r="H92" s="60">
+        <v>100</v>
+      </c>
+      <c r="J92" s="59"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="33" t="s">
         <v>98</v>
       </c>
@@ -3619,11 +3715,12 @@
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
       <c r="G93" s="49"/>
-      <c r="H93" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75">
+      <c r="H93" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J93" s="59"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75">
       <c r="A94" s="33" t="s">
         <v>99</v>
       </c>
@@ -3635,11 +3732,12 @@
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
       <c r="G94" s="48"/>
-      <c r="H94" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75">
+      <c r="H94" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J94" s="59"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75">
       <c r="A95" s="33" t="s">
         <v>100</v>
       </c>
@@ -3651,11 +3749,12 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
       <c r="G95" s="48"/>
-      <c r="H95" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75">
+      <c r="H95" s="60">
+        <v>100</v>
+      </c>
+      <c r="J95" s="59"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75">
       <c r="A96" s="33" t="s">
         <v>101</v>
       </c>
@@ -3667,11 +3766,12 @@
       <c r="E96" s="3"/>
       <c r="F96" s="4"/>
       <c r="G96" s="48"/>
-      <c r="H96" s="59">
+      <c r="H96" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75">
+      <c r="J96" s="59"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
       <c r="A97" s="33" t="s">
         <v>102</v>
       </c>
@@ -3683,11 +3783,12 @@
       <c r="E97" s="3"/>
       <c r="F97" s="4"/>
       <c r="G97" s="48"/>
-      <c r="H97" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75">
+      <c r="H97" s="60">
+        <v>100</v>
+      </c>
+      <c r="J97" s="59"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75">
       <c r="A98" s="33" t="s">
         <v>103</v>
       </c>
@@ -3699,11 +3800,12 @@
       <c r="E98" s="3"/>
       <c r="F98" s="4"/>
       <c r="G98" s="48"/>
-      <c r="H98" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75">
+      <c r="H98" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J98" s="59"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
       <c r="A99" s="33" t="s">
         <v>104</v>
       </c>
@@ -3715,11 +3817,12 @@
       <c r="E99" s="3"/>
       <c r="F99" s="4"/>
       <c r="G99" s="48"/>
-      <c r="H99" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75">
+      <c r="H99" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J99" s="59"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75">
       <c r="A100" s="33" t="s">
         <v>105</v>
       </c>
@@ -3731,11 +3834,12 @@
       <c r="E100" s="3"/>
       <c r="F100" s="4"/>
       <c r="G100" s="48"/>
-      <c r="H100" s="59">
+      <c r="H100" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75">
+      <c r="J100" s="59"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75">
       <c r="A101" s="33" t="s">
         <v>106</v>
       </c>
@@ -3747,11 +3851,12 @@
       <c r="E101" s="3"/>
       <c r="F101" s="4"/>
       <c r="G101" s="48"/>
-      <c r="H101" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75">
+      <c r="H101" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J101" s="59"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75">
       <c r="A102" s="33" t="s">
         <v>107</v>
       </c>
@@ -3763,11 +3868,12 @@
       <c r="E102" s="3"/>
       <c r="F102" s="4"/>
       <c r="G102" s="48"/>
-      <c r="H102" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75">
+      <c r="H102" s="60">
+        <v>100</v>
+      </c>
+      <c r="J102" s="59"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75">
       <c r="A103" s="33" t="s">
         <v>108</v>
       </c>
@@ -3779,11 +3885,12 @@
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
       <c r="G103" s="49"/>
-      <c r="H103" s="59">
+      <c r="H103" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75">
+      <c r="J103" s="59"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75">
       <c r="A104" s="33" t="s">
         <v>109</v>
       </c>
@@ -3795,11 +3902,12 @@
       <c r="E104" s="3"/>
       <c r="F104" s="4"/>
       <c r="G104" s="48"/>
-      <c r="H104" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75">
+      <c r="H104" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J104" s="59"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75">
       <c r="A105" s="33" t="s">
         <v>110</v>
       </c>
@@ -3811,11 +3919,12 @@
       <c r="E105" s="3"/>
       <c r="F105" s="4"/>
       <c r="G105" s="48"/>
-      <c r="H105" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75">
+      <c r="H105" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J105" s="59"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75">
       <c r="A106" s="33" t="s">
         <v>111</v>
       </c>
@@ -3827,11 +3936,12 @@
       <c r="E106" s="3"/>
       <c r="F106" s="4"/>
       <c r="G106" s="48"/>
-      <c r="H106" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75">
+      <c r="H106" s="60">
+        <v>100</v>
+      </c>
+      <c r="J106" s="59"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75">
       <c r="A107" s="33" t="s">
         <v>112</v>
       </c>
@@ -3843,11 +3953,12 @@
       <c r="E107" s="3"/>
       <c r="F107" s="4"/>
       <c r="G107" s="48"/>
-      <c r="H107" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75">
+      <c r="H107" s="60">
+        <v>100</v>
+      </c>
+      <c r="J107" s="59"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75">
       <c r="A108" s="33" t="s">
         <v>113</v>
       </c>
@@ -3859,11 +3970,12 @@
       <c r="E108" s="3"/>
       <c r="F108" s="4"/>
       <c r="G108" s="48"/>
-      <c r="H108" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75">
+      <c r="H108" s="60">
+        <v>100</v>
+      </c>
+      <c r="J108" s="59"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75">
       <c r="A109" s="33" t="s">
         <v>114</v>
       </c>
@@ -3875,11 +3987,12 @@
       <c r="E109" s="3"/>
       <c r="F109" s="4"/>
       <c r="G109" s="48"/>
-      <c r="H109" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75">
+      <c r="H109" s="60">
+        <v>100</v>
+      </c>
+      <c r="J109" s="59"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75">
       <c r="A110" s="33" t="s">
         <v>115</v>
       </c>
@@ -3891,11 +4004,12 @@
       <c r="E110" s="3"/>
       <c r="F110" s="4"/>
       <c r="G110" s="48"/>
-      <c r="H110" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75">
+      <c r="H110" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J110" s="59"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75">
       <c r="A111" s="33" t="s">
         <v>116</v>
       </c>
@@ -3907,11 +4021,12 @@
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
       <c r="G111" s="48"/>
-      <c r="H111" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75">
+      <c r="H111" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J111" s="59"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75">
       <c r="A112" s="33" t="s">
         <v>117</v>
       </c>
@@ -3923,11 +4038,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="4"/>
       <c r="G112" s="48"/>
-      <c r="H112" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75">
+      <c r="H112" s="60">
+        <v>100</v>
+      </c>
+      <c r="J112" s="59"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75">
       <c r="A113" s="33" t="s">
         <v>118</v>
       </c>
@@ -3939,11 +4055,12 @@
       <c r="E113" s="3"/>
       <c r="F113" s="4"/>
       <c r="G113" s="48"/>
-      <c r="H113" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75">
+      <c r="H113" s="60">
+        <v>100</v>
+      </c>
+      <c r="J113" s="59"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75">
       <c r="A114" s="33" t="s">
         <v>119</v>
       </c>
@@ -3955,11 +4072,12 @@
       <c r="E114" s="3"/>
       <c r="F114" s="4"/>
       <c r="G114" s="48"/>
-      <c r="H114" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75">
+      <c r="H114" s="60">
+        <v>100</v>
+      </c>
+      <c r="J114" s="59"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75">
       <c r="A115" s="33" t="s">
         <v>120</v>
       </c>
@@ -3971,11 +4089,12 @@
       <c r="E115" s="3"/>
       <c r="F115" s="4"/>
       <c r="G115" s="48"/>
-      <c r="H115" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75">
+      <c r="H115" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J115" s="59"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75">
       <c r="A116" s="33" t="s">
         <v>121</v>
       </c>
@@ -3987,11 +4106,12 @@
       <c r="E116" s="3"/>
       <c r="F116" s="4"/>
       <c r="G116" s="48"/>
-      <c r="H116" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75">
+      <c r="H116" s="60">
+        <v>50</v>
+      </c>
+      <c r="J116" s="59"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75">
       <c r="A117" s="33" t="s">
         <v>122</v>
       </c>
@@ -4003,11 +4123,12 @@
       <c r="E117" s="3"/>
       <c r="F117" s="4"/>
       <c r="G117" s="48"/>
-      <c r="H117" s="59">
+      <c r="H117" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75">
+      <c r="J117" s="59"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75">
       <c r="A118" s="33" t="s">
         <v>123</v>
       </c>
@@ -4019,11 +4140,12 @@
       <c r="E118" s="3"/>
       <c r="F118" s="4"/>
       <c r="G118" s="48"/>
-      <c r="H118" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75">
+      <c r="H118" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J118" s="59"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75">
       <c r="A119" s="33" t="s">
         <v>124</v>
       </c>
@@ -4035,11 +4157,12 @@
       <c r="E119" s="3"/>
       <c r="F119" s="4"/>
       <c r="G119" s="48"/>
-      <c r="H119" s="59">
+      <c r="H119" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75">
+      <c r="J119" s="59"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75">
       <c r="A120" s="33" t="s">
         <v>125</v>
       </c>
@@ -4051,11 +4174,12 @@
       <c r="E120" s="3"/>
       <c r="F120" s="4"/>
       <c r="G120" s="48"/>
-      <c r="H120" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75">
+      <c r="H120" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J120" s="59"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75">
       <c r="A121" s="33" t="s">
         <v>126</v>
       </c>
@@ -4067,11 +4191,12 @@
       <c r="E121" s="3"/>
       <c r="F121" s="4"/>
       <c r="G121" s="48"/>
-      <c r="H121" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75">
+      <c r="H121" s="60">
+        <v>100</v>
+      </c>
+      <c r="J121" s="59"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75">
       <c r="A122" s="33" t="s">
         <v>127</v>
       </c>
@@ -4083,11 +4208,12 @@
       <c r="E122" s="3"/>
       <c r="F122" s="4"/>
       <c r="G122" s="48"/>
-      <c r="H122" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75">
+      <c r="H122" s="60">
+        <v>100</v>
+      </c>
+      <c r="J122" s="59"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75">
       <c r="A123" s="33" t="s">
         <v>128</v>
       </c>
@@ -4099,11 +4225,12 @@
       <c r="E123" s="3"/>
       <c r="F123" s="4"/>
       <c r="G123" s="48"/>
-      <c r="H123" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75">
+      <c r="H123" s="60">
+        <v>100</v>
+      </c>
+      <c r="J123" s="59"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75">
       <c r="A124" s="33" t="s">
         <v>129</v>
       </c>
@@ -4115,11 +4242,12 @@
       <c r="E124" s="3"/>
       <c r="F124" s="4"/>
       <c r="G124" s="48"/>
-      <c r="H124" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75">
+      <c r="H124" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J124" s="59"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75">
       <c r="A125" s="33" t="s">
         <v>130</v>
       </c>
@@ -4131,11 +4259,12 @@
       <c r="E125" s="3"/>
       <c r="F125" s="4"/>
       <c r="G125" s="48"/>
-      <c r="H125" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75">
+      <c r="H125" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J125" s="59"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75">
       <c r="A126" s="33" t="s">
         <v>131</v>
       </c>
@@ -4147,11 +4276,12 @@
       <c r="E126" s="3"/>
       <c r="F126" s="4"/>
       <c r="G126" s="48"/>
-      <c r="H126" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75">
+      <c r="H126" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J126" s="59"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75">
       <c r="A127" s="33" t="s">
         <v>132</v>
       </c>
@@ -4163,11 +4293,12 @@
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
       <c r="G127" s="48"/>
-      <c r="H127" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75">
+      <c r="H127" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J127" s="59"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75">
       <c r="A128" s="33" t="s">
         <v>133</v>
       </c>
@@ -4179,11 +4310,12 @@
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
       <c r="G128" s="48"/>
-      <c r="H128" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75">
+      <c r="H128" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J128" s="59"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75">
       <c r="A129" s="33" t="s">
         <v>134</v>
       </c>
@@ -4195,11 +4327,12 @@
       <c r="E129" s="3"/>
       <c r="F129" s="4"/>
       <c r="G129" s="48"/>
-      <c r="H129" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75">
+      <c r="H129" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J129" s="59"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75">
       <c r="A130" s="33" t="s">
         <v>135</v>
       </c>
@@ -4211,11 +4344,12 @@
       <c r="E130" s="3"/>
       <c r="F130" s="4"/>
       <c r="G130" s="48"/>
-      <c r="H130" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75">
+      <c r="H130" s="60">
+        <v>100</v>
+      </c>
+      <c r="J130" s="59"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75">
       <c r="A131" s="33" t="s">
         <v>136</v>
       </c>
@@ -4227,11 +4361,12 @@
       <c r="E131" s="3"/>
       <c r="F131" s="4"/>
       <c r="G131" s="48"/>
-      <c r="H131" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75">
+      <c r="H131" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J131" s="59"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75">
       <c r="A132" s="33" t="s">
         <v>137</v>
       </c>
@@ -4243,11 +4378,12 @@
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
       <c r="G132" s="48"/>
-      <c r="H132" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75">
+      <c r="H132" s="60">
+        <v>50</v>
+      </c>
+      <c r="J132" s="59"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75">
       <c r="A133" s="33" t="s">
         <v>138</v>
       </c>
@@ -4259,11 +4395,12 @@
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
       <c r="G133" s="48"/>
-      <c r="H133" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75">
+      <c r="H133" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J133" s="59"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75">
       <c r="A134" s="33" t="s">
         <v>139</v>
       </c>
@@ -4275,11 +4412,12 @@
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
       <c r="G134" s="48"/>
-      <c r="H134" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75">
+      <c r="H134" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J134" s="59"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75">
       <c r="A135" s="33" t="s">
         <v>140</v>
       </c>
@@ -4291,11 +4429,12 @@
       <c r="E135" s="3"/>
       <c r="F135" s="4"/>
       <c r="G135" s="48"/>
-      <c r="H135" s="59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75">
+      <c r="H135" s="60">
+        <v>50</v>
+      </c>
+      <c r="J135" s="59"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75">
       <c r="A136" s="33" t="s">
         <v>141</v>
       </c>
@@ -4307,11 +4446,12 @@
       <c r="E136" s="3"/>
       <c r="F136" s="4"/>
       <c r="G136" s="48"/>
-      <c r="H136" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75">
+      <c r="H136" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J136" s="59"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75">
       <c r="A137" s="33" t="s">
         <v>142</v>
       </c>
@@ -4323,11 +4463,12 @@
       <c r="E137" s="3"/>
       <c r="F137" s="4"/>
       <c r="G137" s="48"/>
-      <c r="H137" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75">
+      <c r="H137" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J137" s="59"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75">
       <c r="A138" s="33" t="s">
         <v>143</v>
       </c>
@@ -4339,11 +4480,12 @@
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
       <c r="G138" s="48"/>
-      <c r="H138" s="59">
+      <c r="H138" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75">
+      <c r="J138" s="59"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75">
       <c r="A139" s="33" t="s">
         <v>144</v>
       </c>
@@ -4355,11 +4497,12 @@
       <c r="E139" s="3"/>
       <c r="F139" s="4"/>
       <c r="G139" s="50"/>
-      <c r="H139" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75">
+      <c r="H139" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J139" s="59"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75">
       <c r="A140" s="33" t="s">
         <v>145</v>
       </c>
@@ -4371,11 +4514,12 @@
       <c r="E140" s="3"/>
       <c r="F140" s="4"/>
       <c r="G140" s="51"/>
-      <c r="H140" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75">
+      <c r="H140" s="60">
+        <v>100</v>
+      </c>
+      <c r="J140" s="59"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75">
       <c r="A141" s="33" t="s">
         <v>146</v>
       </c>
@@ -4387,11 +4531,12 @@
       <c r="E141" s="3"/>
       <c r="F141" s="4"/>
       <c r="G141" s="47"/>
-      <c r="H141" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75">
+      <c r="H141" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J141" s="59"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75">
       <c r="A142" s="33" t="s">
         <v>147</v>
       </c>
@@ -4403,11 +4548,12 @@
       <c r="E142" s="3"/>
       <c r="F142" s="4"/>
       <c r="G142" s="48"/>
-      <c r="H142" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.75">
+      <c r="H142" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J142" s="59"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75">
       <c r="A143" s="33" t="s">
         <v>148</v>
       </c>
@@ -4419,11 +4565,12 @@
       <c r="E143" s="3"/>
       <c r="F143" s="4"/>
       <c r="G143" s="48"/>
-      <c r="H143" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75">
+      <c r="H143" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J143" s="59"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75">
       <c r="A144" s="33" t="s">
         <v>149</v>
       </c>
@@ -4435,11 +4582,12 @@
       <c r="E144" s="3"/>
       <c r="F144" s="4"/>
       <c r="G144" s="48"/>
-      <c r="H144" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75">
+      <c r="H144" s="60">
+        <v>100</v>
+      </c>
+      <c r="J144" s="59"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75">
       <c r="A145" s="33" t="s">
         <v>150</v>
       </c>
@@ -4451,11 +4599,12 @@
       <c r="E145" s="3"/>
       <c r="F145" s="4"/>
       <c r="G145" s="48"/>
-      <c r="H145" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75">
+      <c r="H145" s="60">
+        <v>100</v>
+      </c>
+      <c r="J145" s="59"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75">
       <c r="A146" s="33" t="s">
         <v>151</v>
       </c>
@@ -4467,11 +4616,12 @@
       <c r="E146" s="3"/>
       <c r="F146" s="4"/>
       <c r="G146" s="48"/>
-      <c r="H146" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75">
+      <c r="H146" s="60">
+        <v>100</v>
+      </c>
+      <c r="J146" s="59"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.75">
       <c r="A147" s="33" t="s">
         <v>152</v>
       </c>
@@ -4483,11 +4633,12 @@
       <c r="E147" s="3"/>
       <c r="F147" s="4"/>
       <c r="G147" s="48"/>
-      <c r="H147" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75">
+      <c r="H147" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J147" s="59"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75">
       <c r="A148" s="33" t="s">
         <v>153</v>
       </c>
@@ -4499,11 +4650,12 @@
       <c r="E148" s="3"/>
       <c r="F148" s="4"/>
       <c r="G148" s="48"/>
-      <c r="H148" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75">
+      <c r="H148" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J148" s="59"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75">
       <c r="A149" s="33" t="s">
         <v>154</v>
       </c>
@@ -4515,11 +4667,12 @@
       <c r="E149" s="3"/>
       <c r="F149" s="4"/>
       <c r="G149" s="48"/>
-      <c r="H149" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75">
+      <c r="H149" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J149" s="59"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75">
       <c r="A150" s="33" t="s">
         <v>155</v>
       </c>
@@ -4531,11 +4684,12 @@
       <c r="E150" s="3"/>
       <c r="F150" s="4"/>
       <c r="G150" s="48"/>
-      <c r="H150" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.75">
+      <c r="H150" s="60">
+        <v>100</v>
+      </c>
+      <c r="J150" s="59"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75">
       <c r="A151" s="33" t="s">
         <v>156</v>
       </c>
@@ -4547,11 +4701,12 @@
       <c r="E151" s="3"/>
       <c r="F151" s="4"/>
       <c r="G151" s="48"/>
-      <c r="H151" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75">
+      <c r="H151" s="60">
+        <v>100</v>
+      </c>
+      <c r="J151" s="59"/>
+    </row>
+    <row r="152" spans="1:10" ht="15.75">
       <c r="A152" s="33" t="s">
         <v>157</v>
       </c>
@@ -4563,11 +4718,12 @@
       <c r="E152" s="3"/>
       <c r="F152" s="4"/>
       <c r="G152" s="48"/>
-      <c r="H152" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="15.75">
+      <c r="H152" s="60">
+        <v>100</v>
+      </c>
+      <c r="J152" s="59"/>
+    </row>
+    <row r="153" spans="1:10" ht="15.75">
       <c r="A153" s="33" t="s">
         <v>158</v>
       </c>
@@ -4579,11 +4735,12 @@
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
       <c r="G153" s="48"/>
-      <c r="H153" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="15.75">
+      <c r="H153" s="60">
+        <v>100</v>
+      </c>
+      <c r="J153" s="59"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
       <c r="A154" s="33" t="s">
         <v>159</v>
       </c>
@@ -4595,11 +4752,12 @@
       <c r="E154" s="3"/>
       <c r="F154" s="4"/>
       <c r="G154" s="48"/>
-      <c r="H154" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.75">
+      <c r="H154" s="60">
+        <v>100</v>
+      </c>
+      <c r="J154" s="59"/>
+    </row>
+    <row r="155" spans="1:10" ht="15.75">
       <c r="A155" s="33" t="s">
         <v>160</v>
       </c>
@@ -4611,11 +4769,12 @@
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
       <c r="G155" s="48"/>
-      <c r="H155" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.75">
+      <c r="H155" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J155" s="59"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75">
       <c r="A156" s="33" t="s">
         <v>161</v>
       </c>
@@ -4627,11 +4786,12 @@
       <c r="E156" s="3"/>
       <c r="F156" s="4"/>
       <c r="G156" s="48"/>
-      <c r="H156" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75">
+      <c r="H156" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J156" s="59"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.75">
       <c r="A157" s="33" t="s">
         <v>162</v>
       </c>
@@ -4643,11 +4803,12 @@
       <c r="E157" s="3"/>
       <c r="F157" s="4"/>
       <c r="G157" s="48"/>
-      <c r="H157" s="59">
+      <c r="H157" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75">
+      <c r="J157" s="59"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75">
       <c r="A158" s="33" t="s">
         <v>163</v>
       </c>
@@ -4659,11 +4820,12 @@
       <c r="E158" s="3"/>
       <c r="F158" s="4"/>
       <c r="G158" s="48"/>
-      <c r="H158" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.75">
+      <c r="H158" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J158" s="59"/>
+    </row>
+    <row r="159" spans="1:10" ht="15.75">
       <c r="A159" s="33" t="s">
         <v>164</v>
       </c>
@@ -4675,11 +4837,12 @@
       <c r="E159" s="3"/>
       <c r="F159" s="4"/>
       <c r="G159" s="48"/>
-      <c r="H159" s="59">
+      <c r="H159" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.75">
+      <c r="J159" s="59"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.75">
       <c r="A160" s="33" t="s">
         <v>165</v>
       </c>
@@ -4691,11 +4854,12 @@
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
       <c r="G160" s="48"/>
-      <c r="H160" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.75">
+      <c r="H160" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J160" s="59"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.75">
       <c r="A161" s="33" t="s">
         <v>166</v>
       </c>
@@ -4707,11 +4871,12 @@
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
       <c r="G161" s="48"/>
-      <c r="H161" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75">
+      <c r="H161" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J161" s="59"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.75">
       <c r="A162" s="33" t="s">
         <v>167</v>
       </c>
@@ -4723,11 +4888,12 @@
       <c r="E162" s="3"/>
       <c r="F162" s="4"/>
       <c r="G162" s="48"/>
-      <c r="H162" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.75">
+      <c r="H162" s="60">
+        <v>50</v>
+      </c>
+      <c r="J162" s="59"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75">
       <c r="A163" s="33" t="s">
         <v>168</v>
       </c>
@@ -4739,11 +4905,12 @@
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
       <c r="G163" s="48"/>
-      <c r="H163" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.75">
+      <c r="H163" s="60">
+        <v>100</v>
+      </c>
+      <c r="J163" s="59"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.75">
       <c r="A164" s="33" t="s">
         <v>169</v>
       </c>
@@ -4755,11 +4922,12 @@
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
       <c r="G164" s="48"/>
-      <c r="H164" s="59">
+      <c r="H164" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.75">
+      <c r="J164" s="59"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75">
       <c r="A165" s="33" t="s">
         <v>170</v>
       </c>
@@ -4771,11 +4939,12 @@
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
       <c r="G165" s="48"/>
-      <c r="H165" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="H165" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J165" s="59"/>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="34" t="s">
         <v>171</v>
       </c>
@@ -4787,11 +4956,12 @@
       <c r="E166" s="3"/>
       <c r="F166" s="4"/>
       <c r="G166" s="48"/>
-      <c r="H166" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="H166" s="60">
+        <v>100</v>
+      </c>
+      <c r="J166" s="59"/>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="34" t="s">
         <v>172</v>
       </c>
@@ -4803,11 +4973,12 @@
       <c r="E167" s="3"/>
       <c r="F167" s="4"/>
       <c r="G167" s="48"/>
-      <c r="H167" s="59">
+      <c r="H167" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="J167" s="59"/>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="34" t="s">
         <v>173</v>
       </c>
@@ -4819,11 +4990,12 @@
       <c r="E168" s="3"/>
       <c r="F168" s="4"/>
       <c r="G168" s="48"/>
-      <c r="H168" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="H168" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J168" s="59"/>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="34" t="s">
         <v>174</v>
       </c>
@@ -4835,11 +5007,12 @@
       <c r="E169" s="3"/>
       <c r="F169" s="4"/>
       <c r="G169" s="48"/>
-      <c r="H169" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="H169" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J169" s="59"/>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="34" t="s">
         <v>175</v>
       </c>
@@ -4851,11 +5024,12 @@
       <c r="E170" s="3"/>
       <c r="F170" s="4"/>
       <c r="G170" s="48"/>
-      <c r="H170" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="H170" s="60">
+        <v>100</v>
+      </c>
+      <c r="J170" s="59"/>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="34" t="s">
         <v>176</v>
       </c>
@@ -4867,11 +5041,12 @@
       <c r="E171" s="3"/>
       <c r="F171" s="4"/>
       <c r="G171" s="50"/>
-      <c r="H171" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="H171" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J171" s="59"/>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="34" t="s">
         <v>177</v>
       </c>
@@ -4883,11 +5058,12 @@
       <c r="E172" s="3"/>
       <c r="F172" s="4"/>
       <c r="G172" s="46"/>
-      <c r="H172" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="H172" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J172" s="59"/>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="34" t="s">
         <v>178</v>
       </c>
@@ -4899,11 +5075,12 @@
       <c r="E173" s="3"/>
       <c r="F173" s="4"/>
       <c r="G173" s="46"/>
-      <c r="H173" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="H173" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J173" s="59"/>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="34" t="s">
         <v>179</v>
       </c>
@@ -4915,11 +5092,12 @@
       <c r="E174" s="3"/>
       <c r="F174" s="4"/>
       <c r="G174" s="46"/>
-      <c r="H174" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="H174" s="60">
+        <v>100</v>
+      </c>
+      <c r="J174" s="59"/>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="34" t="s">
         <v>180</v>
       </c>
@@ -4931,11 +5109,12 @@
       <c r="E175" s="3"/>
       <c r="F175" s="4"/>
       <c r="G175" s="46"/>
-      <c r="H175" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="H175" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J175" s="59"/>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="34" t="s">
         <v>181</v>
       </c>
@@ -4947,11 +5126,12 @@
       <c r="E176" s="3"/>
       <c r="F176" s="4"/>
       <c r="G176" s="46"/>
-      <c r="H176" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="H176" s="60">
+        <v>100</v>
+      </c>
+      <c r="J176" s="59"/>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="34" t="s">
         <v>182</v>
       </c>
@@ -4963,11 +5143,12 @@
       <c r="E177" s="16"/>
       <c r="F177" s="4"/>
       <c r="G177" s="46"/>
-      <c r="H177" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="H177" s="60">
+        <v>50</v>
+      </c>
+      <c r="J177" s="59"/>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="34" t="s">
         <v>183</v>
       </c>
@@ -4979,11 +5160,12 @@
       <c r="E178" s="16"/>
       <c r="F178" s="2"/>
       <c r="G178" s="52"/>
-      <c r="H178" s="59">
+      <c r="H178" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="J178" s="59"/>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="34" t="s">
         <v>184</v>
       </c>
@@ -4995,11 +5177,12 @@
       <c r="E179" s="19"/>
       <c r="F179" s="20"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="59">
+      <c r="H179" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="J179" s="59"/>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="34" t="s">
         <v>185</v>
       </c>
@@ -5011,11 +5194,12 @@
       <c r="E180" s="19"/>
       <c r="F180" s="20"/>
       <c r="G180" s="19"/>
-      <c r="H180" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="H180" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J180" s="59"/>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="34" t="s">
         <v>186</v>
       </c>
@@ -5027,11 +5211,12 @@
       <c r="E181" s="7"/>
       <c r="F181" s="23"/>
       <c r="G181" s="53"/>
-      <c r="H181" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="H181" s="60">
+        <v>100</v>
+      </c>
+      <c r="J181" s="59"/>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="34" t="s">
         <v>187</v>
       </c>
@@ -5043,11 +5228,12 @@
       <c r="E182" s="25"/>
       <c r="F182" s="2"/>
       <c r="G182" s="54"/>
-      <c r="H182" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="H182" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J182" s="59"/>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="34" t="s">
         <v>188</v>
       </c>
@@ -5059,11 +5245,12 @@
       <c r="E183" s="18"/>
       <c r="F183" s="2"/>
       <c r="G183" s="54"/>
-      <c r="H183" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="H183" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J183" s="59"/>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="34" t="s">
         <v>189</v>
       </c>
@@ -5075,11 +5262,12 @@
       <c r="E184" s="3"/>
       <c r="F184" s="2"/>
       <c r="G184" s="54"/>
-      <c r="H184" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="H184" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J184" s="59"/>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="34" t="s">
         <v>190</v>
       </c>
@@ -5091,11 +5279,12 @@
       <c r="E185" s="21"/>
       <c r="F185" s="2"/>
       <c r="G185" s="55"/>
-      <c r="H185" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="H185" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J185" s="59"/>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="34" t="s">
         <v>191</v>
       </c>
@@ -5107,11 +5296,12 @@
       <c r="E186" s="21"/>
       <c r="F186" s="2"/>
       <c r="G186" s="55"/>
-      <c r="H186" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="H186" s="60">
+        <v>50</v>
+      </c>
+      <c r="J186" s="59"/>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="34" t="s">
         <v>192</v>
       </c>
@@ -5123,11 +5313,12 @@
       <c r="E187" s="25"/>
       <c r="F187" s="4"/>
       <c r="G187" s="55"/>
-      <c r="H187" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="H187" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J187" s="59"/>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="34" t="s">
         <v>193</v>
       </c>
@@ -5139,11 +5330,12 @@
       <c r="E188" s="25"/>
       <c r="F188" s="4"/>
       <c r="G188" s="52"/>
-      <c r="H188" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="15.75">
+      <c r="H188" s="60">
+        <v>50</v>
+      </c>
+      <c r="J188" s="59"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75">
       <c r="A189" s="33" t="s">
         <v>194</v>
       </c>
@@ -5155,11 +5347,12 @@
       <c r="E189" s="21"/>
       <c r="F189" s="2"/>
       <c r="G189" s="52"/>
-      <c r="H189" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="15.75">
+      <c r="H189" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J189" s="59"/>
+    </row>
+    <row r="190" spans="1:10" ht="15.75">
       <c r="A190" s="33" t="s">
         <v>195</v>
       </c>
@@ -5171,11 +5364,12 @@
       <c r="E190" s="3"/>
       <c r="F190" s="2"/>
       <c r="G190" s="52"/>
-      <c r="H190" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.75">
+      <c r="H190" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J190" s="59"/>
+    </row>
+    <row r="191" spans="1:10" ht="15.75">
       <c r="A191" s="33" t="s">
         <v>196</v>
       </c>
@@ -5187,11 +5381,12 @@
       <c r="E191" s="21"/>
       <c r="F191" s="4"/>
       <c r="G191" s="52"/>
-      <c r="H191" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75">
+      <c r="H191" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J191" s="59"/>
+    </row>
+    <row r="192" spans="1:10" ht="15.75">
       <c r="A192" s="33" t="s">
         <v>197</v>
       </c>
@@ -5203,11 +5398,12 @@
       <c r="E192" s="18"/>
       <c r="F192" s="4"/>
       <c r="G192" s="52"/>
-      <c r="H192" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.75">
+      <c r="H192" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J192" s="59"/>
+    </row>
+    <row r="193" spans="1:10" ht="15.75">
       <c r="A193" s="33" t="s">
         <v>198</v>
       </c>
@@ -5219,11 +5415,12 @@
       <c r="E193" s="28"/>
       <c r="F193" s="2"/>
       <c r="G193" s="52"/>
-      <c r="H193" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.75">
+      <c r="H193" s="60">
+        <v>100</v>
+      </c>
+      <c r="J193" s="59"/>
+    </row>
+    <row r="194" spans="1:10" ht="15.75">
       <c r="A194" s="33" t="s">
         <v>199</v>
       </c>
@@ -5235,11 +5432,12 @@
       <c r="E194" s="17"/>
       <c r="F194" s="30"/>
       <c r="G194" s="52"/>
-      <c r="H194" s="59">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.75">
+      <c r="H194" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J194" s="59"/>
+    </row>
+    <row r="195" spans="1:10" ht="15.75">
       <c r="A195" s="33" t="s">
         <v>200</v>
       </c>
@@ -5251,11 +5449,12 @@
       <c r="E195" s="21"/>
       <c r="F195" s="32"/>
       <c r="G195" s="52"/>
-      <c r="H195" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75">
+      <c r="H195" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J195" s="59"/>
+    </row>
+    <row r="196" spans="1:10" ht="15.75">
       <c r="A196" s="33" t="s">
         <v>201</v>
       </c>
@@ -5267,11 +5466,12 @@
       <c r="E196" s="25"/>
       <c r="F196" s="4"/>
       <c r="G196" s="52"/>
-      <c r="H196" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.75">
+      <c r="H196" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J196" s="59"/>
+    </row>
+    <row r="197" spans="1:10" ht="15.75">
       <c r="A197" s="33" t="s">
         <v>202</v>
       </c>
@@ -5283,11 +5483,12 @@
       <c r="E197" s="25"/>
       <c r="F197" s="4"/>
       <c r="G197" s="52"/>
-      <c r="H197" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.75">
+      <c r="H197" s="60">
+        <v>100</v>
+      </c>
+      <c r="J197" s="59"/>
+    </row>
+    <row r="198" spans="1:10" ht="15.75">
       <c r="A198" s="33" t="s">
         <v>203</v>
       </c>
@@ -5299,11 +5500,12 @@
       <c r="E198" s="3"/>
       <c r="F198" s="2"/>
       <c r="G198" s="52"/>
-      <c r="H198" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.75">
+      <c r="H198" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J198" s="59"/>
+    </row>
+    <row r="199" spans="1:10" ht="15.75">
       <c r="A199" s="33" t="s">
         <v>204</v>
       </c>
@@ -5315,11 +5517,12 @@
       <c r="E199" s="21"/>
       <c r="F199" s="2"/>
       <c r="G199" s="52"/>
-      <c r="H199" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75">
+      <c r="H199" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J199" s="59"/>
+    </row>
+    <row r="200" spans="1:10" ht="15.75">
       <c r="A200" s="33" t="s">
         <v>205</v>
       </c>
@@ -5331,11 +5534,12 @@
       <c r="E200" s="28"/>
       <c r="F200" s="2"/>
       <c r="G200" s="52"/>
-      <c r="H200" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75">
+      <c r="H200" s="60">
+        <v>100</v>
+      </c>
+      <c r="J200" s="59"/>
+    </row>
+    <row r="201" spans="1:10" ht="15.75">
       <c r="A201" s="37" t="s">
         <v>206</v>
       </c>
@@ -5347,11 +5551,12 @@
       <c r="E201" s="40"/>
       <c r="F201" s="41"/>
       <c r="G201" s="56"/>
-      <c r="H201" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75">
+      <c r="H201" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J201" s="59"/>
+    </row>
+    <row r="202" spans="1:10" ht="15.75">
       <c r="A202" s="42" t="s">
         <v>408</v>
       </c>
@@ -5363,11 +5568,12 @@
       <c r="E202" s="43"/>
       <c r="F202" s="43"/>
       <c r="G202" s="57"/>
-      <c r="H202" s="59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.75">
+      <c r="H202" s="60">
+        <v>83.33</v>
+      </c>
+      <c r="J202" s="59"/>
+    </row>
+    <row r="203" spans="1:10" ht="15.75">
       <c r="A203" s="44" t="s">
         <v>410</v>
       </c>
@@ -5379,11 +5585,12 @@
       <c r="E203" s="43"/>
       <c r="F203" s="43"/>
       <c r="G203" s="57"/>
-      <c r="H203" s="59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.75">
+      <c r="H203" s="60">
+        <v>33.33</v>
+      </c>
+      <c r="J203" s="59"/>
+    </row>
+    <row r="204" spans="1:10" ht="15.75">
       <c r="A204" s="44" t="s">
         <v>412</v>
       </c>
@@ -5395,11 +5602,12 @@
       <c r="E204" s="43"/>
       <c r="F204" s="43"/>
       <c r="G204" s="57"/>
-      <c r="H204" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75">
+      <c r="H204" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J204" s="59"/>
+    </row>
+    <row r="205" spans="1:10" ht="15.75">
       <c r="A205" s="44" t="s">
         <v>414</v>
       </c>
@@ -5411,11 +5619,12 @@
       <c r="E205" s="43"/>
       <c r="F205" s="43"/>
       <c r="G205" s="57"/>
-      <c r="H205" s="59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75">
+      <c r="H205" s="60">
+        <v>66.67</v>
+      </c>
+      <c r="J205" s="59"/>
+    </row>
+    <row r="206" spans="1:10" ht="15.75">
       <c r="A206" s="44" t="s">
         <v>416</v>
       </c>
@@ -5427,9 +5636,10 @@
       <c r="E206" s="43"/>
       <c r="F206" s="43"/>
       <c r="G206" s="57"/>
-      <c r="H206" s="59">
-        <v>25</v>
-      </c>
+      <c r="H206" s="60">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="J206" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5438,15 +5648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5590,6 +5791,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5597,13 +5807,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1666,7 +1666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,6 +1828,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2116,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M206"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2130,7 +2131,7 @@
     <col min="7" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
@@ -2169,11 +2170,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="46"/>
       <c r="H2" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -2186,11 +2188,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="47"/>
       <c r="H3" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+      <c r="L3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -2203,11 +2206,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="48"/>
       <c r="H4" s="60">
-        <v>33.33</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
@@ -2220,11 +2224,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="48"/>
       <c r="H5" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
@@ -2237,11 +2242,12 @@
       <c r="F6" s="4"/>
       <c r="G6" s="48"/>
       <c r="H6" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
@@ -2254,11 +2260,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="48"/>
       <c r="H7" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
+      <c r="L7" s="61"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
@@ -2271,11 +2278,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="48"/>
       <c r="H8" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
@@ -2288,11 +2296,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="48"/>
       <c r="H9" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
@@ -2305,11 +2314,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="48"/>
       <c r="H10" s="60">
-        <v>100</v>
+        <v>77.78</v>
       </c>
       <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
+      <c r="L10" s="61"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="33" t="s">
         <v>16</v>
       </c>
@@ -2325,8 +2335,9 @@
         <v>100</v>
       </c>
       <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
@@ -2339,11 +2350,12 @@
       <c r="F12" s="4"/>
       <c r="G12" s="48"/>
       <c r="H12" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
@@ -2359,8 +2371,9 @@
         <v>100</v>
       </c>
       <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="33" t="s">
         <v>19</v>
       </c>
@@ -2376,8 +2389,9 @@
         <v>33.33</v>
       </c>
       <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="33" t="s">
         <v>20</v>
       </c>
@@ -2390,11 +2404,12 @@
       <c r="F15" s="4"/>
       <c r="G15" s="48"/>
       <c r="H15" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
@@ -2407,11 +2422,12 @@
       <c r="F16" s="4"/>
       <c r="G16" s="48"/>
       <c r="H16" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="L16" s="61"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="33" t="s">
         <v>22</v>
       </c>
@@ -2427,8 +2443,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
+      <c r="L17" s="61"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="33" t="s">
         <v>23</v>
       </c>
@@ -2441,11 +2458,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="48"/>
       <c r="H18" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+      <c r="L18" s="61"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
@@ -2458,11 +2476,12 @@
       <c r="F19" s="4"/>
       <c r="G19" s="48"/>
       <c r="H19" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+      <c r="L19" s="61"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
@@ -2475,11 +2494,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="48"/>
       <c r="H20" s="60">
-        <v>66.67</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J20" s="59"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="L20" s="61"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
@@ -2492,11 +2512,12 @@
       <c r="F21" s="4"/>
       <c r="G21" s="48"/>
       <c r="H21" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J21" s="59"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+      <c r="L21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="33" t="s">
         <v>27</v>
       </c>
@@ -2509,11 +2530,12 @@
       <c r="F22" s="4"/>
       <c r="G22" s="48"/>
       <c r="H22" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J22" s="59"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
+      <c r="L22" s="61"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="33" t="s">
         <v>28</v>
       </c>
@@ -2526,11 +2548,12 @@
       <c r="F23" s="4"/>
       <c r="G23" s="48"/>
       <c r="H23" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
+      <c r="L23" s="61"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
@@ -2543,11 +2566,12 @@
       <c r="F24" s="4"/>
       <c r="G24" s="48"/>
       <c r="H24" s="60">
-        <v>50</v>
+        <v>22.220000000000002</v>
       </c>
       <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="L24" s="61"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="33" t="s">
         <v>30</v>
       </c>
@@ -2560,11 +2584,12 @@
       <c r="F25" s="4"/>
       <c r="G25" s="48"/>
       <c r="H25" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
+      <c r="L25" s="61"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="33" t="s">
         <v>31</v>
       </c>
@@ -2577,11 +2602,12 @@
       <c r="F26" s="4"/>
       <c r="G26" s="48"/>
       <c r="H26" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+      <c r="L26" s="61"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="33" t="s">
         <v>32</v>
       </c>
@@ -2594,11 +2620,12 @@
       <c r="F27" s="4"/>
       <c r="G27" s="48"/>
       <c r="H27" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="33" t="s">
         <v>33</v>
       </c>
@@ -2611,11 +2638,12 @@
       <c r="F28" s="4"/>
       <c r="G28" s="48"/>
       <c r="H28" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J28" s="59"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="33" t="s">
         <v>34</v>
       </c>
@@ -2628,11 +2656,12 @@
       <c r="F29" s="4"/>
       <c r="G29" s="48"/>
       <c r="H29" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J29" s="59"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="33" t="s">
         <v>35</v>
       </c>
@@ -2648,8 +2677,9 @@
         <v>100</v>
       </c>
       <c r="J30" s="59"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
+      <c r="L30" s="61"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="33" t="s">
         <v>36</v>
       </c>
@@ -2662,11 +2692,12 @@
       <c r="F31" s="4"/>
       <c r="G31" s="48"/>
       <c r="H31" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J31" s="59"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75">
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="33" t="s">
         <v>37</v>
       </c>
@@ -2679,11 +2710,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="49"/>
       <c r="H32" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J32" s="59"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
+      <c r="L32" s="61"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="33" t="s">
         <v>38</v>
       </c>
@@ -2696,11 +2728,12 @@
       <c r="F33" s="4"/>
       <c r="G33" s="48"/>
       <c r="H33" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J33" s="59"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
+      <c r="L33" s="61"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="33" t="s">
         <v>39</v>
       </c>
@@ -2716,8 +2749,9 @@
         <v>100</v>
       </c>
       <c r="J34" s="59"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
+      <c r="L34" s="61"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="33" t="s">
         <v>40</v>
       </c>
@@ -2733,8 +2767,9 @@
         <v>100</v>
       </c>
       <c r="J35" s="59"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75">
+      <c r="L35" s="61"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
       <c r="A36" s="33" t="s">
         <v>41</v>
       </c>
@@ -2747,11 +2782,12 @@
       <c r="F36" s="4"/>
       <c r="G36" s="48"/>
       <c r="H36" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J36" s="59"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
+      <c r="L36" s="61"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
       <c r="A37" s="33" t="s">
         <v>42</v>
       </c>
@@ -2764,11 +2800,12 @@
       <c r="F37" s="4"/>
       <c r="G37" s="48"/>
       <c r="H37" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J37" s="59"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75">
+      <c r="L37" s="61"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="33" t="s">
         <v>43</v>
       </c>
@@ -2781,11 +2818,12 @@
       <c r="F38" s="4"/>
       <c r="G38" s="48"/>
       <c r="H38" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J38" s="59"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
+      <c r="L38" s="61"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="33" t="s">
         <v>44</v>
       </c>
@@ -2798,11 +2836,12 @@
       <c r="F39" s="4"/>
       <c r="G39" s="48"/>
       <c r="H39" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J39" s="59"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
+      <c r="L39" s="61"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
       <c r="A40" s="33" t="s">
         <v>45</v>
       </c>
@@ -2815,11 +2854,12 @@
       <c r="F40" s="4"/>
       <c r="G40" s="48"/>
       <c r="H40" s="60">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="J40" s="59"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75">
+      <c r="L40" s="61"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="33" t="s">
         <v>46</v>
       </c>
@@ -2835,8 +2875,9 @@
         <v>100</v>
       </c>
       <c r="J41" s="59"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
+      <c r="L41" s="61"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="33" t="s">
         <v>47</v>
       </c>
@@ -2849,11 +2890,12 @@
       <c r="F42" s="4"/>
       <c r="G42" s="48"/>
       <c r="H42" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J42" s="59"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75">
+      <c r="L42" s="61"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="33" t="s">
         <v>48</v>
       </c>
@@ -2869,8 +2911,9 @@
         <v>33.33</v>
       </c>
       <c r="J43" s="59"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
+      <c r="L43" s="61"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
       <c r="A44" s="33" t="s">
         <v>49</v>
       </c>
@@ -2883,11 +2926,12 @@
       <c r="F44" s="4"/>
       <c r="G44" s="48"/>
       <c r="H44" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J44" s="59"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75">
+      <c r="L44" s="61"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
       <c r="A45" s="33" t="s">
         <v>50</v>
       </c>
@@ -2903,8 +2947,9 @@
         <v>100</v>
       </c>
       <c r="J45" s="59"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
+      <c r="L45" s="61"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="33" t="s">
         <v>51</v>
       </c>
@@ -2920,8 +2965,9 @@
         <v>33.33</v>
       </c>
       <c r="J46" s="59"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75">
+      <c r="L46" s="61"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="33" t="s">
         <v>52</v>
       </c>
@@ -2934,11 +2980,12 @@
       <c r="F47" s="4"/>
       <c r="G47" s="48"/>
       <c r="H47" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J47" s="59"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75">
+      <c r="L47" s="61"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="33" t="s">
         <v>53</v>
       </c>
@@ -2951,11 +2998,12 @@
       <c r="F48" s="4"/>
       <c r="G48" s="48"/>
       <c r="H48" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J48" s="59"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
+      <c r="L48" s="61"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
       <c r="A49" s="33" t="s">
         <v>54</v>
       </c>
@@ -2968,11 +3016,12 @@
       <c r="F49" s="4"/>
       <c r="G49" s="49"/>
       <c r="H49" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J49" s="59"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
+      <c r="L49" s="61"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="33" t="s">
         <v>55</v>
       </c>
@@ -2988,8 +3037,9 @@
         <v>100</v>
       </c>
       <c r="J50" s="59"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="33" t="s">
         <v>56</v>
       </c>
@@ -3005,8 +3055,9 @@
         <v>100</v>
       </c>
       <c r="J51" s="59"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="33" t="s">
         <v>57</v>
       </c>
@@ -3019,11 +3070,12 @@
       <c r="F52" s="4"/>
       <c r="G52" s="48"/>
       <c r="H52" s="60">
-        <v>100</v>
+        <v>77.78</v>
       </c>
       <c r="J52" s="59"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
+      <c r="L52" s="61"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
       <c r="A53" s="33" t="s">
         <v>58</v>
       </c>
@@ -3036,11 +3088,12 @@
       <c r="F53" s="4"/>
       <c r="G53" s="48"/>
       <c r="H53" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J53" s="59"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75">
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="33" t="s">
         <v>59</v>
       </c>
@@ -3053,11 +3106,12 @@
       <c r="F54" s="4"/>
       <c r="G54" s="48"/>
       <c r="H54" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
+      <c r="L54" s="61"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="33" t="s">
         <v>60</v>
       </c>
@@ -3070,11 +3124,12 @@
       <c r="F55" s="4"/>
       <c r="G55" s="48"/>
       <c r="H55" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J55" s="59"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75">
       <c r="A56" s="33" t="s">
         <v>61</v>
       </c>
@@ -3087,11 +3142,12 @@
       <c r="F56" s="4"/>
       <c r="G56" s="49"/>
       <c r="H56" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J56" s="59"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
+      <c r="L56" s="61"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
       <c r="A57" s="33" t="s">
         <v>62</v>
       </c>
@@ -3104,11 +3160,12 @@
       <c r="F57" s="4"/>
       <c r="G57" s="48"/>
       <c r="H57" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J57" s="59"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
+      <c r="L57" s="61"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="33" t="s">
         <v>63</v>
       </c>
@@ -3124,8 +3181,9 @@
         <v>100</v>
       </c>
       <c r="J58" s="59"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75">
+      <c r="L58" s="61"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
       <c r="A59" s="33" t="s">
         <v>64</v>
       </c>
@@ -3141,8 +3199,9 @@
         <v>100</v>
       </c>
       <c r="J59" s="59"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
+      <c r="L59" s="61"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
       <c r="A60" s="33" t="s">
         <v>65</v>
       </c>
@@ -3155,11 +3214,12 @@
       <c r="F60" s="4"/>
       <c r="G60" s="48"/>
       <c r="H60" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J60" s="59"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75">
+      <c r="L60" s="61"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
       <c r="A61" s="33" t="s">
         <v>66</v>
       </c>
@@ -3175,8 +3235,9 @@
         <v>0</v>
       </c>
       <c r="J61" s="59"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75">
+      <c r="L61" s="61"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
       <c r="A62" s="33" t="s">
         <v>67</v>
       </c>
@@ -3192,8 +3253,9 @@
         <v>66.67</v>
       </c>
       <c r="J62" s="59"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
+      <c r="L62" s="61"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
       <c r="A63" s="33" t="s">
         <v>68</v>
       </c>
@@ -3206,11 +3268,12 @@
       <c r="F63" s="4"/>
       <c r="G63" s="48"/>
       <c r="H63" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J63" s="59"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75">
+      <c r="L63" s="61"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
       <c r="A64" s="33" t="s">
         <v>69</v>
       </c>
@@ -3223,11 +3286,12 @@
       <c r="F64" s="4"/>
       <c r="G64" s="48"/>
       <c r="H64" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J64" s="59"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75">
+      <c r="L64" s="61"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75">
       <c r="A65" s="33" t="s">
         <v>70</v>
       </c>
@@ -3240,11 +3304,12 @@
       <c r="F65" s="4"/>
       <c r="G65" s="48"/>
       <c r="H65" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J65" s="59"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75">
+      <c r="L65" s="61"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
       <c r="A66" s="33" t="s">
         <v>71</v>
       </c>
@@ -3260,8 +3325,9 @@
         <v>100</v>
       </c>
       <c r="J66" s="59"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
+      <c r="L66" s="61"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
       <c r="A67" s="33" t="s">
         <v>72</v>
       </c>
@@ -3277,8 +3343,9 @@
         <v>66.67</v>
       </c>
       <c r="J67" s="59"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
+      <c r="L67" s="61"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
       <c r="A68" s="33" t="s">
         <v>73</v>
       </c>
@@ -3291,11 +3358,12 @@
       <c r="F68" s="4"/>
       <c r="G68" s="48"/>
       <c r="H68" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J68" s="59"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75">
+      <c r="L68" s="61"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
       <c r="A69" s="33" t="s">
         <v>74</v>
       </c>
@@ -3311,8 +3379,9 @@
         <v>100</v>
       </c>
       <c r="J69" s="59"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
+      <c r="L69" s="61"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
       <c r="A70" s="33" t="s">
         <v>75</v>
       </c>
@@ -3325,11 +3394,12 @@
       <c r="F70" s="4"/>
       <c r="G70" s="48"/>
       <c r="H70" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J70" s="59"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75">
+      <c r="L70" s="61"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
       <c r="A71" s="33" t="s">
         <v>76</v>
       </c>
@@ -3345,8 +3415,9 @@
         <v>100</v>
       </c>
       <c r="J71" s="59"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75">
+      <c r="L71" s="61"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75">
       <c r="A72" s="33" t="s">
         <v>77</v>
       </c>
@@ -3362,8 +3433,9 @@
         <v>100</v>
       </c>
       <c r="J72" s="59"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
+      <c r="L72" s="61"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
       <c r="A73" s="33" t="s">
         <v>78</v>
       </c>
@@ -3376,11 +3448,12 @@
       <c r="F73" s="4"/>
       <c r="G73" s="48"/>
       <c r="H73" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J73" s="59"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
+      <c r="L73" s="61"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="33" t="s">
         <v>79</v>
       </c>
@@ -3393,11 +3466,12 @@
       <c r="F74" s="4"/>
       <c r="G74" s="49"/>
       <c r="H74" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J74" s="59"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
+      <c r="L74" s="61"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
       <c r="A75" s="33" t="s">
         <v>80</v>
       </c>
@@ -3413,8 +3487,9 @@
         <v>100</v>
       </c>
       <c r="J75" s="59"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
+      <c r="L75" s="61"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75">
       <c r="A76" s="33" t="s">
         <v>81</v>
       </c>
@@ -3427,11 +3502,12 @@
       <c r="F76" s="4"/>
       <c r="G76" s="48"/>
       <c r="H76" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J76" s="59"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
+      <c r="L76" s="61"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
       <c r="A77" s="33" t="s">
         <v>82</v>
       </c>
@@ -3447,8 +3523,9 @@
         <v>100</v>
       </c>
       <c r="J77" s="59"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75">
+      <c r="L77" s="61"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="33" t="s">
         <v>83</v>
       </c>
@@ -3461,11 +3538,12 @@
       <c r="F78" s="4"/>
       <c r="G78" s="48"/>
       <c r="H78" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J78" s="59"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
+      <c r="L78" s="61"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75">
       <c r="A79" s="33" t="s">
         <v>84</v>
       </c>
@@ -3481,8 +3559,9 @@
         <v>0</v>
       </c>
       <c r="J79" s="59"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75">
+      <c r="L79" s="61"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75">
       <c r="A80" s="33" t="s">
         <v>85</v>
       </c>
@@ -3495,11 +3574,12 @@
       <c r="F80" s="4"/>
       <c r="G80" s="48"/>
       <c r="H80" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J80" s="59"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75">
+      <c r="L80" s="61"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="33" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3595,9 @@
         <v>66.67</v>
       </c>
       <c r="J81" s="59"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75">
+      <c r="L81" s="61"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="33" t="s">
         <v>87</v>
       </c>
@@ -3529,11 +3610,12 @@
       <c r="F82" s="4"/>
       <c r="G82" s="48"/>
       <c r="H82" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J82" s="59"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75">
+      <c r="L82" s="61"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
       <c r="A83" s="33" t="s">
         <v>88</v>
       </c>
@@ -3546,11 +3628,12 @@
       <c r="F83" s="4"/>
       <c r="G83" s="48"/>
       <c r="H83" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J83" s="59"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75">
+      <c r="L83" s="61"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="33" t="s">
         <v>89</v>
       </c>
@@ -3563,11 +3646,12 @@
       <c r="F84" s="4"/>
       <c r="G84" s="48"/>
       <c r="H84" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J84" s="59"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
+      <c r="L84" s="61"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
       <c r="A85" s="33" t="s">
         <v>90</v>
       </c>
@@ -3583,8 +3667,9 @@
         <v>100</v>
       </c>
       <c r="J85" s="59"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75">
+      <c r="L85" s="61"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="33" t="s">
         <v>91</v>
       </c>
@@ -3597,11 +3682,12 @@
       <c r="F86" s="4"/>
       <c r="G86" s="49"/>
       <c r="H86" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J86" s="59"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75">
+      <c r="L86" s="61"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75">
       <c r="A87" s="33" t="s">
         <v>92</v>
       </c>
@@ -3617,8 +3703,9 @@
         <v>100</v>
       </c>
       <c r="J87" s="59"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75">
+      <c r="L87" s="61"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="33" t="s">
         <v>93</v>
       </c>
@@ -3634,8 +3721,9 @@
         <v>0</v>
       </c>
       <c r="J88" s="59"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75">
+      <c r="L88" s="61"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
       <c r="A89" s="33" t="s">
         <v>94</v>
       </c>
@@ -3648,11 +3736,12 @@
       <c r="F89" s="4"/>
       <c r="G89" s="48"/>
       <c r="H89" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J89" s="59"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75">
+      <c r="L89" s="61"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75">
       <c r="A90" s="33" t="s">
         <v>95</v>
       </c>
@@ -3665,11 +3754,12 @@
       <c r="F90" s="4"/>
       <c r="G90" s="48"/>
       <c r="H90" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J90" s="59"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75">
+      <c r="L90" s="61"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
       <c r="A91" s="33" t="s">
         <v>96</v>
       </c>
@@ -3682,11 +3772,12 @@
       <c r="F91" s="4"/>
       <c r="G91" s="48"/>
       <c r="H91" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J91" s="59"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75">
+      <c r="L91" s="61"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75">
       <c r="A92" s="33" t="s">
         <v>97</v>
       </c>
@@ -3699,11 +3790,12 @@
       <c r="F92" s="4"/>
       <c r="G92" s="48"/>
       <c r="H92" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J92" s="59"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75">
+      <c r="L92" s="61"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75">
       <c r="A93" s="33" t="s">
         <v>98</v>
       </c>
@@ -3719,8 +3811,9 @@
         <v>66.67</v>
       </c>
       <c r="J93" s="59"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75">
+      <c r="L93" s="61"/>
+    </row>
+    <row r="94" spans="1:12" ht="15.75">
       <c r="A94" s="33" t="s">
         <v>99</v>
       </c>
@@ -3733,11 +3826,12 @@
       <c r="F94" s="4"/>
       <c r="G94" s="48"/>
       <c r="H94" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J94" s="59"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75">
+      <c r="L94" s="61"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75">
       <c r="A95" s="33" t="s">
         <v>100</v>
       </c>
@@ -3753,8 +3847,9 @@
         <v>100</v>
       </c>
       <c r="J95" s="59"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75">
+      <c r="L95" s="61"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.75">
       <c r="A96" s="33" t="s">
         <v>101</v>
       </c>
@@ -3767,11 +3862,12 @@
       <c r="F96" s="4"/>
       <c r="G96" s="48"/>
       <c r="H96" s="60">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="J96" s="59"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75">
+      <c r="L96" s="61"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75">
       <c r="A97" s="33" t="s">
         <v>102</v>
       </c>
@@ -3784,11 +3880,12 @@
       <c r="F97" s="4"/>
       <c r="G97" s="48"/>
       <c r="H97" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J97" s="59"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75">
+      <c r="L97" s="61"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75">
       <c r="A98" s="33" t="s">
         <v>103</v>
       </c>
@@ -3801,11 +3898,12 @@
       <c r="F98" s="4"/>
       <c r="G98" s="48"/>
       <c r="H98" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J98" s="59"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75">
+      <c r="L98" s="61"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75">
       <c r="A99" s="33" t="s">
         <v>104</v>
       </c>
@@ -3818,11 +3916,12 @@
       <c r="F99" s="4"/>
       <c r="G99" s="48"/>
       <c r="H99" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J99" s="59"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75">
+      <c r="L99" s="61"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75">
       <c r="A100" s="33" t="s">
         <v>105</v>
       </c>
@@ -3838,8 +3937,9 @@
         <v>0</v>
       </c>
       <c r="J100" s="59"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75">
+      <c r="L100" s="61"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75">
       <c r="A101" s="33" t="s">
         <v>106</v>
       </c>
@@ -3852,11 +3952,12 @@
       <c r="F101" s="4"/>
       <c r="G101" s="48"/>
       <c r="H101" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J101" s="59"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75">
+      <c r="L101" s="61"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75">
       <c r="A102" s="33" t="s">
         <v>107</v>
       </c>
@@ -3872,8 +3973,9 @@
         <v>100</v>
       </c>
       <c r="J102" s="59"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75">
+      <c r="L102" s="61"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75">
       <c r="A103" s="33" t="s">
         <v>108</v>
       </c>
@@ -3886,11 +3988,12 @@
       <c r="F103" s="4"/>
       <c r="G103" s="49"/>
       <c r="H103" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J103" s="59"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75">
+      <c r="L103" s="61"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75">
       <c r="A104" s="33" t="s">
         <v>109</v>
       </c>
@@ -3903,11 +4006,12 @@
       <c r="F104" s="4"/>
       <c r="G104" s="48"/>
       <c r="H104" s="60">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="J104" s="59"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75">
+      <c r="L104" s="61"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75">
       <c r="A105" s="33" t="s">
         <v>110</v>
       </c>
@@ -3920,11 +4024,12 @@
       <c r="F105" s="4"/>
       <c r="G105" s="48"/>
       <c r="H105" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J105" s="59"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75">
+      <c r="L105" s="61"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.75">
       <c r="A106" s="33" t="s">
         <v>111</v>
       </c>
@@ -3940,8 +4045,9 @@
         <v>100</v>
       </c>
       <c r="J106" s="59"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75">
+      <c r="L106" s="61"/>
+    </row>
+    <row r="107" spans="1:12" ht="15.75">
       <c r="A107" s="33" t="s">
         <v>112</v>
       </c>
@@ -3957,8 +4063,9 @@
         <v>100</v>
       </c>
       <c r="J107" s="59"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75">
+      <c r="L107" s="61"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75">
       <c r="A108" s="33" t="s">
         <v>113</v>
       </c>
@@ -3971,11 +4078,12 @@
       <c r="F108" s="4"/>
       <c r="G108" s="48"/>
       <c r="H108" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J108" s="59"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75">
+      <c r="L108" s="61"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.75">
       <c r="A109" s="33" t="s">
         <v>114</v>
       </c>
@@ -3988,11 +4096,12 @@
       <c r="F109" s="4"/>
       <c r="G109" s="48"/>
       <c r="H109" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J109" s="59"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75">
+      <c r="L109" s="61"/>
+    </row>
+    <row r="110" spans="1:12" ht="15.75">
       <c r="A110" s="33" t="s">
         <v>115</v>
       </c>
@@ -4008,8 +4117,9 @@
         <v>66.67</v>
       </c>
       <c r="J110" s="59"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75">
+      <c r="L110" s="61"/>
+    </row>
+    <row r="111" spans="1:12" ht="15.75">
       <c r="A111" s="33" t="s">
         <v>116</v>
       </c>
@@ -4022,11 +4132,12 @@
       <c r="F111" s="4"/>
       <c r="G111" s="48"/>
       <c r="H111" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J111" s="59"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75">
+      <c r="L111" s="61"/>
+    </row>
+    <row r="112" spans="1:12" ht="15.75">
       <c r="A112" s="33" t="s">
         <v>117</v>
       </c>
@@ -4042,8 +4153,9 @@
         <v>100</v>
       </c>
       <c r="J112" s="59"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75">
+      <c r="L112" s="61"/>
+    </row>
+    <row r="113" spans="1:12" ht="15.75">
       <c r="A113" s="33" t="s">
         <v>118</v>
       </c>
@@ -4059,8 +4171,9 @@
         <v>100</v>
       </c>
       <c r="J113" s="59"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75">
+      <c r="L113" s="61"/>
+    </row>
+    <row r="114" spans="1:12" ht="15.75">
       <c r="A114" s="33" t="s">
         <v>119</v>
       </c>
@@ -4073,11 +4186,12 @@
       <c r="F114" s="4"/>
       <c r="G114" s="48"/>
       <c r="H114" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J114" s="59"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75">
+      <c r="L114" s="61"/>
+    </row>
+    <row r="115" spans="1:12" ht="15.75">
       <c r="A115" s="33" t="s">
         <v>120</v>
       </c>
@@ -4090,11 +4204,12 @@
       <c r="F115" s="4"/>
       <c r="G115" s="48"/>
       <c r="H115" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J115" s="59"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75">
+      <c r="L115" s="61"/>
+    </row>
+    <row r="116" spans="1:12" ht="15.75">
       <c r="A116" s="33" t="s">
         <v>121</v>
       </c>
@@ -4107,11 +4222,12 @@
       <c r="F116" s="4"/>
       <c r="G116" s="48"/>
       <c r="H116" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J116" s="59"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75">
+      <c r="L116" s="61"/>
+    </row>
+    <row r="117" spans="1:12" ht="15.75">
       <c r="A117" s="33" t="s">
         <v>122</v>
       </c>
@@ -4124,11 +4240,12 @@
       <c r="F117" s="4"/>
       <c r="G117" s="48"/>
       <c r="H117" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J117" s="59"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75">
+      <c r="L117" s="61"/>
+    </row>
+    <row r="118" spans="1:12" ht="15.75">
       <c r="A118" s="33" t="s">
         <v>123</v>
       </c>
@@ -4141,11 +4258,12 @@
       <c r="F118" s="4"/>
       <c r="G118" s="48"/>
       <c r="H118" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J118" s="59"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75">
+      <c r="L118" s="61"/>
+    </row>
+    <row r="119" spans="1:12" ht="15.75">
       <c r="A119" s="33" t="s">
         <v>124</v>
       </c>
@@ -4158,11 +4276,12 @@
       <c r="F119" s="4"/>
       <c r="G119" s="48"/>
       <c r="H119" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J119" s="59"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75">
+      <c r="L119" s="61"/>
+    </row>
+    <row r="120" spans="1:12" ht="15.75">
       <c r="A120" s="33" t="s">
         <v>125</v>
       </c>
@@ -4175,11 +4294,12 @@
       <c r="F120" s="4"/>
       <c r="G120" s="48"/>
       <c r="H120" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J120" s="59"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75">
+      <c r="L120" s="61"/>
+    </row>
+    <row r="121" spans="1:12" ht="15.75">
       <c r="A121" s="33" t="s">
         <v>126</v>
       </c>
@@ -4192,11 +4312,12 @@
       <c r="F121" s="4"/>
       <c r="G121" s="48"/>
       <c r="H121" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J121" s="59"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75">
+      <c r="L121" s="61"/>
+    </row>
+    <row r="122" spans="1:12" ht="15.75">
       <c r="A122" s="33" t="s">
         <v>127</v>
       </c>
@@ -4209,11 +4330,12 @@
       <c r="F122" s="4"/>
       <c r="G122" s="48"/>
       <c r="H122" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J122" s="59"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75">
+      <c r="L122" s="61"/>
+    </row>
+    <row r="123" spans="1:12" ht="15.75">
       <c r="A123" s="33" t="s">
         <v>128</v>
       </c>
@@ -4229,8 +4351,9 @@
         <v>100</v>
       </c>
       <c r="J123" s="59"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75">
+      <c r="L123" s="61"/>
+    </row>
+    <row r="124" spans="1:12" ht="15.75">
       <c r="A124" s="33" t="s">
         <v>129</v>
       </c>
@@ -4246,8 +4369,9 @@
         <v>66.67</v>
       </c>
       <c r="J124" s="59"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75">
+      <c r="L124" s="61"/>
+    </row>
+    <row r="125" spans="1:12" ht="15.75">
       <c r="A125" s="33" t="s">
         <v>130</v>
       </c>
@@ -4263,8 +4387,9 @@
         <v>66.67</v>
       </c>
       <c r="J125" s="59"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75">
+      <c r="L125" s="61"/>
+    </row>
+    <row r="126" spans="1:12" ht="15.75">
       <c r="A126" s="33" t="s">
         <v>131</v>
       </c>
@@ -4280,8 +4405,9 @@
         <v>66.67</v>
       </c>
       <c r="J126" s="59"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75">
+      <c r="L126" s="61"/>
+    </row>
+    <row r="127" spans="1:12" ht="15.75">
       <c r="A127" s="33" t="s">
         <v>132</v>
       </c>
@@ -4294,11 +4420,12 @@
       <c r="F127" s="4"/>
       <c r="G127" s="48"/>
       <c r="H127" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J127" s="59"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75">
+      <c r="L127" s="61"/>
+    </row>
+    <row r="128" spans="1:12" ht="15.75">
       <c r="A128" s="33" t="s">
         <v>133</v>
       </c>
@@ -4314,8 +4441,9 @@
         <v>66.67</v>
       </c>
       <c r="J128" s="59"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75">
+      <c r="L128" s="61"/>
+    </row>
+    <row r="129" spans="1:12" ht="15.75">
       <c r="A129" s="33" t="s">
         <v>134</v>
       </c>
@@ -4328,11 +4456,12 @@
       <c r="F129" s="4"/>
       <c r="G129" s="48"/>
       <c r="H129" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J129" s="59"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75">
+      <c r="L129" s="61"/>
+    </row>
+    <row r="130" spans="1:12" ht="15.75">
       <c r="A130" s="33" t="s">
         <v>135</v>
       </c>
@@ -4348,8 +4477,9 @@
         <v>100</v>
       </c>
       <c r="J130" s="59"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75">
+      <c r="L130" s="61"/>
+    </row>
+    <row r="131" spans="1:12" ht="15.75">
       <c r="A131" s="33" t="s">
         <v>136</v>
       </c>
@@ -4362,11 +4492,12 @@
       <c r="F131" s="4"/>
       <c r="G131" s="48"/>
       <c r="H131" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J131" s="59"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75">
+      <c r="L131" s="61"/>
+    </row>
+    <row r="132" spans="1:12" ht="15.75">
       <c r="A132" s="33" t="s">
         <v>137</v>
       </c>
@@ -4379,11 +4510,12 @@
       <c r="F132" s="4"/>
       <c r="G132" s="48"/>
       <c r="H132" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J132" s="59"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75">
+      <c r="L132" s="61"/>
+    </row>
+    <row r="133" spans="1:12" ht="15.75">
       <c r="A133" s="33" t="s">
         <v>138</v>
       </c>
@@ -4396,11 +4528,12 @@
       <c r="F133" s="4"/>
       <c r="G133" s="48"/>
       <c r="H133" s="60">
-        <v>66.67</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J133" s="59"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75">
+      <c r="L133" s="61"/>
+    </row>
+    <row r="134" spans="1:12" ht="15.75">
       <c r="A134" s="33" t="s">
         <v>139</v>
       </c>
@@ -4413,11 +4546,12 @@
       <c r="F134" s="4"/>
       <c r="G134" s="48"/>
       <c r="H134" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J134" s="59"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75">
+      <c r="L134" s="61"/>
+    </row>
+    <row r="135" spans="1:12" ht="15.75">
       <c r="A135" s="33" t="s">
         <v>140</v>
       </c>
@@ -4430,11 +4564,12 @@
       <c r="F135" s="4"/>
       <c r="G135" s="48"/>
       <c r="H135" s="60">
-        <v>50</v>
+        <v>88.89</v>
       </c>
       <c r="J135" s="59"/>
-    </row>
-    <row r="136" spans="1:10" ht="15.75">
+      <c r="L135" s="61"/>
+    </row>
+    <row r="136" spans="1:12" ht="15.75">
       <c r="A136" s="33" t="s">
         <v>141</v>
       </c>
@@ -4450,8 +4585,9 @@
         <v>66.67</v>
       </c>
       <c r="J136" s="59"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75">
+      <c r="L136" s="61"/>
+    </row>
+    <row r="137" spans="1:12" ht="15.75">
       <c r="A137" s="33" t="s">
         <v>142</v>
       </c>
@@ -4464,11 +4600,12 @@
       <c r="F137" s="4"/>
       <c r="G137" s="48"/>
       <c r="H137" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J137" s="59"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75">
+      <c r="L137" s="61"/>
+    </row>
+    <row r="138" spans="1:12" ht="15.75">
       <c r="A138" s="33" t="s">
         <v>143</v>
       </c>
@@ -4484,8 +4621,9 @@
         <v>0</v>
       </c>
       <c r="J138" s="59"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75">
+      <c r="L138" s="61"/>
+    </row>
+    <row r="139" spans="1:12" ht="15.75">
       <c r="A139" s="33" t="s">
         <v>144</v>
       </c>
@@ -4498,11 +4636,12 @@
       <c r="F139" s="4"/>
       <c r="G139" s="50"/>
       <c r="H139" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J139" s="59"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75">
+      <c r="L139" s="61"/>
+    </row>
+    <row r="140" spans="1:12" ht="15.75">
       <c r="A140" s="33" t="s">
         <v>145</v>
       </c>
@@ -4518,8 +4657,9 @@
         <v>100</v>
       </c>
       <c r="J140" s="59"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75">
+      <c r="L140" s="61"/>
+    </row>
+    <row r="141" spans="1:12" ht="15.75">
       <c r="A141" s="33" t="s">
         <v>146</v>
       </c>
@@ -4535,8 +4675,9 @@
         <v>66.67</v>
       </c>
       <c r="J141" s="59"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75">
+      <c r="L141" s="61"/>
+    </row>
+    <row r="142" spans="1:12" ht="15.75">
       <c r="A142" s="33" t="s">
         <v>147</v>
       </c>
@@ -4549,11 +4690,12 @@
       <c r="F142" s="4"/>
       <c r="G142" s="48"/>
       <c r="H142" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J142" s="59"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75">
+      <c r="L142" s="61"/>
+    </row>
+    <row r="143" spans="1:12" ht="15.75">
       <c r="A143" s="33" t="s">
         <v>148</v>
       </c>
@@ -4566,11 +4708,12 @@
       <c r="F143" s="4"/>
       <c r="G143" s="48"/>
       <c r="H143" s="60">
-        <v>33.33</v>
+        <v>22.220000000000002</v>
       </c>
       <c r="J143" s="59"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75">
+      <c r="L143" s="61"/>
+    </row>
+    <row r="144" spans="1:12" ht="15.75">
       <c r="A144" s="33" t="s">
         <v>149</v>
       </c>
@@ -4583,11 +4726,12 @@
       <c r="F144" s="4"/>
       <c r="G144" s="48"/>
       <c r="H144" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J144" s="59"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75">
+      <c r="L144" s="61"/>
+    </row>
+    <row r="145" spans="1:12" ht="15.75">
       <c r="A145" s="33" t="s">
         <v>150</v>
       </c>
@@ -4603,8 +4747,9 @@
         <v>100</v>
       </c>
       <c r="J145" s="59"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75">
+      <c r="L145" s="61"/>
+    </row>
+    <row r="146" spans="1:12" ht="15.75">
       <c r="A146" s="33" t="s">
         <v>151</v>
       </c>
@@ -4620,8 +4765,9 @@
         <v>100</v>
       </c>
       <c r="J146" s="59"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75">
+      <c r="L146" s="61"/>
+    </row>
+    <row r="147" spans="1:12" ht="15.75">
       <c r="A147" s="33" t="s">
         <v>152</v>
       </c>
@@ -4634,11 +4780,12 @@
       <c r="F147" s="4"/>
       <c r="G147" s="48"/>
       <c r="H147" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J147" s="59"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75">
+      <c r="L147" s="61"/>
+    </row>
+    <row r="148" spans="1:12" ht="15.75">
       <c r="A148" s="33" t="s">
         <v>153</v>
       </c>
@@ -4654,8 +4801,9 @@
         <v>66.67</v>
       </c>
       <c r="J148" s="59"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75">
+      <c r="L148" s="61"/>
+    </row>
+    <row r="149" spans="1:12" ht="15.75">
       <c r="A149" s="33" t="s">
         <v>154</v>
       </c>
@@ -4671,8 +4819,9 @@
         <v>66.67</v>
       </c>
       <c r="J149" s="59"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75">
+      <c r="L149" s="61"/>
+    </row>
+    <row r="150" spans="1:12" ht="15.75">
       <c r="A150" s="33" t="s">
         <v>155</v>
       </c>
@@ -4685,11 +4834,12 @@
       <c r="F150" s="4"/>
       <c r="G150" s="48"/>
       <c r="H150" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J150" s="59"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75">
+      <c r="L150" s="61"/>
+    </row>
+    <row r="151" spans="1:12" ht="15.75">
       <c r="A151" s="33" t="s">
         <v>156</v>
       </c>
@@ -4702,11 +4852,12 @@
       <c r="F151" s="4"/>
       <c r="G151" s="48"/>
       <c r="H151" s="60">
-        <v>100</v>
+        <v>77.78</v>
       </c>
       <c r="J151" s="59"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75">
+      <c r="L151" s="61"/>
+    </row>
+    <row r="152" spans="1:12" ht="15.75">
       <c r="A152" s="33" t="s">
         <v>157</v>
       </c>
@@ -4719,11 +4870,12 @@
       <c r="F152" s="4"/>
       <c r="G152" s="48"/>
       <c r="H152" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J152" s="59"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75">
+      <c r="L152" s="61"/>
+    </row>
+    <row r="153" spans="1:12" ht="15.75">
       <c r="A153" s="33" t="s">
         <v>158</v>
       </c>
@@ -4739,8 +4891,9 @@
         <v>100</v>
       </c>
       <c r="J153" s="59"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75">
+      <c r="L153" s="61"/>
+    </row>
+    <row r="154" spans="1:12" ht="15.75">
       <c r="A154" s="33" t="s">
         <v>159</v>
       </c>
@@ -4756,8 +4909,9 @@
         <v>100</v>
       </c>
       <c r="J154" s="59"/>
-    </row>
-    <row r="155" spans="1:10" ht="15.75">
+      <c r="L154" s="61"/>
+    </row>
+    <row r="155" spans="1:12" ht="15.75">
       <c r="A155" s="33" t="s">
         <v>160</v>
       </c>
@@ -4773,8 +4927,9 @@
         <v>66.67</v>
       </c>
       <c r="J155" s="59"/>
-    </row>
-    <row r="156" spans="1:10" ht="15.75">
+      <c r="L155" s="61"/>
+    </row>
+    <row r="156" spans="1:12" ht="15.75">
       <c r="A156" s="33" t="s">
         <v>161</v>
       </c>
@@ -4787,11 +4942,12 @@
       <c r="F156" s="4"/>
       <c r="G156" s="48"/>
       <c r="H156" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J156" s="59"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75">
+      <c r="L156" s="61"/>
+    </row>
+    <row r="157" spans="1:12" ht="15.75">
       <c r="A157" s="33" t="s">
         <v>162</v>
       </c>
@@ -4807,8 +4963,9 @@
         <v>0</v>
       </c>
       <c r="J157" s="59"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.75">
+      <c r="L157" s="61"/>
+    </row>
+    <row r="158" spans="1:12" ht="15.75">
       <c r="A158" s="33" t="s">
         <v>163</v>
       </c>
@@ -4821,11 +4978,12 @@
       <c r="F158" s="4"/>
       <c r="G158" s="48"/>
       <c r="H158" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J158" s="59"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75">
+      <c r="L158" s="61"/>
+    </row>
+    <row r="159" spans="1:12" ht="15.75">
       <c r="A159" s="33" t="s">
         <v>164</v>
       </c>
@@ -4838,11 +4996,12 @@
       <c r="F159" s="4"/>
       <c r="G159" s="48"/>
       <c r="H159" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J159" s="59"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75">
+      <c r="L159" s="61"/>
+    </row>
+    <row r="160" spans="1:12" ht="15.75">
       <c r="A160" s="33" t="s">
         <v>165</v>
       </c>
@@ -4855,11 +5014,12 @@
       <c r="F160" s="4"/>
       <c r="G160" s="48"/>
       <c r="H160" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J160" s="59"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75">
+      <c r="L160" s="61"/>
+    </row>
+    <row r="161" spans="1:12" ht="15.75">
       <c r="A161" s="33" t="s">
         <v>166</v>
       </c>
@@ -4872,11 +5032,12 @@
       <c r="F161" s="4"/>
       <c r="G161" s="48"/>
       <c r="H161" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J161" s="59"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75">
+      <c r="L161" s="61"/>
+    </row>
+    <row r="162" spans="1:12" ht="15.75">
       <c r="A162" s="33" t="s">
         <v>167</v>
       </c>
@@ -4889,11 +5050,12 @@
       <c r="F162" s="4"/>
       <c r="G162" s="48"/>
       <c r="H162" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J162" s="59"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75">
+      <c r="L162" s="61"/>
+    </row>
+    <row r="163" spans="1:12" ht="15.75">
       <c r="A163" s="33" t="s">
         <v>168</v>
       </c>
@@ -4906,11 +5068,12 @@
       <c r="F163" s="4"/>
       <c r="G163" s="48"/>
       <c r="H163" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J163" s="59"/>
-    </row>
-    <row r="164" spans="1:10" ht="15.75">
+      <c r="L163" s="61"/>
+    </row>
+    <row r="164" spans="1:12" ht="15.75">
       <c r="A164" s="33" t="s">
         <v>169</v>
       </c>
@@ -4923,11 +5086,12 @@
       <c r="F164" s="4"/>
       <c r="G164" s="48"/>
       <c r="H164" s="60">
-        <v>0</v>
+        <v>11.110000000000001</v>
       </c>
       <c r="J164" s="59"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75">
+      <c r="L164" s="61"/>
+    </row>
+    <row r="165" spans="1:12" ht="15.75">
       <c r="A165" s="33" t="s">
         <v>170</v>
       </c>
@@ -4940,11 +5104,12 @@
       <c r="F165" s="4"/>
       <c r="G165" s="48"/>
       <c r="H165" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J165" s="59"/>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="L165" s="61"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="34" t="s">
         <v>171</v>
       </c>
@@ -4960,8 +5125,9 @@
         <v>100</v>
       </c>
       <c r="J166" s="59"/>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="L166" s="61"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="34" t="s">
         <v>172</v>
       </c>
@@ -4977,8 +5143,9 @@
         <v>0</v>
       </c>
       <c r="J167" s="59"/>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="L167" s="61"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="34" t="s">
         <v>173</v>
       </c>
@@ -4991,11 +5158,12 @@
       <c r="F168" s="4"/>
       <c r="G168" s="48"/>
       <c r="H168" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J168" s="59"/>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="L168" s="61"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="34" t="s">
         <v>174</v>
       </c>
@@ -5008,11 +5176,12 @@
       <c r="F169" s="4"/>
       <c r="G169" s="48"/>
       <c r="H169" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J169" s="59"/>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="L169" s="61"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="34" t="s">
         <v>175</v>
       </c>
@@ -5028,8 +5197,9 @@
         <v>100</v>
       </c>
       <c r="J170" s="59"/>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="L170" s="61"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="34" t="s">
         <v>176</v>
       </c>
@@ -5042,11 +5212,12 @@
       <c r="F171" s="4"/>
       <c r="G171" s="50"/>
       <c r="H171" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J171" s="59"/>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="L171" s="61"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="34" t="s">
         <v>177</v>
       </c>
@@ -5062,8 +5233,9 @@
         <v>33.33</v>
       </c>
       <c r="J172" s="59"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="L172" s="61"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="34" t="s">
         <v>178</v>
       </c>
@@ -5076,11 +5248,12 @@
       <c r="F173" s="4"/>
       <c r="G173" s="46"/>
       <c r="H173" s="60">
-        <v>33.33</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J173" s="59"/>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="L173" s="61"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="34" t="s">
         <v>179</v>
       </c>
@@ -5096,8 +5269,9 @@
         <v>100</v>
       </c>
       <c r="J174" s="59"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="L174" s="61"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="34" t="s">
         <v>180</v>
       </c>
@@ -5110,11 +5284,12 @@
       <c r="F175" s="4"/>
       <c r="G175" s="46"/>
       <c r="H175" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J175" s="59"/>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="L175" s="61"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="34" t="s">
         <v>181</v>
       </c>
@@ -5130,8 +5305,9 @@
         <v>100</v>
       </c>
       <c r="J176" s="59"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="L176" s="61"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="34" t="s">
         <v>182</v>
       </c>
@@ -5144,11 +5320,12 @@
       <c r="F177" s="4"/>
       <c r="G177" s="46"/>
       <c r="H177" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J177" s="59"/>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="L177" s="61"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="34" t="s">
         <v>183</v>
       </c>
@@ -5161,11 +5338,12 @@
       <c r="F178" s="2"/>
       <c r="G178" s="52"/>
       <c r="H178" s="60">
-        <v>50</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J178" s="59"/>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="L178" s="61"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="34" t="s">
         <v>184</v>
       </c>
@@ -5181,8 +5359,9 @@
         <v>0</v>
       </c>
       <c r="J179" s="59"/>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="L179" s="61"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="34" t="s">
         <v>185</v>
       </c>
@@ -5195,11 +5374,12 @@
       <c r="F180" s="20"/>
       <c r="G180" s="19"/>
       <c r="H180" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J180" s="59"/>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="L180" s="61"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="34" t="s">
         <v>186</v>
       </c>
@@ -5215,8 +5395,9 @@
         <v>100</v>
       </c>
       <c r="J181" s="59"/>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="L181" s="61"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="34" t="s">
         <v>187</v>
       </c>
@@ -5229,11 +5410,12 @@
       <c r="F182" s="2"/>
       <c r="G182" s="54"/>
       <c r="H182" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J182" s="59"/>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="L182" s="61"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="34" t="s">
         <v>188</v>
       </c>
@@ -5246,11 +5428,12 @@
       <c r="F183" s="2"/>
       <c r="G183" s="54"/>
       <c r="H183" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J183" s="59"/>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="L183" s="61"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="34" t="s">
         <v>189</v>
       </c>
@@ -5266,8 +5449,9 @@
         <v>66.67</v>
       </c>
       <c r="J184" s="59"/>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="L184" s="61"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="34" t="s">
         <v>190</v>
       </c>
@@ -5280,11 +5464,12 @@
       <c r="F185" s="2"/>
       <c r="G185" s="55"/>
       <c r="H185" s="60">
-        <v>83.33</v>
+        <v>77.78</v>
       </c>
       <c r="J185" s="59"/>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="L185" s="61"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="34" t="s">
         <v>191</v>
       </c>
@@ -5297,11 +5482,12 @@
       <c r="F186" s="2"/>
       <c r="G186" s="55"/>
       <c r="H186" s="60">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="J186" s="59"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="L186" s="61"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="34" t="s">
         <v>192</v>
       </c>
@@ -5314,11 +5500,12 @@
       <c r="F187" s="4"/>
       <c r="G187" s="55"/>
       <c r="H187" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J187" s="59"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="L187" s="61"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="34" t="s">
         <v>193</v>
       </c>
@@ -5331,11 +5518,12 @@
       <c r="F188" s="4"/>
       <c r="G188" s="52"/>
       <c r="H188" s="60">
-        <v>50</v>
+        <v>55.559999999999995</v>
       </c>
       <c r="J188" s="59"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75">
+      <c r="L188" s="61"/>
+    </row>
+    <row r="189" spans="1:12" ht="15.75">
       <c r="A189" s="33" t="s">
         <v>194</v>
       </c>
@@ -5348,11 +5536,12 @@
       <c r="F189" s="2"/>
       <c r="G189" s="52"/>
       <c r="H189" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J189" s="59"/>
-    </row>
-    <row r="190" spans="1:10" ht="15.75">
+      <c r="L189" s="61"/>
+    </row>
+    <row r="190" spans="1:12" ht="15.75">
       <c r="A190" s="33" t="s">
         <v>195</v>
       </c>
@@ -5365,11 +5554,12 @@
       <c r="F190" s="2"/>
       <c r="G190" s="52"/>
       <c r="H190" s="60">
-        <v>66.67</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J190" s="59"/>
-    </row>
-    <row r="191" spans="1:10" ht="15.75">
+      <c r="L190" s="61"/>
+    </row>
+    <row r="191" spans="1:12" ht="15.75">
       <c r="A191" s="33" t="s">
         <v>196</v>
       </c>
@@ -5382,11 +5572,12 @@
       <c r="F191" s="4"/>
       <c r="G191" s="52"/>
       <c r="H191" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J191" s="59"/>
-    </row>
-    <row r="192" spans="1:10" ht="15.75">
+      <c r="L191" s="61"/>
+    </row>
+    <row r="192" spans="1:12" ht="15.75">
       <c r="A192" s="33" t="s">
         <v>197</v>
       </c>
@@ -5399,11 +5590,12 @@
       <c r="F192" s="4"/>
       <c r="G192" s="52"/>
       <c r="H192" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J192" s="59"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75">
+      <c r="L192" s="61"/>
+    </row>
+    <row r="193" spans="1:12" ht="15.75">
       <c r="A193" s="33" t="s">
         <v>198</v>
       </c>
@@ -5419,8 +5611,9 @@
         <v>100</v>
       </c>
       <c r="J193" s="59"/>
-    </row>
-    <row r="194" spans="1:10" ht="15.75">
+      <c r="L193" s="61"/>
+    </row>
+    <row r="194" spans="1:12" ht="15.75">
       <c r="A194" s="33" t="s">
         <v>199</v>
       </c>
@@ -5433,11 +5626,12 @@
       <c r="F194" s="30"/>
       <c r="G194" s="52"/>
       <c r="H194" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J194" s="59"/>
-    </row>
-    <row r="195" spans="1:10" ht="15.75">
+      <c r="L194" s="61"/>
+    </row>
+    <row r="195" spans="1:12" ht="15.75">
       <c r="A195" s="33" t="s">
         <v>200</v>
       </c>
@@ -5453,8 +5647,9 @@
         <v>66.67</v>
       </c>
       <c r="J195" s="59"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75">
+      <c r="L195" s="61"/>
+    </row>
+    <row r="196" spans="1:12" ht="15.75">
       <c r="A196" s="33" t="s">
         <v>201</v>
       </c>
@@ -5467,11 +5662,12 @@
       <c r="F196" s="4"/>
       <c r="G196" s="52"/>
       <c r="H196" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J196" s="59"/>
-    </row>
-    <row r="197" spans="1:10" ht="15.75">
+      <c r="L196" s="61"/>
+    </row>
+    <row r="197" spans="1:12" ht="15.75">
       <c r="A197" s="33" t="s">
         <v>202</v>
       </c>
@@ -5484,11 +5680,12 @@
       <c r="F197" s="4"/>
       <c r="G197" s="52"/>
       <c r="H197" s="60">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J197" s="59"/>
-    </row>
-    <row r="198" spans="1:10" ht="15.75">
+      <c r="L197" s="61"/>
+    </row>
+    <row r="198" spans="1:12" ht="15.75">
       <c r="A198" s="33" t="s">
         <v>203</v>
       </c>
@@ -5501,11 +5698,12 @@
       <c r="F198" s="2"/>
       <c r="G198" s="52"/>
       <c r="H198" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J198" s="59"/>
-    </row>
-    <row r="199" spans="1:10" ht="15.75">
+      <c r="L198" s="61"/>
+    </row>
+    <row r="199" spans="1:12" ht="15.75">
       <c r="A199" s="33" t="s">
         <v>204</v>
       </c>
@@ -5518,11 +5716,12 @@
       <c r="F199" s="2"/>
       <c r="G199" s="52"/>
       <c r="H199" s="60">
-        <v>83.33</v>
+        <v>88.89</v>
       </c>
       <c r="J199" s="59"/>
-    </row>
-    <row r="200" spans="1:10" ht="15.75">
+      <c r="L199" s="61"/>
+    </row>
+    <row r="200" spans="1:12" ht="15.75">
       <c r="A200" s="33" t="s">
         <v>205</v>
       </c>
@@ -5538,8 +5737,9 @@
         <v>100</v>
       </c>
       <c r="J200" s="59"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75">
+      <c r="L200" s="61"/>
+    </row>
+    <row r="201" spans="1:12" ht="15.75">
       <c r="A201" s="37" t="s">
         <v>206</v>
       </c>
@@ -5555,8 +5755,9 @@
         <v>66.67</v>
       </c>
       <c r="J201" s="59"/>
-    </row>
-    <row r="202" spans="1:10" ht="15.75">
+      <c r="L201" s="61"/>
+    </row>
+    <row r="202" spans="1:12" ht="15.75">
       <c r="A202" s="42" t="s">
         <v>408</v>
       </c>
@@ -5569,11 +5770,12 @@
       <c r="F202" s="43"/>
       <c r="G202" s="57"/>
       <c r="H202" s="60">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="J202" s="59"/>
-    </row>
-    <row r="203" spans="1:10" ht="15.75">
+      <c r="L202" s="61"/>
+    </row>
+    <row r="203" spans="1:12" ht="15.75">
       <c r="A203" s="44" t="s">
         <v>410</v>
       </c>
@@ -5586,11 +5788,12 @@
       <c r="F203" s="43"/>
       <c r="G203" s="57"/>
       <c r="H203" s="60">
-        <v>33.33</v>
+        <v>44.440000000000005</v>
       </c>
       <c r="J203" s="59"/>
-    </row>
-    <row r="204" spans="1:10" ht="15.75">
+      <c r="L203" s="61"/>
+    </row>
+    <row r="204" spans="1:12" ht="15.75">
       <c r="A204" s="44" t="s">
         <v>412</v>
       </c>
@@ -5603,11 +5806,12 @@
       <c r="F204" s="43"/>
       <c r="G204" s="57"/>
       <c r="H204" s="60">
-        <v>66.67</v>
+        <v>77.78</v>
       </c>
       <c r="J204" s="59"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75">
+      <c r="L204" s="61"/>
+    </row>
+    <row r="205" spans="1:12" ht="15.75">
       <c r="A205" s="44" t="s">
         <v>414</v>
       </c>
@@ -5623,8 +5827,9 @@
         <v>66.67</v>
       </c>
       <c r="J205" s="59"/>
-    </row>
-    <row r="206" spans="1:10" ht="15.75">
+      <c r="L205" s="61"/>
+    </row>
+    <row r="206" spans="1:12" ht="15.75">
       <c r="A206" s="44" t="s">
         <v>416</v>
       </c>
@@ -5637,9 +5842,10 @@
       <c r="F206" s="43"/>
       <c r="G206" s="57"/>
       <c r="H206" s="60">
-        <v>16.669999999999998</v>
+        <v>11.110000000000001</v>
       </c>
       <c r="J206" s="59"/>
+      <c r="L206" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5648,6 +5854,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5791,15 +6006,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5807,13 +6013,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="429">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1273,13 +1273,46 @@
   </si>
   <si>
     <t>SILVA W.R.S</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2022/E/034</t>
+  </si>
+  <si>
+    <t>2022/E/035</t>
+  </si>
+  <si>
+    <t>2022/E/041</t>
+  </si>
+  <si>
+    <t>2022/E/058</t>
+  </si>
+  <si>
+    <t>2022/E/075</t>
+  </si>
+  <si>
+    <t>2022/E/103</t>
+  </si>
+  <si>
+    <t>2022/E/137</t>
+  </si>
+  <si>
+    <t>2022/E/184</t>
+  </si>
+  <si>
+    <t>2021/E/028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +1393,19 @@
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1666,11 +1712,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,9 +1721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,9 +1742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,9 +1810,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,6 +1863,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2117,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2132,3720 +2184,4256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="54" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="60">
+      <c r="C2" s="58">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="56">
         <v>66.67</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="L2" s="61"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="60">
+      <c r="C3" s="59">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="56">
         <v>66.67</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="L3" s="61"/>
+      <c r="J3" s="55"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="60">
+      <c r="C4" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="L4" s="61"/>
+      <c r="J4" s="55"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="60">
+      <c r="C5" s="58">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="56">
         <v>77.78</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="L5" s="61"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="60">
+      <c r="C6" s="58">
+        <v>77</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="56">
         <v>66.67</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="55"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="60">
+      <c r="C7" s="58">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="L7" s="61"/>
+      <c r="J7" s="55"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="60">
+      <c r="C8" s="58">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="56">
         <v>88.89</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="L8" s="61"/>
+      <c r="J8" s="55"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="60">
+      <c r="C9" s="58">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="56">
         <v>77.78</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="L9" s="61"/>
+      <c r="J9" s="55"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="60">
+      <c r="C10" s="58">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="56">
         <v>77.78</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="L10" s="61"/>
+      <c r="J10" s="55"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="60">
+      <c r="C11" s="58">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="56">
         <v>100</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="L11" s="61"/>
+      <c r="J11" s="55"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="60">
+      <c r="C12" s="58">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="L12" s="61"/>
+      <c r="J12" s="55"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="60">
+      <c r="C13" s="58">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="56">
         <v>100</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="L13" s="61"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="60">
+      <c r="C14" s="58">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="56">
         <v>33.33</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="L14" s="61"/>
+      <c r="J14" s="55"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="60">
+      <c r="C15" s="58">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="L15" s="61"/>
+      <c r="J15" s="55"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="60">
+      <c r="C16" s="58">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="56">
         <v>77.78</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="L16" s="61"/>
+      <c r="J16" s="55"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="60">
+      <c r="C17" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="56">
         <v>0</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="L17" s="61"/>
+      <c r="J17" s="55"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="60">
+      <c r="C18" s="58">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="56">
         <v>77.78</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="L18" s="61"/>
+      <c r="J18" s="55"/>
+      <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="60">
+      <c r="C19" s="58">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="L19" s="61"/>
+      <c r="J19" s="55"/>
+      <c r="L19" s="57"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="60">
+      <c r="C20" s="58">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="L20" s="61"/>
+      <c r="J20" s="55"/>
+      <c r="L20" s="57"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="60">
+      <c r="C21" s="58">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="56">
         <v>77.78</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="L21" s="61"/>
+      <c r="J21" s="55"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="60">
+      <c r="C22" s="58">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="56">
         <v>77.78</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="L22" s="61"/>
+      <c r="J22" s="55"/>
+      <c r="L22" s="57"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="60">
+      <c r="C23" s="58">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="L23" s="61"/>
+      <c r="J23" s="55"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="60">
+      <c r="C24" s="58">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="56">
         <v>22.220000000000002</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="L24" s="61"/>
+      <c r="J24" s="55"/>
+      <c r="L24" s="57"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="60">
+      <c r="C25" s="58">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="L25" s="61"/>
+      <c r="J25" s="55"/>
+      <c r="L25" s="57"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="60">
+      <c r="C26" s="58">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="56">
         <v>88.89</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="L26" s="61"/>
+      <c r="J26" s="55"/>
+      <c r="L26" s="57"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="60">
+      <c r="C27" s="58">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="56">
         <v>88.89</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="L27" s="61"/>
+      <c r="J27" s="55"/>
+      <c r="L27" s="57"/>
     </row>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="60">
+      <c r="C28" s="58">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="56">
         <v>66.67</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="L28" s="61"/>
+      <c r="J28" s="55"/>
+      <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="60">
+      <c r="C29" s="58">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="56">
         <v>88.89</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="L29" s="61"/>
+      <c r="J29" s="55"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="60">
+      <c r="C30" s="58">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="56">
         <v>100</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="L30" s="61"/>
+      <c r="J30" s="55"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="60">
+      <c r="C31" s="58">
+        <v>58</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="56">
         <v>88.89</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="L31" s="61"/>
+      <c r="J31" s="55"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="60">
+      <c r="C32" s="58">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="L32" s="61"/>
+      <c r="J32" s="55"/>
+      <c r="L32" s="57"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="60">
+      <c r="C33" s="58">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="56">
         <v>77.78</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="L33" s="61"/>
+      <c r="J33" s="55"/>
+      <c r="L33" s="57"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="60">
+      <c r="C34" s="58">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="56">
         <v>100</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="L34" s="61"/>
+      <c r="J34" s="55"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="60">
+      <c r="C35" s="58">
+        <v>49</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="56">
         <v>100</v>
       </c>
-      <c r="J35" s="59"/>
-      <c r="L35" s="61"/>
+      <c r="J35" s="55"/>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="60">
+      <c r="C36" s="58">
+        <v>39</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J36" s="59"/>
-      <c r="L36" s="61"/>
+      <c r="J36" s="55"/>
+      <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="60">
+      <c r="C37" s="58">
+        <v>31</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J37" s="59"/>
-      <c r="L37" s="61"/>
+      <c r="J37" s="55"/>
+      <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="60">
+      <c r="C38" s="58">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="56">
         <v>88.89</v>
       </c>
-      <c r="J38" s="59"/>
-      <c r="L38" s="61"/>
+      <c r="J38" s="55"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="60">
+      <c r="C39" s="58">
+        <v>74</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="56">
         <v>88.89</v>
       </c>
-      <c r="J39" s="59"/>
-      <c r="L39" s="61"/>
+      <c r="J39" s="55"/>
+      <c r="L39" s="57"/>
     </row>
     <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="60">
+      <c r="C40" s="58">
+        <v>61</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="56">
         <v>75</v>
       </c>
-      <c r="J40" s="59"/>
-      <c r="L40" s="61"/>
+      <c r="J40" s="55"/>
+      <c r="L40" s="57"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="60">
+      <c r="C41" s="58">
+        <v>55</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="56">
         <v>100</v>
       </c>
-      <c r="J41" s="59"/>
-      <c r="L41" s="61"/>
+      <c r="J41" s="55"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="60">
+      <c r="C42" s="58">
+        <v>47</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="56">
         <v>88.89</v>
       </c>
-      <c r="J42" s="59"/>
-      <c r="L42" s="61"/>
+      <c r="J42" s="55"/>
+      <c r="L42" s="57"/>
     </row>
     <row r="43" spans="1:12" ht="15.75">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="60">
+      <c r="C43" s="58">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="56">
         <v>33.33</v>
       </c>
-      <c r="J43" s="59"/>
-      <c r="L43" s="61"/>
+      <c r="J43" s="55"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" ht="15.75">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="60">
+      <c r="C44" s="58">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J44" s="59"/>
-      <c r="L44" s="61"/>
+      <c r="J44" s="55"/>
+      <c r="L44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="60">
+      <c r="C45" s="58">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="56">
         <v>100</v>
       </c>
-      <c r="J45" s="59"/>
-      <c r="L45" s="61"/>
+      <c r="J45" s="55"/>
+      <c r="L45" s="57"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="60">
+      <c r="C46" s="58">
+        <v>37</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="56">
         <v>33.33</v>
       </c>
-      <c r="J46" s="59"/>
-      <c r="L46" s="61"/>
+      <c r="J46" s="55"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="60">
+      <c r="C47" s="58">
+        <v>52</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="56">
         <v>88.89</v>
       </c>
-      <c r="J47" s="59"/>
-      <c r="L47" s="61"/>
+      <c r="J47" s="55"/>
+      <c r="L47" s="57"/>
     </row>
     <row r="48" spans="1:12" ht="15.75">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="60">
+      <c r="C48" s="58">
+        <v>60</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="56">
         <v>88.89</v>
       </c>
-      <c r="J48" s="59"/>
-      <c r="L48" s="61"/>
+      <c r="J48" s="55"/>
+      <c r="L48" s="57"/>
     </row>
     <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="60">
+      <c r="C49" s="58">
+        <v>59</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="56">
         <v>88.89</v>
       </c>
-      <c r="J49" s="59"/>
-      <c r="L49" s="61"/>
+      <c r="J49" s="55"/>
+      <c r="L49" s="57"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="60">
+      <c r="C50" s="58">
+        <v>69</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="56">
         <v>100</v>
       </c>
-      <c r="J50" s="59"/>
-      <c r="L50" s="61"/>
+      <c r="J50" s="55"/>
+      <c r="L50" s="57"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="60">
+      <c r="C51" s="58">
+        <v>69</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="56">
         <v>100</v>
       </c>
-      <c r="J51" s="59"/>
-      <c r="L51" s="61"/>
+      <c r="J51" s="55"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="60">
+      <c r="C52" s="58">
+        <v>73</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="56">
         <v>77.78</v>
       </c>
-      <c r="J52" s="59"/>
-      <c r="L52" s="61"/>
+      <c r="J52" s="55"/>
+      <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" ht="15.75">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="60">
+      <c r="C53" s="58">
+        <v>82</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J53" s="59"/>
-      <c r="L53" s="61"/>
+      <c r="J53" s="55"/>
+      <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" ht="15.75">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="60">
+      <c r="C54" s="58">
+        <v>34</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="56">
         <v>66.67</v>
       </c>
-      <c r="J54" s="59"/>
-      <c r="L54" s="61"/>
+      <c r="J54" s="55"/>
+      <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="60">
+      <c r="C55" s="58">
+        <v>64</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="56">
         <v>77.78</v>
       </c>
-      <c r="J55" s="59"/>
-      <c r="L55" s="61"/>
+      <c r="J55" s="55"/>
+      <c r="L55" s="57"/>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="60">
+      <c r="C56" s="58">
+        <v>63</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="56">
         <v>88.89</v>
       </c>
-      <c r="J56" s="59"/>
-      <c r="L56" s="61"/>
+      <c r="J56" s="55"/>
+      <c r="L56" s="57"/>
     </row>
     <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="60">
+      <c r="C57" s="58">
+        <v>64</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="56">
         <v>88.89</v>
       </c>
-      <c r="J57" s="59"/>
-      <c r="L57" s="61"/>
+      <c r="J57" s="55"/>
+      <c r="L57" s="57"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="60">
+      <c r="C58" s="58">
+        <v>73</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="56">
         <v>100</v>
       </c>
-      <c r="J58" s="59"/>
-      <c r="L58" s="61"/>
+      <c r="J58" s="55"/>
+      <c r="L58" s="57"/>
     </row>
     <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="60">
+      <c r="C59" s="58">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="56">
         <v>100</v>
       </c>
-      <c r="J59" s="59"/>
-      <c r="L59" s="61"/>
+      <c r="J59" s="55"/>
+      <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" ht="15.75">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="60">
+      <c r="C60" s="58">
+        <v>68</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="56">
         <v>88.89</v>
       </c>
-      <c r="J60" s="59"/>
-      <c r="L60" s="61"/>
+      <c r="J60" s="55"/>
+      <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="60">
+      <c r="C61" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="56">
         <v>0</v>
       </c>
-      <c r="J61" s="59"/>
-      <c r="L61" s="61"/>
+      <c r="J61" s="55"/>
+      <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="60">
+      <c r="C62" s="58">
+        <v>45</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="56">
         <v>66.67</v>
       </c>
-      <c r="J62" s="59"/>
-      <c r="L62" s="61"/>
+      <c r="J62" s="55"/>
+      <c r="L62" s="57"/>
     </row>
     <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="60">
+      <c r="C63" s="58">
+        <v>41</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="56">
         <v>77.78</v>
       </c>
-      <c r="J63" s="59"/>
-      <c r="L63" s="61"/>
+      <c r="J63" s="55"/>
+      <c r="L63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="60">
+      <c r="C64" s="58">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="56">
         <v>88.89</v>
       </c>
-      <c r="J64" s="59"/>
-      <c r="L64" s="61"/>
+      <c r="J64" s="55"/>
+      <c r="L64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="60">
+      <c r="C65" s="58">
+        <v>52</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="56">
         <v>88.89</v>
       </c>
-      <c r="J65" s="59"/>
-      <c r="L65" s="61"/>
+      <c r="J65" s="55"/>
+      <c r="L65" s="57"/>
     </row>
     <row r="66" spans="1:12" ht="15.75">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="60">
+      <c r="C66" s="58">
+        <v>83</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="56">
         <v>100</v>
       </c>
-      <c r="J66" s="59"/>
-      <c r="L66" s="61"/>
+      <c r="J66" s="55"/>
+      <c r="L66" s="57"/>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="60">
+      <c r="C67" s="58">
+        <v>60</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="56">
         <v>66.67</v>
       </c>
-      <c r="J67" s="59"/>
-      <c r="L67" s="61"/>
+      <c r="J67" s="55"/>
+      <c r="L67" s="57"/>
     </row>
     <row r="68" spans="1:12" ht="15.75">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="60">
+      <c r="C68" s="58">
+        <v>66</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="56">
         <v>88.89</v>
       </c>
-      <c r="J68" s="59"/>
-      <c r="L68" s="61"/>
+      <c r="J68" s="55"/>
+      <c r="L68" s="57"/>
     </row>
     <row r="69" spans="1:12" ht="15.75">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="60">
+      <c r="C69" s="58">
+        <v>67</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="56">
         <v>100</v>
       </c>
-      <c r="J69" s="59"/>
-      <c r="L69" s="61"/>
+      <c r="J69" s="55"/>
+      <c r="L69" s="57"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="60">
+      <c r="C70" s="58">
+        <v>82</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="56">
         <v>88.89</v>
       </c>
-      <c r="J70" s="59"/>
-      <c r="L70" s="61"/>
+      <c r="J70" s="55"/>
+      <c r="L70" s="57"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="60">
+      <c r="C71" s="58">
+        <v>51</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="56">
         <v>100</v>
       </c>
-      <c r="J71" s="59"/>
-      <c r="L71" s="61"/>
+      <c r="J71" s="55"/>
+      <c r="L71" s="57"/>
     </row>
     <row r="72" spans="1:12" ht="15.75">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="60">
+      <c r="C72" s="58">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="56">
         <v>100</v>
       </c>
-      <c r="J72" s="59"/>
-      <c r="L72" s="61"/>
+      <c r="J72" s="55"/>
+      <c r="L72" s="57"/>
     </row>
     <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="60">
+      <c r="C73" s="58">
+        <v>61</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="56">
         <v>88.89</v>
       </c>
-      <c r="J73" s="59"/>
-      <c r="L73" s="61"/>
+      <c r="J73" s="55"/>
+      <c r="L73" s="57"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="60">
+      <c r="C74" s="58">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="56">
         <v>88.89</v>
       </c>
-      <c r="J74" s="59"/>
-      <c r="L74" s="61"/>
+      <c r="J74" s="55"/>
+      <c r="L74" s="57"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="60">
+      <c r="C75" s="58">
+        <v>66</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="56">
         <v>100</v>
       </c>
-      <c r="J75" s="59"/>
-      <c r="L75" s="61"/>
+      <c r="J75" s="55"/>
+      <c r="L75" s="57"/>
     </row>
     <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="60">
+      <c r="C76" s="58">
+        <v>28</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="56">
         <v>77.78</v>
       </c>
-      <c r="J76" s="59"/>
-      <c r="L76" s="61"/>
+      <c r="J76" s="55"/>
+      <c r="L76" s="57"/>
     </row>
     <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="60">
+      <c r="C77" s="58">
+        <v>58</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="56">
         <v>100</v>
       </c>
-      <c r="J77" s="59"/>
-      <c r="L77" s="61"/>
+      <c r="J77" s="55"/>
+      <c r="L77" s="57"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="60">
+      <c r="C78" s="58">
+        <v>52</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="56">
         <v>88.89</v>
       </c>
-      <c r="J78" s="59"/>
-      <c r="L78" s="61"/>
+      <c r="J78" s="55"/>
+      <c r="L78" s="57"/>
     </row>
     <row r="79" spans="1:12" ht="15.75">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="60">
+      <c r="C79" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="56">
         <v>0</v>
       </c>
-      <c r="J79" s="59"/>
-      <c r="L79" s="61"/>
+      <c r="J79" s="55"/>
+      <c r="L79" s="57"/>
     </row>
     <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="60">
+      <c r="C80" s="58">
+        <v>34</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="56">
         <v>77.78</v>
       </c>
-      <c r="J80" s="59"/>
-      <c r="L80" s="61"/>
+      <c r="J80" s="55"/>
+      <c r="L80" s="57"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="60">
+      <c r="C81" s="58">
+        <v>72</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="56">
         <v>66.67</v>
       </c>
-      <c r="J81" s="59"/>
-      <c r="L81" s="61"/>
+      <c r="J81" s="55"/>
+      <c r="L81" s="57"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="60">
+      <c r="C82" s="58">
+        <v>64</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="56">
         <v>77.78</v>
       </c>
-      <c r="J82" s="59"/>
-      <c r="L82" s="61"/>
+      <c r="J82" s="55"/>
+      <c r="L82" s="57"/>
     </row>
     <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="60">
+      <c r="C83" s="58">
+        <v>44</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="56">
         <v>88.89</v>
       </c>
-      <c r="J83" s="59"/>
-      <c r="L83" s="61"/>
+      <c r="J83" s="55"/>
+      <c r="L83" s="57"/>
     </row>
     <row r="84" spans="1:12" ht="15.75">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="60">
+      <c r="C84" s="58">
+        <v>16</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="56">
         <v>88.89</v>
       </c>
-      <c r="J84" s="59"/>
-      <c r="L84" s="61"/>
+      <c r="J84" s="55"/>
+      <c r="L84" s="57"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="60">
+      <c r="C85" s="58">
+        <v>37</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="56">
         <v>100</v>
       </c>
-      <c r="J85" s="59"/>
-      <c r="L85" s="61"/>
+      <c r="J85" s="55"/>
+      <c r="L85" s="57"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="60">
+      <c r="C86" s="58">
+        <v>75</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="56">
         <v>77.78</v>
       </c>
-      <c r="J86" s="59"/>
-      <c r="L86" s="61"/>
+      <c r="J86" s="55"/>
+      <c r="L86" s="57"/>
     </row>
     <row r="87" spans="1:12" ht="15.75">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="60">
+      <c r="C87" s="58">
+        <v>57</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="56">
         <v>100</v>
       </c>
-      <c r="J87" s="59"/>
-      <c r="L87" s="61"/>
+      <c r="J87" s="55"/>
+      <c r="L87" s="57"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="60">
+      <c r="C88" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="56">
         <v>0</v>
       </c>
-      <c r="J88" s="59"/>
-      <c r="L88" s="61"/>
+      <c r="J88" s="55"/>
+      <c r="L88" s="57"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="60">
+      <c r="C89" s="58">
+        <v>57</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="56">
         <v>77.78</v>
       </c>
-      <c r="J89" s="59"/>
-      <c r="L89" s="61"/>
+      <c r="J89" s="55"/>
+      <c r="L89" s="57"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="60">
+      <c r="C90" s="58">
+        <v>70</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="56">
         <v>77.78</v>
       </c>
-      <c r="J90" s="59"/>
-      <c r="L90" s="61"/>
+      <c r="J90" s="55"/>
+      <c r="L90" s="57"/>
     </row>
     <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="60">
+      <c r="C91" s="58">
+        <v>87</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="56">
         <v>88.89</v>
       </c>
-      <c r="J91" s="59"/>
-      <c r="L91" s="61"/>
+      <c r="J91" s="55"/>
+      <c r="L91" s="57"/>
     </row>
     <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="60">
+      <c r="C92" s="58">
+        <v>34</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="56">
         <v>88.89</v>
       </c>
-      <c r="J92" s="59"/>
-      <c r="L92" s="61"/>
+      <c r="J92" s="55"/>
+      <c r="L92" s="57"/>
     </row>
     <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="60">
+      <c r="C93" s="58">
+        <v>57</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="56">
         <v>66.67</v>
       </c>
-      <c r="J93" s="59"/>
-      <c r="L93" s="61"/>
+      <c r="J93" s="55"/>
+      <c r="L93" s="57"/>
     </row>
     <row r="94" spans="1:12" ht="15.75">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="60">
+      <c r="C94" s="58">
+        <v>37</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="56">
         <v>88.89</v>
       </c>
-      <c r="J94" s="59"/>
-      <c r="L94" s="61"/>
+      <c r="J94" s="55"/>
+      <c r="L94" s="57"/>
     </row>
     <row r="95" spans="1:12" ht="15.75">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="60">
+      <c r="C95" s="58">
+        <v>85</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="56">
         <v>100</v>
       </c>
-      <c r="J95" s="59"/>
-      <c r="L95" s="61"/>
+      <c r="J95" s="55"/>
+      <c r="L95" s="57"/>
     </row>
     <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="60">
+      <c r="C96" s="58">
+        <v>29</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="56">
         <v>66.67</v>
       </c>
-      <c r="J96" s="59"/>
-      <c r="L96" s="61"/>
+      <c r="J96" s="55"/>
+      <c r="L96" s="57"/>
     </row>
     <row r="97" spans="1:12" ht="15.75">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="60">
+      <c r="C97" s="58">
+        <v>44</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="56">
         <v>88.89</v>
       </c>
-      <c r="J97" s="59"/>
-      <c r="L97" s="61"/>
+      <c r="J97" s="55"/>
+      <c r="L97" s="57"/>
     </row>
     <row r="98" spans="1:12" ht="15.75">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="60">
+      <c r="C98" s="58">
+        <v>84</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="56">
         <v>88.89</v>
       </c>
-      <c r="J98" s="59"/>
-      <c r="L98" s="61"/>
+      <c r="J98" s="55"/>
+      <c r="L98" s="57"/>
     </row>
     <row r="99" spans="1:12" ht="15.75">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="60">
+      <c r="C99" s="58">
+        <v>62</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="56">
         <v>77.78</v>
       </c>
-      <c r="J99" s="59"/>
-      <c r="L99" s="61"/>
+      <c r="J99" s="55"/>
+      <c r="L99" s="57"/>
     </row>
     <row r="100" spans="1:12" ht="15.75">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="60">
+      <c r="C100" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="56">
         <v>0</v>
       </c>
-      <c r="J100" s="59"/>
-      <c r="L100" s="61"/>
+      <c r="J100" s="55"/>
+      <c r="L100" s="57"/>
     </row>
     <row r="101" spans="1:12" ht="15.75">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="60">
+      <c r="C101" s="58">
+        <v>72</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="56">
         <v>77.78</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="L101" s="61"/>
+      <c r="J101" s="55"/>
+      <c r="L101" s="57"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="60">
+      <c r="C102" s="58">
+        <v>83</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="56">
         <v>100</v>
       </c>
-      <c r="J102" s="59"/>
-      <c r="L102" s="61"/>
+      <c r="J102" s="55"/>
+      <c r="L102" s="57"/>
     </row>
     <row r="103" spans="1:12" ht="15.75">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="60">
+      <c r="C103" s="58">
+        <v>25</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J103" s="59"/>
-      <c r="L103" s="61"/>
+      <c r="J103" s="55"/>
+      <c r="L103" s="57"/>
     </row>
     <row r="104" spans="1:12" ht="15.75">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="60">
+      <c r="C104" s="58">
+        <v>14</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="56">
         <v>100</v>
       </c>
-      <c r="J104" s="59"/>
-      <c r="L104" s="61"/>
+      <c r="J104" s="55"/>
+      <c r="L104" s="57"/>
     </row>
     <row r="105" spans="1:12" ht="15.75">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="60">
+      <c r="C105" s="58">
+        <v>75</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="56">
         <v>66.67</v>
       </c>
-      <c r="J105" s="59"/>
-      <c r="L105" s="61"/>
+      <c r="J105" s="55"/>
+      <c r="L105" s="57"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="60">
+      <c r="C106" s="58">
+        <v>62</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="56">
         <v>100</v>
       </c>
-      <c r="J106" s="59"/>
-      <c r="L106" s="61"/>
+      <c r="J106" s="55"/>
+      <c r="L106" s="57"/>
     </row>
     <row r="107" spans="1:12" ht="15.75">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="60">
+      <c r="C107" s="58">
+        <v>94</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="56">
         <v>100</v>
       </c>
-      <c r="J107" s="59"/>
-      <c r="L107" s="61"/>
+      <c r="J107" s="55"/>
+      <c r="L107" s="57"/>
     </row>
     <row r="108" spans="1:12" ht="15.75">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="60">
+      <c r="C108" s="58">
+        <v>48</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="56">
         <v>88.89</v>
       </c>
-      <c r="J108" s="59"/>
-      <c r="L108" s="61"/>
+      <c r="J108" s="55"/>
+      <c r="L108" s="57"/>
     </row>
     <row r="109" spans="1:12" ht="15.75">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="60">
+      <c r="C109" s="58">
+        <v>43</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="56">
         <v>88.89</v>
       </c>
-      <c r="J109" s="59"/>
-      <c r="L109" s="61"/>
+      <c r="J109" s="55"/>
+      <c r="L109" s="57"/>
     </row>
     <row r="110" spans="1:12" ht="15.75">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="60">
+      <c r="C110" s="58">
+        <v>78</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="56">
         <v>66.67</v>
       </c>
-      <c r="J110" s="59"/>
-      <c r="L110" s="61"/>
+      <c r="J110" s="55"/>
+      <c r="L110" s="57"/>
     </row>
     <row r="111" spans="1:12" ht="15.75">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="60">
+      <c r="C111" s="58">
+        <v>57</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="56">
         <v>77.78</v>
       </c>
-      <c r="J111" s="59"/>
-      <c r="L111" s="61"/>
+      <c r="J111" s="55"/>
+      <c r="L111" s="57"/>
     </row>
     <row r="112" spans="1:12" ht="15.75">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="60">
+      <c r="C112" s="58">
+        <v>92</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="56">
         <v>100</v>
       </c>
-      <c r="J112" s="59"/>
-      <c r="L112" s="61"/>
+      <c r="J112" s="55"/>
+      <c r="L112" s="57"/>
     </row>
     <row r="113" spans="1:12" ht="15.75">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="60">
+      <c r="C113" s="58">
+        <v>89</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="56">
         <v>100</v>
       </c>
-      <c r="J113" s="59"/>
-      <c r="L113" s="61"/>
+      <c r="J113" s="55"/>
+      <c r="L113" s="57"/>
     </row>
     <row r="114" spans="1:12" ht="15.75">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="60">
+      <c r="C114" s="58">
+        <v>75</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="56">
         <v>88.89</v>
       </c>
-      <c r="J114" s="59"/>
-      <c r="L114" s="61"/>
+      <c r="J114" s="55"/>
+      <c r="L114" s="57"/>
     </row>
     <row r="115" spans="1:12" ht="15.75">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="60">
+      <c r="C115" s="58">
+        <v>76</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="56">
         <v>77.78</v>
       </c>
-      <c r="J115" s="59"/>
-      <c r="L115" s="61"/>
+      <c r="J115" s="55"/>
+      <c r="L115" s="57"/>
     </row>
     <row r="116" spans="1:12" ht="15.75">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="60">
+      <c r="C116" s="58">
+        <v>24</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J116" s="59"/>
-      <c r="L116" s="61"/>
+      <c r="J116" s="55"/>
+      <c r="L116" s="57"/>
     </row>
     <row r="117" spans="1:12" ht="15.75">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="60">
+      <c r="C117" s="58">
+        <v>31</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J117" s="59"/>
-      <c r="L117" s="61"/>
+      <c r="J117" s="55"/>
+      <c r="L117" s="57"/>
     </row>
     <row r="118" spans="1:12" ht="15.75">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="60">
+      <c r="C118" s="58">
+        <v>61</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="56">
         <v>88.89</v>
       </c>
-      <c r="J118" s="59"/>
-      <c r="L118" s="61"/>
+      <c r="J118" s="55"/>
+      <c r="L118" s="57"/>
     </row>
     <row r="119" spans="1:12" ht="15.75">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="60">
+      <c r="C119" s="58">
+        <v>61</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J119" s="59"/>
-      <c r="L119" s="61"/>
+      <c r="J119" s="55"/>
+      <c r="L119" s="57"/>
     </row>
     <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="60">
+      <c r="C120" s="58">
+        <v>72</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="56">
         <v>77.78</v>
       </c>
-      <c r="J120" s="59"/>
-      <c r="L120" s="61"/>
+      <c r="J120" s="55"/>
+      <c r="L120" s="57"/>
     </row>
     <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="60">
+      <c r="C121" s="58">
+        <v>75</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="56">
         <v>88.89</v>
       </c>
-      <c r="J121" s="59"/>
-      <c r="L121" s="61"/>
+      <c r="J121" s="55"/>
+      <c r="L121" s="57"/>
     </row>
     <row r="122" spans="1:12" ht="15.75">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="60">
+      <c r="C122" s="58">
+        <v>77</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="56">
         <v>88.89</v>
       </c>
-      <c r="J122" s="59"/>
-      <c r="L122" s="61"/>
+      <c r="J122" s="55"/>
+      <c r="L122" s="57"/>
     </row>
     <row r="123" spans="1:12" ht="15.75">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="60">
+      <c r="C123" s="58">
+        <v>78</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="56">
         <v>100</v>
       </c>
-      <c r="J123" s="59"/>
-      <c r="L123" s="61"/>
+      <c r="J123" s="55"/>
+      <c r="L123" s="57"/>
     </row>
     <row r="124" spans="1:12" ht="15.75">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="60">
+      <c r="C124" s="58">
+        <v>41</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="56">
         <v>66.67</v>
       </c>
-      <c r="J124" s="59"/>
-      <c r="L124" s="61"/>
+      <c r="J124" s="55"/>
+      <c r="L124" s="57"/>
     </row>
     <row r="125" spans="1:12" ht="15.75">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="60">
+      <c r="C125" s="58">
+        <v>28</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="56">
         <v>66.67</v>
       </c>
-      <c r="J125" s="59"/>
-      <c r="L125" s="61"/>
+      <c r="J125" s="55"/>
+      <c r="L125" s="57"/>
     </row>
     <row r="126" spans="1:12" ht="15.75">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="60">
+      <c r="C126" s="58">
+        <v>71</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="56">
         <v>66.67</v>
       </c>
-      <c r="J126" s="59"/>
-      <c r="L126" s="61"/>
+      <c r="J126" s="55"/>
+      <c r="L126" s="57"/>
     </row>
     <row r="127" spans="1:12" ht="15.75">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="60">
+      <c r="C127" s="58">
+        <v>41</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="56">
         <v>66.67</v>
       </c>
-      <c r="J127" s="59"/>
-      <c r="L127" s="61"/>
+      <c r="J127" s="55"/>
+      <c r="L127" s="57"/>
     </row>
     <row r="128" spans="1:12" ht="15.75">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="60">
+      <c r="C128" s="58">
+        <v>43</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="56">
         <v>66.67</v>
       </c>
-      <c r="J128" s="59"/>
-      <c r="L128" s="61"/>
+      <c r="J128" s="55"/>
+      <c r="L128" s="57"/>
     </row>
     <row r="129" spans="1:12" ht="15.75">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="60">
+      <c r="C129" s="58">
+        <v>50</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="56">
         <v>77.78</v>
       </c>
-      <c r="J129" s="59"/>
-      <c r="L129" s="61"/>
+      <c r="J129" s="55"/>
+      <c r="L129" s="57"/>
     </row>
     <row r="130" spans="1:12" ht="15.75">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="60">
+      <c r="C130" s="58">
+        <v>77</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="56">
         <v>100</v>
       </c>
-      <c r="J130" s="59"/>
-      <c r="L130" s="61"/>
+      <c r="J130" s="55"/>
+      <c r="L130" s="57"/>
     </row>
     <row r="131" spans="1:12" ht="15.75">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="60">
+      <c r="C131" s="58">
+        <v>86</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="56">
         <v>77.78</v>
       </c>
-      <c r="J131" s="59"/>
-      <c r="L131" s="61"/>
+      <c r="J131" s="55"/>
+      <c r="L131" s="57"/>
     </row>
     <row r="132" spans="1:12" ht="15.75">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="60">
+      <c r="C132" s="58">
+        <v>49</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J132" s="59"/>
-      <c r="L132" s="61"/>
+      <c r="J132" s="55"/>
+      <c r="L132" s="57"/>
     </row>
     <row r="133" spans="1:12" ht="15.75">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="60">
+      <c r="C133" s="58">
+        <v>41</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J133" s="59"/>
-      <c r="L133" s="61"/>
+      <c r="J133" s="55"/>
+      <c r="L133" s="57"/>
     </row>
     <row r="134" spans="1:12" ht="15.75">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="60">
+      <c r="C134" s="58">
+        <v>25</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="56">
         <v>77.78</v>
       </c>
-      <c r="J134" s="59"/>
-      <c r="L134" s="61"/>
+      <c r="J134" s="55"/>
+      <c r="L134" s="57"/>
     </row>
     <row r="135" spans="1:12" ht="15.75">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="60">
+      <c r="C135" s="58">
+        <v>54</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="56">
         <v>88.89</v>
       </c>
-      <c r="J135" s="59"/>
-      <c r="L135" s="61"/>
+      <c r="J135" s="55"/>
+      <c r="L135" s="57"/>
     </row>
     <row r="136" spans="1:12" ht="15.75">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="48"/>
-      <c r="H136" s="60">
+      <c r="C136" s="58">
+        <v>37</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="56">
         <v>66.67</v>
       </c>
-      <c r="J136" s="59"/>
-      <c r="L136" s="61"/>
+      <c r="J136" s="55"/>
+      <c r="L136" s="57"/>
     </row>
     <row r="137" spans="1:12" ht="15.75">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="60">
+      <c r="C137" s="58">
+        <v>54</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="56">
         <v>77.78</v>
       </c>
-      <c r="J137" s="59"/>
-      <c r="L137" s="61"/>
+      <c r="J137" s="55"/>
+      <c r="L137" s="57"/>
     </row>
     <row r="138" spans="1:12" ht="15.75">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="60">
+      <c r="C138" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="56">
         <v>0</v>
       </c>
-      <c r="J138" s="59"/>
-      <c r="L138" s="61"/>
+      <c r="J138" s="55"/>
+      <c r="L138" s="57"/>
     </row>
     <row r="139" spans="1:12" ht="15.75">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="60">
+      <c r="C139" s="58">
+        <v>56</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="56">
         <v>77.78</v>
       </c>
-      <c r="J139" s="59"/>
-      <c r="L139" s="61"/>
+      <c r="J139" s="55"/>
+      <c r="L139" s="57"/>
     </row>
     <row r="140" spans="1:12" ht="15.75">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="60">
+      <c r="C140" s="58">
+        <v>84</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="56">
         <v>100</v>
       </c>
-      <c r="J140" s="59"/>
-      <c r="L140" s="61"/>
+      <c r="J140" s="55"/>
+      <c r="L140" s="57"/>
     </row>
     <row r="141" spans="1:12" ht="15.75">
-      <c r="A141" s="33" t="s">
+      <c r="A141" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="60">
+      <c r="C141" s="58">
+        <v>52</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="56">
         <v>66.67</v>
       </c>
-      <c r="J141" s="59"/>
-      <c r="L141" s="61"/>
+      <c r="J141" s="55"/>
+      <c r="L141" s="57"/>
     </row>
     <row r="142" spans="1:12" ht="15.75">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="60">
+      <c r="C142" s="58">
+        <v>20</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="56">
         <v>77.78</v>
       </c>
-      <c r="J142" s="59"/>
-      <c r="L142" s="61"/>
+      <c r="J142" s="55"/>
+      <c r="L142" s="57"/>
     </row>
     <row r="143" spans="1:12" ht="15.75">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="60">
+      <c r="C143" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="56">
         <v>22.220000000000002</v>
       </c>
-      <c r="J143" s="59"/>
-      <c r="L143" s="61"/>
+      <c r="J143" s="55"/>
+      <c r="L143" s="57"/>
     </row>
     <row r="144" spans="1:12" ht="15.75">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="60">
+      <c r="C144" s="58">
+        <v>66</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="56">
         <v>88.89</v>
       </c>
-      <c r="J144" s="59"/>
-      <c r="L144" s="61"/>
+      <c r="J144" s="55"/>
+      <c r="L144" s="57"/>
     </row>
     <row r="145" spans="1:12" ht="15.75">
-      <c r="A145" s="33" t="s">
+      <c r="A145" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="60">
+      <c r="C145" s="58">
+        <v>49</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="56">
         <v>100</v>
       </c>
-      <c r="J145" s="59"/>
-      <c r="L145" s="61"/>
+      <c r="J145" s="55"/>
+      <c r="L145" s="57"/>
     </row>
     <row r="146" spans="1:12" ht="15.75">
-      <c r="A146" s="33" t="s">
+      <c r="A146" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="60">
+      <c r="C146" s="58">
+        <v>64</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="56">
         <v>100</v>
       </c>
-      <c r="J146" s="59"/>
-      <c r="L146" s="61"/>
+      <c r="J146" s="55"/>
+      <c r="L146" s="57"/>
     </row>
     <row r="147" spans="1:12" ht="15.75">
-      <c r="A147" s="33" t="s">
+      <c r="A147" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="48"/>
-      <c r="H147" s="60">
+      <c r="C147" s="58">
+        <v>54</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="56">
         <v>88.89</v>
       </c>
-      <c r="J147" s="59"/>
-      <c r="L147" s="61"/>
+      <c r="J147" s="55"/>
+      <c r="L147" s="57"/>
     </row>
     <row r="148" spans="1:12" ht="15.75">
-      <c r="A148" s="33" t="s">
+      <c r="A148" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="60">
+      <c r="C148" s="58">
+        <v>84</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="56">
         <v>66.67</v>
       </c>
-      <c r="J148" s="59"/>
-      <c r="L148" s="61"/>
+      <c r="J148" s="55"/>
+      <c r="L148" s="57"/>
     </row>
     <row r="149" spans="1:12" ht="15.75">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="60">
+      <c r="C149" s="58">
+        <v>61</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="56">
         <v>66.67</v>
       </c>
-      <c r="J149" s="59"/>
-      <c r="L149" s="61"/>
+      <c r="J149" s="55"/>
+      <c r="L149" s="57"/>
     </row>
     <row r="150" spans="1:12" ht="15.75">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="60">
+      <c r="C150" s="58">
+        <v>76</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="56">
         <v>88.89</v>
       </c>
-      <c r="J150" s="59"/>
-      <c r="L150" s="61"/>
+      <c r="J150" s="55"/>
+      <c r="L150" s="57"/>
     </row>
     <row r="151" spans="1:12" ht="15.75">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="60">
+      <c r="C151" s="58">
+        <v>81</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="56">
         <v>77.78</v>
       </c>
-      <c r="J151" s="59"/>
-      <c r="L151" s="61"/>
+      <c r="J151" s="55"/>
+      <c r="L151" s="57"/>
     </row>
     <row r="152" spans="1:12" ht="15.75">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="60">
+      <c r="C152" s="58">
+        <v>53</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="56">
         <v>88.89</v>
       </c>
-      <c r="J152" s="59"/>
-      <c r="L152" s="61"/>
+      <c r="J152" s="55"/>
+      <c r="L152" s="57"/>
     </row>
     <row r="153" spans="1:12" ht="15.75">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="60">
+      <c r="C153" s="58">
+        <v>62</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="56">
         <v>100</v>
       </c>
-      <c r="J153" s="59"/>
-      <c r="L153" s="61"/>
+      <c r="J153" s="55"/>
+      <c r="L153" s="57"/>
     </row>
     <row r="154" spans="1:12" ht="15.75">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="60">
+      <c r="C154" s="58">
+        <v>69</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="56">
         <v>100</v>
       </c>
-      <c r="J154" s="59"/>
-      <c r="L154" s="61"/>
+      <c r="J154" s="55"/>
+      <c r="L154" s="57"/>
     </row>
     <row r="155" spans="1:12" ht="15.75">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="60">
+      <c r="C155" s="58">
+        <v>74</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="56">
         <v>66.67</v>
       </c>
-      <c r="J155" s="59"/>
-      <c r="L155" s="61"/>
+      <c r="J155" s="55"/>
+      <c r="L155" s="57"/>
     </row>
     <row r="156" spans="1:12" ht="15.75">
-      <c r="A156" s="33" t="s">
+      <c r="A156" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="60">
+      <c r="C156" s="58">
+        <v>52</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="56">
         <v>88.89</v>
       </c>
-      <c r="J156" s="59"/>
-      <c r="L156" s="61"/>
+      <c r="J156" s="55"/>
+      <c r="L156" s="57"/>
     </row>
     <row r="157" spans="1:12" ht="15.75">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="48"/>
-      <c r="H157" s="60">
+      <c r="C157" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="56">
         <v>0</v>
       </c>
-      <c r="J157" s="59"/>
-      <c r="L157" s="61"/>
+      <c r="J157" s="55"/>
+      <c r="L157" s="57"/>
     </row>
     <row r="158" spans="1:12" ht="15.75">
-      <c r="A158" s="33" t="s">
+      <c r="A158" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="48"/>
-      <c r="H158" s="60">
+      <c r="C158" s="58">
+        <v>26</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="56">
         <v>77.78</v>
       </c>
-      <c r="J158" s="59"/>
-      <c r="L158" s="61"/>
+      <c r="J158" s="55"/>
+      <c r="L158" s="57"/>
     </row>
     <row r="159" spans="1:12" ht="15.75">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="60">
+      <c r="C159" s="58">
+        <v>51</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J159" s="59"/>
-      <c r="L159" s="61"/>
+      <c r="J159" s="55"/>
+      <c r="L159" s="57"/>
     </row>
     <row r="160" spans="1:12" ht="15.75">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="48"/>
-      <c r="H160" s="60">
+      <c r="C160" s="58">
+        <v>35</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="56">
         <v>88.89</v>
       </c>
-      <c r="J160" s="59"/>
-      <c r="L160" s="61"/>
+      <c r="J160" s="55"/>
+      <c r="L160" s="57"/>
     </row>
     <row r="161" spans="1:12" ht="15.75">
-      <c r="A161" s="33" t="s">
+      <c r="A161" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="60">
+      <c r="C161" s="58">
+        <v>62</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="56">
         <v>77.78</v>
       </c>
-      <c r="J161" s="59"/>
-      <c r="L161" s="61"/>
+      <c r="J161" s="55"/>
+      <c r="L161" s="57"/>
     </row>
     <row r="162" spans="1:12" ht="15.75">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="48"/>
-      <c r="H162" s="60">
+      <c r="C162" s="58">
+        <v>63</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J162" s="59"/>
-      <c r="L162" s="61"/>
+      <c r="J162" s="55"/>
+      <c r="L162" s="57"/>
     </row>
     <row r="163" spans="1:12" ht="15.75">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="48"/>
-      <c r="H163" s="60">
+      <c r="C163" s="58">
+        <v>73</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="56">
         <v>88.89</v>
       </c>
-      <c r="J163" s="59"/>
-      <c r="L163" s="61"/>
+      <c r="J163" s="55"/>
+      <c r="L163" s="57"/>
     </row>
     <row r="164" spans="1:12" ht="15.75">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="60">
+      <c r="C164" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="56">
         <v>11.110000000000001</v>
       </c>
-      <c r="J164" s="59"/>
-      <c r="L164" s="61"/>
+      <c r="J164" s="55"/>
+      <c r="L164" s="57"/>
     </row>
     <row r="165" spans="1:12" ht="15.75">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="33" t="s">
+      <c r="B165" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="60">
+      <c r="C165" s="58">
+        <v>53</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="56">
         <v>88.89</v>
       </c>
-      <c r="J165" s="59"/>
-      <c r="L165" s="61"/>
+      <c r="J165" s="55"/>
+      <c r="L165" s="57"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="34" t="s">
+      <c r="A166" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="34" t="s">
+      <c r="B166" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="60">
+      <c r="C166" s="58">
+        <v>64</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="56">
         <v>100</v>
       </c>
-      <c r="J166" s="59"/>
-      <c r="L166" s="61"/>
+      <c r="J166" s="55"/>
+      <c r="L166" s="57"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="34" t="s">
+      <c r="A167" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="60">
+      <c r="C167" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="56">
         <v>0</v>
       </c>
-      <c r="J167" s="59"/>
-      <c r="L167" s="61"/>
+      <c r="J167" s="55"/>
+      <c r="L167" s="57"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="1"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="60">
+      <c r="C168" s="58">
+        <v>79</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="56">
         <v>88.89</v>
       </c>
-      <c r="J168" s="59"/>
-      <c r="L168" s="61"/>
+      <c r="J168" s="55"/>
+      <c r="L168" s="57"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="34" t="s">
+      <c r="A169" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="34" t="s">
+      <c r="B169" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="60">
+      <c r="C169" s="58">
+        <v>46</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="56">
         <v>77.78</v>
       </c>
-      <c r="J169" s="59"/>
-      <c r="L169" s="61"/>
+      <c r="J169" s="55"/>
+      <c r="L169" s="57"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="34" t="s">
+      <c r="A170" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="60">
+      <c r="C170" s="58">
+        <v>79</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="56">
         <v>100</v>
       </c>
-      <c r="J170" s="59"/>
-      <c r="L170" s="61"/>
+      <c r="J170" s="55"/>
+      <c r="L170" s="57"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="34" t="s">
+      <c r="A171" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="60">
+      <c r="C171" s="58">
+        <v>75</v>
+      </c>
+      <c r="D171" s="8"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="56">
         <v>77.78</v>
       </c>
-      <c r="J171" s="59"/>
-      <c r="L171" s="61"/>
+      <c r="J171" s="55"/>
+      <c r="L171" s="57"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="34" t="s">
+      <c r="B172" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="60">
+      <c r="C172" s="58">
+        <v>62</v>
+      </c>
+      <c r="D172" s="9"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="56">
         <v>33.33</v>
       </c>
-      <c r="J172" s="59"/>
-      <c r="L172" s="61"/>
+      <c r="J172" s="55"/>
+      <c r="L172" s="57"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="1"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="60">
+      <c r="C173" s="58">
+        <v>35</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J173" s="59"/>
-      <c r="L173" s="61"/>
+      <c r="J173" s="55"/>
+      <c r="L173" s="57"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="34" t="s">
+      <c r="A174" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="34" t="s">
+      <c r="B174" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="60">
+      <c r="C174" s="58">
+        <v>59</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="56">
         <v>100</v>
       </c>
-      <c r="J174" s="59"/>
-      <c r="L174" s="61"/>
+      <c r="J174" s="55"/>
+      <c r="L174" s="57"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="34" t="s">
+      <c r="A175" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="34" t="s">
+      <c r="B175" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="60">
+      <c r="C175" s="58">
+        <v>73</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="56">
         <v>88.89</v>
       </c>
-      <c r="J175" s="59"/>
-      <c r="L175" s="61"/>
+      <c r="J175" s="55"/>
+      <c r="L175" s="57"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="34" t="s">
+      <c r="A176" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="34" t="s">
+      <c r="B176" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="60">
+      <c r="C176" s="58">
+        <v>55</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="56">
         <v>100</v>
       </c>
-      <c r="J176" s="59"/>
-      <c r="L176" s="61"/>
+      <c r="J176" s="55"/>
+      <c r="L176" s="57"/>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="34" t="s">
+      <c r="A177" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="15"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="46"/>
-      <c r="H177" s="60">
+      <c r="C177" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J177" s="59"/>
-      <c r="L177" s="61"/>
+      <c r="J177" s="55"/>
+      <c r="L177" s="57"/>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="34" t="s">
+      <c r="A178" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="52"/>
-      <c r="H178" s="60">
+      <c r="C178" s="58">
+        <v>0</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J178" s="59"/>
-      <c r="L178" s="61"/>
+      <c r="J178" s="55"/>
+      <c r="L178" s="57"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="34" t="s">
+      <c r="A179" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="34" t="s">
+      <c r="B179" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="60">
+      <c r="C179" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="56">
         <v>0</v>
       </c>
-      <c r="J179" s="59"/>
-      <c r="L179" s="61"/>
+      <c r="J179" s="55"/>
+      <c r="L179" s="57"/>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="34" t="s">
+      <c r="A180" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="34" t="s">
+      <c r="B180" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="60">
+      <c r="C180" s="61">
+        <v>50</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="56">
         <v>66.67</v>
       </c>
-      <c r="J180" s="59"/>
-      <c r="L180" s="61"/>
+      <c r="J180" s="55"/>
+      <c r="L180" s="57"/>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="34" t="s">
+      <c r="A181" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="34" t="s">
+      <c r="B181" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="60">
+      <c r="C181" s="61">
+        <v>82</v>
+      </c>
+      <c r="D181" s="19"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="56">
         <v>100</v>
       </c>
-      <c r="J181" s="59"/>
-      <c r="L181" s="61"/>
+      <c r="J181" s="55"/>
+      <c r="L181" s="57"/>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="24"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="60">
+      <c r="C182" s="61">
+        <v>33</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="56">
         <v>66.67</v>
       </c>
-      <c r="J182" s="59"/>
-      <c r="L182" s="61"/>
+      <c r="J182" s="55"/>
+      <c r="L182" s="57"/>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="34" t="s">
+      <c r="A183" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="60">
+      <c r="C183" s="61">
+        <v>49</v>
+      </c>
+      <c r="D183" s="21"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="56">
         <v>77.78</v>
       </c>
-      <c r="J183" s="59"/>
-      <c r="L183" s="61"/>
+      <c r="J183" s="55"/>
+      <c r="L183" s="57"/>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="34" t="s">
+      <c r="A184" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="B184" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="60">
+      <c r="C184" s="61">
+        <v>45</v>
+      </c>
+      <c r="D184" s="23"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="56">
         <v>66.67</v>
       </c>
-      <c r="J184" s="59"/>
-      <c r="L184" s="61"/>
+      <c r="J184" s="55"/>
+      <c r="L184" s="57"/>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="34" t="s">
+      <c r="A185" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="60">
+      <c r="C185" s="61">
+        <v>57</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="56">
         <v>77.78</v>
       </c>
-      <c r="J185" s="59"/>
-      <c r="L185" s="61"/>
+      <c r="J185" s="55"/>
+      <c r="L185" s="57"/>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="34" t="s">
+      <c r="A186" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="34" t="s">
+      <c r="B186" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="27"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="60">
+      <c r="C186" s="61">
+        <v>51</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="56">
         <v>33.33</v>
       </c>
-      <c r="J186" s="59"/>
-      <c r="L186" s="61"/>
+      <c r="J186" s="55"/>
+      <c r="L186" s="57"/>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="34" t="s">
+      <c r="A187" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="60">
+      <c r="C187" s="61">
+        <v>79</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="51"/>
+      <c r="H187" s="56">
         <v>88.89</v>
       </c>
-      <c r="J187" s="59"/>
-      <c r="L187" s="61"/>
+      <c r="J187" s="55"/>
+      <c r="L187" s="57"/>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="34" t="s">
+      <c r="A188" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="34" t="s">
+      <c r="B188" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="25"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="52"/>
-      <c r="H188" s="60">
+      <c r="C188" s="61">
+        <v>55</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="56">
         <v>55.559999999999995</v>
       </c>
-      <c r="J188" s="59"/>
-      <c r="L188" s="61"/>
+      <c r="J188" s="55"/>
+      <c r="L188" s="57"/>
     </row>
     <row r="189" spans="1:12" ht="15.75">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="33" t="s">
+      <c r="B189" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="27"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="52"/>
-      <c r="H189" s="60">
+      <c r="C189" s="61">
+        <v>66</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="56">
         <v>66.67</v>
       </c>
-      <c r="J189" s="59"/>
-      <c r="L189" s="61"/>
+      <c r="J189" s="55"/>
+      <c r="L189" s="57"/>
     </row>
     <row r="190" spans="1:12" ht="15.75">
-      <c r="A190" s="33" t="s">
+      <c r="A190" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="33" t="s">
+      <c r="B190" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="26"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="52"/>
-      <c r="H190" s="60">
+      <c r="C190" s="61">
+        <v>16</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J190" s="59"/>
-      <c r="L190" s="61"/>
+      <c r="J190" s="55"/>
+      <c r="L190" s="57"/>
     </row>
     <row r="191" spans="1:12" ht="15.75">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="B191" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="27"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="52"/>
-      <c r="H191" s="60">
+      <c r="C191" s="61">
+        <v>67</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="56">
         <v>77.78</v>
       </c>
-      <c r="J191" s="59"/>
-      <c r="L191" s="61"/>
+      <c r="J191" s="55"/>
+      <c r="L191" s="57"/>
     </row>
     <row r="192" spans="1:12" ht="15.75">
-      <c r="A192" s="33" t="s">
+      <c r="A192" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="52"/>
-      <c r="H192" s="60">
+      <c r="C192" s="61">
+        <v>68</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="56">
         <v>88.89</v>
       </c>
-      <c r="J192" s="59"/>
-      <c r="L192" s="61"/>
+      <c r="J192" s="55"/>
+      <c r="L192" s="57"/>
     </row>
     <row r="193" spans="1:12" ht="15.75">
-      <c r="A193" s="33" t="s">
+      <c r="A193" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B193" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="52"/>
-      <c r="H193" s="60">
+      <c r="C193" s="61">
+        <v>40</v>
+      </c>
+      <c r="D193" s="23"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="56">
         <v>100</v>
       </c>
-      <c r="J193" s="59"/>
-      <c r="L193" s="61"/>
+      <c r="J193" s="55"/>
+      <c r="L193" s="57"/>
     </row>
     <row r="194" spans="1:12" ht="15.75">
-      <c r="A194" s="33" t="s">
+      <c r="A194" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="33" t="s">
+      <c r="B194" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="26"/>
-      <c r="D194" s="29"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="30"/>
-      <c r="G194" s="52"/>
-      <c r="H194" s="60">
+      <c r="C194" s="61">
+        <v>74</v>
+      </c>
+      <c r="D194" s="26"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="56">
         <v>88.89</v>
       </c>
-      <c r="J194" s="59"/>
-      <c r="L194" s="61"/>
+      <c r="J194" s="55"/>
+      <c r="L194" s="57"/>
     </row>
     <row r="195" spans="1:12" ht="15.75">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="33" t="s">
+      <c r="B195" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="27"/>
-      <c r="D195" s="31"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="52"/>
-      <c r="H195" s="60">
+      <c r="C195" s="61">
+        <v>58</v>
+      </c>
+      <c r="D195" s="28"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="56">
         <v>66.67</v>
       </c>
-      <c r="J195" s="59"/>
-      <c r="L195" s="61"/>
+      <c r="J195" s="55"/>
+      <c r="L195" s="57"/>
     </row>
     <row r="196" spans="1:12" ht="15.75">
-      <c r="A196" s="33" t="s">
+      <c r="A196" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="52"/>
-      <c r="H196" s="60">
+      <c r="C196" s="61">
+        <v>54</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="56">
         <v>77.78</v>
       </c>
-      <c r="J196" s="59"/>
-      <c r="L196" s="61"/>
+      <c r="J196" s="55"/>
+      <c r="L196" s="57"/>
     </row>
     <row r="197" spans="1:12" ht="15.75">
-      <c r="A197" s="33" t="s">
+      <c r="A197" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="33" t="s">
+      <c r="B197" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="25"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="52"/>
-      <c r="H197" s="60">
+      <c r="C197" s="61">
+        <v>64</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="56">
         <v>88.89</v>
       </c>
-      <c r="J197" s="59"/>
-      <c r="L197" s="61"/>
+      <c r="J197" s="55"/>
+      <c r="L197" s="57"/>
     </row>
     <row r="198" spans="1:12" ht="15.75">
-      <c r="A198" s="33" t="s">
+      <c r="A198" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="52"/>
-      <c r="H198" s="60">
+      <c r="C198" s="61">
+        <v>89</v>
+      </c>
+      <c r="D198" s="23"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="56">
         <v>88.89</v>
       </c>
-      <c r="J198" s="59"/>
-      <c r="L198" s="61"/>
+      <c r="J198" s="55"/>
+      <c r="L198" s="57"/>
     </row>
     <row r="199" spans="1:12" ht="15.75">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="27"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="52"/>
-      <c r="H199" s="60">
+      <c r="C199" s="62">
+        <v>78</v>
+      </c>
+      <c r="D199" s="6"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="56">
         <v>88.89</v>
       </c>
-      <c r="J199" s="59"/>
-      <c r="L199" s="61"/>
+      <c r="J199" s="55"/>
+      <c r="L199" s="57"/>
     </row>
     <row r="200" spans="1:12" ht="15.75">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="26"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="52"/>
-      <c r="H200" s="60">
+      <c r="C200" s="61">
+        <v>73</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="56">
         <v>100</v>
       </c>
-      <c r="J200" s="59"/>
-      <c r="L200" s="61"/>
+      <c r="J200" s="55"/>
+      <c r="L200" s="57"/>
     </row>
     <row r="201" spans="1:12" ht="15.75">
-      <c r="A201" s="37" t="s">
+      <c r="A201" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="37" t="s">
+      <c r="B201" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="38"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="40"/>
-      <c r="F201" s="41"/>
-      <c r="G201" s="56"/>
-      <c r="H201" s="60">
+      <c r="C201" s="61">
+        <v>51</v>
+      </c>
+      <c r="D201" s="35"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="56">
         <v>66.67</v>
       </c>
-      <c r="J201" s="59"/>
-      <c r="L201" s="61"/>
+      <c r="J201" s="55"/>
+      <c r="L201" s="57"/>
     </row>
     <row r="202" spans="1:12" ht="15.75">
-      <c r="A202" s="42" t="s">
+      <c r="A202" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="42" t="s">
+      <c r="B202" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="43"/>
-      <c r="D202" s="43"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="43"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="60">
+      <c r="C202" s="61">
+        <v>60</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+      <c r="F202" s="39"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="56">
         <v>66.67</v>
       </c>
-      <c r="J202" s="59"/>
-      <c r="L202" s="61"/>
+      <c r="J202" s="55"/>
+      <c r="L202" s="57"/>
     </row>
     <row r="203" spans="1:12" ht="15.75">
-      <c r="A203" s="44" t="s">
+      <c r="A203" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="45" t="s">
+      <c r="B203" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="43"/>
-      <c r="D203" s="43"/>
-      <c r="E203" s="43"/>
-      <c r="F203" s="43"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="60">
+      <c r="C203" s="61">
+        <v>17</v>
+      </c>
+      <c r="D203" s="39"/>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="56">
         <v>44.440000000000005</v>
       </c>
-      <c r="J203" s="59"/>
-      <c r="L203" s="61"/>
+      <c r="J203" s="55"/>
+      <c r="L203" s="57"/>
     </row>
     <row r="204" spans="1:12" ht="15.75">
-      <c r="A204" s="44" t="s">
+      <c r="A204" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="45" t="s">
+      <c r="B204" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="57"/>
-      <c r="H204" s="60">
+      <c r="C204" s="61">
+        <v>50</v>
+      </c>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
+      <c r="F204" s="39"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="56">
         <v>77.78</v>
       </c>
-      <c r="J204" s="59"/>
-      <c r="L204" s="61"/>
+      <c r="J204" s="55"/>
+      <c r="L204" s="57"/>
     </row>
     <row r="205" spans="1:12" ht="15.75">
-      <c r="A205" s="44" t="s">
+      <c r="A205" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="45" t="s">
+      <c r="B205" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="43"/>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="60">
+      <c r="C205" s="58">
+        <v>51</v>
+      </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="56">
         <v>66.67</v>
       </c>
-      <c r="J205" s="59"/>
-      <c r="L205" s="61"/>
+      <c r="J205" s="55"/>
+      <c r="L205" s="57"/>
     </row>
     <row r="206" spans="1:12" ht="15.75">
-      <c r="A206" s="44" t="s">
+      <c r="A206" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="43"/>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="57"/>
-      <c r="H206" s="60">
+      <c r="C206" s="58">
+        <v>43</v>
+      </c>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39"/>
+      <c r="F206" s="39"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="56">
         <v>11.110000000000001</v>
       </c>
-      <c r="J206" s="59"/>
-      <c r="L206" s="61"/>
+      <c r="J206" s="55"/>
+      <c r="L206" s="57"/>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="39"/>
+      <c r="C207" s="61">
+        <v>45</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
+      <c r="F207" s="39"/>
+      <c r="G207" s="39"/>
+      <c r="H207" s="39"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" s="39"/>
+      <c r="C208" s="61">
+        <v>79</v>
+      </c>
+      <c r="D208" s="39"/>
+      <c r="E208" s="39"/>
+      <c r="F208" s="39"/>
+      <c r="G208" s="39"/>
+      <c r="H208" s="39"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="B209" s="39"/>
+      <c r="C209" s="61">
+        <v>68</v>
+      </c>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
+      <c r="F209" s="39"/>
+      <c r="G209" s="39"/>
+      <c r="H209" s="39"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" s="39"/>
+      <c r="C210" s="61">
+        <v>81</v>
+      </c>
+      <c r="D210" s="39"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="39"/>
+      <c r="G210" s="39"/>
+      <c r="H210" s="39"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" s="39"/>
+      <c r="C211" s="61">
+        <v>48</v>
+      </c>
+      <c r="D211" s="39"/>
+      <c r="E211" s="39"/>
+      <c r="F211" s="39"/>
+      <c r="G211" s="39"/>
+      <c r="H211" s="39"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" s="39"/>
+      <c r="C212" s="61">
+        <v>36</v>
+      </c>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+      <c r="H212" s="39"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" s="39"/>
+      <c r="C213" s="61">
+        <v>80</v>
+      </c>
+      <c r="D213" s="39"/>
+      <c r="E213" s="39"/>
+      <c r="F213" s="39"/>
+      <c r="G213" s="39"/>
+      <c r="H213" s="39"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="39"/>
+      <c r="C214" s="61">
+        <v>38</v>
+      </c>
+      <c r="D214" s="39"/>
+      <c r="E214" s="39"/>
+      <c r="F214" s="39"/>
+      <c r="G214" s="39"/>
+      <c r="H214" s="39"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="39"/>
+      <c r="C215" s="61">
+        <v>79</v>
+      </c>
+      <c r="D215" s="39"/>
+      <c r="E215" s="39"/>
+      <c r="F215" s="39"/>
+      <c r="G215" s="39"/>
+      <c r="H215" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5854,15 +6442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6006,6 +6585,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6013,13 +6601,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="438">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1306,6 +1306,33 @@
   </si>
   <si>
     <t>2021/E/028</t>
+  </si>
+  <si>
+    <t>WIJERATHNE E.M.C.T.</t>
+  </si>
+  <si>
+    <t>NAVEENKUMAR E.</t>
+  </si>
+  <si>
+    <t>LAKSHAN G.P.</t>
+  </si>
+  <si>
+    <t>KARUNARATHNA I.M.G.I.N.</t>
+  </si>
+  <si>
+    <t>THAMILCHELVAN K.</t>
+  </si>
+  <si>
+    <t>WANASINGHE P.G.C.P</t>
+  </si>
+  <si>
+    <t>THUSHARAKESH S.</t>
+  </si>
+  <si>
+    <t>AMARASINGHE C.N.D.</t>
+  </si>
+  <si>
+    <t>DISSANAYAKA M.I.I.D.</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2199,7 @@
   <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6309,11 +6336,13 @@
       <c r="J206" s="55"/>
       <c r="L206" s="57"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" ht="15.75">
       <c r="A207" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="B207" s="39"/>
+      <c r="B207" s="30" t="s">
+        <v>429</v>
+      </c>
       <c r="C207" s="61">
         <v>45</v>
       </c>
@@ -6323,11 +6352,13 @@
       <c r="G207" s="39"/>
       <c r="H207" s="39"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" ht="15.75">
       <c r="A208" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="B208" s="39"/>
+      <c r="B208" s="30" t="s">
+        <v>430</v>
+      </c>
       <c r="C208" s="61">
         <v>79</v>
       </c>
@@ -6337,11 +6368,13 @@
       <c r="G208" s="39"/>
       <c r="H208" s="39"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" ht="15.75">
       <c r="A209" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="39"/>
+      <c r="B209" s="30" t="s">
+        <v>431</v>
+      </c>
       <c r="C209" s="61">
         <v>68</v>
       </c>
@@ -6351,11 +6384,13 @@
       <c r="G209" s="39"/>
       <c r="H209" s="39"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" ht="15.75">
       <c r="A210" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="B210" s="39"/>
+      <c r="B210" s="30" t="s">
+        <v>432</v>
+      </c>
       <c r="C210" s="61">
         <v>81</v>
       </c>
@@ -6365,11 +6400,13 @@
       <c r="G210" s="39"/>
       <c r="H210" s="39"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" ht="15.75">
       <c r="A211" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="B211" s="39"/>
+      <c r="B211" s="30" t="s">
+        <v>433</v>
+      </c>
       <c r="C211" s="61">
         <v>48</v>
       </c>
@@ -6379,11 +6416,13 @@
       <c r="G211" s="39"/>
       <c r="H211" s="39"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="15.75">
       <c r="A212" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="B212" s="39"/>
+      <c r="B212" s="30" t="s">
+        <v>434</v>
+      </c>
       <c r="C212" s="61">
         <v>36</v>
       </c>
@@ -6393,11 +6432,13 @@
       <c r="G212" s="39"/>
       <c r="H212" s="39"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="15.75">
       <c r="A213" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="B213" s="39"/>
+      <c r="B213" s="30" t="s">
+        <v>435</v>
+      </c>
       <c r="C213" s="61">
         <v>80</v>
       </c>
@@ -6407,11 +6448,13 @@
       <c r="G213" s="39"/>
       <c r="H213" s="39"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" ht="15.75">
       <c r="A214" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="39"/>
+      <c r="B214" s="30" t="s">
+        <v>436</v>
+      </c>
       <c r="C214" s="61">
         <v>38</v>
       </c>
@@ -6421,11 +6464,13 @@
       <c r="G214" s="39"/>
       <c r="H214" s="39"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="15.75">
       <c r="A215" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="39"/>
+      <c r="B215" s="30" t="s">
+        <v>437</v>
+      </c>
       <c r="C215" s="61">
         <v>79</v>
       </c>
@@ -6442,6 +6487,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6585,34 +6645,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6626,4 +6659,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1339,7 +1339,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1435,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1727,7 +1737,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1738,8 +1748,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,12 +1895,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,14 +1914,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="10" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
     <cellStyle name="60% - Accent2 2" xfId="2"/>
     <cellStyle name="60% - Accent3 2" xfId="3"/>
     <cellStyle name="60% - Accent4 2" xfId="4"/>
     <cellStyle name="60% - Accent5 2" xfId="5"/>
     <cellStyle name="60% - Accent6 2" xfId="6"/>
+    <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Neutral 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
@@ -2196,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2207,10 +2220,11 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2232,4253 +2246,4048 @@
       <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="61" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="55">
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="42"/>
-      <c r="H2" s="56">
+      <c r="H2" s="62">
         <v>66.67</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="L2" s="57"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="56">
         <v>60</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="43"/>
-      <c r="H3" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="L3" s="57"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
+      <c r="H3" s="62">
+        <v>75</v>
+      </c>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>418</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
+      <c r="H4" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="55">
         <v>40</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J5" s="55"/>
-      <c r="L5" s="57"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
+      <c r="H5" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="55">
         <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
+      <c r="H6" s="62">
+        <v>75</v>
+      </c>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="55">
         <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
+      <c r="H7" s="62">
+        <v>50</v>
+      </c>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="55">
         <v>77</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75">
+      <c r="H8" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="55">
         <v>63</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="44"/>
-      <c r="H9" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75">
+      <c r="H9" s="62">
+        <v>75</v>
+      </c>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="55">
         <v>73</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="L10" s="57"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75">
+      <c r="H10" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="55">
         <v>40</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="56">
+      <c r="H11" s="62">
         <v>100</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="55">
         <v>37</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
+      <c r="H12" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="55">
         <v>91</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="56">
+      <c r="H13" s="62">
         <v>100</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75">
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="55">
         <v>29</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="56">
-        <v>33.33</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
+      <c r="H14" s="62">
+        <v>50</v>
+      </c>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="55">
         <v>35</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J15" s="55"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75">
+      <c r="H15" s="62">
+        <v>50</v>
+      </c>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="55">
         <v>35</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J16" s="55"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75">
+      <c r="H16" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="44"/>
-      <c r="H17" s="56">
+      <c r="H17" s="62">
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="L17" s="57"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75">
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="55">
         <v>43</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J18" s="55"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75">
+      <c r="H18" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="55">
         <v>44</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75">
+      <c r="H19" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="55">
         <v>59</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+      <c r="H20" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="55">
         <v>42</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J21" s="55"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75">
+      <c r="H21" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="55">
         <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J22" s="55"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75">
+      <c r="H22" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="55">
         <v>55</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75">
+      <c r="H23" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="55">
         <v>41</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="56">
-        <v>22.220000000000002</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75">
+      <c r="H24" s="62">
+        <v>33.33</v>
+      </c>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="55">
         <v>41</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75">
+      <c r="H25" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="55">
         <v>46</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="44"/>
-      <c r="H26" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75">
+      <c r="H26" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="55">
         <v>26</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J27" s="55"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75">
+      <c r="H27" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="55">
         <v>57</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="56">
+      <c r="H28" s="62">
         <v>66.67</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75">
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="55">
         <v>43</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J29" s="55"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75">
+      <c r="H29" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="55">
         <v>49</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="44"/>
-      <c r="H30" s="56">
+      <c r="H30" s="62">
         <v>100</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75">
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="55">
         <v>58</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J31" s="55"/>
-      <c r="L31" s="57"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75">
+      <c r="H31" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="55">
         <v>10</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="45"/>
-      <c r="H32" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J32" s="55"/>
-      <c r="L32" s="57"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75">
+      <c r="H32" s="62">
+        <v>41.67</v>
+      </c>
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="55">
         <v>75</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J33" s="55"/>
-      <c r="L33" s="57"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75">
+      <c r="H33" s="62">
+        <v>75</v>
+      </c>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="55">
         <v>59</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="44"/>
-      <c r="H34" s="56">
+      <c r="H34" s="62">
         <v>100</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75">
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="55">
         <v>49</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="56">
-        <v>100</v>
-      </c>
-      <c r="J35" s="55"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75">
+      <c r="H35" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="55">
         <v>39</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="44"/>
-      <c r="H36" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J36" s="55"/>
-      <c r="L36" s="57"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75">
+      <c r="H36" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="55">
         <v>31</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J37" s="55"/>
-      <c r="L37" s="57"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75">
+      <c r="H37" s="62">
+        <v>50</v>
+      </c>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="55">
         <v>87</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="44"/>
-      <c r="H38" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J38" s="55"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75">
+      <c r="H38" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="55">
         <v>74</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="44"/>
-      <c r="H39" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J39" s="55"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75">
+      <c r="H39" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="55">
         <v>61</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="44"/>
-      <c r="H40" s="56">
-        <v>75</v>
-      </c>
-      <c r="J40" s="55"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75">
+      <c r="H40" s="62">
+        <v>72.72999999999999</v>
+      </c>
+      <c r="J40" s="54"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="55">
         <v>55</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="56">
+      <c r="H41" s="62">
         <v>100</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="55">
         <v>47</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="44"/>
-      <c r="H42" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J42" s="55"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
+      <c r="H42" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C43" s="55">
         <v>27</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="56">
-        <v>33.33</v>
-      </c>
-      <c r="J43" s="55"/>
-      <c r="L43" s="57"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75">
+      <c r="H43" s="62">
+        <v>50</v>
+      </c>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="58">
+      <c r="C44" s="55">
         <v>33</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="L44" s="57"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75">
+      <c r="H44" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J44" s="54"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="58">
+      <c r="C45" s="55">
         <v>78</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="56">
-        <v>100</v>
-      </c>
-      <c r="J45" s="55"/>
-      <c r="L45" s="57"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75">
+      <c r="H45" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="58">
+      <c r="C46" s="55">
         <v>37</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="56">
-        <v>33.33</v>
-      </c>
-      <c r="J46" s="55"/>
-      <c r="L46" s="57"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75">
+      <c r="H46" s="62">
+        <v>50</v>
+      </c>
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="55">
         <v>52</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J47" s="55"/>
-      <c r="L47" s="57"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75">
+      <c r="H47" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J47" s="54"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="58">
+      <c r="C48" s="55">
         <v>60</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J48" s="55"/>
-      <c r="L48" s="57"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75">
+      <c r="H48" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J48" s="54"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="58">
+      <c r="C49" s="55">
         <v>59</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J49" s="55"/>
-      <c r="L49" s="57"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75">
+      <c r="H49" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="55">
         <v>69</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="56">
+      <c r="H50" s="62">
         <v>100</v>
       </c>
-      <c r="J50" s="55"/>
-      <c r="L50" s="57"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75">
+      <c r="J50" s="54"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="55">
         <v>69</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="44"/>
-      <c r="H51" s="56">
+      <c r="H51" s="62">
         <v>100</v>
       </c>
-      <c r="J51" s="55"/>
-      <c r="L51" s="57"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75">
+      <c r="J51" s="54"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="58">
+      <c r="C52" s="55">
         <v>73</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J52" s="55"/>
-      <c r="L52" s="57"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75">
+      <c r="H52" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="55">
         <v>82</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
       <c r="G53" s="44"/>
-      <c r="H53" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J53" s="55"/>
-      <c r="L53" s="57"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75">
+      <c r="H53" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J53" s="54"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="55">
         <v>34</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="56">
+      <c r="H54" s="62">
         <v>66.67</v>
       </c>
-      <c r="J54" s="55"/>
-      <c r="L54" s="57"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75">
+      <c r="J54" s="54"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="55">
         <v>64</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="44"/>
-      <c r="H55" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J55" s="55"/>
-      <c r="L55" s="57"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75">
+      <c r="H55" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="55">
         <v>63</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="45"/>
-      <c r="H56" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J56" s="55"/>
-      <c r="L56" s="57"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75">
+      <c r="H56" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="55">
         <v>64</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="44"/>
-      <c r="H57" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J57" s="55"/>
-      <c r="L57" s="57"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75">
+      <c r="H57" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J57" s="54"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="55">
         <v>73</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="56">
+      <c r="H58" s="62">
         <v>100</v>
       </c>
-      <c r="J58" s="55"/>
-      <c r="L58" s="57"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75">
+      <c r="J58" s="54"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="55">
         <v>68</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
       <c r="G59" s="44"/>
-      <c r="H59" s="56">
+      <c r="H59" s="62">
         <v>100</v>
       </c>
-      <c r="J59" s="55"/>
-      <c r="L59" s="57"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75">
+      <c r="J59" s="54"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="58">
+      <c r="C60" s="55">
         <v>68</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
       <c r="G60" s="44"/>
-      <c r="H60" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J60" s="55"/>
-      <c r="L60" s="57"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75">
+      <c r="H60" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J60" s="54"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
       <c r="G61" s="44"/>
-      <c r="H61" s="56">
+      <c r="H61" s="62">
         <v>0</v>
       </c>
-      <c r="J61" s="55"/>
-      <c r="L61" s="57"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75">
+      <c r="J61" s="54"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="55">
         <v>45</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
       <c r="G62" s="44"/>
-      <c r="H62" s="56">
+      <c r="H62" s="62">
         <v>66.67</v>
       </c>
-      <c r="J62" s="55"/>
-      <c r="L62" s="57"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75">
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="58">
+      <c r="C63" s="55">
         <v>41</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J63" s="55"/>
-      <c r="L63" s="57"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75">
+      <c r="H63" s="62">
+        <v>75</v>
+      </c>
+      <c r="J63" s="54"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="58">
+      <c r="C64" s="55">
         <v>30</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J64" s="55"/>
-      <c r="L64" s="57"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75">
+      <c r="H64" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="58">
+      <c r="C65" s="55">
         <v>52</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
       <c r="G65" s="44"/>
-      <c r="H65" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J65" s="55"/>
-      <c r="L65" s="57"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75">
+      <c r="H65" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J65" s="54"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="58">
+      <c r="C66" s="55">
         <v>83</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
       <c r="G66" s="44"/>
-      <c r="H66" s="56">
+      <c r="H66" s="62">
         <v>100</v>
       </c>
-      <c r="J66" s="55"/>
-      <c r="L66" s="57"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75">
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
       <c r="A67" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="58">
+      <c r="C67" s="55">
         <v>60</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
       <c r="G67" s="44"/>
-      <c r="H67" s="56">
+      <c r="H67" s="62">
         <v>66.67</v>
       </c>
-      <c r="J67" s="55"/>
-      <c r="L67" s="57"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75">
+      <c r="J67" s="54"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
       <c r="A68" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="55">
         <v>66</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
       <c r="G68" s="44"/>
-      <c r="H68" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J68" s="55"/>
-      <c r="L68" s="57"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75">
+      <c r="H68" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J68" s="54"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
       <c r="A69" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="58">
+      <c r="C69" s="55">
         <v>67</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="56">
+      <c r="H69" s="62">
         <v>100</v>
       </c>
-      <c r="J69" s="55"/>
-      <c r="L69" s="57"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75">
+      <c r="J69" s="54"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
       <c r="A70" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="55">
         <v>82</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
       <c r="G70" s="44"/>
-      <c r="H70" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J70" s="55"/>
-      <c r="L70" s="57"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75">
+      <c r="H70" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J70" s="54"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="55">
         <v>51</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="44"/>
-      <c r="H71" s="56">
+      <c r="H71" s="62">
         <v>100</v>
       </c>
-      <c r="J71" s="55"/>
-      <c r="L71" s="57"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75">
+      <c r="J71" s="54"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="58">
+      <c r="C72" s="55">
         <v>96</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
       <c r="G72" s="44"/>
-      <c r="H72" s="56">
-        <v>100</v>
-      </c>
-      <c r="J72" s="55"/>
-      <c r="L72" s="57"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75">
+      <c r="H72" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J72" s="54"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="58">
+      <c r="C73" s="55">
         <v>61</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
       <c r="G73" s="44"/>
-      <c r="H73" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J73" s="55"/>
-      <c r="L73" s="57"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75">
+      <c r="H73" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J73" s="54"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="58">
+      <c r="C74" s="55">
         <v>0</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
       <c r="G74" s="45"/>
-      <c r="H74" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J74" s="55"/>
-      <c r="L74" s="57"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75">
+      <c r="H74" s="62">
+        <v>75</v>
+      </c>
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="55">
         <v>66</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
       <c r="G75" s="45"/>
-      <c r="H75" s="56">
-        <v>100</v>
-      </c>
-      <c r="J75" s="55"/>
-      <c r="L75" s="57"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75">
+      <c r="H75" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J75" s="54"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="58">
+      <c r="C76" s="55">
         <v>28</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
       <c r="G76" s="44"/>
-      <c r="H76" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J76" s="55"/>
-      <c r="L76" s="57"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75">
+      <c r="H76" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J76" s="54"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="58">
+      <c r="C77" s="55">
         <v>58</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
       <c r="G77" s="44"/>
-      <c r="H77" s="56">
+      <c r="H77" s="62">
         <v>100</v>
       </c>
-      <c r="J77" s="55"/>
-      <c r="L77" s="57"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75">
+      <c r="J77" s="54"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="55">
         <v>52</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="44"/>
-      <c r="H78" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J78" s="55"/>
-      <c r="L78" s="57"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75">
+      <c r="H78" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J78" s="54"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
       <c r="G79" s="44"/>
-      <c r="H79" s="56">
+      <c r="H79" s="62">
         <v>0</v>
       </c>
-      <c r="J79" s="55"/>
-      <c r="L79" s="57"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75">
+      <c r="J79" s="54"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="58">
+      <c r="C80" s="55">
         <v>34</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
       <c r="G80" s="44"/>
-      <c r="H80" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J80" s="55"/>
-      <c r="L80" s="57"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.75">
+      <c r="H80" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J80" s="54"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="58">
+      <c r="C81" s="55">
         <v>72</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
       <c r="G81" s="44"/>
-      <c r="H81" s="56">
+      <c r="H81" s="62">
         <v>66.67</v>
       </c>
-      <c r="J81" s="55"/>
-      <c r="L81" s="57"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75">
+      <c r="J81" s="54"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="58">
+      <c r="C82" s="55">
         <v>64</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
       <c r="G82" s="44"/>
-      <c r="H82" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J82" s="55"/>
-      <c r="L82" s="57"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75">
+      <c r="H82" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J82" s="54"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="58">
+      <c r="C83" s="55">
         <v>44</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
       <c r="G83" s="44"/>
-      <c r="H83" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J83" s="55"/>
-      <c r="L83" s="57"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.75">
+      <c r="H83" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J83" s="54"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="58">
+      <c r="C84" s="55">
         <v>16</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
       <c r="G84" s="44"/>
-      <c r="H84" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J84" s="55"/>
-      <c r="L84" s="57"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75">
+      <c r="H84" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J84" s="54"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
       <c r="A85" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="58">
+      <c r="C85" s="55">
         <v>37</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
       <c r="G85" s="44"/>
-      <c r="H85" s="56">
-        <v>100</v>
-      </c>
-      <c r="J85" s="55"/>
-      <c r="L85" s="57"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75">
+      <c r="H85" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J85" s="54"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="58">
+      <c r="C86" s="55">
         <v>75</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J86" s="55"/>
-      <c r="L86" s="57"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75">
+      <c r="H86" s="62">
+        <v>75</v>
+      </c>
+      <c r="J86" s="54"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75">
       <c r="A87" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="55">
         <v>57</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
       <c r="G87" s="44"/>
-      <c r="H87" s="56">
+      <c r="H87" s="62">
         <v>100</v>
       </c>
-      <c r="J87" s="55"/>
-      <c r="L87" s="57"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75">
+      <c r="J87" s="54"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
       <c r="G88" s="44"/>
-      <c r="H88" s="56">
+      <c r="H88" s="62">
         <v>0</v>
       </c>
-      <c r="J88" s="55"/>
-      <c r="L88" s="57"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.75">
+      <c r="J88" s="54"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="58">
+      <c r="C89" s="55">
         <v>57</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
       <c r="G89" s="44"/>
-      <c r="H89" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J89" s="55"/>
-      <c r="L89" s="57"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75">
+      <c r="H89" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="58">
+      <c r="C90" s="55">
         <v>70</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
       <c r="G90" s="44"/>
-      <c r="H90" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J90" s="55"/>
-      <c r="L90" s="57"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.75">
+      <c r="H90" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J90" s="54"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="58">
+      <c r="C91" s="55">
         <v>87</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
       <c r="G91" s="44"/>
-      <c r="H91" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J91" s="55"/>
-      <c r="L91" s="57"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75">
+      <c r="H91" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="58">
+      <c r="C92" s="55">
         <v>34</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
       <c r="G92" s="44"/>
-      <c r="H92" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J92" s="55"/>
-      <c r="L92" s="57"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.75">
+      <c r="H92" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J92" s="54"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="58">
+      <c r="C93" s="55">
         <v>57</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
       <c r="G93" s="45"/>
-      <c r="H93" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J93" s="55"/>
-      <c r="L93" s="57"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.75">
+      <c r="H93" s="62">
+        <v>75</v>
+      </c>
+      <c r="J93" s="54"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75">
       <c r="A94" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="58">
+      <c r="C94" s="55">
         <v>37</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
       <c r="G94" s="44"/>
-      <c r="H94" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J94" s="55"/>
-      <c r="L94" s="57"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.75">
+      <c r="H94" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J94" s="54"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75">
       <c r="A95" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="58">
+      <c r="C95" s="55">
         <v>85</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
       <c r="G95" s="44"/>
-      <c r="H95" s="56">
+      <c r="H95" s="62">
         <v>100</v>
       </c>
-      <c r="J95" s="55"/>
-      <c r="L95" s="57"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75">
+      <c r="J95" s="54"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75">
       <c r="A96" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="58">
+      <c r="C96" s="55">
         <v>29</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
       <c r="G96" s="44"/>
-      <c r="H96" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J96" s="55"/>
-      <c r="L96" s="57"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75">
+      <c r="H96" s="62">
+        <v>75</v>
+      </c>
+      <c r="J96" s="54"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
       <c r="A97" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="58">
+      <c r="C97" s="55">
         <v>44</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
       <c r="G97" s="44"/>
-      <c r="H97" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J97" s="55"/>
-      <c r="L97" s="57"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.75">
+      <c r="H97" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J97" s="54"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75">
       <c r="A98" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="58">
+      <c r="C98" s="55">
         <v>84</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
       <c r="G98" s="44"/>
-      <c r="H98" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J98" s="55"/>
-      <c r="L98" s="57"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.75">
+      <c r="H98" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J98" s="54"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
       <c r="A99" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="58">
+      <c r="C99" s="55">
         <v>62</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
       <c r="G99" s="44"/>
-      <c r="H99" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J99" s="55"/>
-      <c r="L99" s="57"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75">
+      <c r="H99" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J99" s="54"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75">
       <c r="A100" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
       <c r="G100" s="44"/>
-      <c r="H100" s="56">
+      <c r="H100" s="62">
         <v>0</v>
       </c>
-      <c r="J100" s="55"/>
-      <c r="L100" s="57"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.75">
+      <c r="J100" s="54"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75">
       <c r="A101" s="30" t="s">
         <v>106</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="58">
+      <c r="C101" s="55">
         <v>72</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
       <c r="G101" s="44"/>
-      <c r="H101" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J101" s="55"/>
-      <c r="L101" s="57"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75">
+      <c r="H101" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J101" s="54"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75">
       <c r="A102" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="58">
+      <c r="C102" s="55">
         <v>83</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
       <c r="G102" s="44"/>
-      <c r="H102" s="56">
+      <c r="H102" s="62">
         <v>100</v>
       </c>
-      <c r="J102" s="55"/>
-      <c r="L102" s="57"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.75">
+      <c r="J102" s="54"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75">
       <c r="A103" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="58">
+      <c r="C103" s="55">
         <v>25</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
       <c r="G103" s="45"/>
-      <c r="H103" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J103" s="55"/>
-      <c r="L103" s="57"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.75">
+      <c r="H103" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J103" s="54"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75">
       <c r="A104" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="58">
+      <c r="C104" s="55">
         <v>14</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
       <c r="G104" s="44"/>
-      <c r="H104" s="56">
-        <v>100</v>
-      </c>
-      <c r="J104" s="55"/>
-      <c r="L104" s="57"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.75">
+      <c r="H104" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J104" s="54"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75">
       <c r="A105" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="58">
+      <c r="C105" s="55">
         <v>75</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
       <c r="G105" s="44"/>
-      <c r="H105" s="56">
+      <c r="H105" s="62">
         <v>66.67</v>
       </c>
-      <c r="J105" s="55"/>
-      <c r="L105" s="57"/>
-    </row>
-    <row r="106" spans="1:12" ht="15.75">
+      <c r="J105" s="54"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75">
       <c r="A106" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="58">
+      <c r="C106" s="55">
         <v>62</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="44"/>
-      <c r="H106" s="56">
+      <c r="H106" s="62">
         <v>100</v>
       </c>
-      <c r="J106" s="55"/>
-      <c r="L106" s="57"/>
-    </row>
-    <row r="107" spans="1:12" ht="15.75">
+      <c r="J106" s="54"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75">
       <c r="A107" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="58">
+      <c r="C107" s="55">
         <v>94</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
       <c r="G107" s="44"/>
-      <c r="H107" s="56">
+      <c r="H107" s="62">
         <v>100</v>
       </c>
-      <c r="J107" s="55"/>
-      <c r="L107" s="57"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.75">
+      <c r="J107" s="54"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75">
       <c r="A108" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="58">
+      <c r="C108" s="55">
         <v>48</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
       <c r="G108" s="44"/>
-      <c r="H108" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J108" s="55"/>
-      <c r="L108" s="57"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.75">
+      <c r="H108" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J108" s="54"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75">
       <c r="A109" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="58">
+      <c r="C109" s="55">
         <v>43</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
       <c r="G109" s="44"/>
-      <c r="H109" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J109" s="55"/>
-      <c r="L109" s="57"/>
-    </row>
-    <row r="110" spans="1:12" ht="15.75">
+      <c r="H109" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J109" s="54"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75">
       <c r="A110" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="58">
+      <c r="C110" s="55">
         <v>78</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
       <c r="G110" s="44"/>
-      <c r="H110" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J110" s="55"/>
-      <c r="L110" s="57"/>
-    </row>
-    <row r="111" spans="1:12" ht="15.75">
+      <c r="H110" s="62">
+        <v>75</v>
+      </c>
+      <c r="J110" s="54"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75">
       <c r="A111" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="58">
+      <c r="C111" s="55">
         <v>57</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
       <c r="G111" s="44"/>
-      <c r="H111" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J111" s="55"/>
-      <c r="L111" s="57"/>
-    </row>
-    <row r="112" spans="1:12" ht="15.75">
+      <c r="H111" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J111" s="54"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75">
       <c r="A112" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="58">
+      <c r="C112" s="55">
         <v>92</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
       <c r="G112" s="44"/>
-      <c r="H112" s="56">
+      <c r="H112" s="62">
         <v>100</v>
       </c>
-      <c r="J112" s="55"/>
-      <c r="L112" s="57"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.75">
+      <c r="J112" s="54"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75">
       <c r="A113" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="58">
+      <c r="C113" s="55">
         <v>89</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
       <c r="G113" s="44"/>
-      <c r="H113" s="56">
+      <c r="H113" s="62">
         <v>100</v>
       </c>
-      <c r="J113" s="55"/>
-      <c r="L113" s="57"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.75">
+      <c r="J113" s="54"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75">
       <c r="A114" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="58">
+      <c r="C114" s="55">
         <v>75</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
       <c r="G114" s="44"/>
-      <c r="H114" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J114" s="55"/>
-      <c r="L114" s="57"/>
-    </row>
-    <row r="115" spans="1:12" ht="15.75">
+      <c r="H114" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J114" s="54"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75">
       <c r="A115" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="58">
+      <c r="C115" s="55">
         <v>76</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
       <c r="G115" s="44"/>
-      <c r="H115" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J115" s="55"/>
-      <c r="L115" s="57"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75">
+      <c r="H115" s="62">
+        <v>75</v>
+      </c>
+      <c r="J115" s="54"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75">
       <c r="A116" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="58">
+      <c r="C116" s="55">
         <v>24</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
       <c r="G116" s="44"/>
-      <c r="H116" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J116" s="55"/>
-      <c r="L116" s="57"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75">
+      <c r="H116" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J116" s="54"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75">
       <c r="A117" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="58">
+      <c r="C117" s="55">
         <v>31</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
       <c r="G117" s="44"/>
-      <c r="H117" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J117" s="55"/>
-      <c r="L117" s="57"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.75">
+      <c r="H117" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J117" s="54"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75">
       <c r="A118" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="58">
+      <c r="C118" s="55">
         <v>61</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
       <c r="G118" s="44"/>
-      <c r="H118" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J118" s="55"/>
-      <c r="L118" s="57"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.75">
+      <c r="H118" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J118" s="54"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75">
       <c r="A119" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="58">
+      <c r="C119" s="55">
         <v>61</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
       <c r="G119" s="44"/>
-      <c r="H119" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J119" s="55"/>
-      <c r="L119" s="57"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75">
+      <c r="H119" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J119" s="54"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75">
       <c r="A120" s="30" t="s">
         <v>125</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="58">
+      <c r="C120" s="55">
         <v>72</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
       <c r="G120" s="44"/>
-      <c r="H120" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J120" s="55"/>
-      <c r="L120" s="57"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.75">
+      <c r="H120" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J120" s="54"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75">
       <c r="A121" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="58">
+      <c r="C121" s="55">
         <v>75</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
       <c r="G121" s="44"/>
-      <c r="H121" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J121" s="55"/>
-      <c r="L121" s="57"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.75">
+      <c r="H121" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J121" s="54"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75">
       <c r="A122" s="30" t="s">
         <v>127</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="58">
+      <c r="C122" s="55">
         <v>77</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
       <c r="G122" s="44"/>
-      <c r="H122" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J122" s="55"/>
-      <c r="L122" s="57"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.75">
+      <c r="H122" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J122" s="54"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75">
       <c r="A123" s="30" t="s">
         <v>128</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="58">
+      <c r="C123" s="55">
         <v>78</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
       <c r="G123" s="44"/>
-      <c r="H123" s="56">
+      <c r="H123" s="62">
         <v>100</v>
       </c>
-      <c r="J123" s="55"/>
-      <c r="L123" s="57"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75">
+      <c r="J123" s="54"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75">
       <c r="A124" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="58">
+      <c r="C124" s="55">
         <v>41</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
       <c r="G124" s="44"/>
-      <c r="H124" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J124" s="55"/>
-      <c r="L124" s="57"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.75">
+      <c r="H124" s="62">
+        <v>75</v>
+      </c>
+      <c r="J124" s="54"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75">
       <c r="A125" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="58">
+      <c r="C125" s="55">
         <v>28</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
       <c r="G125" s="44"/>
-      <c r="H125" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J125" s="55"/>
-      <c r="L125" s="57"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75">
+      <c r="H125" s="62">
+        <v>75</v>
+      </c>
+      <c r="J125" s="54"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75">
       <c r="A126" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="58">
+      <c r="C126" s="55">
         <v>71</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
       <c r="G126" s="44"/>
-      <c r="H126" s="56">
+      <c r="H126" s="62">
         <v>66.67</v>
       </c>
-      <c r="J126" s="55"/>
-      <c r="L126" s="57"/>
-    </row>
-    <row r="127" spans="1:12" ht="15.75">
+      <c r="J126" s="54"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75">
       <c r="A127" s="30" t="s">
         <v>132</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="58">
+      <c r="C127" s="55">
         <v>41</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
       <c r="G127" s="44"/>
-      <c r="H127" s="56">
+      <c r="H127" s="62">
         <v>66.67</v>
       </c>
-      <c r="J127" s="55"/>
-      <c r="L127" s="57"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.75">
+      <c r="J127" s="54"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75">
       <c r="A128" s="30" t="s">
         <v>133</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="58">
+      <c r="C128" s="55">
         <v>43</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
       <c r="G128" s="44"/>
-      <c r="H128" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J128" s="55"/>
-      <c r="L128" s="57"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.75">
+      <c r="H128" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J128" s="54"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75">
       <c r="A129" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="58">
+      <c r="C129" s="55">
         <v>50</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
       <c r="G129" s="44"/>
-      <c r="H129" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J129" s="55"/>
-      <c r="L129" s="57"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75">
+      <c r="H129" s="62">
+        <v>75</v>
+      </c>
+      <c r="J129" s="54"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75">
       <c r="A130" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="58">
+      <c r="C130" s="55">
         <v>77</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
       <c r="G130" s="44"/>
-      <c r="H130" s="56">
+      <c r="H130" s="62">
         <v>100</v>
       </c>
-      <c r="J130" s="55"/>
-      <c r="L130" s="57"/>
-    </row>
-    <row r="131" spans="1:12" ht="15.75">
+      <c r="J130" s="54"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75">
       <c r="A131" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="58">
+      <c r="C131" s="55">
         <v>86</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
       <c r="G131" s="44"/>
-      <c r="H131" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J131" s="55"/>
-      <c r="L131" s="57"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.75">
+      <c r="H131" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J131" s="54"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75">
       <c r="A132" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="58">
+      <c r="C132" s="55">
         <v>49</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
       <c r="G132" s="44"/>
-      <c r="H132" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J132" s="55"/>
-      <c r="L132" s="57"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.75">
+      <c r="H132" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J132" s="54"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75">
       <c r="A133" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="58">
+      <c r="C133" s="55">
         <v>41</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
       <c r="G133" s="44"/>
-      <c r="H133" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J133" s="55"/>
-      <c r="L133" s="57"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75">
+      <c r="H133" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J133" s="54"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75">
       <c r="A134" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="58">
+      <c r="C134" s="55">
         <v>25</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
       <c r="G134" s="44"/>
-      <c r="H134" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J134" s="55"/>
-      <c r="L134" s="57"/>
-    </row>
-    <row r="135" spans="1:12" ht="15.75">
+      <c r="H134" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J134" s="54"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75">
       <c r="A135" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="58">
+      <c r="C135" s="55">
         <v>54</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
       <c r="G135" s="44"/>
-      <c r="H135" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J135" s="55"/>
-      <c r="L135" s="57"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.75">
+      <c r="H135" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J135" s="54"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75">
       <c r="A136" s="30" t="s">
         <v>141</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="58">
+      <c r="C136" s="55">
         <v>37</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
       <c r="G136" s="44"/>
-      <c r="H136" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J136" s="55"/>
-      <c r="L136" s="57"/>
-    </row>
-    <row r="137" spans="1:12" ht="15.75">
+      <c r="H136" s="62">
+        <v>75</v>
+      </c>
+      <c r="J136" s="54"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75">
       <c r="A137" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="58">
+      <c r="C137" s="55">
         <v>54</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
       <c r="G137" s="44"/>
-      <c r="H137" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J137" s="55"/>
-      <c r="L137" s="57"/>
-    </row>
-    <row r="138" spans="1:12" ht="15.75">
+      <c r="H137" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J137" s="54"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75">
       <c r="A138" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="58" t="s">
+      <c r="C138" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
       <c r="G138" s="44"/>
-      <c r="H138" s="56">
+      <c r="H138" s="62">
         <v>0</v>
       </c>
-      <c r="J138" s="55"/>
-      <c r="L138" s="57"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.75">
+      <c r="J138" s="54"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75">
       <c r="A139" s="30" t="s">
         <v>144</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="58">
+      <c r="C139" s="55">
         <v>56</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
       <c r="G139" s="46"/>
-      <c r="H139" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J139" s="55"/>
-      <c r="L139" s="57"/>
-    </row>
-    <row r="140" spans="1:12" ht="15.75">
+      <c r="H139" s="62">
+        <v>75</v>
+      </c>
+      <c r="J139" s="54"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75">
       <c r="A140" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="58">
+      <c r="C140" s="55">
         <v>84</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
       <c r="G140" s="47"/>
-      <c r="H140" s="56">
-        <v>100</v>
-      </c>
-      <c r="J140" s="55"/>
-      <c r="L140" s="57"/>
-    </row>
-    <row r="141" spans="1:12" ht="15.75">
+      <c r="H140" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J140" s="54"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75">
       <c r="A141" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="58">
+      <c r="C141" s="55">
         <v>52</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
       <c r="G141" s="43"/>
-      <c r="H141" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J141" s="55"/>
-      <c r="L141" s="57"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75">
+      <c r="H141" s="62">
+        <v>75</v>
+      </c>
+      <c r="J141" s="54"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75">
       <c r="A142" s="30" t="s">
         <v>147</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="58">
+      <c r="C142" s="55">
         <v>20</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
       <c r="G142" s="44"/>
-      <c r="H142" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J142" s="55"/>
-      <c r="L142" s="57"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.75">
+      <c r="H142" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J142" s="54"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75">
       <c r="A143" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
       <c r="G143" s="44"/>
-      <c r="H143" s="56">
-        <v>22.220000000000002</v>
-      </c>
-      <c r="J143" s="55"/>
-      <c r="L143" s="57"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.75">
+      <c r="H143" s="62">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="J143" s="54"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75">
       <c r="A144" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="58">
+      <c r="C144" s="55">
         <v>66</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
       <c r="G144" s="44"/>
-      <c r="H144" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J144" s="55"/>
-      <c r="L144" s="57"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.75">
+      <c r="H144" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J144" s="54"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75">
       <c r="A145" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="58">
+      <c r="C145" s="55">
         <v>49</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
       <c r="G145" s="44"/>
-      <c r="H145" s="56">
-        <v>100</v>
-      </c>
-      <c r="J145" s="55"/>
-      <c r="L145" s="57"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.75">
+      <c r="H145" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J145" s="54"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75">
       <c r="A146" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="58">
+      <c r="C146" s="55">
         <v>64</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
       <c r="G146" s="44"/>
-      <c r="H146" s="56">
-        <v>100</v>
-      </c>
-      <c r="J146" s="55"/>
-      <c r="L146" s="57"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.75">
+      <c r="H146" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J146" s="54"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.75">
       <c r="A147" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="58">
+      <c r="C147" s="55">
         <v>54</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
       <c r="G147" s="44"/>
-      <c r="H147" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J147" s="55"/>
-      <c r="L147" s="57"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75">
+      <c r="H147" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J147" s="54"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75">
       <c r="A148" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="58">
+      <c r="C148" s="55">
         <v>84</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
       <c r="G148" s="44"/>
-      <c r="H148" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J148" s="55"/>
-      <c r="L148" s="57"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.75">
+      <c r="H148" s="62">
+        <v>75</v>
+      </c>
+      <c r="J148" s="54"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75">
       <c r="A149" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="58">
+      <c r="C149" s="55">
         <v>61</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
       <c r="G149" s="44"/>
-      <c r="H149" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J149" s="55"/>
-      <c r="L149" s="57"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75">
+      <c r="H149" s="62">
+        <v>75</v>
+      </c>
+      <c r="J149" s="54"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75">
       <c r="A150" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="58">
+      <c r="C150" s="55">
         <v>76</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
       <c r="G150" s="44"/>
-      <c r="H150" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J150" s="55"/>
-      <c r="L150" s="57"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.75">
+      <c r="H150" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J150" s="54"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75">
       <c r="A151" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="58">
+      <c r="C151" s="55">
         <v>81</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
       <c r="G151" s="44"/>
-      <c r="H151" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J151" s="55"/>
-      <c r="L151" s="57"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75">
+      <c r="H151" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J151" s="54"/>
+    </row>
+    <row r="152" spans="1:10" ht="15.75">
       <c r="A152" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="58">
+      <c r="C152" s="55">
         <v>53</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
       <c r="G152" s="44"/>
-      <c r="H152" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J152" s="55"/>
-      <c r="L152" s="57"/>
-    </row>
-    <row r="153" spans="1:12" ht="15.75">
+      <c r="H152" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J152" s="54"/>
+    </row>
+    <row r="153" spans="1:10" ht="15.75">
       <c r="A153" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="58">
+      <c r="C153" s="55">
         <v>62</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
       <c r="G153" s="44"/>
-      <c r="H153" s="56">
+      <c r="H153" s="62">
         <v>100</v>
       </c>
-      <c r="J153" s="55"/>
-      <c r="L153" s="57"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75">
+      <c r="J153" s="54"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.75">
       <c r="A154" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="58">
+      <c r="C154" s="55">
         <v>69</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
       <c r="G154" s="44"/>
-      <c r="H154" s="56">
+      <c r="H154" s="62">
         <v>100</v>
       </c>
-      <c r="J154" s="55"/>
-      <c r="L154" s="57"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.75">
+      <c r="J154" s="54"/>
+    </row>
+    <row r="155" spans="1:10" ht="15.75">
       <c r="A155" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="58">
+      <c r="C155" s="55">
         <v>74</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
       <c r="G155" s="44"/>
-      <c r="H155" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J155" s="55"/>
-      <c r="L155" s="57"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.75">
+      <c r="H155" s="62">
+        <v>75</v>
+      </c>
+      <c r="J155" s="54"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75">
       <c r="A156" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="58">
+      <c r="C156" s="55">
         <v>52</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
       <c r="G156" s="44"/>
-      <c r="H156" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J156" s="55"/>
-      <c r="L156" s="57"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.75">
+      <c r="H156" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J156" s="54"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.75">
       <c r="A157" s="30" t="s">
         <v>162</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="58" t="s">
+      <c r="C157" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
       <c r="G157" s="44"/>
-      <c r="H157" s="56">
+      <c r="H157" s="62">
         <v>0</v>
       </c>
-      <c r="J157" s="55"/>
-      <c r="L157" s="57"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.75">
+      <c r="J157" s="54"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75">
       <c r="A158" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="58">
+      <c r="C158" s="55">
         <v>26</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
       <c r="G158" s="44"/>
-      <c r="H158" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J158" s="55"/>
-      <c r="L158" s="57"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75">
+      <c r="H158" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J158" s="54"/>
+    </row>
+    <row r="159" spans="1:10" ht="15.75">
       <c r="A159" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="58">
+      <c r="C159" s="55">
         <v>51</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
       <c r="G159" s="44"/>
-      <c r="H159" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J159" s="55"/>
-      <c r="L159" s="57"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75">
+      <c r="H159" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J159" s="54"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.75">
       <c r="A160" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="58">
+      <c r="C160" s="55">
         <v>35</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
       <c r="G160" s="44"/>
-      <c r="H160" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J160" s="55"/>
-      <c r="L160" s="57"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.75">
+      <c r="H160" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J160" s="54"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.75">
       <c r="A161" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="58">
+      <c r="C161" s="55">
         <v>62</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
       <c r="G161" s="44"/>
-      <c r="H161" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J161" s="55"/>
-      <c r="L161" s="57"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.75">
+      <c r="H161" s="62">
+        <v>75</v>
+      </c>
+      <c r="J161" s="54"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.75">
       <c r="A162" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="58">
+      <c r="C162" s="55">
         <v>63</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
       <c r="G162" s="44"/>
-      <c r="H162" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J162" s="55"/>
-      <c r="L162" s="57"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.75">
+      <c r="H162" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J162" s="54"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75">
       <c r="A163" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="58">
+      <c r="C163" s="55">
         <v>73</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
       <c r="G163" s="44"/>
-      <c r="H163" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J163" s="55"/>
-      <c r="L163" s="57"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.75">
+      <c r="H163" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J163" s="54"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.75">
       <c r="A164" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="58" t="s">
+      <c r="C164" s="55" t="s">
         <v>418</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
       <c r="G164" s="44"/>
-      <c r="H164" s="56">
-        <v>11.110000000000001</v>
-      </c>
-      <c r="J164" s="55"/>
-      <c r="L164" s="57"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.75">
+      <c r="H164" s="62">
+        <v>8.33</v>
+      </c>
+      <c r="J164" s="54"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75">
       <c r="A165" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="58">
+      <c r="C165" s="55">
         <v>53</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
       <c r="G165" s="44"/>
-      <c r="H165" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J165" s="55"/>
-      <c r="L165" s="57"/>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="H165" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J165" s="54"/>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="31" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="58">
+      <c r="C166" s="55">
         <v>64</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
       <c r="G166" s="44"/>
-      <c r="H166" s="56">
-        <v>100</v>
-      </c>
-      <c r="J166" s="55"/>
-      <c r="L166" s="57"/>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="H166" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J166" s="54"/>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="58" t="s">
+      <c r="C167" s="55" t="s">
         <v>418</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
       <c r="G167" s="44"/>
-      <c r="H167" s="56">
+      <c r="H167" s="62">
         <v>0</v>
       </c>
-      <c r="J167" s="55"/>
-      <c r="L167" s="57"/>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="J167" s="54"/>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="31" t="s">
         <v>173</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="58">
+      <c r="C168" s="55">
         <v>79</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
       <c r="G168" s="44"/>
-      <c r="H168" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J168" s="55"/>
-      <c r="L168" s="57"/>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="H168" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J168" s="54"/>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="31" t="s">
         <v>174</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="58">
+      <c r="C169" s="55">
         <v>46</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
       <c r="G169" s="44"/>
-      <c r="H169" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J169" s="55"/>
-      <c r="L169" s="57"/>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="H169" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J169" s="54"/>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="31" t="s">
         <v>175</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="58">
+      <c r="C170" s="55">
         <v>79</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
       <c r="G170" s="44"/>
-      <c r="H170" s="56">
+      <c r="H170" s="62">
         <v>100</v>
       </c>
-      <c r="J170" s="55"/>
-      <c r="L170" s="57"/>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="J170" s="54"/>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B171" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="58">
+      <c r="C171" s="55">
         <v>75</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
       <c r="G171" s="46"/>
-      <c r="H171" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J171" s="55"/>
-      <c r="L171" s="57"/>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="H171" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J171" s="54"/>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="31" t="s">
         <v>177</v>
       </c>
       <c r="B172" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="58">
+      <c r="C172" s="55">
         <v>62</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
       <c r="G172" s="42"/>
-      <c r="H172" s="56">
-        <v>33.33</v>
-      </c>
-      <c r="J172" s="55"/>
-      <c r="L172" s="57"/>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="H172" s="62">
+        <v>50</v>
+      </c>
+      <c r="J172" s="54"/>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="31" t="s">
         <v>178</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="58">
+      <c r="C173" s="55">
         <v>35</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
       <c r="G173" s="42"/>
-      <c r="H173" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J173" s="55"/>
-      <c r="L173" s="57"/>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="H173" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J173" s="54"/>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="58">
+      <c r="C174" s="55">
         <v>59</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
       <c r="G174" s="42"/>
-      <c r="H174" s="56">
+      <c r="H174" s="62">
         <v>100</v>
       </c>
-      <c r="J174" s="55"/>
-      <c r="L174" s="57"/>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="J174" s="54"/>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="58">
+      <c r="C175" s="55">
         <v>73</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
       <c r="G175" s="42"/>
-      <c r="H175" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J175" s="55"/>
-      <c r="L175" s="57"/>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="H175" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J175" s="54"/>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="58">
+      <c r="C176" s="55">
         <v>55</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
       <c r="G176" s="42"/>
-      <c r="H176" s="56">
+      <c r="H176" s="62">
         <v>100</v>
       </c>
-      <c r="J176" s="55"/>
-      <c r="L176" s="57"/>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="J176" s="54"/>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="31" t="s">
         <v>182</v>
       </c>
       <c r="B177" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="58" t="s">
+      <c r="C177" s="55" t="s">
         <v>418</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="13"/>
       <c r="F177" s="3"/>
       <c r="G177" s="42"/>
-      <c r="H177" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J177" s="55"/>
-      <c r="L177" s="57"/>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="H177" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J177" s="54"/>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B178" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="58">
+      <c r="C178" s="55">
         <v>0</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="13"/>
       <c r="F178" s="1"/>
       <c r="G178" s="48"/>
-      <c r="H178" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J178" s="55"/>
-      <c r="L178" s="57"/>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="H178" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J178" s="54"/>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="31" t="s">
         <v>184</v>
       </c>
       <c r="B179" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="60" t="s">
+      <c r="C179" s="57" t="s">
         <v>419</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="16"/>
       <c r="F179" s="17"/>
       <c r="G179" s="16"/>
-      <c r="H179" s="56">
+      <c r="H179" s="62">
         <v>0</v>
       </c>
-      <c r="J179" s="55"/>
-      <c r="L179" s="57"/>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="J179" s="54"/>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B180" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="61">
+      <c r="C180" s="58">
         <v>50</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="16"/>
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
-      <c r="H180" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J180" s="55"/>
-      <c r="L180" s="57"/>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="H180" s="62">
+        <v>75</v>
+      </c>
+      <c r="J180" s="54"/>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="31" t="s">
         <v>186</v>
       </c>
       <c r="B181" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="61">
+      <c r="C181" s="58">
         <v>82</v>
       </c>
       <c r="D181" s="19"/>
       <c r="E181" s="5"/>
       <c r="F181" s="20"/>
       <c r="G181" s="49"/>
-      <c r="H181" s="56">
+      <c r="H181" s="62">
         <v>100</v>
       </c>
-      <c r="J181" s="55"/>
-      <c r="L181" s="57"/>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="J181" s="54"/>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="31" t="s">
         <v>187</v>
       </c>
       <c r="B182" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="61">
+      <c r="C182" s="58">
         <v>33</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="22"/>
       <c r="F182" s="1"/>
       <c r="G182" s="50"/>
-      <c r="H182" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J182" s="55"/>
-      <c r="L182" s="57"/>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="H182" s="62">
+        <v>75</v>
+      </c>
+      <c r="J182" s="54"/>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="31" t="s">
         <v>188</v>
       </c>
       <c r="B183" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="61">
+      <c r="C183" s="58">
         <v>49</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="15"/>
       <c r="F183" s="1"/>
       <c r="G183" s="50"/>
-      <c r="H183" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J183" s="55"/>
-      <c r="L183" s="57"/>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="H183" s="62">
+        <v>75</v>
+      </c>
+      <c r="J183" s="54"/>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B184" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="61">
+      <c r="C184" s="58">
         <v>45</v>
       </c>
       <c r="D184" s="23"/>
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
       <c r="G184" s="50"/>
-      <c r="H184" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J184" s="55"/>
-      <c r="L184" s="57"/>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="H184" s="62">
+        <v>75</v>
+      </c>
+      <c r="J184" s="54"/>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B185" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="61">
+      <c r="C185" s="58">
         <v>57</v>
       </c>
       <c r="D185" s="24"/>
       <c r="E185" s="18"/>
       <c r="F185" s="1"/>
       <c r="G185" s="51"/>
-      <c r="H185" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J185" s="55"/>
-      <c r="L185" s="57"/>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="H185" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J185" s="54"/>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B186" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="61">
+      <c r="C186" s="58">
         <v>51</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="18"/>
       <c r="F186" s="1"/>
       <c r="G186" s="51"/>
-      <c r="H186" s="56">
-        <v>33.33</v>
-      </c>
-      <c r="J186" s="55"/>
-      <c r="L186" s="57"/>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="H186" s="62">
+        <v>50</v>
+      </c>
+      <c r="J186" s="54"/>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B187" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="61">
+      <c r="C187" s="58">
         <v>79</v>
       </c>
       <c r="D187" s="24"/>
       <c r="E187" s="22"/>
       <c r="F187" s="3"/>
       <c r="G187" s="51"/>
-      <c r="H187" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J187" s="55"/>
-      <c r="L187" s="57"/>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="H187" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J187" s="54"/>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="31" t="s">
         <v>193</v>
       </c>
       <c r="B188" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="61">
+      <c r="C188" s="58">
         <v>55</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="22"/>
       <c r="F188" s="3"/>
       <c r="G188" s="48"/>
-      <c r="H188" s="56">
-        <v>55.559999999999995</v>
-      </c>
-      <c r="J188" s="55"/>
-      <c r="L188" s="57"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.75">
+      <c r="H188" s="62">
+        <v>66.67</v>
+      </c>
+      <c r="J188" s="54"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75">
       <c r="A189" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="61">
+      <c r="C189" s="58">
         <v>66</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="18"/>
       <c r="F189" s="1"/>
       <c r="G189" s="48"/>
-      <c r="H189" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J189" s="55"/>
-      <c r="L189" s="57"/>
-    </row>
-    <row r="190" spans="1:12" ht="15.75">
+      <c r="H189" s="62">
+        <v>75</v>
+      </c>
+      <c r="J189" s="54"/>
+    </row>
+    <row r="190" spans="1:10" ht="15.75">
       <c r="A190" s="30" t="s">
         <v>195</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="61">
+      <c r="C190" s="58">
         <v>16</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
       <c r="G190" s="48"/>
-      <c r="H190" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J190" s="55"/>
-      <c r="L190" s="57"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.75">
+      <c r="H190" s="62">
+        <v>58.330000000000005</v>
+      </c>
+      <c r="J190" s="54"/>
+    </row>
+    <row r="191" spans="1:10" ht="15.75">
       <c r="A191" s="30" t="s">
         <v>196</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="61">
+      <c r="C191" s="58">
         <v>67</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="18"/>
       <c r="F191" s="3"/>
       <c r="G191" s="48"/>
-      <c r="H191" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J191" s="55"/>
-      <c r="L191" s="57"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75">
+      <c r="H191" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J191" s="54"/>
+    </row>
+    <row r="192" spans="1:10" ht="15.75">
       <c r="A192" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="61">
+      <c r="C192" s="58">
         <v>68</v>
       </c>
       <c r="D192" s="24"/>
       <c r="E192" s="15"/>
       <c r="F192" s="3"/>
       <c r="G192" s="48"/>
-      <c r="H192" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J192" s="55"/>
-      <c r="L192" s="57"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.75">
+      <c r="H192" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J192" s="54"/>
+    </row>
+    <row r="193" spans="1:10" ht="15.75">
       <c r="A193" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="61">
+      <c r="C193" s="58">
         <v>40</v>
       </c>
       <c r="D193" s="23"/>
       <c r="E193" s="25"/>
       <c r="F193" s="1"/>
       <c r="G193" s="48"/>
-      <c r="H193" s="56">
-        <v>100</v>
-      </c>
-      <c r="J193" s="55"/>
-      <c r="L193" s="57"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.75">
+      <c r="H193" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J193" s="54"/>
+    </row>
+    <row r="194" spans="1:10" ht="15.75">
       <c r="A194" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="61">
+      <c r="C194" s="58">
         <v>74</v>
       </c>
       <c r="D194" s="26"/>
       <c r="E194" s="14"/>
       <c r="F194" s="27"/>
       <c r="G194" s="48"/>
-      <c r="H194" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J194" s="55"/>
-      <c r="L194" s="57"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.75">
+      <c r="H194" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J194" s="54"/>
+    </row>
+    <row r="195" spans="1:10" ht="15.75">
       <c r="A195" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="61">
+      <c r="C195" s="58">
         <v>58</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="18"/>
       <c r="F195" s="29"/>
       <c r="G195" s="48"/>
-      <c r="H195" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J195" s="55"/>
-      <c r="L195" s="57"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.75">
+      <c r="H195" s="62">
+        <v>75</v>
+      </c>
+      <c r="J195" s="54"/>
+    </row>
+    <row r="196" spans="1:10" ht="15.75">
       <c r="A196" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="61">
+      <c r="C196" s="58">
         <v>54</v>
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="22"/>
       <c r="F196" s="3"/>
       <c r="G196" s="48"/>
-      <c r="H196" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J196" s="55"/>
-      <c r="L196" s="57"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.75">
+      <c r="H196" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J196" s="54"/>
+    </row>
+    <row r="197" spans="1:10" ht="15.75">
       <c r="A197" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="61">
+      <c r="C197" s="58">
         <v>64</v>
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="22"/>
       <c r="F197" s="3"/>
       <c r="G197" s="48"/>
-      <c r="H197" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J197" s="55"/>
-      <c r="L197" s="57"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.75">
+      <c r="H197" s="62">
+        <v>91.67</v>
+      </c>
+      <c r="J197" s="54"/>
+    </row>
+    <row r="198" spans="1:10" ht="15.75">
       <c r="A198" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="61">
+      <c r="C198" s="58">
         <v>89</v>
       </c>
       <c r="D198" s="23"/>
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
       <c r="G198" s="48"/>
-      <c r="H198" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J198" s="55"/>
-      <c r="L198" s="57"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75">
+      <c r="H198" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J198" s="54"/>
+    </row>
+    <row r="199" spans="1:10" ht="15.75">
       <c r="A199" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="62">
+      <c r="C199" s="59">
         <v>78</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="18"/>
       <c r="F199" s="1"/>
       <c r="G199" s="48"/>
-      <c r="H199" s="56">
-        <v>88.89</v>
-      </c>
-      <c r="J199" s="55"/>
-      <c r="L199" s="57"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.75">
+      <c r="H199" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J199" s="54"/>
+    </row>
+    <row r="200" spans="1:10" ht="15.75">
       <c r="A200" s="30" t="s">
         <v>205</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="61">
+      <c r="C200" s="58">
         <v>73</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="25"/>
       <c r="F200" s="1"/>
       <c r="G200" s="48"/>
-      <c r="H200" s="56">
+      <c r="H200" s="62">
         <v>100</v>
       </c>
-      <c r="J200" s="55"/>
-      <c r="L200" s="57"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.75">
+      <c r="J200" s="54"/>
+    </row>
+    <row r="201" spans="1:10" ht="15.75">
       <c r="A201" s="34" t="s">
         <v>206</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="61">
+      <c r="C201" s="58">
         <v>51</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="36"/>
       <c r="F201" s="37"/>
       <c r="G201" s="52"/>
-      <c r="H201" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J201" s="55"/>
-      <c r="L201" s="57"/>
-    </row>
-    <row r="202" spans="1:12" ht="15.75">
+      <c r="H201" s="62">
+        <v>75</v>
+      </c>
+      <c r="J201" s="54"/>
+    </row>
+    <row r="202" spans="1:10" ht="15.75">
       <c r="A202" s="38" t="s">
         <v>408</v>
       </c>
       <c r="B202" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="61">
+      <c r="C202" s="58">
         <v>60</v>
       </c>
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
       <c r="F202" s="39"/>
       <c r="G202" s="53"/>
-      <c r="H202" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J202" s="55"/>
-      <c r="L202" s="57"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.75">
+      <c r="H202" s="62">
+        <v>75</v>
+      </c>
+      <c r="J202" s="54"/>
+    </row>
+    <row r="203" spans="1:10" ht="15.75">
       <c r="A203" s="40" t="s">
         <v>410</v>
       </c>
       <c r="B203" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="61">
+      <c r="C203" s="58">
         <v>17</v>
       </c>
       <c r="D203" s="39"/>
       <c r="E203" s="39"/>
       <c r="F203" s="39"/>
       <c r="G203" s="53"/>
-      <c r="H203" s="56">
-        <v>44.440000000000005</v>
-      </c>
-      <c r="J203" s="55"/>
-      <c r="L203" s="57"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.75">
+      <c r="H203" s="62">
+        <v>50</v>
+      </c>
+      <c r="J203" s="54"/>
+    </row>
+    <row r="204" spans="1:10" ht="15.75">
       <c r="A204" s="40" t="s">
         <v>412</v>
       </c>
       <c r="B204" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="61">
+      <c r="C204" s="58">
         <v>50</v>
       </c>
       <c r="D204" s="39"/>
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
       <c r="G204" s="53"/>
-      <c r="H204" s="56">
-        <v>77.78</v>
-      </c>
-      <c r="J204" s="55"/>
-      <c r="L204" s="57"/>
-    </row>
-    <row r="205" spans="1:12" ht="15.75">
+      <c r="H204" s="62">
+        <v>83.33</v>
+      </c>
+      <c r="J204" s="54"/>
+    </row>
+    <row r="205" spans="1:10" ht="15.75">
       <c r="A205" s="40" t="s">
         <v>414</v>
       </c>
       <c r="B205" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="58">
+      <c r="C205" s="55">
         <v>51</v>
       </c>
       <c r="D205" s="39"/>
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
       <c r="G205" s="53"/>
-      <c r="H205" s="56">
-        <v>66.67</v>
-      </c>
-      <c r="J205" s="55"/>
-      <c r="L205" s="57"/>
-    </row>
-    <row r="206" spans="1:12" ht="15.75">
+      <c r="H205" s="62">
+        <v>75</v>
+      </c>
+      <c r="J205" s="54"/>
+    </row>
+    <row r="206" spans="1:10" ht="15.75">
       <c r="A206" s="40" t="s">
         <v>416</v>
       </c>
       <c r="B206" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="58">
+      <c r="C206" s="55">
         <v>43</v>
       </c>
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
       <c r="G206" s="53"/>
-      <c r="H206" s="56">
-        <v>11.110000000000001</v>
-      </c>
-      <c r="J206" s="55"/>
-      <c r="L206" s="57"/>
-    </row>
-    <row r="207" spans="1:12" ht="15.75">
-      <c r="A207" s="63" t="s">
+      <c r="H206" s="62">
+        <v>8.33</v>
+      </c>
+      <c r="J206" s="54"/>
+    </row>
+    <row r="207" spans="1:10" ht="15.75">
+      <c r="A207" s="60" t="s">
         <v>420</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="61">
+      <c r="C207" s="58">
         <v>45</v>
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
       <c r="G207" s="39"/>
-      <c r="H207" s="39"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.75">
-      <c r="A208" s="63" t="s">
+      <c r="H207" s="63"/>
+    </row>
+    <row r="208" spans="1:10" ht="15.75">
+      <c r="A208" s="60" t="s">
         <v>421</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="61">
+      <c r="C208" s="58">
         <v>79</v>
       </c>
       <c r="D208" s="39"/>
       <c r="E208" s="39"/>
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
-      <c r="H208" s="39"/>
+      <c r="H208" s="63"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="63" t="s">
+      <c r="A209" s="60" t="s">
         <v>422</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C209" s="61">
+      <c r="C209" s="58">
         <v>68</v>
       </c>
       <c r="D209" s="39"/>
       <c r="E209" s="39"/>
       <c r="F209" s="39"/>
       <c r="G209" s="39"/>
-      <c r="H209" s="39"/>
+      <c r="H209" s="63"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="63" t="s">
+      <c r="A210" s="60" t="s">
         <v>423</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="61">
+      <c r="C210" s="58">
         <v>81</v>
       </c>
       <c r="D210" s="39"/>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
-      <c r="H210" s="39"/>
+      <c r="H210" s="63"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="63" t="s">
+      <c r="A211" s="60" t="s">
         <v>424</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C211" s="61">
+      <c r="C211" s="58">
         <v>48</v>
       </c>
       <c r="D211" s="39"/>
       <c r="E211" s="39"/>
       <c r="F211" s="39"/>
       <c r="G211" s="39"/>
-      <c r="H211" s="39"/>
+      <c r="H211" s="63"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="63" t="s">
+      <c r="A212" s="60" t="s">
         <v>425</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C212" s="61">
+      <c r="C212" s="58">
         <v>36</v>
       </c>
       <c r="D212" s="39"/>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
-      <c r="H212" s="39"/>
+      <c r="H212" s="63"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="63" t="s">
+      <c r="A213" s="60" t="s">
         <v>426</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="C213" s="61">
+      <c r="C213" s="58">
         <v>80</v>
       </c>
       <c r="D213" s="39"/>
       <c r="E213" s="39"/>
       <c r="F213" s="39"/>
       <c r="G213" s="39"/>
-      <c r="H213" s="39"/>
+      <c r="H213" s="63"/>
     </row>
     <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="63" t="s">
+      <c r="A214" s="60" t="s">
         <v>427</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="C214" s="61">
+      <c r="C214" s="58">
         <v>38</v>
       </c>
       <c r="D214" s="39"/>
       <c r="E214" s="39"/>
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
-      <c r="H214" s="39"/>
+      <c r="H214" s="63"/>
     </row>
     <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="63" t="s">
+      <c r="A215" s="60" t="s">
         <v>428</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C215" s="61">
+      <c r="C215" s="58">
         <v>79</v>
       </c>
       <c r="D215" s="39"/>
       <c r="E215" s="39"/>
       <c r="F215" s="39"/>
       <c r="G215" s="39"/>
-      <c r="H215" s="39"/>
+      <c r="H215" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6487,12 +6296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6501,7 +6304,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6645,7 +6448,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6659,16 +6480,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2265,7 +2265,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="42"/>
       <c r="H2" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -2284,7 +2284,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="43"/>
       <c r="H3" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J3" s="54"/>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="44"/>
       <c r="H4" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J4" s="54"/>
     </row>
@@ -2322,7 +2322,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="44"/>
       <c r="H5" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J5" s="54"/>
     </row>
@@ -2341,7 +2341,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="44"/>
       <c r="H6" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J6" s="54"/>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="44"/>
       <c r="H7" s="62">
-        <v>50</v>
+        <v>57.14</v>
       </c>
       <c r="J7" s="54"/>
     </row>
@@ -2379,7 +2379,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="44"/>
       <c r="H8" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J8" s="54"/>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="44"/>
       <c r="H9" s="62">
-        <v>75</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J9" s="54"/>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="44"/>
       <c r="H10" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J10" s="54"/>
     </row>
@@ -2455,7 +2455,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="44"/>
       <c r="H12" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J12" s="54"/>
     </row>
@@ -2474,7 +2474,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="44"/>
       <c r="H13" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J13" s="54"/>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="44"/>
       <c r="H16" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J16" s="54"/>
     </row>
@@ -2569,7 +2569,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="44"/>
       <c r="H18" s="62">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="J18" s="54"/>
     </row>
@@ -2588,7 +2588,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="44"/>
       <c r="H19" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J19" s="54"/>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="44"/>
       <c r="H20" s="62">
-        <v>58.330000000000005</v>
+        <v>50</v>
       </c>
       <c r="J20" s="54"/>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="44"/>
       <c r="H21" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J21" s="54"/>
     </row>
@@ -2645,7 +2645,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="44"/>
       <c r="H22" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J22" s="54"/>
     </row>
@@ -2664,7 +2664,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="44"/>
       <c r="H23" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J23" s="54"/>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="44"/>
       <c r="H24" s="62">
-        <v>33.33</v>
+        <v>35.709999999999994</v>
       </c>
       <c r="J24" s="54"/>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="44"/>
       <c r="H25" s="62">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="J25" s="54"/>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="44"/>
       <c r="H26" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J26" s="54"/>
     </row>
@@ -2740,7 +2740,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="44"/>
       <c r="H27" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J27" s="54"/>
     </row>
@@ -2759,7 +2759,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="44"/>
       <c r="H28" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J28" s="54"/>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="44"/>
       <c r="H29" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J29" s="54"/>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="44"/>
       <c r="H30" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J30" s="54"/>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="44"/>
       <c r="H31" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J31" s="54"/>
     </row>
@@ -2835,7 +2835,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="45"/>
       <c r="H32" s="62">
-        <v>41.67</v>
+        <v>42.86</v>
       </c>
       <c r="J32" s="54"/>
     </row>
@@ -2854,7 +2854,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="44"/>
       <c r="H33" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J33" s="54"/>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="44"/>
       <c r="H34" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J34" s="54"/>
     </row>
@@ -2892,7 +2892,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="44"/>
       <c r="H35" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J35" s="54"/>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="44"/>
       <c r="H36" s="62">
-        <v>58.330000000000005</v>
+        <v>50</v>
       </c>
       <c r="J36" s="54"/>
     </row>
@@ -2930,7 +2930,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="44"/>
       <c r="H37" s="62">
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="J37" s="54"/>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="44"/>
       <c r="H38" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J38" s="54"/>
     </row>
@@ -2968,7 +2968,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="44"/>
       <c r="H39" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J39" s="54"/>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="44"/>
       <c r="H40" s="62">
-        <v>72.72999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="J40" s="54"/>
     </row>
@@ -3006,7 +3006,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="44"/>
       <c r="H41" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J41" s="54"/>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="44"/>
       <c r="H42" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J42" s="54"/>
     </row>
@@ -3063,7 +3063,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="44"/>
       <c r="H44" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J44" s="54"/>
     </row>
@@ -3082,7 +3082,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="44"/>
       <c r="H45" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J45" s="54"/>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="44"/>
       <c r="H47" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J47" s="54"/>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="44"/>
       <c r="H48" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J48" s="54"/>
     </row>
@@ -3158,7 +3158,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="45"/>
       <c r="H49" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J49" s="54"/>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="44"/>
       <c r="H50" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J50" s="54"/>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="44"/>
       <c r="H51" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J51" s="54"/>
     </row>
@@ -3215,7 +3215,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="44"/>
       <c r="H52" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J52" s="54"/>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="44"/>
       <c r="H53" s="62">
-        <v>58.330000000000005</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J53" s="54"/>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="44"/>
       <c r="H54" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J54" s="54"/>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="44"/>
       <c r="H55" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J55" s="54"/>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="45"/>
       <c r="H56" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J56" s="54"/>
     </row>
@@ -3310,7 +3310,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="44"/>
       <c r="H57" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J57" s="54"/>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="44"/>
       <c r="H58" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J58" s="54"/>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="44"/>
       <c r="H59" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J59" s="54"/>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="44"/>
       <c r="H60" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J60" s="54"/>
     </row>
@@ -3405,7 +3405,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="44"/>
       <c r="H62" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J62" s="54"/>
     </row>
@@ -3424,7 +3424,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="44"/>
       <c r="H63" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J63" s="54"/>
     </row>
@@ -3443,7 +3443,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="44"/>
       <c r="H64" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J64" s="54"/>
     </row>
@@ -3462,7 +3462,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="44"/>
       <c r="H65" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J65" s="54"/>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="44"/>
       <c r="H66" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J66" s="54"/>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="44"/>
       <c r="H67" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J67" s="54"/>
     </row>
@@ -3519,7 +3519,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="44"/>
       <c r="H68" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J68" s="54"/>
     </row>
@@ -3538,7 +3538,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="45"/>
       <c r="H69" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J69" s="54"/>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="44"/>
       <c r="H70" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J70" s="54"/>
     </row>
@@ -3576,7 +3576,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="44"/>
       <c r="H71" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J71" s="54"/>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="44"/>
       <c r="H72" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J72" s="54"/>
     </row>
@@ -3614,7 +3614,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="44"/>
       <c r="H73" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J73" s="54"/>
     </row>
@@ -3633,7 +3633,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="45"/>
       <c r="H74" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J74" s="54"/>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="45"/>
       <c r="H75" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J75" s="54"/>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="44"/>
       <c r="H76" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J76" s="54"/>
     </row>
@@ -3690,7 +3690,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="44"/>
       <c r="H77" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J77" s="54"/>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="44"/>
       <c r="H78" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J78" s="54"/>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="44"/>
       <c r="H80" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J80" s="54"/>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="44"/>
       <c r="H81" s="62">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="J81" s="54"/>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="44"/>
       <c r="H82" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J82" s="54"/>
     </row>
@@ -3804,7 +3804,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="44"/>
       <c r="H83" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J83" s="54"/>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="44"/>
       <c r="H84" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J84" s="54"/>
     </row>
@@ -3842,7 +3842,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="44"/>
       <c r="H85" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J85" s="54"/>
     </row>
@@ -3861,7 +3861,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="45"/>
       <c r="H86" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J86" s="54"/>
     </row>
@@ -3880,7 +3880,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="44"/>
       <c r="H87" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J87" s="54"/>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="44"/>
       <c r="H89" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J89" s="54"/>
     </row>
@@ -3937,7 +3937,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="44"/>
       <c r="H90" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J90" s="54"/>
     </row>
@@ -3956,7 +3956,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="44"/>
       <c r="H91" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J91" s="54"/>
     </row>
@@ -3975,7 +3975,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="44"/>
       <c r="H92" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J92" s="54"/>
     </row>
@@ -3994,7 +3994,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="45"/>
       <c r="H93" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J93" s="54"/>
     </row>
@@ -4013,7 +4013,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="44"/>
       <c r="H94" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J94" s="54"/>
     </row>
@@ -4032,7 +4032,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="44"/>
       <c r="H95" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J95" s="54"/>
     </row>
@@ -4051,7 +4051,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="44"/>
       <c r="H96" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J96" s="54"/>
     </row>
@@ -4070,7 +4070,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="44"/>
       <c r="H97" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J97" s="54"/>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="44"/>
       <c r="H98" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J98" s="54"/>
     </row>
@@ -4108,7 +4108,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="44"/>
       <c r="H99" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J99" s="54"/>
     </row>
@@ -4146,7 +4146,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="44"/>
       <c r="H101" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J101" s="54"/>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="45"/>
       <c r="H103" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J103" s="54"/>
     </row>
@@ -4203,7 +4203,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="44"/>
       <c r="H104" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J104" s="54"/>
     </row>
@@ -4222,7 +4222,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="44"/>
       <c r="H105" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J105" s="54"/>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="44"/>
       <c r="H106" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J106" s="54"/>
     </row>
@@ -4260,7 +4260,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="44"/>
       <c r="H107" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J107" s="54"/>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="44"/>
       <c r="H108" s="62">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="J108" s="54"/>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="44"/>
       <c r="H109" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J109" s="54"/>
     </row>
@@ -4317,7 +4317,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="44"/>
       <c r="H110" s="62">
-        <v>75</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J110" s="54"/>
     </row>
@@ -4336,7 +4336,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="44"/>
       <c r="H111" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J111" s="54"/>
     </row>
@@ -4374,7 +4374,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="44"/>
       <c r="H113" s="62">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="J113" s="54"/>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="44"/>
       <c r="H114" s="62">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="J114" s="54"/>
     </row>
@@ -4412,7 +4412,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="44"/>
       <c r="H115" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J115" s="54"/>
     </row>
@@ -4431,7 +4431,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="44"/>
       <c r="H116" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J116" s="54"/>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="44"/>
       <c r="H117" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J117" s="54"/>
     </row>
@@ -4469,7 +4469,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="44"/>
       <c r="H118" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J118" s="54"/>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="44"/>
       <c r="H119" s="62">
-        <v>66.67</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J119" s="54"/>
     </row>
@@ -4507,7 +4507,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="44"/>
       <c r="H120" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J120" s="54"/>
     </row>
@@ -4526,7 +4526,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="44"/>
       <c r="H121" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J121" s="54"/>
     </row>
@@ -4545,7 +4545,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="44"/>
       <c r="H122" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J122" s="54"/>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="44"/>
       <c r="H124" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J124" s="54"/>
     </row>
@@ -4602,7 +4602,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="44"/>
       <c r="H125" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J125" s="54"/>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="44"/>
       <c r="H126" s="62">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="J126" s="54"/>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="44"/>
       <c r="H127" s="62">
-        <v>66.67</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J127" s="54"/>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="44"/>
       <c r="H128" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J128" s="54"/>
     </row>
@@ -4678,7 +4678,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="44"/>
       <c r="H129" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J129" s="54"/>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="44"/>
       <c r="H131" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J131" s="54"/>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="44"/>
       <c r="H132" s="62">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="J132" s="54"/>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="44"/>
       <c r="H133" s="62">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="J133" s="54"/>
     </row>
@@ -4773,7 +4773,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="44"/>
       <c r="H134" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J134" s="54"/>
     </row>
@@ -4792,7 +4792,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="44"/>
       <c r="H135" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J135" s="54"/>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="44"/>
       <c r="H136" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J136" s="54"/>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="44"/>
       <c r="H137" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J137" s="54"/>
     </row>
@@ -4868,7 +4868,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="46"/>
       <c r="H139" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J139" s="54"/>
     </row>
@@ -4887,7 +4887,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="47"/>
       <c r="H140" s="62">
-        <v>83.33</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J140" s="54"/>
     </row>
@@ -4906,7 +4906,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="43"/>
       <c r="H141" s="62">
-        <v>75</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J141" s="54"/>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="44"/>
       <c r="H142" s="62">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="J142" s="54"/>
     </row>
@@ -4944,7 +4944,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="44"/>
       <c r="H143" s="62">
-        <v>16.669999999999998</v>
+        <v>14.29</v>
       </c>
       <c r="J143" s="54"/>
     </row>
@@ -4963,7 +4963,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="44"/>
       <c r="H144" s="62">
-        <v>91.67</v>
+        <v>92.86</v>
       </c>
       <c r="J144" s="54"/>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="44"/>
       <c r="H145" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J145" s="54"/>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="44"/>
       <c r="H146" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J146" s="54"/>
     </row>
@@ -5020,7 +5020,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="44"/>
       <c r="H147" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J147" s="54"/>
     </row>
@@ -5039,7 +5039,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="44"/>
       <c r="H148" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J148" s="54"/>
     </row>
@@ -5058,7 +5058,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="44"/>
       <c r="H149" s="62">
-        <v>75</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J149" s="54"/>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="44"/>
       <c r="H150" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J150" s="54"/>
     </row>
@@ -5096,7 +5096,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="44"/>
       <c r="H151" s="62">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="J151" s="54"/>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="44"/>
       <c r="H152" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J152" s="54"/>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="44"/>
       <c r="H153" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J153" s="54"/>
     </row>
@@ -5153,7 +5153,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="44"/>
       <c r="H154" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J154" s="54"/>
     </row>
@@ -5172,7 +5172,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="44"/>
       <c r="H155" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J155" s="54"/>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="44"/>
       <c r="H156" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J156" s="54"/>
     </row>
@@ -5229,7 +5229,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="44"/>
       <c r="H158" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J158" s="54"/>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="44"/>
       <c r="H159" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J159" s="54"/>
     </row>
@@ -5267,7 +5267,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="44"/>
       <c r="H160" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J160" s="54"/>
     </row>
@@ -5286,7 +5286,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="44"/>
       <c r="H161" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J161" s="54"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="44"/>
       <c r="H162" s="62">
-        <v>58.330000000000005</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J162" s="54"/>
     </row>
@@ -5324,7 +5324,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="44"/>
       <c r="H163" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J163" s="54"/>
     </row>
@@ -5343,7 +5343,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="44"/>
       <c r="H164" s="62">
-        <v>8.33</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="J164" s="54"/>
     </row>
@@ -5362,7 +5362,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="44"/>
       <c r="H165" s="62">
-        <v>91.67</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J165" s="54"/>
     </row>
@@ -5381,7 +5381,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="44"/>
       <c r="H166" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J166" s="54"/>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="44"/>
       <c r="H168" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J168" s="54"/>
     </row>
@@ -5438,7 +5438,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="44"/>
       <c r="H169" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J169" s="54"/>
     </row>
@@ -5457,7 +5457,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="44"/>
       <c r="H170" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J170" s="54"/>
     </row>
@@ -5476,7 +5476,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="46"/>
       <c r="H171" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J171" s="54"/>
     </row>
@@ -5514,7 +5514,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="42"/>
       <c r="H173" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J173" s="54"/>
     </row>
@@ -5533,7 +5533,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="42"/>
       <c r="H174" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J174" s="54"/>
     </row>
@@ -5552,7 +5552,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="42"/>
       <c r="H175" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J175" s="54"/>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="42"/>
       <c r="H176" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J176" s="54"/>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="42"/>
       <c r="H177" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J177" s="54"/>
     </row>
@@ -5609,7 +5609,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="48"/>
       <c r="H178" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J178" s="54"/>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
       <c r="H180" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J180" s="54"/>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="49"/>
       <c r="H181" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J181" s="54"/>
     </row>
@@ -5685,7 +5685,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="50"/>
       <c r="H182" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J182" s="54"/>
     </row>
@@ -5704,7 +5704,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="50"/>
       <c r="H183" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J183" s="54"/>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="50"/>
       <c r="H184" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J184" s="54"/>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="51"/>
       <c r="H185" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J185" s="54"/>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="51"/>
       <c r="H187" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J187" s="54"/>
     </row>
@@ -5799,7 +5799,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="48"/>
       <c r="H188" s="62">
-        <v>66.67</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="J188" s="54"/>
     </row>
@@ -5818,7 +5818,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="48"/>
       <c r="H189" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J189" s="54"/>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="48"/>
       <c r="H190" s="62">
-        <v>58.330000000000005</v>
+        <v>57.14</v>
       </c>
       <c r="J190" s="54"/>
     </row>
@@ -5856,7 +5856,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="48"/>
       <c r="H191" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J191" s="54"/>
     </row>
@@ -5875,7 +5875,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="48"/>
       <c r="H192" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J192" s="54"/>
     </row>
@@ -5894,7 +5894,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="48"/>
       <c r="H193" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J193" s="54"/>
     </row>
@@ -5913,7 +5913,7 @@
       <c r="F194" s="27"/>
       <c r="G194" s="48"/>
       <c r="H194" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J194" s="54"/>
     </row>
@@ -5932,7 +5932,7 @@
       <c r="F195" s="29"/>
       <c r="G195" s="48"/>
       <c r="H195" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J195" s="54"/>
     </row>
@@ -5951,7 +5951,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="48"/>
       <c r="H196" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J196" s="54"/>
     </row>
@@ -5970,7 +5970,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="48"/>
       <c r="H197" s="62">
-        <v>91.67</v>
+        <v>85.71</v>
       </c>
       <c r="J197" s="54"/>
     </row>
@@ -5989,7 +5989,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="48"/>
       <c r="H198" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J198" s="54"/>
     </row>
@@ -6008,7 +6008,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="48"/>
       <c r="H199" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J199" s="54"/>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="48"/>
       <c r="H200" s="62">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="J200" s="54"/>
     </row>
@@ -6046,7 +6046,7 @@
       <c r="F201" s="37"/>
       <c r="G201" s="52"/>
       <c r="H201" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J201" s="54"/>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="53"/>
       <c r="H202" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J202" s="54"/>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="53"/>
       <c r="H204" s="62">
-        <v>83.33</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J204" s="54"/>
     </row>
@@ -6122,7 +6122,7 @@
       <c r="F205" s="39"/>
       <c r="G205" s="53"/>
       <c r="H205" s="62">
-        <v>75</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J205" s="54"/>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="53"/>
       <c r="H206" s="62">
-        <v>8.33</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="J206" s="54"/>
     </row>
@@ -6296,15 +6296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6448,6 +6439,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6455,13 +6455,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2265,7 +2265,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="42"/>
       <c r="H2" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -2284,7 +2284,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="43"/>
       <c r="H3" s="62">
-        <v>71.430000000000007</v>
+        <v>62.5</v>
       </c>
       <c r="J3" s="54"/>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="44"/>
       <c r="H4" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J4" s="54"/>
     </row>
@@ -2322,7 +2322,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="44"/>
       <c r="H5" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J5" s="54"/>
     </row>
@@ -2341,7 +2341,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="44"/>
       <c r="H6" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J6" s="54"/>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="44"/>
       <c r="H7" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J7" s="54"/>
     </row>
@@ -2379,7 +2379,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="44"/>
       <c r="H8" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J8" s="54"/>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="44"/>
       <c r="H9" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="54"/>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="44"/>
       <c r="H10" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J10" s="54"/>
     </row>
@@ -2436,7 +2436,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="44"/>
       <c r="H11" s="62">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="J11" s="54"/>
     </row>
@@ -2455,7 +2455,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="44"/>
       <c r="H12" s="62">
-        <v>64.290000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="J12" s="54"/>
     </row>
@@ -2474,7 +2474,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="44"/>
       <c r="H13" s="62">
-        <v>92.86</v>
+        <v>87.5</v>
       </c>
       <c r="J13" s="54"/>
     </row>
@@ -2493,7 +2493,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="44"/>
       <c r="H14" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J14" s="54"/>
     </row>
@@ -2512,7 +2512,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="44"/>
       <c r="H15" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J15" s="54"/>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="44"/>
       <c r="H16" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J16" s="54"/>
     </row>
@@ -2569,7 +2569,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="44"/>
       <c r="H18" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J18" s="54"/>
     </row>
@@ -2588,7 +2588,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="44"/>
       <c r="H19" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J19" s="54"/>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="44"/>
       <c r="H20" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J20" s="54"/>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="44"/>
       <c r="H21" s="62">
-        <v>78.569999999999993</v>
+        <v>75</v>
       </c>
       <c r="J21" s="54"/>
     </row>
@@ -2645,7 +2645,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="44"/>
       <c r="H22" s="62">
-        <v>71.430000000000007</v>
+        <v>62.5</v>
       </c>
       <c r="J22" s="54"/>
     </row>
@@ -2664,7 +2664,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="44"/>
       <c r="H23" s="62">
-        <v>64.290000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="J23" s="54"/>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="44"/>
       <c r="H24" s="62">
-        <v>35.709999999999994</v>
+        <v>43.75</v>
       </c>
       <c r="J24" s="54"/>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="44"/>
       <c r="H25" s="62">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="J25" s="54"/>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="44"/>
       <c r="H26" s="62">
-        <v>78.569999999999993</v>
+        <v>68.75</v>
       </c>
       <c r="J26" s="54"/>
     </row>
@@ -2740,7 +2740,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="44"/>
       <c r="H27" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J27" s="54"/>
     </row>
@@ -2759,7 +2759,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="44"/>
       <c r="H28" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J28" s="54"/>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="44"/>
       <c r="H29" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J29" s="54"/>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="44"/>
       <c r="H30" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J30" s="54"/>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="44"/>
       <c r="H31" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J31" s="54"/>
     </row>
@@ -2835,7 +2835,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="45"/>
       <c r="H32" s="62">
-        <v>42.86</v>
+        <v>43.75</v>
       </c>
       <c r="J32" s="54"/>
     </row>
@@ -2854,7 +2854,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="44"/>
       <c r="H33" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J33" s="54"/>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="44"/>
       <c r="H34" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J34" s="54"/>
     </row>
@@ -2892,7 +2892,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="44"/>
       <c r="H35" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J35" s="54"/>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="44"/>
       <c r="H36" s="62">
-        <v>50</v>
+        <v>43.75</v>
       </c>
       <c r="J36" s="54"/>
     </row>
@@ -2930,7 +2930,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="44"/>
       <c r="H37" s="62">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="J37" s="54"/>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="44"/>
       <c r="H38" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J38" s="54"/>
     </row>
@@ -2968,7 +2968,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="44"/>
       <c r="H39" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J39" s="54"/>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="44"/>
       <c r="H40" s="62">
-        <v>69.23</v>
+        <v>73.33</v>
       </c>
       <c r="J40" s="54"/>
     </row>
@@ -3006,7 +3006,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="44"/>
       <c r="H41" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J41" s="54"/>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="44"/>
       <c r="H42" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J42" s="54"/>
     </row>
@@ -3044,7 +3044,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="44"/>
       <c r="H43" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J43" s="54"/>
     </row>
@@ -3063,7 +3063,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="44"/>
       <c r="H44" s="62">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="J44" s="54"/>
     </row>
@@ -3082,7 +3082,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="44"/>
       <c r="H45" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J45" s="54"/>
     </row>
@@ -3101,7 +3101,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="44"/>
       <c r="H46" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J46" s="54"/>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="44"/>
       <c r="H47" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J47" s="54"/>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="44"/>
       <c r="H48" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J48" s="54"/>
     </row>
@@ -3158,7 +3158,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="45"/>
       <c r="H49" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J49" s="54"/>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="44"/>
       <c r="H50" s="62">
-        <v>85.71</v>
+        <v>81.25</v>
       </c>
       <c r="J50" s="54"/>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="44"/>
       <c r="H51" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J51" s="54"/>
     </row>
@@ -3215,7 +3215,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="44"/>
       <c r="H52" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J52" s="54"/>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="44"/>
       <c r="H53" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J53" s="54"/>
     </row>
@@ -3253,7 +3253,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="44"/>
       <c r="H54" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J54" s="54"/>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="44"/>
       <c r="H55" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J55" s="54"/>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="45"/>
       <c r="H56" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J56" s="54"/>
     </row>
@@ -3310,7 +3310,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="44"/>
       <c r="H57" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J57" s="54"/>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="44"/>
       <c r="H58" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J58" s="54"/>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="44"/>
       <c r="H59" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J59" s="54"/>
     </row>
@@ -3367,7 +3367,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="44"/>
       <c r="H60" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J60" s="54"/>
     </row>
@@ -3405,7 +3405,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="44"/>
       <c r="H62" s="62">
-        <v>64.290000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="J62" s="54"/>
     </row>
@@ -3424,7 +3424,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="44"/>
       <c r="H63" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J63" s="54"/>
     </row>
@@ -3443,7 +3443,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="44"/>
       <c r="H64" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J64" s="54"/>
     </row>
@@ -3462,7 +3462,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="44"/>
       <c r="H65" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J65" s="54"/>
     </row>
@@ -3481,7 +3481,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="44"/>
       <c r="H66" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J66" s="54"/>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="44"/>
       <c r="H67" s="62">
-        <v>64.290000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="J67" s="54"/>
     </row>
@@ -3519,7 +3519,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="44"/>
       <c r="H68" s="62">
-        <v>85.71</v>
+        <v>81.25</v>
       </c>
       <c r="J68" s="54"/>
     </row>
@@ -3538,7 +3538,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="45"/>
       <c r="H69" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J69" s="54"/>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="44"/>
       <c r="H70" s="62">
-        <v>92.86</v>
+        <v>87.5</v>
       </c>
       <c r="J70" s="54"/>
     </row>
@@ -3576,7 +3576,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="44"/>
       <c r="H71" s="62">
-        <v>85.71</v>
+        <v>81.25</v>
       </c>
       <c r="J71" s="54"/>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="44"/>
       <c r="H72" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J72" s="54"/>
     </row>
@@ -3614,7 +3614,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="44"/>
       <c r="H73" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J73" s="54"/>
     </row>
@@ -3633,7 +3633,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="45"/>
       <c r="H74" s="62">
-        <v>64.290000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="J74" s="54"/>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="45"/>
       <c r="H75" s="62">
-        <v>78.569999999999993</v>
+        <v>68.75</v>
       </c>
       <c r="J75" s="54"/>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="44"/>
       <c r="H76" s="62">
-        <v>64.290000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="J76" s="54"/>
     </row>
@@ -3690,7 +3690,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="44"/>
       <c r="H77" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J77" s="54"/>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="44"/>
       <c r="H78" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J78" s="54"/>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="44"/>
       <c r="H80" s="62">
-        <v>78.569999999999993</v>
+        <v>75</v>
       </c>
       <c r="J80" s="54"/>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="44"/>
       <c r="H81" s="62">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="J81" s="54"/>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="44"/>
       <c r="H82" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J82" s="54"/>
     </row>
@@ -3804,7 +3804,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="44"/>
       <c r="H83" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J83" s="54"/>
     </row>
@@ -3823,7 +3823,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="44"/>
       <c r="H84" s="62">
-        <v>85.71</v>
+        <v>81.25</v>
       </c>
       <c r="J84" s="54"/>
     </row>
@@ -3842,7 +3842,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="44"/>
       <c r="H85" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J85" s="54"/>
     </row>
@@ -3861,7 +3861,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="45"/>
       <c r="H86" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J86" s="54"/>
     </row>
@@ -3880,7 +3880,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="44"/>
       <c r="H87" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J87" s="54"/>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="44"/>
       <c r="H89" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J89" s="54"/>
     </row>
@@ -3937,7 +3937,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="44"/>
       <c r="H90" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J90" s="54"/>
     </row>
@@ -3956,7 +3956,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="44"/>
       <c r="H91" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J91" s="54"/>
     </row>
@@ -3975,7 +3975,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="44"/>
       <c r="H92" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J92" s="54"/>
     </row>
@@ -3994,7 +3994,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="45"/>
       <c r="H93" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J93" s="54"/>
     </row>
@@ -4013,7 +4013,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="44"/>
       <c r="H94" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J94" s="54"/>
     </row>
@@ -4032,7 +4032,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="44"/>
       <c r="H95" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J95" s="54"/>
     </row>
@@ -4051,7 +4051,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="44"/>
       <c r="H96" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J96" s="54"/>
     </row>
@@ -4070,7 +4070,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="44"/>
       <c r="H97" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J97" s="54"/>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="44"/>
       <c r="H98" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J98" s="54"/>
     </row>
@@ -4108,7 +4108,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="44"/>
       <c r="H99" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J99" s="54"/>
     </row>
@@ -4146,7 +4146,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="44"/>
       <c r="H101" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J101" s="54"/>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="45"/>
       <c r="H103" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J103" s="54"/>
     </row>
@@ -4203,7 +4203,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="44"/>
       <c r="H104" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J104" s="54"/>
     </row>
@@ -4222,7 +4222,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="44"/>
       <c r="H105" s="62">
-        <v>64.290000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="J105" s="54"/>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="44"/>
       <c r="H106" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J106" s="54"/>
     </row>
@@ -4260,7 +4260,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="44"/>
       <c r="H107" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J107" s="54"/>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="44"/>
       <c r="H108" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J108" s="54"/>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="44"/>
       <c r="H109" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J109" s="54"/>
     </row>
@@ -4317,7 +4317,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="44"/>
       <c r="H110" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J110" s="54"/>
     </row>
@@ -4336,7 +4336,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="44"/>
       <c r="H111" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J111" s="54"/>
     </row>
@@ -4374,7 +4374,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="44"/>
       <c r="H113" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J113" s="54"/>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="44"/>
       <c r="H114" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J114" s="54"/>
     </row>
@@ -4412,7 +4412,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="44"/>
       <c r="H115" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J115" s="54"/>
     </row>
@@ -4431,7 +4431,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="44"/>
       <c r="H116" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J116" s="54"/>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="44"/>
       <c r="H117" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J117" s="54"/>
     </row>
@@ -4469,7 +4469,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="44"/>
       <c r="H118" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J118" s="54"/>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="44"/>
       <c r="H119" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J119" s="54"/>
     </row>
@@ -4507,7 +4507,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="44"/>
       <c r="H120" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J120" s="54"/>
     </row>
@@ -4526,7 +4526,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="44"/>
       <c r="H121" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J121" s="54"/>
     </row>
@@ -4545,7 +4545,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="44"/>
       <c r="H122" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J122" s="54"/>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="44"/>
       <c r="H124" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J124" s="54"/>
     </row>
@@ -4602,7 +4602,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="44"/>
       <c r="H125" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J125" s="54"/>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="44"/>
       <c r="H126" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J126" s="54"/>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="44"/>
       <c r="H127" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J127" s="54"/>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="44"/>
       <c r="H128" s="62">
-        <v>57.14</v>
+        <v>56.25</v>
       </c>
       <c r="J128" s="54"/>
     </row>
@@ -4678,7 +4678,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="44"/>
       <c r="H129" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J129" s="54"/>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="44"/>
       <c r="H131" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J131" s="54"/>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="44"/>
       <c r="H132" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J132" s="54"/>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="44"/>
       <c r="H133" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J133" s="54"/>
     </row>
@@ -4773,7 +4773,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="44"/>
       <c r="H134" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J134" s="54"/>
     </row>
@@ -4792,7 +4792,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="44"/>
       <c r="H135" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J135" s="54"/>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="44"/>
       <c r="H136" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J136" s="54"/>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="44"/>
       <c r="H137" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J137" s="54"/>
     </row>
@@ -4868,7 +4868,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="46"/>
       <c r="H139" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J139" s="54"/>
     </row>
@@ -4887,7 +4887,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="47"/>
       <c r="H140" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J140" s="54"/>
     </row>
@@ -4906,7 +4906,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="43"/>
       <c r="H141" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J141" s="54"/>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="44"/>
       <c r="H142" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J142" s="54"/>
     </row>
@@ -4944,7 +4944,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="44"/>
       <c r="H143" s="62">
-        <v>14.29</v>
+        <v>12.5</v>
       </c>
       <c r="J143" s="54"/>
     </row>
@@ -4963,7 +4963,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="44"/>
       <c r="H144" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J144" s="54"/>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="44"/>
       <c r="H145" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J145" s="54"/>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="44"/>
       <c r="H146" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J146" s="54"/>
     </row>
@@ -5020,7 +5020,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="44"/>
       <c r="H147" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J147" s="54"/>
     </row>
@@ -5039,7 +5039,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="44"/>
       <c r="H148" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J148" s="54"/>
     </row>
@@ -5058,7 +5058,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="44"/>
       <c r="H149" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J149" s="54"/>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="44"/>
       <c r="H150" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J150" s="54"/>
     </row>
@@ -5096,7 +5096,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="44"/>
       <c r="H151" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J151" s="54"/>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="44"/>
       <c r="H152" s="62">
-        <v>78.569999999999993</v>
+        <v>75</v>
       </c>
       <c r="J152" s="54"/>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="44"/>
       <c r="H153" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J153" s="54"/>
     </row>
@@ -5153,7 +5153,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="44"/>
       <c r="H154" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J154" s="54"/>
     </row>
@@ -5172,7 +5172,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="44"/>
       <c r="H155" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J155" s="54"/>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="44"/>
       <c r="H156" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J156" s="54"/>
     </row>
@@ -5229,7 +5229,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="44"/>
       <c r="H158" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J158" s="54"/>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="44"/>
       <c r="H159" s="62">
-        <v>64.290000000000006</v>
+        <v>56.25</v>
       </c>
       <c r="J159" s="54"/>
     </row>
@@ -5267,7 +5267,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="44"/>
       <c r="H160" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J160" s="54"/>
     </row>
@@ -5286,7 +5286,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="44"/>
       <c r="H161" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J161" s="54"/>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="44"/>
       <c r="H162" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J162" s="54"/>
     </row>
@@ -5324,7 +5324,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="44"/>
       <c r="H163" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J163" s="54"/>
     </row>
@@ -5343,7 +5343,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="44"/>
       <c r="H164" s="62">
-        <v>7.1400000000000006</v>
+        <v>6.25</v>
       </c>
       <c r="J164" s="54"/>
     </row>
@@ -5362,7 +5362,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="44"/>
       <c r="H165" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J165" s="54"/>
     </row>
@@ -5381,7 +5381,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="44"/>
       <c r="H166" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J166" s="54"/>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="44"/>
       <c r="H168" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J168" s="54"/>
     </row>
@@ -5438,7 +5438,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="44"/>
       <c r="H169" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J169" s="54"/>
     </row>
@@ -5457,7 +5457,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="44"/>
       <c r="H170" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J170" s="54"/>
     </row>
@@ -5476,7 +5476,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="46"/>
       <c r="H171" s="62">
-        <v>78.569999999999993</v>
+        <v>75</v>
       </c>
       <c r="J171" s="54"/>
     </row>
@@ -5495,7 +5495,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="42"/>
       <c r="H172" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J172" s="54"/>
     </row>
@@ -5514,7 +5514,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="42"/>
       <c r="H173" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J173" s="54"/>
     </row>
@@ -5533,7 +5533,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="42"/>
       <c r="H174" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J174" s="54"/>
     </row>
@@ -5552,7 +5552,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="42"/>
       <c r="H175" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J175" s="54"/>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="42"/>
       <c r="H176" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J176" s="54"/>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="42"/>
       <c r="H177" s="62">
-        <v>57.14</v>
+        <v>56.25</v>
       </c>
       <c r="J177" s="54"/>
     </row>
@@ -5609,7 +5609,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="48"/>
       <c r="H178" s="62">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="J178" s="54"/>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
       <c r="H180" s="62">
-        <v>71.430000000000007</v>
+        <v>68.75</v>
       </c>
       <c r="J180" s="54"/>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="49"/>
       <c r="H181" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J181" s="54"/>
     </row>
@@ -5685,7 +5685,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="50"/>
       <c r="H182" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J182" s="54"/>
     </row>
@@ -5704,7 +5704,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="50"/>
       <c r="H183" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J183" s="54"/>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="50"/>
       <c r="H184" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J184" s="54"/>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="51"/>
       <c r="H185" s="62">
-        <v>78.569999999999993</v>
+        <v>75</v>
       </c>
       <c r="J185" s="54"/>
     </row>
@@ -5761,7 +5761,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="51"/>
       <c r="H186" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J186" s="54"/>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="51"/>
       <c r="H187" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J187" s="54"/>
     </row>
@@ -5799,7 +5799,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="48"/>
       <c r="H188" s="62">
-        <v>64.290000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="J188" s="54"/>
     </row>
@@ -5818,7 +5818,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="48"/>
       <c r="H189" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J189" s="54"/>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="48"/>
       <c r="H190" s="62">
-        <v>57.14</v>
+        <v>56.25</v>
       </c>
       <c r="J190" s="54"/>
     </row>
@@ -5856,7 +5856,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="48"/>
       <c r="H191" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J191" s="54"/>
     </row>
@@ -5875,7 +5875,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="48"/>
       <c r="H192" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J192" s="54"/>
     </row>
@@ -5894,7 +5894,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="48"/>
       <c r="H193" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J193" s="54"/>
     </row>
@@ -5913,7 +5913,7 @@
       <c r="F194" s="27"/>
       <c r="G194" s="48"/>
       <c r="H194" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J194" s="54"/>
     </row>
@@ -5932,7 +5932,7 @@
       <c r="F195" s="29"/>
       <c r="G195" s="48"/>
       <c r="H195" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J195" s="54"/>
     </row>
@@ -5951,7 +5951,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="48"/>
       <c r="H196" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J196" s="54"/>
     </row>
@@ -5970,7 +5970,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="48"/>
       <c r="H197" s="62">
-        <v>85.71</v>
+        <v>87.5</v>
       </c>
       <c r="J197" s="54"/>
     </row>
@@ -5989,7 +5989,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="48"/>
       <c r="H198" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J198" s="54"/>
     </row>
@@ -6008,7 +6008,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="48"/>
       <c r="H199" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J199" s="54"/>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="48"/>
       <c r="H200" s="62">
-        <v>92.86</v>
+        <v>93.75</v>
       </c>
       <c r="J200" s="54"/>
     </row>
@@ -6046,7 +6046,7 @@
       <c r="F201" s="37"/>
       <c r="G201" s="52"/>
       <c r="H201" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J201" s="54"/>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="53"/>
       <c r="H202" s="62">
-        <v>71.430000000000007</v>
+        <v>68.75</v>
       </c>
       <c r="J202" s="54"/>
     </row>
@@ -6084,7 +6084,7 @@
       <c r="F203" s="39"/>
       <c r="G203" s="53"/>
       <c r="H203" s="62">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="J203" s="54"/>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="53"/>
       <c r="H204" s="62">
-        <v>78.569999999999993</v>
+        <v>81.25</v>
       </c>
       <c r="J204" s="54"/>
     </row>
@@ -6122,7 +6122,7 @@
       <c r="F205" s="39"/>
       <c r="G205" s="53"/>
       <c r="H205" s="62">
-        <v>71.430000000000007</v>
+        <v>75</v>
       </c>
       <c r="J205" s="54"/>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="53"/>
       <c r="H206" s="62">
-        <v>7.1400000000000006</v>
+        <v>12.5</v>
       </c>
       <c r="J206" s="54"/>
     </row>
@@ -6296,6 +6296,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6439,15 +6448,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6455,13 +6455,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1750,7 +1750,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1895,7 +1895,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2209,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J187" sqref="J187"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2221,10 +2220,10 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2246,4048 +2245,3847 @@
       <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="54">
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="42"/>
-      <c r="H2" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
+      <c r="H2" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="55">
         <v>60</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="43"/>
-      <c r="H3" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+      <c r="H3" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>418</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="H4" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <v>40</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
+      <c r="H5" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="62">
-        <v>75</v>
-      </c>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
+      <c r="H6" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
+      <c r="H7" s="61">
+        <v>58.819999999999993</v>
+      </c>
+      <c r="M7">
+        <f>100*0.6471</f>
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>77</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
+      <c r="H8" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>63</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="44"/>
-      <c r="H9" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
+      <c r="H9" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>73</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
+      <c r="H10" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <v>40</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="44"/>
-      <c r="H11" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
+      <c r="H11" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>37</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J12" s="54"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
+      <c r="H12" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>91</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
+      <c r="H13" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>29</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J14" s="54"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
+      <c r="H14" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>35</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J15" s="54"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
+      <c r="H15" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>35</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J16" s="54"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="H16" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="44"/>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <v>0</v>
       </c>
-      <c r="J17" s="54"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <v>43</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+      <c r="H18" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>44</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+      <c r="H19" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>59</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="H20" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>42</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="62">
-        <v>75</v>
-      </c>
-      <c r="J21" s="54"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+      <c r="H21" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
+      <c r="H22" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>55</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
+      <c r="H23" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <v>41</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="62">
-        <v>43.75</v>
-      </c>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="H24" s="61">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>41</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="62">
-        <v>50</v>
-      </c>
-      <c r="J25" s="54"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
+      <c r="H25" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>46</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="44"/>
-      <c r="H26" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+      <c r="H26" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>26</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
+      <c r="H27" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>57</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J28" s="54"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
+      <c r="H28" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>43</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J29" s="54"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
+      <c r="H29" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <v>49</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="44"/>
-      <c r="H30" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
+      <c r="H30" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>58</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J31" s="54"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75">
+      <c r="H31" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>10</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="45"/>
-      <c r="H32" s="62">
-        <v>43.75</v>
-      </c>
-      <c r="J32" s="54"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
+      <c r="H32" s="61">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>75</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
+      <c r="H33" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>59</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="44"/>
-      <c r="H34" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
+      <c r="H34" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <v>49</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J35" s="54"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75">
+      <c r="H35" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="54">
         <v>39</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="44"/>
-      <c r="H36" s="62">
-        <v>43.75</v>
-      </c>
-      <c r="J36" s="54"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
+      <c r="H36" s="61">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="54">
         <v>31</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="62">
-        <v>50</v>
-      </c>
-      <c r="J37" s="54"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75">
+      <c r="H37" s="61">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <v>87</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="44"/>
-      <c r="H38" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J38" s="54"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
+      <c r="H38" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="54">
         <v>74</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="44"/>
-      <c r="H39" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J39" s="54"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
+      <c r="H39" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>61</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="44"/>
-      <c r="H40" s="62">
-        <v>73.33</v>
-      </c>
-      <c r="J40" s="54"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75">
+      <c r="H40" s="61">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="54">
         <v>55</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J41" s="54"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
+      <c r="H41" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="54">
         <v>47</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="44"/>
-      <c r="H42" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J42" s="54"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75">
+      <c r="H42" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="54">
         <v>27</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J43" s="54"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
+      <c r="H43" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="54">
         <v>33</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="62">
-        <v>50</v>
-      </c>
-      <c r="J44" s="54"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75">
+      <c r="H44" s="61">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="54">
         <v>78</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J45" s="54"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
+      <c r="H45" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="54">
         <v>37</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75">
+      <c r="H46" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="54">
         <v>52</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J47" s="54"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75">
+      <c r="H47" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="54">
         <v>60</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J48" s="54"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
+      <c r="H48" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="54">
         <v>59</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
+      <c r="H49" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="54">
         <v>69</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J50" s="54"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
+      <c r="H50" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <v>69</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="44"/>
-      <c r="H51" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J51" s="54"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
+      <c r="H51" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52" s="54">
         <v>73</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="44"/>
-      <c r="H52" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J52" s="54"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
+      <c r="H52" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="54">
         <v>82</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
       <c r="G53" s="44"/>
-      <c r="H53" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J53" s="54"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75">
+      <c r="H53" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="54">
         <v>34</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J54" s="54"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
+      <c r="H54" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="55">
+      <c r="C55" s="54">
         <v>64</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="44"/>
-      <c r="H55" s="62">
-        <v>75</v>
-      </c>
-      <c r="J55" s="54"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
+      <c r="H55" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="55">
+      <c r="C56" s="54">
         <v>63</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="45"/>
-      <c r="H56" s="62">
-        <v>75</v>
-      </c>
-      <c r="J56" s="54"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
+      <c r="H56" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57" s="54">
         <v>64</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="44"/>
-      <c r="H57" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J57" s="54"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
+      <c r="H57" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="54">
         <v>73</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J58" s="54"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75">
+      <c r="H58" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="54">
         <v>68</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
       <c r="G59" s="44"/>
-      <c r="H59" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J59" s="54"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
+      <c r="H59" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="54">
         <v>68</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
       <c r="G60" s="44"/>
-      <c r="H60" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J60" s="54"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75">
+      <c r="H60" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
       <c r="G61" s="44"/>
-      <c r="H61" s="62">
+      <c r="H61" s="61">
         <v>0</v>
       </c>
-      <c r="J61" s="54"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75">
+    </row>
+    <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="54">
         <v>45</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
       <c r="G62" s="44"/>
-      <c r="H62" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J62" s="54"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
+      <c r="H62" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63" s="54">
         <v>41</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="62">
-        <v>75</v>
-      </c>
-      <c r="J63" s="54"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75">
+      <c r="H63" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64" s="54">
         <v>30</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J64" s="54"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75">
+      <c r="H64" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65" s="54">
         <v>52</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
       <c r="G65" s="44"/>
-      <c r="H65" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J65" s="54"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75">
+      <c r="H65" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="55">
+      <c r="C66" s="54">
         <v>83</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
       <c r="G66" s="44"/>
-      <c r="H66" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J66" s="54"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
+      <c r="H66" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="55">
+      <c r="C67" s="54">
         <v>60</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
       <c r="G67" s="44"/>
-      <c r="H67" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J67" s="54"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
+      <c r="H67" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="55">
+      <c r="C68" s="54">
         <v>66</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
       <c r="G68" s="44"/>
-      <c r="H68" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J68" s="54"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75">
+      <c r="H68" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="55">
+      <c r="C69" s="54">
         <v>67</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J69" s="54"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
+      <c r="H69" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70" s="54">
         <v>82</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
       <c r="G70" s="44"/>
-      <c r="H70" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J70" s="54"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75">
+      <c r="H70" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="55">
+      <c r="C71" s="54">
         <v>51</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="44"/>
-      <c r="H71" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J71" s="54"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75">
+      <c r="H71" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72" s="54">
         <v>96</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
       <c r="G72" s="44"/>
-      <c r="H72" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J72" s="54"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
+      <c r="H72" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="54">
         <v>61</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
       <c r="G73" s="44"/>
-      <c r="H73" s="62">
-        <v>75</v>
-      </c>
-      <c r="J73" s="54"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
+      <c r="H73" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="54">
         <v>0</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
       <c r="G74" s="45"/>
-      <c r="H74" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J74" s="54"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
+      <c r="H74" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="54">
         <v>66</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
       <c r="G75" s="45"/>
-      <c r="H75" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J75" s="54"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
+      <c r="H75" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="54">
         <v>28</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
       <c r="G76" s="44"/>
-      <c r="H76" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J76" s="54"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
+      <c r="H76" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="54">
         <v>58</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
       <c r="G77" s="44"/>
-      <c r="H77" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J77" s="54"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75">
+      <c r="H77" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="54">
         <v>52</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
       <c r="G78" s="44"/>
-      <c r="H78" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J78" s="54"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
+      <c r="H78" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
       <c r="G79" s="44"/>
-      <c r="H79" s="62">
+      <c r="H79" s="61">
         <v>0</v>
       </c>
-      <c r="J79" s="54"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75">
+    </row>
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <v>34</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
       <c r="G80" s="44"/>
-      <c r="H80" s="62">
-        <v>75</v>
-      </c>
-      <c r="J80" s="54"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75">
+      <c r="H80" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="54">
         <v>72</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
       <c r="G81" s="44"/>
-      <c r="H81" s="62">
-        <v>50</v>
-      </c>
-      <c r="J81" s="54"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75">
+      <c r="H81" s="61">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="54">
         <v>64</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
       <c r="G82" s="44"/>
-      <c r="H82" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J82" s="54"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75">
+      <c r="H82" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83" s="54">
         <v>44</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
       <c r="G83" s="44"/>
-      <c r="H83" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J83" s="54"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75">
+      <c r="H83" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="55">
+      <c r="C84" s="54">
         <v>16</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
       <c r="G84" s="44"/>
-      <c r="H84" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J84" s="54"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
+      <c r="H84" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="55">
+      <c r="C85" s="54">
         <v>37</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
       <c r="G85" s="44"/>
-      <c r="H85" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J85" s="54"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75">
+      <c r="H85" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="55">
+      <c r="C86" s="54">
         <v>75</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J86" s="54"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75">
+      <c r="H86" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="54">
         <v>57</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
       <c r="G87" s="44"/>
-      <c r="H87" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J87" s="54"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75">
+      <c r="H87" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
       <c r="G88" s="44"/>
-      <c r="H88" s="62">
+      <c r="H88" s="61">
         <v>0</v>
       </c>
-      <c r="J88" s="54"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75">
+    </row>
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="55">
+      <c r="C89" s="54">
         <v>57</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
       <c r="G89" s="44"/>
-      <c r="H89" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J89" s="54"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75">
+      <c r="H89" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="55">
+      <c r="C90" s="54">
         <v>70</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
       <c r="G90" s="44"/>
-      <c r="H90" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J90" s="54"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75">
+      <c r="H90" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="55">
+      <c r="C91" s="54">
         <v>87</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
       <c r="G91" s="44"/>
-      <c r="H91" s="62">
-        <v>75</v>
-      </c>
-      <c r="J91" s="54"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75">
+      <c r="H91" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="55">
+      <c r="C92" s="54">
         <v>34</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
       <c r="G92" s="44"/>
-      <c r="H92" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J92" s="54"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75">
+      <c r="H92" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="55">
+      <c r="C93" s="54">
         <v>57</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
       <c r="G93" s="45"/>
-      <c r="H93" s="62">
-        <v>75</v>
-      </c>
-      <c r="J93" s="54"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75">
+      <c r="H93" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94" s="54">
         <v>37</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
       <c r="G94" s="44"/>
-      <c r="H94" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J94" s="54"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75">
+      <c r="H94" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="55">
+      <c r="C95" s="54">
         <v>85</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
       <c r="G95" s="44"/>
-      <c r="H95" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J95" s="54"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75">
+      <c r="H95" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="55">
+      <c r="C96" s="54">
         <v>29</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
       <c r="G96" s="44"/>
-      <c r="H96" s="62">
-        <v>75</v>
-      </c>
-      <c r="J96" s="54"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75">
+      <c r="H96" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="55">
+      <c r="C97" s="54">
         <v>44</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
       <c r="G97" s="44"/>
-      <c r="H97" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J97" s="54"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75">
+      <c r="H97" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="55">
+      <c r="C98" s="54">
         <v>84</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
       <c r="G98" s="44"/>
-      <c r="H98" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J98" s="54"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75">
+      <c r="H98" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="55">
+      <c r="C99" s="54">
         <v>62</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
       <c r="G99" s="44"/>
-      <c r="H99" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J99" s="54"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75">
+      <c r="H99" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
       <c r="G100" s="44"/>
-      <c r="H100" s="62">
+      <c r="H100" s="61">
         <v>0</v>
       </c>
-      <c r="J100" s="54"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75">
+    </row>
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="30" t="s">
         <v>106</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="55">
+      <c r="C101" s="54">
         <v>72</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
       <c r="G101" s="44"/>
-      <c r="H101" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J101" s="54"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75">
+      <c r="H101" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="55">
+      <c r="C102" s="54">
         <v>83</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
       <c r="G102" s="44"/>
-      <c r="H102" s="62">
+      <c r="H102" s="61">
         <v>100</v>
       </c>
-      <c r="J102" s="54"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75">
+    </row>
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="55">
+      <c r="C103" s="54">
         <v>25</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
       <c r="G103" s="45"/>
-      <c r="H103" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J103" s="54"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75">
+      <c r="H103" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="55">
+      <c r="C104" s="54">
         <v>14</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
       <c r="G104" s="44"/>
-      <c r="H104" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J104" s="54"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75">
+      <c r="H104" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="55">
+      <c r="C105" s="54">
         <v>75</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
       <c r="G105" s="44"/>
-      <c r="H105" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J105" s="54"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75">
+      <c r="H105" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="55">
+      <c r="C106" s="54">
         <v>62</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="44"/>
-      <c r="H106" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J106" s="54"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75">
+      <c r="H106" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="55">
+      <c r="C107" s="54">
         <v>94</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
       <c r="G107" s="44"/>
-      <c r="H107" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J107" s="54"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75">
+      <c r="H107" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="30" t="s">
         <v>113</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="55">
+      <c r="C108" s="54">
         <v>48</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
       <c r="G108" s="44"/>
-      <c r="H108" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J108" s="54"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75">
+      <c r="H108" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="55">
+      <c r="C109" s="54">
         <v>43</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
       <c r="G109" s="44"/>
-      <c r="H109" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J109" s="54"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75">
+      <c r="H109" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="55">
+      <c r="C110" s="54">
         <v>78</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
       <c r="G110" s="44"/>
-      <c r="H110" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J110" s="54"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75">
+      <c r="H110" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="55">
+      <c r="C111" s="54">
         <v>57</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
       <c r="G111" s="44"/>
-      <c r="H111" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J111" s="54"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75">
+      <c r="H111" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="55">
+      <c r="C112" s="54">
         <v>92</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
       <c r="G112" s="44"/>
-      <c r="H112" s="62">
+      <c r="H112" s="61">
         <v>100</v>
       </c>
-      <c r="J112" s="54"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75">
+    </row>
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="55">
+      <c r="C113" s="54">
         <v>89</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
       <c r="G113" s="44"/>
-      <c r="H113" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J113" s="54"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75">
+      <c r="H113" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="30" t="s">
         <v>119</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="55">
+      <c r="C114" s="54">
         <v>75</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
       <c r="G114" s="44"/>
-      <c r="H114" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J114" s="54"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75">
+      <c r="H114" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="55">
+      <c r="C115" s="54">
         <v>76</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
       <c r="G115" s="44"/>
-      <c r="H115" s="62">
-        <v>75</v>
-      </c>
-      <c r="J115" s="54"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75">
+      <c r="H115" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="55">
+      <c r="C116" s="54">
         <v>24</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
       <c r="G116" s="44"/>
-      <c r="H116" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J116" s="54"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75">
+      <c r="H116" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="30" t="s">
         <v>122</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="55">
+      <c r="C117" s="54">
         <v>31</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
       <c r="G117" s="44"/>
-      <c r="H117" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J117" s="54"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75">
+      <c r="H117" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="55">
+      <c r="C118" s="54">
         <v>61</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
       <c r="G118" s="44"/>
-      <c r="H118" s="62">
-        <v>75</v>
-      </c>
-      <c r="J118" s="54"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75">
+      <c r="H118" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="55">
+      <c r="C119" s="54">
         <v>61</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
       <c r="G119" s="44"/>
-      <c r="H119" s="62">
-        <v>75</v>
-      </c>
-      <c r="J119" s="54"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75">
+      <c r="H119" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="30" t="s">
         <v>125</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="55">
+      <c r="C120" s="54">
         <v>72</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
       <c r="G120" s="44"/>
-      <c r="H120" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J120" s="54"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75">
+      <c r="H120" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="55">
+      <c r="C121" s="54">
         <v>75</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
       <c r="G121" s="44"/>
-      <c r="H121" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J121" s="54"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75">
+      <c r="H121" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="30" t="s">
         <v>127</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="55">
+      <c r="C122" s="54">
         <v>77</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
       <c r="G122" s="44"/>
-      <c r="H122" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J122" s="54"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75">
+      <c r="H122" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="30" t="s">
         <v>128</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="55">
+      <c r="C123" s="54">
         <v>78</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
       <c r="G123" s="44"/>
-      <c r="H123" s="62">
+      <c r="H123" s="61">
         <v>100</v>
       </c>
-      <c r="J123" s="54"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75">
+    </row>
+    <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="55">
+      <c r="C124" s="54">
         <v>41</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
       <c r="G124" s="44"/>
-      <c r="H124" s="62">
-        <v>75</v>
-      </c>
-      <c r="J124" s="54"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75">
+      <c r="H124" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="55">
+      <c r="C125" s="54">
         <v>28</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
       <c r="G125" s="44"/>
-      <c r="H125" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J125" s="54"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75">
+      <c r="H125" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="55">
+      <c r="C126" s="54">
         <v>71</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
       <c r="G126" s="44"/>
-      <c r="H126" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J126" s="54"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75">
+      <c r="H126" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="30" t="s">
         <v>132</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="55">
+      <c r="C127" s="54">
         <v>41</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
       <c r="G127" s="44"/>
-      <c r="H127" s="62">
-        <v>75</v>
-      </c>
-      <c r="J127" s="54"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75">
+      <c r="H127" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="30" t="s">
         <v>133</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="55">
+      <c r="C128" s="54">
         <v>43</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
       <c r="G128" s="44"/>
-      <c r="H128" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J128" s="54"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75">
+      <c r="H128" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="30" t="s">
         <v>134</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="55">
+      <c r="C129" s="54">
         <v>50</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
       <c r="G129" s="44"/>
-      <c r="H129" s="62">
-        <v>75</v>
-      </c>
-      <c r="J129" s="54"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75">
+      <c r="H129" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="30" t="s">
         <v>135</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="55">
+      <c r="C130" s="54">
         <v>77</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
       <c r="G130" s="44"/>
-      <c r="H130" s="62">
+      <c r="H130" s="61">
         <v>100</v>
       </c>
-      <c r="J130" s="54"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75">
+    </row>
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="55">
+      <c r="C131" s="54">
         <v>86</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
       <c r="G131" s="44"/>
-      <c r="H131" s="62">
-        <v>75</v>
-      </c>
-      <c r="J131" s="54"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75">
+      <c r="H131" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="30" t="s">
         <v>137</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="55">
+      <c r="C132" s="54">
         <v>49</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
       <c r="G132" s="44"/>
-      <c r="H132" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J132" s="54"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75">
+      <c r="H132" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="55">
+      <c r="C133" s="54">
         <v>41</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
       <c r="G133" s="44"/>
-      <c r="H133" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J133" s="54"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75">
+      <c r="H133" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="55">
+      <c r="C134" s="54">
         <v>25</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
       <c r="G134" s="44"/>
-      <c r="H134" s="62">
-        <v>75</v>
-      </c>
-      <c r="J134" s="54"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75">
+      <c r="H134" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="55">
+      <c r="C135" s="54">
         <v>54</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
       <c r="G135" s="44"/>
-      <c r="H135" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J135" s="54"/>
-    </row>
-    <row r="136" spans="1:10" ht="15.75">
+      <c r="H135" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="30" t="s">
         <v>141</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="55">
+      <c r="C136" s="54">
         <v>37</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
       <c r="G136" s="44"/>
-      <c r="H136" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J136" s="54"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75">
+      <c r="H136" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="55">
+      <c r="C137" s="54">
         <v>54</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
       <c r="G137" s="44"/>
-      <c r="H137" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J137" s="54"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75">
+      <c r="H137" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="55" t="s">
+      <c r="C138" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
       <c r="G138" s="44"/>
-      <c r="H138" s="62">
+      <c r="H138" s="61">
         <v>0</v>
       </c>
-      <c r="J138" s="54"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75">
+    </row>
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="30" t="s">
         <v>144</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="55">
+      <c r="C139" s="54">
         <v>56</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
       <c r="G139" s="46"/>
-      <c r="H139" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J139" s="54"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75">
+      <c r="H139" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="55">
+      <c r="C140" s="54">
         <v>84</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
       <c r="G140" s="47"/>
-      <c r="H140" s="62">
-        <v>75</v>
-      </c>
-      <c r="J140" s="54"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75">
+      <c r="H140" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="55">
+      <c r="C141" s="54">
         <v>52</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
       <c r="G141" s="43"/>
-      <c r="H141" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J141" s="54"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75">
+      <c r="H141" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="30" t="s">
         <v>147</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="55">
+      <c r="C142" s="54">
         <v>20</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
       <c r="G142" s="44"/>
-      <c r="H142" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J142" s="54"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75">
+      <c r="H142" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="55" t="s">
+      <c r="C143" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
       <c r="G143" s="44"/>
-      <c r="H143" s="62">
-        <v>12.5</v>
-      </c>
-      <c r="J143" s="54"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75">
+      <c r="H143" s="61">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="55">
+      <c r="C144" s="54">
         <v>66</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
       <c r="G144" s="44"/>
-      <c r="H144" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J144" s="54"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75">
+      <c r="H144" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="30" t="s">
         <v>150</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="55">
+      <c r="C145" s="54">
         <v>49</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
       <c r="G145" s="44"/>
-      <c r="H145" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J145" s="54"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75">
+      <c r="H145" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="30" t="s">
         <v>151</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="55">
+      <c r="C146" s="54">
         <v>64</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
       <c r="G146" s="44"/>
-      <c r="H146" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J146" s="54"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75">
+      <c r="H146" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="30" t="s">
         <v>152</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="55">
+      <c r="C147" s="54">
         <v>54</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
       <c r="G147" s="44"/>
-      <c r="H147" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J147" s="54"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75">
+      <c r="H147" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="30" t="s">
         <v>153</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="55">
+      <c r="C148" s="54">
         <v>84</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
       <c r="G148" s="44"/>
-      <c r="H148" s="62">
-        <v>75</v>
-      </c>
-      <c r="J148" s="54"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75">
+      <c r="H148" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="30" t="s">
         <v>154</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="55">
+      <c r="C149" s="54">
         <v>61</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
       <c r="G149" s="44"/>
-      <c r="H149" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J149" s="54"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75">
+      <c r="H149" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="55">
+      <c r="C150" s="54">
         <v>76</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
       <c r="G150" s="44"/>
-      <c r="H150" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J150" s="54"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75">
+      <c r="H150" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="55">
+      <c r="C151" s="54">
         <v>81</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
       <c r="G151" s="44"/>
-      <c r="H151" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J151" s="54"/>
-    </row>
-    <row r="152" spans="1:10" ht="15.75">
+      <c r="H151" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="55">
+      <c r="C152" s="54">
         <v>53</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
       <c r="G152" s="44"/>
-      <c r="H152" s="62">
-        <v>75</v>
-      </c>
-      <c r="J152" s="54"/>
-    </row>
-    <row r="153" spans="1:10" ht="15.75">
+      <c r="H152" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="30" t="s">
         <v>158</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="55">
+      <c r="C153" s="54">
         <v>62</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
       <c r="G153" s="44"/>
-      <c r="H153" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J153" s="54"/>
-    </row>
-    <row r="154" spans="1:10" ht="15.75">
+      <c r="H153" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="55">
+      <c r="C154" s="54">
         <v>69</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
       <c r="G154" s="44"/>
-      <c r="H154" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J154" s="54"/>
-    </row>
-    <row r="155" spans="1:10" ht="15.75">
+      <c r="H154" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="55">
+      <c r="C155" s="54">
         <v>74</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
       <c r="G155" s="44"/>
-      <c r="H155" s="62">
-        <v>75</v>
-      </c>
-      <c r="J155" s="54"/>
-    </row>
-    <row r="156" spans="1:10" ht="15.75">
+      <c r="H155" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="30" t="s">
         <v>161</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="55">
+      <c r="C156" s="54">
         <v>52</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
       <c r="G156" s="44"/>
-      <c r="H156" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J156" s="54"/>
-    </row>
-    <row r="157" spans="1:10" ht="15.75">
+      <c r="H156" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="30" t="s">
         <v>162</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="55" t="s">
+      <c r="C157" s="54" t="s">
         <v>419</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
       <c r="G157" s="44"/>
-      <c r="H157" s="62">
+      <c r="H157" s="61">
         <v>0</v>
       </c>
-      <c r="J157" s="54"/>
-    </row>
-    <row r="158" spans="1:10" ht="15.75">
+    </row>
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="30" t="s">
         <v>163</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="55">
+      <c r="C158" s="54">
         <v>26</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
       <c r="G158" s="44"/>
-      <c r="H158" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J158" s="54"/>
-    </row>
-    <row r="159" spans="1:10" ht="15.75">
+      <c r="H158" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="55">
+      <c r="C159" s="54">
         <v>51</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
       <c r="G159" s="44"/>
-      <c r="H159" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J159" s="54"/>
-    </row>
-    <row r="160" spans="1:10" ht="15.75">
+      <c r="H159" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="30" t="s">
         <v>165</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="55">
+      <c r="C160" s="54">
         <v>35</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
       <c r="G160" s="44"/>
-      <c r="H160" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J160" s="54"/>
-    </row>
-    <row r="161" spans="1:10" ht="15.75">
+      <c r="H160" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="30" t="s">
         <v>166</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="55">
+      <c r="C161" s="54">
         <v>62</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
       <c r="G161" s="44"/>
-      <c r="H161" s="62">
-        <v>75</v>
-      </c>
-      <c r="J161" s="54"/>
-    </row>
-    <row r="162" spans="1:10" ht="15.75">
+      <c r="H161" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="55">
+      <c r="C162" s="54">
         <v>63</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
       <c r="G162" s="44"/>
-      <c r="H162" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J162" s="54"/>
-    </row>
-    <row r="163" spans="1:10" ht="15.75">
+      <c r="H162" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="55">
+      <c r="C163" s="54">
         <v>73</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
       <c r="G163" s="44"/>
-      <c r="H163" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J163" s="54"/>
-    </row>
-    <row r="164" spans="1:10" ht="15.75">
+      <c r="H163" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="30" t="s">
         <v>169</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="55" t="s">
+      <c r="C164" s="54" t="s">
         <v>418</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
       <c r="G164" s="44"/>
-      <c r="H164" s="62">
-        <v>6.25</v>
-      </c>
-      <c r="J164" s="54"/>
-    </row>
-    <row r="165" spans="1:10" ht="15.75">
+      <c r="H164" s="61">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="30" t="s">
         <v>170</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="55">
+      <c r="C165" s="54">
         <v>53</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
       <c r="G165" s="44"/>
-      <c r="H165" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J165" s="54"/>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="H165" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="31" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="55">
+      <c r="C166" s="54">
         <v>64</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
       <c r="G166" s="44"/>
-      <c r="H166" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J166" s="54"/>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="H166" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="55" t="s">
+      <c r="C167" s="54" t="s">
         <v>418</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
       <c r="G167" s="44"/>
-      <c r="H167" s="62">
+      <c r="H167" s="61">
         <v>0</v>
       </c>
-      <c r="J167" s="54"/>
-    </row>
-    <row r="168" spans="1:10">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="31" t="s">
         <v>173</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="55">
+      <c r="C168" s="54">
         <v>79</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
       <c r="G168" s="44"/>
-      <c r="H168" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J168" s="54"/>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="H168" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="31" t="s">
         <v>174</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="55">
+      <c r="C169" s="54">
         <v>46</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
       <c r="G169" s="44"/>
-      <c r="H169" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J169" s="54"/>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="H169" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="31" t="s">
         <v>175</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="55">
+      <c r="C170" s="54">
         <v>79</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
       <c r="G170" s="44"/>
-      <c r="H170" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J170" s="54"/>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="H170" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B171" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="55">
+      <c r="C171" s="54">
         <v>75</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
       <c r="G171" s="46"/>
-      <c r="H171" s="62">
-        <v>75</v>
-      </c>
-      <c r="J171" s="54"/>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="H171" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="31" t="s">
         <v>177</v>
       </c>
       <c r="B172" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="55">
+      <c r="C172" s="54">
         <v>62</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
       <c r="G172" s="42"/>
-      <c r="H172" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J172" s="54"/>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="H172" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="31" t="s">
         <v>178</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="55">
+      <c r="C173" s="54">
         <v>35</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
       <c r="G173" s="42"/>
-      <c r="H173" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J173" s="54"/>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="H173" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="55">
+      <c r="C174" s="54">
         <v>59</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
       <c r="G174" s="42"/>
-      <c r="H174" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J174" s="54"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="H174" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="55">
+      <c r="C175" s="54">
         <v>73</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
       <c r="G175" s="42"/>
-      <c r="H175" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J175" s="54"/>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="H175" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="55">
+      <c r="C176" s="54">
         <v>55</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
       <c r="G176" s="42"/>
-      <c r="H176" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J176" s="54"/>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="H176" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="31" t="s">
         <v>182</v>
       </c>
       <c r="B177" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="55" t="s">
+      <c r="C177" s="54" t="s">
         <v>418</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="13"/>
       <c r="F177" s="3"/>
       <c r="G177" s="42"/>
-      <c r="H177" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J177" s="54"/>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="H177" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B178" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="55">
+      <c r="C178" s="54">
         <v>0</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="13"/>
       <c r="F178" s="1"/>
       <c r="G178" s="48"/>
-      <c r="H178" s="62">
-        <v>62.5</v>
-      </c>
-      <c r="J178" s="54"/>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="H178" s="61">
+        <v>58.819999999999993</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="31" t="s">
         <v>184</v>
       </c>
       <c r="B179" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="57" t="s">
+      <c r="C179" s="56" t="s">
         <v>419</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="16"/>
       <c r="F179" s="17"/>
       <c r="G179" s="16"/>
-      <c r="H179" s="62">
+      <c r="H179" s="61">
         <v>0</v>
       </c>
-      <c r="J179" s="54"/>
-    </row>
-    <row r="180" spans="1:10">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B180" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="58">
+      <c r="C180" s="57">
         <v>50</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="16"/>
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
-      <c r="H180" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J180" s="54"/>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="H180" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="31" t="s">
         <v>186</v>
       </c>
       <c r="B181" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="58">
+      <c r="C181" s="57">
         <v>82</v>
       </c>
       <c r="D181" s="19"/>
       <c r="E181" s="5"/>
       <c r="F181" s="20"/>
       <c r="G181" s="49"/>
-      <c r="H181" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J181" s="54"/>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="H181" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="31" t="s">
         <v>187</v>
       </c>
       <c r="B182" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="58">
+      <c r="C182" s="57">
         <v>33</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="22"/>
       <c r="F182" s="1"/>
       <c r="G182" s="50"/>
-      <c r="H182" s="62">
-        <v>75</v>
-      </c>
-      <c r="J182" s="54"/>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="H182" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="31" t="s">
         <v>188</v>
       </c>
       <c r="B183" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="58">
+      <c r="C183" s="57">
         <v>49</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="15"/>
       <c r="F183" s="1"/>
       <c r="G183" s="50"/>
-      <c r="H183" s="62">
-        <v>75</v>
-      </c>
-      <c r="J183" s="54"/>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="H183" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B184" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="58">
+      <c r="C184" s="57">
         <v>45</v>
       </c>
       <c r="D184" s="23"/>
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
       <c r="G184" s="50"/>
-      <c r="H184" s="62">
-        <v>75</v>
-      </c>
-      <c r="J184" s="54"/>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="H184" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B185" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="58">
+      <c r="C185" s="57">
         <v>57</v>
       </c>
       <c r="D185" s="24"/>
       <c r="E185" s="18"/>
       <c r="F185" s="1"/>
       <c r="G185" s="51"/>
-      <c r="H185" s="62">
-        <v>75</v>
-      </c>
-      <c r="J185" s="54"/>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="H185" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B186" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="58">
+      <c r="C186" s="57">
         <v>51</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="18"/>
       <c r="F186" s="1"/>
       <c r="G186" s="51"/>
-      <c r="H186" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J186" s="54"/>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="H186" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B187" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="58">
+      <c r="C187" s="57">
         <v>79</v>
       </c>
       <c r="D187" s="24"/>
       <c r="E187" s="22"/>
       <c r="F187" s="3"/>
       <c r="G187" s="51"/>
-      <c r="H187" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J187" s="54"/>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="H187" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="31" t="s">
         <v>193</v>
       </c>
       <c r="B188" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="58">
+      <c r="C188" s="57">
         <v>55</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" s="22"/>
       <c r="F188" s="3"/>
       <c r="G188" s="48"/>
-      <c r="H188" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J188" s="54"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75">
+      <c r="H188" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="58">
+      <c r="C189" s="57">
         <v>66</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="18"/>
       <c r="F189" s="1"/>
       <c r="G189" s="48"/>
-      <c r="H189" s="62">
-        <v>75</v>
-      </c>
-      <c r="J189" s="54"/>
-    </row>
-    <row r="190" spans="1:10" ht="15.75">
+      <c r="H189" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="30" t="s">
         <v>195</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="58">
+      <c r="C190" s="57">
         <v>16</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
       <c r="G190" s="48"/>
-      <c r="H190" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J190" s="54"/>
-    </row>
-    <row r="191" spans="1:10" ht="15.75">
+      <c r="H190" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="30" t="s">
         <v>196</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="58">
+      <c r="C191" s="57">
         <v>67</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="18"/>
       <c r="F191" s="3"/>
       <c r="G191" s="48"/>
-      <c r="H191" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J191" s="54"/>
-    </row>
-    <row r="192" spans="1:10" ht="15.75">
+      <c r="H191" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15.75">
       <c r="A192" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="58">
+      <c r="C192" s="57">
         <v>68</v>
       </c>
       <c r="D192" s="24"/>
       <c r="E192" s="15"/>
       <c r="F192" s="3"/>
       <c r="G192" s="48"/>
-      <c r="H192" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J192" s="54"/>
-    </row>
-    <row r="193" spans="1:10" ht="15.75">
+      <c r="H192" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75">
       <c r="A193" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="58">
+      <c r="C193" s="57">
         <v>40</v>
       </c>
       <c r="D193" s="23"/>
       <c r="E193" s="25"/>
       <c r="F193" s="1"/>
       <c r="G193" s="48"/>
-      <c r="H193" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J193" s="54"/>
-    </row>
-    <row r="194" spans="1:10" ht="15.75">
+      <c r="H193" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75">
       <c r="A194" s="30" t="s">
         <v>199</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="58">
+      <c r="C194" s="57">
         <v>74</v>
       </c>
       <c r="D194" s="26"/>
       <c r="E194" s="14"/>
       <c r="F194" s="27"/>
       <c r="G194" s="48"/>
-      <c r="H194" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J194" s="54"/>
-    </row>
-    <row r="195" spans="1:10" ht="15.75">
+      <c r="H194" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75">
       <c r="A195" s="30" t="s">
         <v>200</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="58">
+      <c r="C195" s="57">
         <v>58</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="18"/>
       <c r="F195" s="29"/>
       <c r="G195" s="48"/>
-      <c r="H195" s="62">
-        <v>75</v>
-      </c>
-      <c r="J195" s="54"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75">
+      <c r="H195" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75">
       <c r="A196" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="58">
+      <c r="C196" s="57">
         <v>54</v>
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="22"/>
       <c r="F196" s="3"/>
       <c r="G196" s="48"/>
-      <c r="H196" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J196" s="54"/>
-    </row>
-    <row r="197" spans="1:10" ht="15.75">
+      <c r="H196" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75">
       <c r="A197" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="58">
+      <c r="C197" s="57">
         <v>64</v>
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="22"/>
       <c r="F197" s="3"/>
       <c r="G197" s="48"/>
-      <c r="H197" s="62">
-        <v>87.5</v>
-      </c>
-      <c r="J197" s="54"/>
-    </row>
-    <row r="198" spans="1:10" ht="15.75">
+      <c r="H197" s="61">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75">
       <c r="A198" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="58">
+      <c r="C198" s="57">
         <v>89</v>
       </c>
       <c r="D198" s="23"/>
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
       <c r="G198" s="48"/>
-      <c r="H198" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J198" s="54"/>
-    </row>
-    <row r="199" spans="1:10" ht="15.75">
+      <c r="H198" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75">
       <c r="A199" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="59">
+      <c r="C199" s="58">
         <v>78</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="18"/>
       <c r="F199" s="1"/>
       <c r="G199" s="48"/>
-      <c r="H199" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J199" s="54"/>
-    </row>
-    <row r="200" spans="1:10" ht="15.75">
+      <c r="H199" s="61">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75">
       <c r="A200" s="30" t="s">
         <v>205</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="58">
+      <c r="C200" s="57">
         <v>73</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="25"/>
       <c r="F200" s="1"/>
       <c r="G200" s="48"/>
-      <c r="H200" s="62">
-        <v>93.75</v>
-      </c>
-      <c r="J200" s="54"/>
-    </row>
-    <row r="201" spans="1:10" ht="15.75">
+      <c r="H200" s="61">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75">
       <c r="A201" s="34" t="s">
         <v>206</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="58">
+      <c r="C201" s="57">
         <v>51</v>
       </c>
       <c r="D201" s="35"/>
       <c r="E201" s="36"/>
       <c r="F201" s="37"/>
       <c r="G201" s="52"/>
-      <c r="H201" s="62">
-        <v>75</v>
-      </c>
-      <c r="J201" s="54"/>
-    </row>
-    <row r="202" spans="1:10" ht="15.75">
+      <c r="H201" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15.75">
       <c r="A202" s="38" t="s">
         <v>408</v>
       </c>
       <c r="B202" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="58">
+      <c r="C202" s="57">
         <v>60</v>
       </c>
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
       <c r="F202" s="39"/>
       <c r="G202" s="53"/>
-      <c r="H202" s="62">
-        <v>68.75</v>
-      </c>
-      <c r="J202" s="54"/>
-    </row>
-    <row r="203" spans="1:10" ht="15.75">
+      <c r="H202" s="61">
+        <v>64.710000000000008</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75">
       <c r="A203" s="40" t="s">
         <v>410</v>
       </c>
       <c r="B203" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="58">
+      <c r="C203" s="57">
         <v>17</v>
       </c>
       <c r="D203" s="39"/>
       <c r="E203" s="39"/>
       <c r="F203" s="39"/>
       <c r="G203" s="53"/>
-      <c r="H203" s="62">
-        <v>56.25</v>
-      </c>
-      <c r="J203" s="54"/>
-    </row>
-    <row r="204" spans="1:10" ht="15.75">
+      <c r="H203" s="61">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75">
       <c r="A204" s="40" t="s">
         <v>412</v>
       </c>
       <c r="B204" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="58">
+      <c r="C204" s="57">
         <v>50</v>
       </c>
       <c r="D204" s="39"/>
       <c r="E204" s="39"/>
       <c r="F204" s="39"/>
       <c r="G204" s="53"/>
-      <c r="H204" s="62">
-        <v>81.25</v>
-      </c>
-      <c r="J204" s="54"/>
-    </row>
-    <row r="205" spans="1:10" ht="15.75">
+      <c r="H204" s="61">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75">
       <c r="A205" s="40" t="s">
         <v>414</v>
       </c>
       <c r="B205" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="55">
+      <c r="C205" s="54">
         <v>51</v>
       </c>
       <c r="D205" s="39"/>
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
       <c r="G205" s="53"/>
-      <c r="H205" s="62">
-        <v>75</v>
-      </c>
-      <c r="J205" s="54"/>
-    </row>
-    <row r="206" spans="1:10" ht="15.75">
+      <c r="H205" s="61">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75">
       <c r="A206" s="40" t="s">
         <v>416</v>
       </c>
       <c r="B206" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="55">
+      <c r="C206" s="54">
         <v>43</v>
       </c>
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
       <c r="G206" s="53"/>
-      <c r="H206" s="62">
-        <v>12.5</v>
-      </c>
-      <c r="J206" s="54"/>
-    </row>
-    <row r="207" spans="1:10" ht="15.75">
-      <c r="A207" s="60" t="s">
+      <c r="H206" s="61">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.75">
+      <c r="A207" s="59" t="s">
         <v>420</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="58">
+      <c r="C207" s="57">
         <v>45</v>
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="39"/>
       <c r="F207" s="39"/>
       <c r="G207" s="39"/>
-      <c r="H207" s="63"/>
-    </row>
-    <row r="208" spans="1:10" ht="15.75">
-      <c r="A208" s="60" t="s">
+      <c r="H207" s="62"/>
+    </row>
+    <row r="208" spans="1:8" ht="15.75">
+      <c r="A208" s="59" t="s">
         <v>421</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="58">
+      <c r="C208" s="57">
         <v>79</v>
       </c>
       <c r="D208" s="39"/>
       <c r="E208" s="39"/>
       <c r="F208" s="39"/>
       <c r="G208" s="39"/>
-      <c r="H208" s="63"/>
+      <c r="H208" s="62"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="60" t="s">
+      <c r="A209" s="59" t="s">
         <v>422</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C209" s="58">
+      <c r="C209" s="57">
         <v>68</v>
       </c>
       <c r="D209" s="39"/>
       <c r="E209" s="39"/>
       <c r="F209" s="39"/>
       <c r="G209" s="39"/>
-      <c r="H209" s="63"/>
+      <c r="H209" s="62"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="60" t="s">
+      <c r="A210" s="59" t="s">
         <v>423</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="58">
+      <c r="C210" s="57">
         <v>81</v>
       </c>
       <c r="D210" s="39"/>
       <c r="E210" s="39"/>
       <c r="F210" s="39"/>
       <c r="G210" s="39"/>
-      <c r="H210" s="63"/>
+      <c r="H210" s="62"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="60" t="s">
+      <c r="A211" s="59" t="s">
         <v>424</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C211" s="58">
+      <c r="C211" s="57">
         <v>48</v>
       </c>
       <c r="D211" s="39"/>
       <c r="E211" s="39"/>
       <c r="F211" s="39"/>
       <c r="G211" s="39"/>
-      <c r="H211" s="63"/>
+      <c r="H211" s="62"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="60" t="s">
+      <c r="A212" s="59" t="s">
         <v>425</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C212" s="58">
+      <c r="C212" s="57">
         <v>36</v>
       </c>
       <c r="D212" s="39"/>
       <c r="E212" s="39"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
-      <c r="H212" s="63"/>
+      <c r="H212" s="62"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="60" t="s">
+      <c r="A213" s="59" t="s">
         <v>426</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="C213" s="58">
+      <c r="C213" s="57">
         <v>80</v>
       </c>
       <c r="D213" s="39"/>
       <c r="E213" s="39"/>
       <c r="F213" s="39"/>
       <c r="G213" s="39"/>
-      <c r="H213" s="63"/>
+      <c r="H213" s="62"/>
     </row>
     <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="60" t="s">
+      <c r="A214" s="59" t="s">
         <v>427</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="C214" s="58">
+      <c r="C214" s="57">
         <v>38</v>
       </c>
       <c r="D214" s="39"/>
       <c r="E214" s="39"/>
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
-      <c r="H214" s="63"/>
+      <c r="H214" s="62"/>
     </row>
     <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="60" t="s">
+      <c r="A215" s="59" t="s">
         <v>428</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C215" s="58">
+      <c r="C215" s="57">
         <v>79</v>
       </c>
       <c r="D215" s="39"/>
       <c r="E215" s="39"/>
       <c r="F215" s="39"/>
       <c r="G215" s="39"/>
-      <c r="H215" s="63"/>
+      <c r="H215" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6296,15 +6094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6448,6 +6237,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6455,13 +6253,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maids\OneDrive - University of Jaffna\Documents\GitHub\MC3020_Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDS_Instrutors\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20EE597-B605-484B-8920-3A91C5AC763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="441">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1333,21 +1345,37 @@
   </si>
   <si>
     <t>DISSANAYAKA M.I.I.D.</t>
+  </si>
+  <si>
+    <t>2022/E/135</t>
+  </si>
+  <si>
+    <t>2022/E/150</t>
+  </si>
+  <si>
+    <t>2021/E/131</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1444,6 +1472,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1507,7 +1541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1736,202 +1770,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="10" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="60% - Accent1 2" xfId="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="2"/>
-    <cellStyle name="60% - Accent3 2" xfId="3"/>
-    <cellStyle name="60% - Accent4 2" xfId="4"/>
-    <cellStyle name="60% - Accent5 2" xfId="5"/>
-    <cellStyle name="60% - Accent6 2" xfId="6"/>
+    <cellStyle name="60% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
-    <cellStyle name="Neutral 2" xfId="7"/>
+    <cellStyle name="Neutral 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Title 2" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Title 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2207,153 +2277,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="6" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="62" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="43" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="38">
         <v>45</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="47">
+        <v>27</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="61">
+      <c r="G2" s="26"/>
+      <c r="H2" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="39">
         <v>60</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="48">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="61">
+      <c r="G3" s="27"/>
+      <c r="H3" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="48">
+        <v>75</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="61">
+      <c r="G4" s="28"/>
+      <c r="H4" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="38">
         <v>40</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="48">
+        <v>34</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="61">
+      <c r="G5" s="28"/>
+      <c r="H5" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="38">
         <v>77</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="48">
+        <v>67</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="61">
+      <c r="G6" s="28"/>
+      <c r="H6" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="38">
         <v>63</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="48">
+        <v>2</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="61">
+      <c r="G7" s="28"/>
+      <c r="H7" s="44">
         <v>58.819999999999993</v>
       </c>
       <c r="M7">
@@ -2362,3732 +2445,4209 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="38">
         <v>77</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="48">
+        <v>95</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="61">
+      <c r="G8" s="28"/>
+      <c r="H8" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="38">
         <v>63</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="48">
+        <v>93</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="61">
+      <c r="G9" s="28"/>
+      <c r="H9" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="38">
         <v>73</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="48">
+        <v>87</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="61">
+      <c r="G10" s="28"/>
+      <c r="H10" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="38">
         <v>40</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="48">
+        <v>93</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="61">
+      <c r="G11" s="28"/>
+      <c r="H11" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="38">
         <v>37</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="48">
+        <v>2</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="61">
+      <c r="G12" s="28"/>
+      <c r="H12" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="38">
         <v>91</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="48">
+        <v>73</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="61">
+      <c r="G13" s="28"/>
+      <c r="H13" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="38">
         <v>29</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="48">
+        <v>75</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="61">
+      <c r="G14" s="28"/>
+      <c r="H14" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="38">
         <v>35</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="48">
+        <v>54</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="61">
+      <c r="G15" s="28"/>
+      <c r="H15" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="38">
         <v>35</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="48">
+        <v>7</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="61">
+      <c r="G16" s="28"/>
+      <c r="H16" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="61">
+      <c r="G17" s="28"/>
+      <c r="H17" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="38">
         <v>43</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="48">
+        <v>91</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="61">
+      <c r="G18" s="28"/>
+      <c r="H18" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="38">
         <v>44</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="48">
+        <v>38</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="61">
+      <c r="G19" s="28"/>
+      <c r="H19" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="38">
         <v>59</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="48">
+        <v>39</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="61">
+      <c r="G20" s="28"/>
+      <c r="H20" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="38">
         <v>42</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="48">
+        <v>18</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="61">
+      <c r="G21" s="28"/>
+      <c r="H21" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="38">
         <v>59</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="48">
+        <v>67</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="61">
+      <c r="G22" s="28"/>
+      <c r="H22" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="38">
         <v>55</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="48">
+        <v>63</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="61">
+      <c r="G23" s="28"/>
+      <c r="H23" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="38">
         <v>41</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="48">
+        <v>60</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="61">
+      <c r="G24" s="28"/>
+      <c r="H24" s="44">
         <v>41.18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="38">
         <v>41</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="48">
+        <v>28</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="61">
+      <c r="G25" s="28"/>
+      <c r="H25" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="38">
         <v>46</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="48">
+        <v>55</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="61">
+      <c r="G26" s="28"/>
+      <c r="H26" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="38">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="48">
+        <v>95</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="61">
+      <c r="G27" s="28"/>
+      <c r="H27" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="38">
         <v>57</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="48">
+        <v>42</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="61">
+      <c r="G28" s="28"/>
+      <c r="H28" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="38">
         <v>43</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="48">
+        <v>35</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="61">
+      <c r="G29" s="28"/>
+      <c r="H29" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="38">
         <v>49</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="48">
+        <v>44</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="61">
+      <c r="G30" s="28"/>
+      <c r="H30" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="38">
         <v>58</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="48">
+        <v>68</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="61">
+      <c r="G31" s="28"/>
+      <c r="H31" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="38">
         <v>10</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="48">
+        <v>51</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="61">
+      <c r="G32" s="29"/>
+      <c r="H32" s="44">
         <v>41.18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="38">
         <v>75</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="48">
+        <v>40</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="61">
+      <c r="G33" s="28"/>
+      <c r="H33" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="38">
         <v>59</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="48">
+        <v>75</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="61">
+      <c r="G34" s="28"/>
+      <c r="H34" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="38">
         <v>49</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="48">
+        <v>33</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="61">
+      <c r="G35" s="28"/>
+      <c r="H35" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="38">
         <v>39</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="48">
+        <v>21</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="61">
+      <c r="G36" s="28"/>
+      <c r="H36" s="44">
         <v>47.06</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="38">
         <v>31</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="48">
+        <v>54</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="61">
+      <c r="G37" s="28"/>
+      <c r="H37" s="44">
         <v>47.06</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="38">
         <v>87</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="48">
+        <v>92</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="61">
+      <c r="G38" s="28"/>
+      <c r="H38" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="38">
         <v>74</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="48">
+        <v>95</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="61">
+      <c r="G39" s="28"/>
+      <c r="H39" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="38">
         <v>61</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="48">
+        <v>56</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="61">
+      <c r="G40" s="28"/>
+      <c r="H40" s="44">
         <v>68.75</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="38">
         <v>55</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="48">
+        <v>70</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="61">
+      <c r="G41" s="28"/>
+      <c r="H41" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="38">
         <v>47</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="48">
+        <v>50</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="61">
+      <c r="G42" s="28"/>
+      <c r="H42" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="38">
         <v>27</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="48">
+        <v>60</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="61">
+      <c r="G43" s="28"/>
+      <c r="H43" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="38">
         <v>33</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="48">
+        <v>27</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="61">
+      <c r="G44" s="28"/>
+      <c r="H44" s="44">
         <v>47.06</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="38">
         <v>78</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="48">
+        <v>68</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="61">
+      <c r="G45" s="28"/>
+      <c r="H45" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="38">
         <v>37</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="48">
+        <v>67</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="61">
+      <c r="G46" s="28"/>
+      <c r="H46" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="38">
         <v>52</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="48">
+        <v>55</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="61">
+      <c r="G47" s="28"/>
+      <c r="H47" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="38">
         <v>60</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="48">
+        <v>75</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="61">
+      <c r="G48" s="28"/>
+      <c r="H48" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="38">
         <v>59</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="48">
+        <v>73</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="61">
+      <c r="G49" s="29"/>
+      <c r="H49" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="38">
         <v>69</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="48">
+        <v>55</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="61">
+      <c r="G50" s="28"/>
+      <c r="H50" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="38">
         <v>69</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="48">
+        <v>64</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="61">
+      <c r="G51" s="28"/>
+      <c r="H51" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="38">
         <v>73</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="48">
+        <v>40</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="61">
+      <c r="G52" s="28"/>
+      <c r="H52" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="38">
         <v>82</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="48">
+        <v>38</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="61">
+      <c r="G53" s="28"/>
+      <c r="H53" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="38">
         <v>34</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="48">
+        <v>57</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="61">
+      <c r="G54" s="28"/>
+      <c r="H54" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="38">
         <v>64</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="48">
+        <v>81</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="61">
+      <c r="G55" s="28"/>
+      <c r="H55" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56" s="38">
         <v>63</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="48">
+        <v>27</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="61">
+      <c r="G56" s="29"/>
+      <c r="H56" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="38">
         <v>64</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="48">
+        <v>52</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="61">
+      <c r="G57" s="28"/>
+      <c r="H57" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="38">
         <v>73</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="48">
+        <v>92</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="61">
+      <c r="G58" s="28"/>
+      <c r="H58" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="54">
+      <c r="C59" s="38">
         <v>68</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="48">
+        <v>32</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="61">
+      <c r="G59" s="28"/>
+      <c r="H59" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="54">
+      <c r="C60" s="38">
         <v>68</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="48">
+        <v>95</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="61">
+      <c r="G60" s="28"/>
+      <c r="H60" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="61">
+      <c r="G61" s="28"/>
+      <c r="H61" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="38">
         <v>45</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="48">
+        <v>77</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="61">
+      <c r="G62" s="28"/>
+      <c r="H62" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63" s="38">
         <v>41</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="48">
+        <v>33</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="61">
+      <c r="G63" s="28"/>
+      <c r="H63" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="38">
         <v>30</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="48">
+        <v>66</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="61">
+      <c r="G64" s="28"/>
+      <c r="H64" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="54">
+      <c r="C65" s="38">
         <v>52</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="48">
+        <v>58</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="61">
+      <c r="G65" s="28"/>
+      <c r="H65" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="54">
+      <c r="C66" s="38">
         <v>83</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="48">
+        <v>97</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="61">
+      <c r="G66" s="28"/>
+      <c r="H66" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="38">
         <v>60</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="48">
+        <v>58</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="61">
+      <c r="G67" s="28"/>
+      <c r="H67" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="54">
+      <c r="C68" s="38">
         <v>66</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="48">
+        <v>81</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="61">
+      <c r="G68" s="28"/>
+      <c r="H68" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="54">
+      <c r="C69" s="38">
         <v>67</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="49">
+        <v>89</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="61">
+      <c r="G69" s="29"/>
+      <c r="H69" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="38">
         <v>82</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="48">
+        <v>68</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="61">
+      <c r="G70" s="28"/>
+      <c r="H70" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="38">
         <v>51</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="48">
+        <v>67</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="61">
+      <c r="G71" s="28"/>
+      <c r="H71" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="54">
+      <c r="C72" s="38">
         <v>96</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="48">
+        <v>100</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="61">
+      <c r="G72" s="28"/>
+      <c r="H72" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="38">
         <v>61</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="48">
+        <v>90</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="61">
+      <c r="G73" s="28"/>
+      <c r="H73" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="38">
         <v>0</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="48">
+        <v>36</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="61">
+      <c r="G74" s="29"/>
+      <c r="H74" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="38">
         <v>66</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="48">
+        <v>32</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="61">
+      <c r="G75" s="29"/>
+      <c r="H75" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="38">
         <v>28</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="49">
+        <v>58</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="61">
+      <c r="G76" s="28"/>
+      <c r="H76" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C77" s="38">
         <v>58</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="48">
+        <v>41</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="61">
+      <c r="G77" s="28"/>
+      <c r="H77" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="54">
+      <c r="C78" s="38">
         <v>52</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="48">
+        <v>66</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="61">
+      <c r="G78" s="28"/>
+      <c r="H78" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="2"/>
+      <c r="D79" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="61">
+      <c r="G79" s="28"/>
+      <c r="H79" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="54">
+      <c r="C80" s="38">
         <v>34</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="48">
+        <v>82</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="61">
+      <c r="G80" s="28"/>
+      <c r="H80" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="54">
+      <c r="C81" s="38">
         <v>72</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="48">
+        <v>61</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="61">
+      <c r="G81" s="28"/>
+      <c r="H81" s="44">
         <v>47.06</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="38">
         <v>64</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="48">
+        <v>64</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="61">
+      <c r="G82" s="28"/>
+      <c r="H82" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="38">
         <v>44</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="48">
+        <v>14</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="61">
+      <c r="G83" s="28"/>
+      <c r="H83" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="38">
         <v>16</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="48">
+        <v>4</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="61">
+      <c r="G84" s="28"/>
+      <c r="H84" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="38">
         <v>37</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="49">
+        <v>77</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="61">
+      <c r="G85" s="28"/>
+      <c r="H85" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="54">
+      <c r="C86" s="38">
         <v>75</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="48">
+        <v>71</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="61">
+      <c r="G86" s="29"/>
+      <c r="H86" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="54">
+      <c r="C87" s="38">
         <v>57</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="48">
+        <v>96</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="61">
+      <c r="G87" s="28"/>
+      <c r="H87" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="61">
+      <c r="G88" s="28"/>
+      <c r="H88" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="38">
         <v>57</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="48">
+        <v>87</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="61">
+      <c r="G89" s="28"/>
+      <c r="H89" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="54">
+      <c r="C90" s="38">
         <v>70</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="48">
+        <v>83</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="61">
+      <c r="G90" s="28"/>
+      <c r="H90" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="38">
         <v>87</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="48">
+        <v>72</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="61">
+      <c r="G91" s="28"/>
+      <c r="H91" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="54">
+      <c r="C92" s="38">
         <v>34</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="48">
+        <v>48</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="61">
+      <c r="G92" s="28"/>
+      <c r="H92" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="54">
+      <c r="C93" s="38">
         <v>57</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="48">
+        <v>38</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="61">
+      <c r="G93" s="29"/>
+      <c r="H93" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="38">
         <v>37</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="48">
+        <v>32</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="61">
+      <c r="G94" s="28"/>
+      <c r="H94" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="54">
+      <c r="C95" s="38">
         <v>85</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="48">
+        <v>95</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="61">
+      <c r="G95" s="28"/>
+      <c r="H95" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="54">
+      <c r="C96" s="38">
         <v>29</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="48">
+        <v>30</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="61">
+      <c r="G96" s="28"/>
+      <c r="H96" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="38">
         <v>44</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="48">
+        <v>66</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="61">
+      <c r="G97" s="28"/>
+      <c r="H97" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="54">
+      <c r="C98" s="38">
         <v>84</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="48">
+        <v>77</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="61">
+      <c r="G98" s="28"/>
+      <c r="H98" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="38">
         <v>62</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="48">
+        <v>61</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="61">
+      <c r="G99" s="28"/>
+      <c r="H99" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="2"/>
+      <c r="D100" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F100" s="3"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="61">
+      <c r="G100" s="28"/>
+      <c r="H100" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="54">
+      <c r="C101" s="38">
         <v>72</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="48">
+        <v>40</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="61">
+      <c r="G101" s="28"/>
+      <c r="H101" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="54">
+      <c r="C102" s="38">
         <v>83</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="48">
+        <v>87</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="61">
+      <c r="G102" s="28"/>
+      <c r="H102" s="44">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="54">
+      <c r="C103" s="38">
         <v>25</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="48">
+        <v>53</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="61">
+      <c r="G103" s="29"/>
+      <c r="H103" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="54">
+      <c r="C104" s="38">
         <v>14</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="48">
+        <v>11</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="61">
+      <c r="G104" s="28"/>
+      <c r="H104" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="54">
+      <c r="C105" s="38">
         <v>75</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="48">
+        <v>18</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="61">
+      <c r="G105" s="28"/>
+      <c r="H105" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="38">
         <v>62</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="50">
+        <v>96</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="61">
+      <c r="G106" s="28"/>
+      <c r="H106" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="54">
+      <c r="C107" s="38">
         <v>94</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="50">
+        <v>65</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="61">
+      <c r="G107" s="28"/>
+      <c r="H107" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="54">
+      <c r="C108" s="38">
         <v>48</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="50">
+        <v>33</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="61">
+      <c r="G108" s="28"/>
+      <c r="H108" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="54">
+      <c r="C109" s="38">
         <v>43</v>
       </c>
-      <c r="D109" s="7"/>
+      <c r="D109" s="50">
+        <v>74</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="61">
+      <c r="G109" s="28"/>
+      <c r="H109" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="54">
+      <c r="C110" s="38">
         <v>78</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="50">
+        <v>73</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="61">
+      <c r="G110" s="28"/>
+      <c r="H110" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="54">
+      <c r="C111" s="38">
         <v>57</v>
       </c>
-      <c r="D111" s="7"/>
+      <c r="D111" s="50">
+        <v>75</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="61">
+      <c r="G111" s="28"/>
+      <c r="H111" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="54">
+      <c r="C112" s="38">
         <v>92</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="50">
+        <v>99</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="61">
+      <c r="G112" s="28"/>
+      <c r="H112" s="44">
         <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="54">
+      <c r="C113" s="38">
         <v>89</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="50">
+        <v>97</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="61">
+      <c r="G113" s="28"/>
+      <c r="H113" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="54">
+      <c r="C114" s="38">
         <v>75</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="50">
+        <v>95</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="61">
+      <c r="G114" s="28"/>
+      <c r="H114" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="54">
+      <c r="C115" s="38">
         <v>76</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="50">
+        <v>91</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="61">
+      <c r="G115" s="28"/>
+      <c r="H115" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="38">
         <v>24</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="50">
+        <v>51</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="61">
+      <c r="G116" s="28"/>
+      <c r="H116" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="54">
+      <c r="C117" s="38">
         <v>31</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="50">
+        <v>85</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="61">
+      <c r="G117" s="28"/>
+      <c r="H117" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="54">
+      <c r="C118" s="38">
         <v>61</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="50">
+        <v>41</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="61">
+      <c r="G118" s="28"/>
+      <c r="H118" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="54">
+      <c r="C119" s="38">
         <v>61</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="50">
+        <v>45</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="61">
+      <c r="G119" s="28"/>
+      <c r="H119" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="54">
+      <c r="C120" s="38">
         <v>72</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="50">
+        <v>63</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="61">
+      <c r="G120" s="28"/>
+      <c r="H120" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="54">
+      <c r="C121" s="38">
         <v>75</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="50">
+        <v>86</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="61">
+      <c r="G121" s="28"/>
+      <c r="H121" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="54">
+      <c r="C122" s="38">
         <v>77</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="50">
+        <v>95</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="61">
+      <c r="G122" s="28"/>
+      <c r="H122" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="54">
+      <c r="C123" s="38">
         <v>78</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="50">
+        <v>92</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="61">
+      <c r="G123" s="28"/>
+      <c r="H123" s="44">
         <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="38">
         <v>41</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="50">
+        <v>79</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="61">
+      <c r="G124" s="28"/>
+      <c r="H124" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="54">
+      <c r="C125" s="38">
         <v>28</v>
       </c>
-      <c r="D125" s="7"/>
+      <c r="D125" s="50">
+        <v>53</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="61">
+      <c r="G125" s="28"/>
+      <c r="H125" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="54">
+      <c r="C126" s="38">
         <v>71</v>
       </c>
-      <c r="D126" s="7"/>
+      <c r="D126" s="50">
+        <v>95</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="61">
+      <c r="G126" s="28"/>
+      <c r="H126" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="54">
+      <c r="C127" s="38">
         <v>41</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="50">
+        <v>5</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="61">
+      <c r="G127" s="28"/>
+      <c r="H127" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="54">
+      <c r="C128" s="38">
         <v>43</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="50">
+        <v>45</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="61">
+      <c r="G128" s="28"/>
+      <c r="H128" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C129" s="38">
         <v>50</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="50">
+        <v>9</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="61">
+      <c r="G129" s="28"/>
+      <c r="H129" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="38">
         <v>77</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="50">
+        <v>83</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="61">
+      <c r="G130" s="28"/>
+      <c r="H130" s="44">
         <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="54">
+      <c r="C131" s="38">
         <v>86</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="50">
+        <v>97</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="61">
+      <c r="G131" s="28"/>
+      <c r="H131" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="54">
+      <c r="C132" s="38">
         <v>49</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="50">
+        <v>91</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="61">
+      <c r="G132" s="28"/>
+      <c r="H132" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="54">
+      <c r="C133" s="38">
         <v>41</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="50">
+        <v>78</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="61">
+      <c r="G133" s="28"/>
+      <c r="H133" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C134" s="38">
         <v>25</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="50">
+        <v>51</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="61">
+      <c r="G134" s="28"/>
+      <c r="H134" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="54">
+      <c r="C135" s="38">
         <v>54</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="50">
+        <v>80</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="61">
+      <c r="G135" s="28"/>
+      <c r="H135" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="54">
+      <c r="C136" s="38">
         <v>37</v>
       </c>
-      <c r="D136" s="7"/>
+      <c r="D136" s="50">
+        <v>77</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="61">
+      <c r="G136" s="28"/>
+      <c r="H136" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="54">
+      <c r="C137" s="38">
         <v>54</v>
       </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="50">
+        <v>50</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="61">
+      <c r="G137" s="28"/>
+      <c r="H137" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="54" t="s">
+      <c r="C138" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="2"/>
+      <c r="D138" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="F138" s="3"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="61">
+      <c r="G138" s="28"/>
+      <c r="H138" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="54">
+      <c r="C139" s="38">
         <v>56</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="50">
+        <v>4</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="61">
+      <c r="G139" s="30"/>
+      <c r="H139" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="54">
+      <c r="C140" s="38">
         <v>84</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="50">
+        <v>62</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="61">
+      <c r="G140" s="31"/>
+      <c r="H140" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="54">
+      <c r="C141" s="38">
         <v>52</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="50">
+        <v>30</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="61">
+      <c r="G141" s="27"/>
+      <c r="H141" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="54">
+      <c r="C142" s="38">
         <v>20</v>
       </c>
-      <c r="D142" s="7"/>
+      <c r="D142" s="50">
+        <v>34</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="61">
+      <c r="G142" s="28"/>
+      <c r="H142" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="54" t="s">
+      <c r="C143" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="63" t="s">
+        <v>419</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="61">
+      <c r="G143" s="28"/>
+      <c r="H143" s="44">
         <v>11.76</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="54">
+      <c r="C144" s="38">
         <v>66</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="50">
+        <v>65</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="61">
+      <c r="G144" s="28"/>
+      <c r="H144" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="54">
+      <c r="C145" s="38">
         <v>49</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="50">
+        <v>79</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="61">
+      <c r="G145" s="28"/>
+      <c r="H145" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="54">
+      <c r="C146" s="38">
         <v>64</v>
       </c>
-      <c r="D146" s="7"/>
+      <c r="D146" s="50">
+        <v>65</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="61">
+      <c r="G146" s="28"/>
+      <c r="H146" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
-      <c r="A147" s="30" t="s">
+      <c r="A147" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="54">
+      <c r="C147" s="38">
         <v>54</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="50">
+        <v>97</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="61">
+      <c r="G147" s="28"/>
+      <c r="H147" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="54">
+      <c r="C148" s="38">
         <v>84</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="50">
+        <v>62</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="61">
+      <c r="G148" s="28"/>
+      <c r="H148" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="54">
+      <c r="C149" s="38">
         <v>61</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="50">
+        <v>61</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="61">
+      <c r="G149" s="28"/>
+      <c r="H149" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="54">
+      <c r="C150" s="38">
         <v>76</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="49">
+        <v>55</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="61">
+      <c r="G150" s="28"/>
+      <c r="H150" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="54">
+      <c r="C151" s="38">
         <v>81</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="50">
+        <v>30</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="61">
+      <c r="G151" s="28"/>
+      <c r="H151" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="54">
+      <c r="C152" s="38">
         <v>53</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="50">
+        <v>58</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="61">
+      <c r="G152" s="28"/>
+      <c r="H152" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="54">
+      <c r="C153" s="38">
         <v>62</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="50">
+        <v>81</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="61">
+      <c r="G153" s="28"/>
+      <c r="H153" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="54">
+      <c r="C154" s="38">
         <v>69</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="50">
+        <v>65</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="61">
+      <c r="G154" s="28"/>
+      <c r="H154" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="54">
+      <c r="C155" s="38">
         <v>74</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="50">
+        <v>75</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="61">
+      <c r="G155" s="28"/>
+      <c r="H155" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="54">
+      <c r="C156" s="38">
         <v>52</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="50">
+        <v>94</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="61">
+      <c r="G156" s="28"/>
+      <c r="H156" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="54" t="s">
+      <c r="C157" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="63" t="s">
+        <v>419</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="61">
+      <c r="G157" s="28"/>
+      <c r="H157" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="54">
+      <c r="C158" s="38">
         <v>26</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="50">
+        <v>41</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="61">
+      <c r="G158" s="28"/>
+      <c r="H158" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="54">
+      <c r="C159" s="38">
         <v>51</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="50">
+        <v>16</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="61">
+      <c r="G159" s="28"/>
+      <c r="H159" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="54">
+      <c r="C160" s="38">
         <v>35</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="50">
+        <v>40</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="61">
+      <c r="G160" s="28"/>
+      <c r="H160" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="54">
+      <c r="C161" s="38">
         <v>62</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="50">
+        <v>58</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="61">
+      <c r="G161" s="28"/>
+      <c r="H161" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="54">
+      <c r="C162" s="38">
         <v>63</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="50">
+        <v>61</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="61">
+      <c r="G162" s="28"/>
+      <c r="H162" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="54">
+      <c r="C163" s="38">
         <v>73</v>
       </c>
-      <c r="D163" s="7"/>
+      <c r="D163" s="50">
+        <v>50</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="61">
+      <c r="G163" s="28"/>
+      <c r="H163" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="54" t="s">
+      <c r="C164" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="D164" s="7"/>
+      <c r="D164" s="50" t="s">
+        <v>418</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="61">
+      <c r="G164" s="28"/>
+      <c r="H164" s="44">
         <v>5.88</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="54">
+      <c r="C165" s="38">
         <v>53</v>
       </c>
-      <c r="D165" s="7"/>
+      <c r="D165" s="50">
+        <v>97</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="61">
+      <c r="G165" s="28"/>
+      <c r="H165" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="31" t="s">
+      <c r="A166" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="54">
+      <c r="C166" s="38">
         <v>64</v>
       </c>
-      <c r="D166" s="7"/>
+      <c r="D166" s="50">
+        <v>35</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="61">
+      <c r="G166" s="28"/>
+      <c r="H166" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="54" t="s">
+      <c r="C167" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="D167" s="7"/>
+      <c r="D167" s="50" t="s">
+        <v>418</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="61">
+      <c r="G167" s="28"/>
+      <c r="H167" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="54">
+      <c r="C168" s="38">
         <v>79</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="48">
+        <v>52</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="61">
+      <c r="G168" s="28"/>
+      <c r="H168" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="54">
+      <c r="C169" s="38">
         <v>46</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="48">
+        <v>36</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="61">
+      <c r="G169" s="28"/>
+      <c r="H169" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="54">
+      <c r="C170" s="38">
         <v>79</v>
       </c>
-      <c r="D170" s="4"/>
+      <c r="D170" s="48">
+        <v>97</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="61">
+      <c r="G170" s="28"/>
+      <c r="H170" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="B171" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="54">
+      <c r="C171" s="38">
         <v>75</v>
       </c>
-      <c r="D171" s="8"/>
+      <c r="D171" s="51">
+        <v>69</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="61">
+      <c r="G171" s="30"/>
+      <c r="H171" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="B172" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="54">
+      <c r="C172" s="38">
         <v>62</v>
       </c>
-      <c r="D172" s="9"/>
+      <c r="D172" s="52">
+        <v>48</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="61">
+      <c r="G172" s="26"/>
+      <c r="H172" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="54">
+      <c r="C173" s="38">
         <v>35</v>
       </c>
-      <c r="D173" s="9"/>
+      <c r="D173" s="52">
+        <v>38</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="61">
+      <c r="G173" s="26"/>
+      <c r="H173" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="54">
+      <c r="C174" s="38">
         <v>59</v>
       </c>
-      <c r="D174" s="9"/>
+      <c r="D174" s="52">
+        <v>95</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="42"/>
-      <c r="H174" s="61">
+      <c r="G174" s="26"/>
+      <c r="H174" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="54">
+      <c r="C175" s="38">
         <v>73</v>
       </c>
-      <c r="D175" s="10"/>
+      <c r="D175" s="53">
+        <v>96</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="61">
+      <c r="G175" s="26"/>
+      <c r="H175" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="31" t="s">
+      <c r="A176" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="54">
+      <c r="C176" s="38">
         <v>55</v>
       </c>
-      <c r="D176" s="11"/>
+      <c r="D176" s="54">
+        <v>28</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="61">
+      <c r="G176" s="26"/>
+      <c r="H176" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="31" t="s">
+      <c r="A177" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="B177" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="54" t="s">
+      <c r="C177" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="13"/>
+      <c r="D177" s="49">
+        <v>4</v>
+      </c>
+      <c r="E177" s="5"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="61">
+      <c r="G177" s="26"/>
+      <c r="H177" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="54">
+      <c r="C178" s="38">
         <v>0</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="13"/>
+      <c r="D178" s="64">
+        <v>24</v>
+      </c>
+      <c r="E178" s="5"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="61">
+      <c r="G178" s="32"/>
+      <c r="H178" s="44">
         <v>58.819999999999993</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="31" t="s">
+      <c r="A179" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="56" t="s">
+      <c r="C179" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="D179" s="6"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="61">
+      <c r="D179" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E179" s="29"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="31" t="s">
+      <c r="A180" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="57">
+      <c r="C180" s="40">
         <v>50</v>
       </c>
-      <c r="D180" s="6"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="61">
+      <c r="D180" s="65">
+        <v>79</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="57">
+      <c r="C181" s="40">
         <v>82</v>
       </c>
-      <c r="D181" s="19"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="49"/>
-      <c r="H181" s="61">
+      <c r="D181" s="55">
+        <v>48</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="57">
+      <c r="C182" s="40">
         <v>33</v>
       </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="22"/>
+      <c r="D182" s="49">
+        <v>72</v>
+      </c>
+      <c r="E182" s="12"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="50"/>
-      <c r="H182" s="61">
+      <c r="G182" s="34"/>
+      <c r="H182" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="57">
+      <c r="C183" s="40">
         <v>49</v>
       </c>
-      <c r="D183" s="21"/>
-      <c r="E183" s="15"/>
+      <c r="D183" s="56">
+        <v>74</v>
+      </c>
+      <c r="E183" s="7"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="50"/>
-      <c r="H183" s="61">
+      <c r="G183" s="34"/>
+      <c r="H183" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="31" t="s">
+      <c r="A184" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="57">
+      <c r="C184" s="40">
         <v>45</v>
       </c>
-      <c r="D184" s="23"/>
+      <c r="D184" s="57">
+        <v>89</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="61">
+      <c r="G184" s="34"/>
+      <c r="H184" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="57">
+      <c r="C185" s="40">
         <v>57</v>
       </c>
-      <c r="D185" s="24"/>
-      <c r="E185" s="18"/>
+      <c r="D185" s="58">
+        <v>60</v>
+      </c>
+      <c r="E185" s="10"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="61">
+      <c r="G185" s="35"/>
+      <c r="H185" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="57">
+      <c r="C186" s="40">
         <v>51</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="18"/>
+      <c r="D186" s="49">
+        <v>46</v>
+      </c>
+      <c r="E186" s="10"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="61">
+      <c r="G186" s="35"/>
+      <c r="H186" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="57">
+      <c r="C187" s="40">
         <v>79</v>
       </c>
-      <c r="D187" s="24"/>
-      <c r="E187" s="22"/>
+      <c r="D187" s="58">
+        <v>52</v>
+      </c>
+      <c r="E187" s="12"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="61">
+      <c r="G187" s="35"/>
+      <c r="H187" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="57">
+      <c r="C188" s="40">
         <v>55</v>
       </c>
-      <c r="D188" s="24"/>
-      <c r="E188" s="22"/>
+      <c r="D188" s="58">
+        <v>31</v>
+      </c>
+      <c r="E188" s="12"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="61">
+      <c r="G188" s="32"/>
+      <c r="H188" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="57">
+      <c r="C189" s="40">
         <v>66</v>
       </c>
-      <c r="D189" s="24"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="58">
+        <v>66</v>
+      </c>
+      <c r="E189" s="10"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="61">
+      <c r="G189" s="32"/>
+      <c r="H189" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="57">
+      <c r="C190" s="40">
         <v>16</v>
       </c>
-      <c r="D190" s="6"/>
+      <c r="D190" s="49">
+        <v>34</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="61">
+      <c r="G190" s="32"/>
+      <c r="H190" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="30" t="s">
+      <c r="A191" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="57">
+      <c r="C191" s="40">
         <v>67</v>
       </c>
-      <c r="D191" s="6"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="49">
+        <v>76</v>
+      </c>
+      <c r="E191" s="10"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="61">
+      <c r="G191" s="32"/>
+      <c r="H191" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="30" t="s">
+      <c r="A192" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="57">
+      <c r="C192" s="40">
         <v>68</v>
       </c>
-      <c r="D192" s="24"/>
-      <c r="E192" s="15"/>
+      <c r="D192" s="58">
+        <v>26</v>
+      </c>
+      <c r="E192" s="7"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="61">
+      <c r="G192" s="32"/>
+      <c r="H192" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="57">
+      <c r="C193" s="40">
         <v>40</v>
       </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="25"/>
+      <c r="D193" s="57">
+        <v>82</v>
+      </c>
+      <c r="E193" s="13"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="61">
+      <c r="G193" s="32"/>
+      <c r="H193" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
-      <c r="A194" s="30" t="s">
+      <c r="A194" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="57">
+      <c r="C194" s="40">
         <v>74</v>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="61">
+      <c r="D194" s="66">
+        <v>99</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
-      <c r="A195" s="30" t="s">
+      <c r="A195" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="57">
+      <c r="C195" s="40">
         <v>58</v>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="61">
+      <c r="D195" s="67">
+        <v>27</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
-      <c r="A196" s="30" t="s">
+      <c r="A196" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="57">
+      <c r="C196" s="40">
         <v>54</v>
       </c>
-      <c r="D196" s="24"/>
-      <c r="E196" s="22"/>
+      <c r="D196" s="58">
+        <v>86</v>
+      </c>
+      <c r="E196" s="12"/>
       <c r="F196" s="3"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="61">
+      <c r="G196" s="32"/>
+      <c r="H196" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="57">
+      <c r="C197" s="40">
         <v>64</v>
       </c>
-      <c r="D197" s="24"/>
-      <c r="E197" s="22"/>
+      <c r="D197" s="58">
+        <v>59</v>
+      </c>
+      <c r="E197" s="12"/>
       <c r="F197" s="3"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="61">
+      <c r="G197" s="32"/>
+      <c r="H197" s="44">
         <v>88.24</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="57">
+      <c r="C198" s="40">
         <v>89</v>
       </c>
-      <c r="D198" s="23"/>
+      <c r="D198" s="57">
+        <v>57</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="61">
+      <c r="G198" s="32"/>
+      <c r="H198" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
-      <c r="A199" s="30" t="s">
+      <c r="A199" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="58">
+      <c r="C199" s="41">
         <v>78</v>
       </c>
-      <c r="D199" s="6"/>
-      <c r="E199" s="18"/>
+      <c r="D199" s="49">
+        <v>94</v>
+      </c>
+      <c r="E199" s="10"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="61">
+      <c r="G199" s="32"/>
+      <c r="H199" s="44">
         <v>76.47</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="57">
+      <c r="C200" s="40">
         <v>73</v>
       </c>
-      <c r="D200" s="6"/>
-      <c r="E200" s="25"/>
+      <c r="D200" s="49">
+        <v>87</v>
+      </c>
+      <c r="E200" s="13"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="61">
+      <c r="G200" s="32"/>
+      <c r="H200" s="44">
         <v>94.12</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
-      <c r="A201" s="34" t="s">
+      <c r="A201" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="57">
+      <c r="C201" s="40">
         <v>51</v>
       </c>
-      <c r="D201" s="35"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="52"/>
-      <c r="H201" s="61">
+      <c r="D201" s="68">
+        <v>62</v>
+      </c>
+      <c r="E201" s="21"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
-      <c r="A202" s="38" t="s">
+      <c r="A202" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="57">
+      <c r="C202" s="40">
         <v>60</v>
       </c>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="61">
+      <c r="D202" s="69">
+        <v>80</v>
+      </c>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="40" t="s">
+      <c r="A203" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="57">
+      <c r="C203" s="40">
         <v>17</v>
       </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="53"/>
-      <c r="H203" s="61">
+      <c r="D203" s="69">
+        <v>16</v>
+      </c>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="44">
         <v>52.94</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
-      <c r="A204" s="40" t="s">
+      <c r="A204" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="41" t="s">
+      <c r="B204" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="57">
+      <c r="C204" s="40">
         <v>50</v>
       </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="53"/>
-      <c r="H204" s="61">
+      <c r="D204" s="69">
+        <v>85</v>
+      </c>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="44">
         <v>82.35</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
-      <c r="A205" s="40" t="s">
+      <c r="A205" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="41" t="s">
+      <c r="B205" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="54">
+      <c r="C205" s="38">
         <v>51</v>
       </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="61">
+      <c r="D205" s="69">
+        <v>65</v>
+      </c>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="44">
         <v>70.59</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
-      <c r="A206" s="40" t="s">
+      <c r="A206" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="54">
+      <c r="C206" s="38">
         <v>43</v>
       </c>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="39"/>
-      <c r="G206" s="53"/>
-      <c r="H206" s="61">
+      <c r="D206" s="69">
+        <v>66</v>
+      </c>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="44">
         <v>11.76</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="57">
+      <c r="C207" s="40">
         <v>45</v>
       </c>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
-      <c r="F207" s="39"/>
-      <c r="G207" s="39"/>
-      <c r="H207" s="62"/>
+      <c r="D207" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="23"/>
+      <c r="H207" s="45"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="57">
+      <c r="C208" s="40">
         <v>79</v>
       </c>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="39"/>
-      <c r="G208" s="39"/>
-      <c r="H208" s="62"/>
+      <c r="D208" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="45"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C209" s="57">
+      <c r="C209" s="40">
         <v>68</v>
       </c>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="39"/>
-      <c r="H209" s="62"/>
+      <c r="D209" s="69">
+        <v>58</v>
+      </c>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="45"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="57">
+      <c r="C210" s="40">
         <v>81</v>
       </c>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="39"/>
-      <c r="G210" s="39"/>
-      <c r="H210" s="62"/>
+      <c r="D210" s="69">
+        <v>79</v>
+      </c>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
+      <c r="H210" s="45"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="59" t="s">
+      <c r="A211" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C211" s="57">
+      <c r="C211" s="40">
         <v>48</v>
       </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="39"/>
-      <c r="H211" s="62"/>
+      <c r="D211" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="45"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C212" s="57">
+      <c r="C212" s="40">
         <v>36</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="39"/>
-      <c r="H212" s="62"/>
+      <c r="D212" s="69">
+        <v>58</v>
+      </c>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="45"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="59" t="s">
+      <c r="A213" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B213" s="16"/>
+      <c r="C213" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D213" s="69">
+        <v>54</v>
+      </c>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="45"/>
+    </row>
+    <row r="214" spans="1:8" ht="15.75">
+      <c r="A214" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B214" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C213" s="57">
+      <c r="C214" s="40">
         <v>80</v>
       </c>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-      <c r="H213" s="62"/>
-    </row>
-    <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="59" t="s">
+      <c r="D214" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
+      <c r="H214" s="45"/>
+    </row>
+    <row r="215" spans="1:8" ht="15.75">
+      <c r="A215" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" s="16"/>
+      <c r="C215" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" s="70">
+        <v>79</v>
+      </c>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+      <c r="H215" s="45"/>
+    </row>
+    <row r="216" spans="1:8" ht="15.75">
+      <c r="A216" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B216" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C214" s="57">
+      <c r="C216" s="40">
         <v>38</v>
       </c>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
-      <c r="H214" s="62"/>
-    </row>
-    <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="59" t="s">
+      <c r="D216" s="69">
+        <v>64</v>
+      </c>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="45"/>
+    </row>
+    <row r="217" spans="1:8" ht="15.75">
+      <c r="A217" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B217" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C215" s="57">
+      <c r="C217" s="40">
         <v>79</v>
       </c>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
-      <c r="F215" s="39"/>
-      <c r="G215" s="39"/>
-      <c r="H215" s="62"/>
+      <c r="D217" s="69">
+        <v>30</v>
+      </c>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="45"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B218" s="23"/>
+      <c r="C218" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="D218" s="69">
+        <v>67</v>
+      </c>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
+      <c r="H218" s="45"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6238,18 +6798,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6259,12 +6819,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6278,4 +6832,10 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDS_Instrutors\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjushiya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20EE597-B605-484B-8920-3A91C5AC763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4A07E2-E15B-4CA8-A811-C2CC9877A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="449">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1354,6 +1354,30 @@
   </si>
   <si>
     <t>2021/E/131</t>
+  </si>
+  <si>
+    <t>2022/E/131</t>
+  </si>
+  <si>
+    <t>2022/E/134</t>
+  </si>
+  <si>
+    <t>2021/E/007</t>
+  </si>
+  <si>
+    <t>2021/E/062</t>
+  </si>
+  <si>
+    <t>2020/E/021</t>
+  </si>
+  <si>
+    <t>2020/E/048</t>
+  </si>
+  <si>
+    <t>2020/E/098</t>
+  </si>
+  <si>
+    <t>2020/E/210</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1385,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1795,7 +1819,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1911,12 +1935,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2278,20 +2302,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="62" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="46" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" style="62" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
@@ -2320,7 +2344,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2364,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
@@ -2360,7 +2384,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2404,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +2424,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2444,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2444,7 +2468,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2488,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -2484,7 +2508,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2528,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2524,7 +2548,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2568,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +2608,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2628,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
@@ -2624,7 +2648,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
@@ -2646,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2690,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2710,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -2746,7 +2770,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -2786,7 +2810,7 @@
         <v>41.18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
@@ -2806,7 +2830,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
@@ -2826,7 +2850,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2890,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="16" t="s">
         <v>35</v>
       </c>
@@ -2906,7 +2930,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +2950,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="16" t="s">
         <v>37</v>
       </c>
@@ -2946,7 +2970,7 @@
         <v>41.18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
@@ -2986,7 +3010,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
@@ -3006,7 +3030,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
@@ -3026,7 +3050,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="16" t="s">
         <v>43</v>
       </c>
@@ -3066,7 +3090,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
@@ -3106,7 +3130,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="16" t="s">
         <v>46</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
@@ -3146,7 +3170,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="16" t="s">
         <v>48</v>
       </c>
@@ -3166,7 +3190,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
@@ -3186,7 +3210,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
@@ -3206,7 +3230,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="16" t="s">
         <v>51</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="16" t="s">
         <v>52</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="16" t="s">
         <v>53</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
+    <row r="49" spans="1:8" ht="15">
       <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" ht="15">
       <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
@@ -3306,7 +3330,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75">
+    <row r="51" spans="1:8" ht="15">
       <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
@@ -3326,7 +3350,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
+    <row r="52" spans="1:8" ht="15">
       <c r="A52" s="16" t="s">
         <v>57</v>
       </c>
@@ -3346,7 +3370,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
+    <row r="53" spans="1:8" ht="15">
       <c r="A53" s="16" t="s">
         <v>58</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
+    <row r="54" spans="1:8" ht="15">
       <c r="A54" s="16" t="s">
         <v>59</v>
       </c>
@@ -3386,7 +3410,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
+    <row r="55" spans="1:8" ht="15">
       <c r="A55" s="16" t="s">
         <v>60</v>
       </c>
@@ -3406,7 +3430,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8" ht="15">
       <c r="A56" s="16" t="s">
         <v>61</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
+    <row r="57" spans="1:8" ht="15">
       <c r="A57" s="16" t="s">
         <v>62</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" ht="15">
       <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75">
+    <row r="59" spans="1:8" ht="15">
       <c r="A59" s="16" t="s">
         <v>64</v>
       </c>
@@ -3486,7 +3510,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
+    <row r="60" spans="1:8" ht="15">
       <c r="A60" s="16" t="s">
         <v>65</v>
       </c>
@@ -3506,7 +3530,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75">
+    <row r="61" spans="1:8" ht="15">
       <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
@@ -3528,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75">
+    <row r="62" spans="1:8" ht="15">
       <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
@@ -3548,7 +3572,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75">
+    <row r="63" spans="1:8" ht="15">
       <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3592,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
+    <row r="64" spans="1:8" ht="15">
       <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
@@ -3588,7 +3612,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="16" t="s">
         <v>70</v>
       </c>
@@ -3608,7 +3632,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75">
+    <row r="66" spans="1:8" ht="15">
       <c r="A66" s="16" t="s">
         <v>71</v>
       </c>
@@ -3628,7 +3652,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75">
+    <row r="67" spans="1:8" ht="15">
       <c r="A67" s="16" t="s">
         <v>72</v>
       </c>
@@ -3648,7 +3672,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75">
+    <row r="68" spans="1:8" ht="15">
       <c r="A68" s="16" t="s">
         <v>73</v>
       </c>
@@ -3668,7 +3692,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75">
+    <row r="69" spans="1:8" ht="15">
       <c r="A69" s="16" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +3712,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75">
+    <row r="70" spans="1:8" ht="15">
       <c r="A70" s="16" t="s">
         <v>75</v>
       </c>
@@ -3708,7 +3732,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75">
+    <row r="71" spans="1:8" ht="15">
       <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
@@ -3728,7 +3752,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75">
+    <row r="72" spans="1:8" ht="15">
       <c r="A72" s="16" t="s">
         <v>77</v>
       </c>
@@ -3748,7 +3772,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75">
+    <row r="73" spans="1:8" ht="15">
       <c r="A73" s="16" t="s">
         <v>78</v>
       </c>
@@ -3768,7 +3792,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75">
+    <row r="74" spans="1:8" ht="15">
       <c r="A74" s="16" t="s">
         <v>79</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75">
+    <row r="75" spans="1:8" ht="15">
       <c r="A75" s="16" t="s">
         <v>80</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75">
+    <row r="76" spans="1:8" ht="15">
       <c r="A76" s="16" t="s">
         <v>81</v>
       </c>
@@ -3828,7 +3852,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75">
+    <row r="77" spans="1:8" ht="15">
       <c r="A77" s="16" t="s">
         <v>82</v>
       </c>
@@ -3848,7 +3872,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75">
+    <row r="78" spans="1:8" ht="15">
       <c r="A78" s="16" t="s">
         <v>83</v>
       </c>
@@ -3868,7 +3892,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75">
+    <row r="79" spans="1:8" ht="15">
       <c r="A79" s="16" t="s">
         <v>84</v>
       </c>
@@ -3890,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75">
+    <row r="80" spans="1:8" ht="15">
       <c r="A80" s="16" t="s">
         <v>85</v>
       </c>
@@ -3910,7 +3934,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75">
+    <row r="81" spans="1:8" ht="15">
       <c r="A81" s="16" t="s">
         <v>86</v>
       </c>
@@ -3930,7 +3954,7 @@
         <v>47.06</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75">
+    <row r="82" spans="1:8" ht="15">
       <c r="A82" s="16" t="s">
         <v>87</v>
       </c>
@@ -3950,7 +3974,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75">
+    <row r="83" spans="1:8" ht="15">
       <c r="A83" s="16" t="s">
         <v>88</v>
       </c>
@@ -3970,7 +3994,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75">
+    <row r="84" spans="1:8" ht="15">
       <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
@@ -3990,7 +4014,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75">
+    <row r="85" spans="1:8" ht="15">
       <c r="A85" s="16" t="s">
         <v>90</v>
       </c>
@@ -4010,7 +4034,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75">
+    <row r="86" spans="1:8" ht="15">
       <c r="A86" s="16" t="s">
         <v>91</v>
       </c>
@@ -4030,7 +4054,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75">
+    <row r="87" spans="1:8" ht="15">
       <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
@@ -4050,7 +4074,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75">
+    <row r="88" spans="1:8" ht="15">
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
@@ -4072,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75">
+    <row r="89" spans="1:8" ht="15">
       <c r="A89" s="16" t="s">
         <v>94</v>
       </c>
@@ -4092,7 +4116,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75">
+    <row r="90" spans="1:8" ht="15">
       <c r="A90" s="16" t="s">
         <v>95</v>
       </c>
@@ -4112,7 +4136,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75">
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="16" t="s">
         <v>96</v>
       </c>
@@ -4132,7 +4156,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75">
+    <row r="92" spans="1:8" ht="15">
       <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
@@ -4152,7 +4176,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75">
+    <row r="93" spans="1:8" ht="15">
       <c r="A93" s="16" t="s">
         <v>98</v>
       </c>
@@ -4172,7 +4196,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75">
+    <row r="94" spans="1:8" ht="15">
       <c r="A94" s="16" t="s">
         <v>99</v>
       </c>
@@ -4192,7 +4216,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75">
+    <row r="95" spans="1:8" ht="15">
       <c r="A95" s="16" t="s">
         <v>100</v>
       </c>
@@ -4212,7 +4236,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75">
+    <row r="96" spans="1:8" ht="15">
       <c r="A96" s="16" t="s">
         <v>101</v>
       </c>
@@ -4232,7 +4256,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75">
+    <row r="97" spans="1:8" ht="15">
       <c r="A97" s="16" t="s">
         <v>102</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75">
+    <row r="98" spans="1:8" ht="15">
       <c r="A98" s="16" t="s">
         <v>103</v>
       </c>
@@ -4272,7 +4296,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75">
+    <row r="99" spans="1:8" ht="15">
       <c r="A99" s="16" t="s">
         <v>104</v>
       </c>
@@ -4292,7 +4316,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75">
+    <row r="100" spans="1:8" ht="15">
       <c r="A100" s="16" t="s">
         <v>105</v>
       </c>
@@ -4314,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75">
+    <row r="101" spans="1:8" ht="15">
       <c r="A101" s="16" t="s">
         <v>106</v>
       </c>
@@ -4334,7 +4358,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75">
+    <row r="102" spans="1:8" ht="15">
       <c r="A102" s="16" t="s">
         <v>107</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75">
+    <row r="103" spans="1:8" ht="15">
       <c r="A103" s="16" t="s">
         <v>108</v>
       </c>
@@ -4374,7 +4398,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75">
+    <row r="104" spans="1:8" ht="15">
       <c r="A104" s="16" t="s">
         <v>109</v>
       </c>
@@ -4394,7 +4418,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75">
+    <row r="105" spans="1:8" ht="15">
       <c r="A105" s="16" t="s">
         <v>110</v>
       </c>
@@ -4414,7 +4438,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75">
+    <row r="106" spans="1:8" ht="15">
       <c r="A106" s="16" t="s">
         <v>111</v>
       </c>
@@ -4434,7 +4458,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75">
+    <row r="107" spans="1:8" ht="15">
       <c r="A107" s="16" t="s">
         <v>112</v>
       </c>
@@ -4454,7 +4478,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75">
+    <row r="108" spans="1:8" ht="15">
       <c r="A108" s="16" t="s">
         <v>113</v>
       </c>
@@ -4474,7 +4498,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75">
+    <row r="109" spans="1:8" ht="15">
       <c r="A109" s="16" t="s">
         <v>114</v>
       </c>
@@ -4494,7 +4518,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75">
+    <row r="110" spans="1:8" ht="15">
       <c r="A110" s="16" t="s">
         <v>115</v>
       </c>
@@ -4514,7 +4538,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75">
+    <row r="111" spans="1:8" ht="15">
       <c r="A111" s="16" t="s">
         <v>116</v>
       </c>
@@ -4534,7 +4558,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75">
+    <row r="112" spans="1:8" ht="15">
       <c r="A112" s="16" t="s">
         <v>117</v>
       </c>
@@ -4554,7 +4578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75">
+    <row r="113" spans="1:8" ht="15">
       <c r="A113" s="16" t="s">
         <v>118</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75">
+    <row r="114" spans="1:8" ht="15">
       <c r="A114" s="16" t="s">
         <v>119</v>
       </c>
@@ -4594,7 +4618,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75">
+    <row r="115" spans="1:8" ht="15">
       <c r="A115" s="16" t="s">
         <v>120</v>
       </c>
@@ -4614,7 +4638,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75">
+    <row r="116" spans="1:8" ht="15">
       <c r="A116" s="16" t="s">
         <v>121</v>
       </c>
@@ -4634,7 +4658,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75">
+    <row r="117" spans="1:8" ht="15">
       <c r="A117" s="16" t="s">
         <v>122</v>
       </c>
@@ -4654,7 +4678,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75">
+    <row r="118" spans="1:8" ht="15">
       <c r="A118" s="16" t="s">
         <v>123</v>
       </c>
@@ -4674,7 +4698,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75">
+    <row r="119" spans="1:8" ht="15">
       <c r="A119" s="16" t="s">
         <v>124</v>
       </c>
@@ -4694,7 +4718,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75">
+    <row r="120" spans="1:8" ht="15">
       <c r="A120" s="16" t="s">
         <v>125</v>
       </c>
@@ -4714,7 +4738,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75">
+    <row r="121" spans="1:8" ht="15">
       <c r="A121" s="16" t="s">
         <v>126</v>
       </c>
@@ -4734,7 +4758,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75">
+    <row r="122" spans="1:8" ht="15">
       <c r="A122" s="16" t="s">
         <v>127</v>
       </c>
@@ -4754,7 +4778,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75">
+    <row r="123" spans="1:8" ht="15">
       <c r="A123" s="16" t="s">
         <v>128</v>
       </c>
@@ -4774,7 +4798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75">
+    <row r="124" spans="1:8" ht="15">
       <c r="A124" s="16" t="s">
         <v>129</v>
       </c>
@@ -4794,7 +4818,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75">
+    <row r="125" spans="1:8" ht="15">
       <c r="A125" s="16" t="s">
         <v>130</v>
       </c>
@@ -4814,7 +4838,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75">
+    <row r="126" spans="1:8" ht="15">
       <c r="A126" s="16" t="s">
         <v>131</v>
       </c>
@@ -4834,7 +4858,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75">
+    <row r="127" spans="1:8" ht="15">
       <c r="A127" s="16" t="s">
         <v>132</v>
       </c>
@@ -4854,7 +4878,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75">
+    <row r="128" spans="1:8" ht="15">
       <c r="A128" s="16" t="s">
         <v>133</v>
       </c>
@@ -4874,7 +4898,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75">
+    <row r="129" spans="1:8" ht="15">
       <c r="A129" s="16" t="s">
         <v>134</v>
       </c>
@@ -4894,7 +4918,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75">
+    <row r="130" spans="1:8" ht="15">
       <c r="A130" s="16" t="s">
         <v>135</v>
       </c>
@@ -4914,7 +4938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75">
+    <row r="131" spans="1:8" ht="15">
       <c r="A131" s="16" t="s">
         <v>136</v>
       </c>
@@ -4934,7 +4958,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75">
+    <row r="132" spans="1:8" ht="15">
       <c r="A132" s="16" t="s">
         <v>137</v>
       </c>
@@ -4954,7 +4978,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75">
+    <row r="133" spans="1:8" ht="15">
       <c r="A133" s="16" t="s">
         <v>138</v>
       </c>
@@ -4974,7 +4998,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75">
+    <row r="134" spans="1:8" ht="15">
       <c r="A134" s="16" t="s">
         <v>139</v>
       </c>
@@ -4994,7 +5018,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75">
+    <row r="135" spans="1:8" ht="15">
       <c r="A135" s="16" t="s">
         <v>140</v>
       </c>
@@ -5014,7 +5038,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75">
+    <row r="136" spans="1:8" ht="15">
       <c r="A136" s="16" t="s">
         <v>141</v>
       </c>
@@ -5034,7 +5058,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75">
+    <row r="137" spans="1:8" ht="15">
       <c r="A137" s="16" t="s">
         <v>142</v>
       </c>
@@ -5054,7 +5078,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75">
+    <row r="138" spans="1:8" ht="15">
       <c r="A138" s="16" t="s">
         <v>143</v>
       </c>
@@ -5076,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75">
+    <row r="139" spans="1:8" ht="15">
       <c r="A139" s="16" t="s">
         <v>144</v>
       </c>
@@ -5096,7 +5120,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75">
+    <row r="140" spans="1:8" ht="15">
       <c r="A140" s="16" t="s">
         <v>145</v>
       </c>
@@ -5116,7 +5140,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75">
+    <row r="141" spans="1:8" ht="15">
       <c r="A141" s="16" t="s">
         <v>146</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75">
+    <row r="142" spans="1:8" ht="15">
       <c r="A142" s="16" t="s">
         <v>147</v>
       </c>
@@ -5156,7 +5180,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75">
+    <row r="143" spans="1:8" ht="15">
       <c r="A143" s="16" t="s">
         <v>148</v>
       </c>
@@ -5176,7 +5200,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75">
+    <row r="144" spans="1:8" ht="15">
       <c r="A144" s="16" t="s">
         <v>149</v>
       </c>
@@ -5196,7 +5220,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75">
+    <row r="145" spans="1:8" ht="15">
       <c r="A145" s="16" t="s">
         <v>150</v>
       </c>
@@ -5216,7 +5240,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75">
+    <row r="146" spans="1:8" ht="15">
       <c r="A146" s="16" t="s">
         <v>151</v>
       </c>
@@ -5236,7 +5260,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75">
+    <row r="147" spans="1:8" ht="15">
       <c r="A147" s="16" t="s">
         <v>152</v>
       </c>
@@ -5256,7 +5280,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75">
+    <row r="148" spans="1:8" ht="15">
       <c r="A148" s="16" t="s">
         <v>153</v>
       </c>
@@ -5276,7 +5300,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75">
+    <row r="149" spans="1:8" ht="15">
       <c r="A149" s="16" t="s">
         <v>154</v>
       </c>
@@ -5296,7 +5320,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75">
+    <row r="150" spans="1:8" ht="15">
       <c r="A150" s="16" t="s">
         <v>155</v>
       </c>
@@ -5316,7 +5340,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75">
+    <row r="151" spans="1:8" ht="15">
       <c r="A151" s="16" t="s">
         <v>156</v>
       </c>
@@ -5336,7 +5360,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75">
+    <row r="152" spans="1:8" ht="15">
       <c r="A152" s="16" t="s">
         <v>157</v>
       </c>
@@ -5356,7 +5380,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75">
+    <row r="153" spans="1:8" ht="15">
       <c r="A153" s="16" t="s">
         <v>158</v>
       </c>
@@ -5376,7 +5400,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75">
+    <row r="154" spans="1:8" ht="15">
       <c r="A154" s="16" t="s">
         <v>159</v>
       </c>
@@ -5396,7 +5420,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75">
+    <row r="155" spans="1:8" ht="15">
       <c r="A155" s="16" t="s">
         <v>160</v>
       </c>
@@ -5416,7 +5440,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75">
+    <row r="156" spans="1:8" ht="15">
       <c r="A156" s="16" t="s">
         <v>161</v>
       </c>
@@ -5436,7 +5460,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75">
+    <row r="157" spans="1:8" ht="15">
       <c r="A157" s="16" t="s">
         <v>162</v>
       </c>
@@ -5456,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75">
+    <row r="158" spans="1:8" ht="15">
       <c r="A158" s="16" t="s">
         <v>163</v>
       </c>
@@ -5476,7 +5500,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75">
+    <row r="159" spans="1:8" ht="15">
       <c r="A159" s="16" t="s">
         <v>164</v>
       </c>
@@ -5496,7 +5520,7 @@
         <v>58.819999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75">
+    <row r="160" spans="1:8" ht="15">
       <c r="A160" s="16" t="s">
         <v>165</v>
       </c>
@@ -5516,7 +5540,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75">
+    <row r="161" spans="1:8" ht="15">
       <c r="A161" s="16" t="s">
         <v>166</v>
       </c>
@@ -5536,7 +5560,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75">
+    <row r="162" spans="1:8" ht="15">
       <c r="A162" s="16" t="s">
         <v>167</v>
       </c>
@@ -5556,7 +5580,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75">
+    <row r="163" spans="1:8" ht="15">
       <c r="A163" s="16" t="s">
         <v>168</v>
       </c>
@@ -5576,7 +5600,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75">
+    <row r="164" spans="1:8" ht="15">
       <c r="A164" s="16" t="s">
         <v>169</v>
       </c>
@@ -5596,7 +5620,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75">
+    <row r="165" spans="1:8" ht="15">
       <c r="A165" s="16" t="s">
         <v>170</v>
       </c>
@@ -6076,7 +6100,7 @@
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75">
+    <row r="189" spans="1:8" ht="15">
       <c r="A189" s="16" t="s">
         <v>194</v>
       </c>
@@ -6096,7 +6120,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75">
+    <row r="190" spans="1:8" ht="15">
       <c r="A190" s="16" t="s">
         <v>195</v>
       </c>
@@ -6116,7 +6140,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75">
+    <row r="191" spans="1:8" ht="15">
       <c r="A191" s="16" t="s">
         <v>196</v>
       </c>
@@ -6136,7 +6160,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75">
+    <row r="192" spans="1:8" ht="15">
       <c r="A192" s="16" t="s">
         <v>197</v>
       </c>
@@ -6156,7 +6180,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75">
+    <row r="193" spans="1:8" ht="15">
       <c r="A193" s="16" t="s">
         <v>198</v>
       </c>
@@ -6176,7 +6200,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75">
+    <row r="194" spans="1:8" ht="15">
       <c r="A194" s="16" t="s">
         <v>199</v>
       </c>
@@ -6196,7 +6220,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75">
+    <row r="195" spans="1:8" ht="15">
       <c r="A195" s="16" t="s">
         <v>200</v>
       </c>
@@ -6216,7 +6240,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75">
+    <row r="196" spans="1:8" ht="15">
       <c r="A196" s="16" t="s">
         <v>201</v>
       </c>
@@ -6236,7 +6260,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75">
+    <row r="197" spans="1:8" ht="15">
       <c r="A197" s="16" t="s">
         <v>202</v>
       </c>
@@ -6256,7 +6280,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75">
+    <row r="198" spans="1:8" ht="15">
       <c r="A198" s="16" t="s">
         <v>203</v>
       </c>
@@ -6276,7 +6300,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75">
+    <row r="199" spans="1:8" ht="15">
       <c r="A199" s="16" t="s">
         <v>204</v>
       </c>
@@ -6296,7 +6320,7 @@
         <v>76.47</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75">
+    <row r="200" spans="1:8" ht="15">
       <c r="A200" s="16" t="s">
         <v>205</v>
       </c>
@@ -6316,7 +6340,7 @@
         <v>94.12</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75">
+    <row r="201" spans="1:8" ht="15">
       <c r="A201" s="20" t="s">
         <v>206</v>
       </c>
@@ -6336,7 +6360,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75">
+    <row r="202" spans="1:8" ht="15">
       <c r="A202" s="16" t="s">
         <v>408</v>
       </c>
@@ -6351,12 +6375,14 @@
       </c>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
-      <c r="G202" s="37"/>
+      <c r="G202" s="37">
+        <v>79</v>
+      </c>
       <c r="H202" s="44">
         <v>64.710000000000008</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75">
+    <row r="203" spans="1:8" ht="15">
       <c r="A203" s="24" t="s">
         <v>410</v>
       </c>
@@ -6371,280 +6397,422 @@
       </c>
       <c r="E203" s="23"/>
       <c r="F203" s="23"/>
-      <c r="G203" s="37"/>
+      <c r="G203" s="37">
+        <v>30</v>
+      </c>
       <c r="H203" s="44">
         <v>52.94</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75">
+    <row r="204" spans="1:8" ht="15">
       <c r="A204" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="B204" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C204" s="40">
-        <v>50</v>
-      </c>
-      <c r="D204" s="69">
-        <v>85</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B204" s="25"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="69"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
-      <c r="G204" s="37"/>
-      <c r="H204" s="44">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75">
+      <c r="G204" s="37">
+        <v>52</v>
+      </c>
+      <c r="H204" s="44"/>
+    </row>
+    <row r="205" spans="1:8" ht="15">
       <c r="A205" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="B205" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="C205" s="38">
-        <v>51</v>
-      </c>
-      <c r="D205" s="69">
-        <v>65</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B205" s="25"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="69"/>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
-      <c r="G205" s="37"/>
-      <c r="H205" s="44">
-        <v>70.59</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75">
+      <c r="G205" s="37">
+        <v>87</v>
+      </c>
+      <c r="H205" s="44"/>
+    </row>
+    <row r="206" spans="1:8" ht="15">
       <c r="A206" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="C206" s="38">
-        <v>43</v>
-      </c>
-      <c r="D206" s="69">
-        <v>66</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B206" s="25"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="69"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="44">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="15.75">
-      <c r="A207" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>429</v>
+      <c r="G206" s="37">
+        <v>1</v>
+      </c>
+      <c r="H206" s="44"/>
+    </row>
+    <row r="207" spans="1:8" ht="15">
+      <c r="A207" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="C207" s="40">
-        <v>45</v>
-      </c>
-      <c r="D207" s="70" t="s">
-        <v>418</v>
+        <v>50</v>
+      </c>
+      <c r="D207" s="69">
+        <v>85</v>
       </c>
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
-      <c r="G207" s="23"/>
-      <c r="H207" s="45"/>
-    </row>
-    <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C208" s="40">
-        <v>79</v>
-      </c>
-      <c r="D208" s="70" t="s">
-        <v>418</v>
+      <c r="G207" s="37">
+        <v>90</v>
+      </c>
+      <c r="H207" s="44">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15">
+      <c r="A208" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C208" s="38">
+        <v>51</v>
+      </c>
+      <c r="D208" s="69">
+        <v>65</v>
       </c>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
-      <c r="G208" s="23"/>
-      <c r="H208" s="45"/>
-    </row>
-    <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C209" s="40">
-        <v>68</v>
+      <c r="G208" s="37">
+        <v>91</v>
+      </c>
+      <c r="H208" s="44">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15">
+      <c r="A209" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C209" s="38">
+        <v>43</v>
       </c>
       <c r="D209" s="69">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
-      <c r="G209" s="23"/>
-      <c r="H209" s="45"/>
-    </row>
-    <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" s="40">
-        <v>81</v>
-      </c>
-      <c r="D210" s="69">
-        <v>79</v>
-      </c>
+      <c r="G209" s="37">
+        <v>76</v>
+      </c>
+      <c r="H209" s="44">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15">
+      <c r="A210" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B210" s="25"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="69"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
-      <c r="G210" s="23"/>
-      <c r="H210" s="45"/>
-    </row>
-    <row r="211" spans="1:8" ht="15.75">
+      <c r="G210" s="37">
+        <v>68</v>
+      </c>
+      <c r="H210" s="44"/>
+    </row>
+    <row r="211" spans="1:8" ht="15">
       <c r="A211" s="42" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C211" s="40">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D211" s="70" t="s">
         <v>418</v>
       </c>
       <c r="E211" s="23"/>
       <c r="F211" s="23"/>
-      <c r="G211" s="23"/>
+      <c r="G211" s="23">
+        <v>60</v>
+      </c>
       <c r="H211" s="45"/>
     </row>
-    <row r="212" spans="1:8" ht="15.75">
+    <row r="212" spans="1:8" ht="15">
       <c r="A212" s="42" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C212" s="40">
-        <v>36</v>
-      </c>
-      <c r="D212" s="69">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="D212" s="70" t="s">
+        <v>418</v>
       </c>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
-      <c r="G212" s="23"/>
+      <c r="G212" s="23">
+        <v>85</v>
+      </c>
       <c r="H212" s="45"/>
     </row>
-    <row r="213" spans="1:8" ht="15.75">
+    <row r="213" spans="1:8" ht="15">
       <c r="A213" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="B213" s="16"/>
-      <c r="C213" s="40" t="s">
-        <v>418</v>
+        <v>422</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C213" s="40">
+        <v>68</v>
       </c>
       <c r="D213" s="69">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E213" s="23"/>
       <c r="F213" s="23"/>
-      <c r="G213" s="23"/>
+      <c r="G213" s="23">
+        <v>87</v>
+      </c>
       <c r="H213" s="45"/>
     </row>
-    <row r="214" spans="1:8" ht="15.75">
+    <row r="214" spans="1:8" ht="15">
       <c r="A214" s="42" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C214" s="40">
-        <v>80</v>
-      </c>
-      <c r="D214" s="70" t="s">
-        <v>418</v>
+        <v>81</v>
+      </c>
+      <c r="D214" s="69">
+        <v>79</v>
       </c>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
-      <c r="G214" s="23"/>
+      <c r="G214" s="23">
+        <v>98</v>
+      </c>
       <c r="H214" s="45"/>
     </row>
-    <row r="215" spans="1:8" ht="15.75">
+    <row r="215" spans="1:8" ht="15">
       <c r="A215" s="42" t="s">
-        <v>439</v>
-      </c>
-      <c r="B215" s="16"/>
-      <c r="C215" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C215" s="40">
+        <v>48</v>
+      </c>
+      <c r="D215" s="70" t="s">
         <v>418</v>
-      </c>
-      <c r="D215" s="70">
-        <v>79</v>
       </c>
       <c r="E215" s="23"/>
       <c r="F215" s="23"/>
-      <c r="G215" s="23"/>
+      <c r="G215" s="23" t="s">
+        <v>418</v>
+      </c>
       <c r="H215" s="45"/>
     </row>
-    <row r="216" spans="1:8" ht="15.75">
+    <row r="216" spans="1:8" ht="15">
       <c r="A216" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C216" s="40">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D216" s="69">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
-      <c r="G216" s="23"/>
+      <c r="G216" s="23">
+        <v>75</v>
+      </c>
       <c r="H216" s="45"/>
     </row>
-    <row r="217" spans="1:8" ht="15.75">
+    <row r="217" spans="1:8" ht="15">
       <c r="A217" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="C217" s="40">
-        <v>79</v>
-      </c>
-      <c r="D217" s="69">
-        <v>30</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B217" s="16"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="69"/>
       <c r="E217" s="23"/>
       <c r="F217" s="23"/>
-      <c r="G217" s="23"/>
+      <c r="G217" s="23">
+        <v>96</v>
+      </c>
       <c r="H217" s="45"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" ht="15">
       <c r="A218" s="42" t="s">
-        <v>440</v>
-      </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="61" t="s">
-        <v>418</v>
-      </c>
-      <c r="D218" s="69">
-        <v>67</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B218" s="16"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="69"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
-      <c r="G218" s="23"/>
+      <c r="G218" s="23">
+        <v>90</v>
+      </c>
       <c r="H218" s="45"/>
+    </row>
+    <row r="219" spans="1:8" ht="15">
+      <c r="A219" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" s="16"/>
+      <c r="C219" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D219" s="69">
+        <v>54</v>
+      </c>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23">
+        <v>87</v>
+      </c>
+      <c r="H219" s="45"/>
+    </row>
+    <row r="220" spans="1:8" ht="15">
+      <c r="A220" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220" s="40">
+        <v>80</v>
+      </c>
+      <c r="D220" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23">
+        <v>84</v>
+      </c>
+      <c r="H220" s="45"/>
+    </row>
+    <row r="221" spans="1:8" ht="15">
+      <c r="A221" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B221" s="16"/>
+      <c r="C221" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D221" s="70">
+        <v>79</v>
+      </c>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23">
+        <v>75</v>
+      </c>
+      <c r="H221" s="45"/>
+    </row>
+    <row r="222" spans="1:8" ht="15">
+      <c r="A222" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C222" s="40">
+        <v>38</v>
+      </c>
+      <c r="D222" s="69">
+        <v>64</v>
+      </c>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23">
+        <v>61</v>
+      </c>
+      <c r="H222" s="45"/>
+    </row>
+    <row r="223" spans="1:8" ht="15">
+      <c r="A223" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" s="16"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="69"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23">
+        <v>69</v>
+      </c>
+      <c r="H223" s="45"/>
+    </row>
+    <row r="224" spans="1:8" ht="15">
+      <c r="A224" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C224" s="40">
+        <v>79</v>
+      </c>
+      <c r="D224" s="69">
+        <v>30</v>
+      </c>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="23"/>
+      <c r="H224" s="45"/>
+    </row>
+    <row r="225" spans="1:8" ht="15">
+      <c r="A225" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" s="16"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="69"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="23">
+        <v>93</v>
+      </c>
+      <c r="H225" s="45"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B226" s="23"/>
+      <c r="C226" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="D226" s="69">
+        <v>67</v>
+      </c>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23">
+        <v>44</v>
+      </c>
+      <c r="H226" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -6654,6 +6822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6797,12 +6971,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6813,12 +6981,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6834,6 +6996,12 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2208,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2223,7 +2223,7 @@
     <col min="8" max="8" width="15.5703125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -2264,10 +2264,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="42"/>
       <c r="H2" s="61">
-        <v>64.710000000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
@@ -2282,10 +2282,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="43"/>
       <c r="H3" s="61">
-        <v>58.819999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
@@ -2300,10 +2300,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="44"/>
       <c r="H4" s="61">
-        <v>58.819999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
@@ -2318,10 +2318,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="44"/>
       <c r="H5" s="61">
-        <v>76.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
@@ -2336,10 +2336,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="44"/>
       <c r="H6" s="61">
-        <v>76.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
@@ -2354,14 +2354,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="44"/>
       <c r="H7" s="61">
-        <v>58.819999999999993</v>
-      </c>
-      <c r="M7">
-        <f>100*0.6471</f>
-        <v>64.710000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -2376,10 +2372,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="44"/>
       <c r="H8" s="61">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -2394,10 +2390,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="44"/>
       <c r="H9" s="61">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
@@ -2412,10 +2408,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="44"/>
       <c r="H10" s="61">
-        <v>82.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
@@ -2430,10 +2426,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="44"/>
       <c r="H11" s="61">
-        <v>88.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
@@ -2448,10 +2444,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="44"/>
       <c r="H12" s="61">
-        <v>58.819999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75">
+        <v>55.559999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
@@ -2466,10 +2462,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="44"/>
       <c r="H13" s="61">
-        <v>88.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
@@ -2484,10 +2480,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="44"/>
       <c r="H14" s="61">
-        <v>58.819999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2502,10 +2498,10 @@
       <c r="F15" s="3"/>
       <c r="G15" s="44"/>
       <c r="H15" s="61">
-        <v>52.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
+        <v>55.559999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2516,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="44"/>
       <c r="H16" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
@@ -2556,7 +2552,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="44"/>
       <c r="H18" s="61">
-        <v>88.24</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
@@ -2574,7 +2570,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="44"/>
       <c r="H19" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -2592,7 +2588,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="44"/>
       <c r="H20" s="61">
-        <v>52.94</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
@@ -2610,7 +2606,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="44"/>
       <c r="H21" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
@@ -2628,7 +2624,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="44"/>
       <c r="H22" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
@@ -2646,7 +2642,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="44"/>
       <c r="H23" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -2664,7 +2660,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="44"/>
       <c r="H24" s="61">
-        <v>41.18</v>
+        <v>44.440000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
@@ -2682,7 +2678,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="44"/>
       <c r="H25" s="61">
-        <v>52.94</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
@@ -2700,7 +2696,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="44"/>
       <c r="H26" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
@@ -2718,7 +2714,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="44"/>
       <c r="H27" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -2736,7 +2732,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="44"/>
       <c r="H28" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -2754,7 +2750,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="44"/>
       <c r="H29" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
@@ -2772,7 +2768,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="44"/>
       <c r="H30" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -2790,7 +2786,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="44"/>
       <c r="H31" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
@@ -2808,7 +2804,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="45"/>
       <c r="H32" s="61">
-        <v>41.18</v>
+        <v>44.440000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
@@ -2826,7 +2822,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="44"/>
       <c r="H33" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -2844,7 +2840,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="44"/>
       <c r="H34" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
@@ -2862,7 +2858,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="44"/>
       <c r="H35" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -2880,7 +2876,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="44"/>
       <c r="H36" s="61">
-        <v>47.06</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
@@ -2898,7 +2894,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="44"/>
       <c r="H37" s="61">
-        <v>47.06</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -2916,7 +2912,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="44"/>
       <c r="H38" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
@@ -2934,7 +2930,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="44"/>
       <c r="H39" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
@@ -2952,7 +2948,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="44"/>
       <c r="H40" s="61">
-        <v>68.75</v>
+        <v>70.59</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
@@ -2970,7 +2966,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="44"/>
       <c r="H41" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
@@ -2988,7 +2984,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="44"/>
       <c r="H42" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -3006,7 +3002,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="44"/>
       <c r="H43" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
@@ -3024,7 +3020,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="44"/>
       <c r="H44" s="61">
-        <v>47.06</v>
+        <v>44.440000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
@@ -3042,7 +3038,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="44"/>
       <c r="H45" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -3060,7 +3056,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="44"/>
       <c r="H46" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -3078,7 +3074,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="44"/>
       <c r="H47" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -3096,7 +3092,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="44"/>
       <c r="H48" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
@@ -3114,7 +3110,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="45"/>
       <c r="H49" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
@@ -3132,7 +3128,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="44"/>
       <c r="H50" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
@@ -3150,7 +3146,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="44"/>
       <c r="H51" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
@@ -3168,7 +3164,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="44"/>
       <c r="H52" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
@@ -3186,7 +3182,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="44"/>
       <c r="H53" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -3204,7 +3200,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="44"/>
       <c r="H54" s="61">
-        <v>70.59</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
@@ -3222,7 +3218,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="44"/>
       <c r="H55" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
@@ -3240,7 +3236,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="45"/>
       <c r="H56" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
@@ -3258,7 +3254,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="44"/>
       <c r="H57" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
@@ -3276,7 +3272,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="44"/>
       <c r="H58" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
@@ -3294,7 +3290,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="44"/>
       <c r="H59" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
@@ -3312,7 +3308,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="44"/>
       <c r="H60" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
@@ -3348,7 +3344,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="44"/>
       <c r="H62" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
@@ -3366,7 +3362,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="44"/>
       <c r="H63" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
@@ -3384,7 +3380,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="44"/>
       <c r="H64" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -3402,7 +3398,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="44"/>
       <c r="H65" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
@@ -3420,7 +3416,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="44"/>
       <c r="H66" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -3438,7 +3434,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="44"/>
       <c r="H67" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -3456,7 +3452,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="44"/>
       <c r="H68" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -3474,7 +3470,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="45"/>
       <c r="H69" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
@@ -3492,7 +3488,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="44"/>
       <c r="H70" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
@@ -3510,7 +3506,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="44"/>
       <c r="H71" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
@@ -3528,7 +3524,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="44"/>
       <c r="H72" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
@@ -3546,7 +3542,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="44"/>
       <c r="H73" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -3564,7 +3560,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="45"/>
       <c r="H74" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
@@ -3582,7 +3578,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="45"/>
       <c r="H75" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
@@ -3600,7 +3596,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="44"/>
       <c r="H76" s="61">
-        <v>58.819999999999993</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
@@ -3618,7 +3614,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="44"/>
       <c r="H77" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
@@ -3636,7 +3632,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="44"/>
       <c r="H78" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
@@ -3672,7 +3668,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="44"/>
       <c r="H80" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
@@ -3690,7 +3686,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="44"/>
       <c r="H81" s="61">
-        <v>47.06</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -3708,7 +3704,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="44"/>
       <c r="H82" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
@@ -3726,7 +3722,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="44"/>
       <c r="H83" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
@@ -3744,7 +3740,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="44"/>
       <c r="H84" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
@@ -3762,7 +3758,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="44"/>
       <c r="H85" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
@@ -3780,7 +3776,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="45"/>
       <c r="H86" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
@@ -3798,7 +3794,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="44"/>
       <c r="H87" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
@@ -3834,7 +3830,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="44"/>
       <c r="H89" s="61">
-        <v>82.35</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
@@ -3852,7 +3848,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="44"/>
       <c r="H90" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
@@ -3870,7 +3866,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="44"/>
       <c r="H91" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
@@ -3888,7 +3884,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="44"/>
       <c r="H92" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
@@ -3906,7 +3902,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="45"/>
       <c r="H93" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
@@ -3924,7 +3920,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="44"/>
       <c r="H94" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
@@ -3942,7 +3938,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="44"/>
       <c r="H95" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
@@ -3960,7 +3956,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="44"/>
       <c r="H96" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
@@ -3978,7 +3974,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="44"/>
       <c r="H97" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
@@ -3996,7 +3992,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="44"/>
       <c r="H98" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -4014,7 +4010,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="44"/>
       <c r="H99" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
@@ -4050,7 +4046,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="44"/>
       <c r="H101" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
@@ -4086,7 +4082,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="45"/>
       <c r="H103" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
@@ -4104,7 +4100,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="44"/>
       <c r="H104" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
@@ -4122,7 +4118,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="44"/>
       <c r="H105" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
@@ -4140,7 +4136,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="44"/>
       <c r="H106" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
@@ -4158,7 +4154,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="44"/>
       <c r="H107" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
@@ -4176,7 +4172,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="44"/>
       <c r="H108" s="61">
-        <v>88.24</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
@@ -4194,7 +4190,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="44"/>
       <c r="H109" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -4212,7 +4208,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="44"/>
       <c r="H110" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -4230,7 +4226,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="44"/>
       <c r="H111" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
@@ -4266,7 +4262,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="44"/>
       <c r="H113" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -4284,7 +4280,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="44"/>
       <c r="H114" s="61">
-        <v>88.24</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
@@ -4302,7 +4298,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="44"/>
       <c r="H115" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
@@ -4320,7 +4316,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="44"/>
       <c r="H116" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
@@ -4338,7 +4334,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="44"/>
       <c r="H117" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
@@ -4356,7 +4352,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="44"/>
       <c r="H118" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
@@ -4374,7 +4370,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="44"/>
       <c r="H119" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
@@ -4392,7 +4388,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="44"/>
       <c r="H120" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
@@ -4410,7 +4406,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="44"/>
       <c r="H121" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
@@ -4428,7 +4424,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="44"/>
       <c r="H122" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
@@ -4464,7 +4460,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="44"/>
       <c r="H124" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
@@ -4482,7 +4478,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="44"/>
       <c r="H125" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
@@ -4500,7 +4496,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="44"/>
       <c r="H126" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
@@ -4518,7 +4514,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="44"/>
       <c r="H127" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -4536,7 +4532,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="44"/>
       <c r="H128" s="61">
-        <v>52.94</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
@@ -4554,7 +4550,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="44"/>
       <c r="H129" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
@@ -4590,7 +4586,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="44"/>
       <c r="H131" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
@@ -4608,7 +4604,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="44"/>
       <c r="H132" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
@@ -4626,7 +4622,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="44"/>
       <c r="H133" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
@@ -4644,7 +4640,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="44"/>
       <c r="H134" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
@@ -4662,7 +4658,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="44"/>
       <c r="H135" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
@@ -4680,7 +4676,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="44"/>
       <c r="H136" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
@@ -4698,7 +4694,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="44"/>
       <c r="H137" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -4734,7 +4730,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="46"/>
       <c r="H139" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
@@ -4752,7 +4748,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="47"/>
       <c r="H140" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
@@ -4770,7 +4766,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="43"/>
       <c r="H141" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
@@ -4788,7 +4784,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="44"/>
       <c r="H142" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
@@ -4806,7 +4802,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="44"/>
       <c r="H143" s="61">
-        <v>11.76</v>
+        <v>11.110000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
@@ -4824,7 +4820,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="44"/>
       <c r="H144" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
@@ -4842,7 +4838,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="44"/>
       <c r="H145" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
@@ -4860,7 +4856,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="44"/>
       <c r="H146" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
@@ -4878,7 +4874,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="44"/>
       <c r="H147" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
@@ -4896,7 +4892,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="44"/>
       <c r="H148" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
@@ -4914,7 +4910,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="44"/>
       <c r="H149" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
@@ -4932,7 +4928,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="44"/>
       <c r="H150" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
@@ -4950,7 +4946,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="44"/>
       <c r="H151" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
@@ -4968,7 +4964,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="44"/>
       <c r="H152" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
@@ -4986,7 +4982,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="44"/>
       <c r="H153" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
@@ -5004,7 +5000,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="44"/>
       <c r="H154" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
@@ -5022,7 +5018,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="44"/>
       <c r="H155" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
@@ -5040,7 +5036,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="44"/>
       <c r="H156" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
@@ -5076,7 +5072,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="44"/>
       <c r="H158" s="61">
-        <v>64.710000000000008</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
@@ -5094,7 +5090,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="44"/>
       <c r="H159" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
@@ -5112,7 +5108,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="44"/>
       <c r="H160" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
@@ -5130,7 +5126,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="44"/>
       <c r="H161" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
@@ -5148,7 +5144,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="44"/>
       <c r="H162" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
@@ -5166,7 +5162,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="44"/>
       <c r="H163" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
@@ -5184,7 +5180,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="44"/>
       <c r="H164" s="61">
-        <v>5.88</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
@@ -5202,7 +5198,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="44"/>
       <c r="H165" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5220,7 +5216,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="44"/>
       <c r="H166" s="61">
-        <v>88.24</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5256,7 +5252,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="44"/>
       <c r="H168" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5274,7 +5270,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="44"/>
       <c r="H169" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5292,7 +5288,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="44"/>
       <c r="H170" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5310,7 +5306,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="46"/>
       <c r="H171" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5328,7 +5324,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="42"/>
       <c r="H172" s="61">
-        <v>52.94</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5346,7 +5342,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="42"/>
       <c r="H173" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5364,7 +5360,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="42"/>
       <c r="H174" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5382,7 +5378,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="42"/>
       <c r="H175" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5400,7 +5396,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="42"/>
       <c r="H176" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5418,7 +5414,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="42"/>
       <c r="H177" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5436,7 +5432,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="48"/>
       <c r="H178" s="61">
-        <v>58.819999999999993</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5472,7 +5468,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
       <c r="H180" s="61">
-        <v>70.59</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5490,7 +5486,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="49"/>
       <c r="H181" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5508,7 +5504,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="50"/>
       <c r="H182" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5526,7 +5522,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="50"/>
       <c r="H183" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5544,7 +5540,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="50"/>
       <c r="H184" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5562,7 +5558,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="51"/>
       <c r="H185" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5580,7 +5576,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="51"/>
       <c r="H186" s="61">
-        <v>52.94</v>
+        <v>55.559999999999995</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5598,7 +5594,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="51"/>
       <c r="H187" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5616,7 +5612,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="48"/>
       <c r="H188" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -5634,7 +5630,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="48"/>
       <c r="H189" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
@@ -5652,7 +5648,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="48"/>
       <c r="H190" s="61">
-        <v>52.94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
@@ -5670,7 +5666,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="48"/>
       <c r="H191" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
@@ -5688,7 +5684,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="48"/>
       <c r="H192" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
@@ -5706,7 +5702,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="48"/>
       <c r="H193" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
@@ -5724,7 +5720,7 @@
       <c r="F194" s="27"/>
       <c r="G194" s="48"/>
       <c r="H194" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
@@ -5742,7 +5738,7 @@
       <c r="F195" s="29"/>
       <c r="G195" s="48"/>
       <c r="H195" s="61">
-        <v>76.47</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
@@ -5760,7 +5756,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="48"/>
       <c r="H196" s="61">
-        <v>76.47</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
@@ -5778,7 +5774,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="48"/>
       <c r="H197" s="61">
-        <v>88.24</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
@@ -5796,7 +5792,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="48"/>
       <c r="H198" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
@@ -5814,7 +5810,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="48"/>
       <c r="H199" s="61">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
@@ -5832,7 +5828,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="48"/>
       <c r="H200" s="61">
-        <v>94.12</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -5850,7 +5846,7 @@
       <c r="F201" s="37"/>
       <c r="G201" s="52"/>
       <c r="H201" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
@@ -5868,7 +5864,7 @@
       <c r="F202" s="39"/>
       <c r="G202" s="53"/>
       <c r="H202" s="61">
-        <v>64.710000000000008</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
@@ -5886,7 +5882,7 @@
       <c r="F203" s="39"/>
       <c r="G203" s="53"/>
       <c r="H203" s="61">
-        <v>52.94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
@@ -5904,7 +5900,7 @@
       <c r="F204" s="39"/>
       <c r="G204" s="53"/>
       <c r="H204" s="61">
-        <v>82.35</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
@@ -5922,7 +5918,7 @@
       <c r="F205" s="39"/>
       <c r="G205" s="53"/>
       <c r="H205" s="61">
-        <v>70.59</v>
+        <v>72.22</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
@@ -5940,7 +5936,7 @@
       <c r="F206" s="39"/>
       <c r="G206" s="53"/>
       <c r="H206" s="61">
-        <v>11.76</v>
+        <v>16.669999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
@@ -6094,6 +6090,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6237,15 +6242,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6253,13 +6249,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="442">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1333,6 +1333,18 @@
   </si>
   <si>
     <t>DISSANAYAKA M.I.I.D.</t>
+  </si>
+  <si>
+    <t>2022/E/135</t>
+  </si>
+  <si>
+    <t>2021/E/131</t>
+  </si>
+  <si>
+    <t>RATHNAYAKA R.M.D.K</t>
+  </si>
+  <si>
+    <t>SAMARASINGHE S.A.C.A.</t>
   </si>
 </sst>
 </file>
@@ -1403,17 +1415,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
@@ -1443,6 +1444,15 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1507,7 +1517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1630,17 +1640,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -1670,17 +1669,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1748,9 +1736,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,31 +1749,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,7 +1761,7 @@
     <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1806,74 +1770,53 @@
     <xf numFmtId="2" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,43 +1825,67 @@
     <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="10" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="10" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2208,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2220,3868 +2187,4332 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="45" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="39">
         <v>45</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="49">
+        <v>27</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="61">
-        <v>66.67</v>
+      <c r="G2" s="27"/>
+      <c r="H2" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="40">
         <v>60</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="50">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="61">
-        <v>61.11</v>
+      <c r="G3" s="28"/>
+      <c r="H3" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="51">
+        <v>77</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="61">
-        <v>61.11</v>
+      <c r="G4" s="29"/>
+      <c r="H4" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="39">
         <v>40</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="51">
+        <v>34</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="61">
-        <v>77.78</v>
+      <c r="G5" s="29"/>
+      <c r="H5" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="39">
         <v>77</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="51">
+        <v>73</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="61">
-        <v>77.78</v>
+      <c r="G6" s="29"/>
+      <c r="H6" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="39">
         <v>63</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="50">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="61">
-        <v>61.11</v>
+      <c r="G7" s="29"/>
+      <c r="H7" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="39">
         <v>77</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="51">
+        <v>97</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="61">
-        <v>83.33</v>
+      <c r="G8" s="29"/>
+      <c r="H8" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="39">
         <v>63</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="51">
+        <v>99</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="61">
-        <v>83.33</v>
+      <c r="G9" s="29"/>
+      <c r="H9" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="39">
         <v>73</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="51">
+        <v>93</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="61">
-        <v>83.33</v>
+      <c r="G10" s="29"/>
+      <c r="H10" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="39">
         <v>40</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="51">
+        <v>95</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="61">
-        <v>88.89</v>
+      <c r="G11" s="29"/>
+      <c r="H11" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="39">
         <v>37</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="61">
-        <v>55.559999999999995</v>
+      <c r="G12" s="29"/>
+      <c r="H12" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="39">
         <v>91</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="51">
+        <v>75</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="61">
-        <v>88.89</v>
+      <c r="G13" s="29"/>
+      <c r="H13" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="39">
         <v>29</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="51">
+        <v>81</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="61">
-        <v>61.11</v>
+      <c r="G14" s="29"/>
+      <c r="H14" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="39">
         <v>35</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="51">
+        <v>60</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="61">
-        <v>55.559999999999995</v>
+      <c r="G15" s="29"/>
+      <c r="H15" s="46">
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="39">
         <v>35</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="51">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="61">
-        <v>77.78</v>
+      <c r="G16" s="29"/>
+      <c r="H16" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="61">
+      <c r="G17" s="29"/>
+      <c r="H17" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="39">
         <v>43</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="51">
+        <v>99</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="61">
-        <v>83.33</v>
+      <c r="G18" s="29"/>
+      <c r="H18" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="39">
         <v>44</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="51">
+        <v>38</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="61">
-        <v>61.11</v>
+      <c r="G19" s="29"/>
+      <c r="H19" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="39">
         <v>59</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="51">
+        <v>39</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="61">
-        <v>55.559999999999995</v>
+      <c r="G20" s="29"/>
+      <c r="H20" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="39">
         <v>42</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="51">
+        <v>18</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="61">
-        <v>77.78</v>
+      <c r="G21" s="29"/>
+      <c r="H21" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="39">
         <v>59</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="51">
+        <v>67</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="61">
-        <v>66.67</v>
+      <c r="G22" s="29"/>
+      <c r="H22" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="39">
         <v>55</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="51">
+        <v>65</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="61">
-        <v>61.11</v>
+      <c r="G23" s="29"/>
+      <c r="H23" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="39">
         <v>41</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="50">
+        <v>64</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="61">
-        <v>44.440000000000005</v>
+      <c r="G24" s="29"/>
+      <c r="H24" s="46">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="39">
         <v>41</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="50">
+        <v>28</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="61">
-        <v>55.559999999999995</v>
+      <c r="G25" s="29"/>
+      <c r="H25" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="39">
         <v>46</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="50">
+        <v>59</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="61">
-        <v>72.22</v>
+      <c r="G26" s="29"/>
+      <c r="H26" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="39">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="50">
+        <v>100</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="61">
-        <v>77.78</v>
+      <c r="G27" s="29"/>
+      <c r="H27" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="39">
         <v>57</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="51">
+        <v>44</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="61">
-        <v>72.22</v>
+      <c r="G28" s="29"/>
+      <c r="H28" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="39">
         <v>43</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="51">
+        <v>38</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="61">
-        <v>88.89</v>
+      <c r="G29" s="29"/>
+      <c r="H29" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="39">
         <v>49</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="51">
+        <v>40</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="61">
-        <v>94.44</v>
+      <c r="G30" s="29"/>
+      <c r="H30" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="39">
         <v>58</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="50">
+        <v>68</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="61">
-        <v>83.33</v>
+      <c r="G31" s="29"/>
+      <c r="H31" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="39">
         <v>10</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="50">
+        <v>51</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="61">
-        <v>44.440000000000005</v>
+      <c r="G32" s="30"/>
+      <c r="H32" s="46">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="39">
         <v>75</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="50">
+        <v>46</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="61">
-        <v>72.22</v>
+      <c r="G33" s="29"/>
+      <c r="H33" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="39">
         <v>59</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="51">
+        <v>81</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="61">
-        <v>88.89</v>
+      <c r="G34" s="29"/>
+      <c r="H34" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="39">
         <v>49</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="50">
+        <v>37</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="61">
-        <v>94.44</v>
+      <c r="G35" s="29"/>
+      <c r="H35" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="39">
         <v>39</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="50">
+        <v>21</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="61">
+      <c r="G36" s="29"/>
+      <c r="H36" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="39">
         <v>31</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="51">
+        <v>54</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="61">
-        <v>50</v>
+      <c r="G37" s="29"/>
+      <c r="H37" s="46">
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="39">
         <v>87</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="51">
+        <v>94</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="61">
-        <v>83.33</v>
+      <c r="G38" s="29"/>
+      <c r="H38" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="39">
         <v>74</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="51">
+        <v>100</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="61">
-        <v>88.89</v>
+      <c r="G39" s="29"/>
+      <c r="H39" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="39">
         <v>61</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="51">
+        <v>60</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="61">
-        <v>70.59</v>
+      <c r="G40" s="29"/>
+      <c r="H40" s="46">
+        <v>73.680000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="39">
         <v>55</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="51">
+        <v>76</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="61">
-        <v>94.44</v>
+      <c r="G41" s="29"/>
+      <c r="H41" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="39">
         <v>47</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="51">
+        <v>50</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="61">
-        <v>88.89</v>
+      <c r="G42" s="29"/>
+      <c r="H42" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="39">
         <v>27</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="51">
+        <v>60</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="61">
-        <v>61.11</v>
+      <c r="G43" s="29"/>
+      <c r="H43" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="39">
         <v>33</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="50">
+        <v>27</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="61">
-        <v>44.440000000000005</v>
+      <c r="G44" s="29"/>
+      <c r="H44" s="46">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="39">
         <v>78</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="50">
+        <v>68</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="61">
-        <v>94.44</v>
+      <c r="G45" s="29"/>
+      <c r="H45" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="39">
         <v>37</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="51">
+        <v>75</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="61">
-        <v>61.11</v>
+      <c r="G46" s="29"/>
+      <c r="H46" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="39">
         <v>52</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="51">
+        <v>59</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="61">
-        <v>83.33</v>
+      <c r="G47" s="29"/>
+      <c r="H47" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="39">
         <v>60</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="51">
+        <v>75</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="61">
-        <v>77.78</v>
+      <c r="G48" s="29"/>
+      <c r="H48" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="39">
         <v>59</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="51">
+        <v>79</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="61">
-        <v>88.89</v>
+      <c r="G49" s="30"/>
+      <c r="H49" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="39">
         <v>69</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="51">
+        <v>55</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="61">
-        <v>83.33</v>
+      <c r="G50" s="29"/>
+      <c r="H50" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="39">
         <v>69</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="51">
+        <v>68</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="61">
-        <v>88.89</v>
+      <c r="G51" s="29"/>
+      <c r="H51" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="39">
         <v>73</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="51">
+        <v>43</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="61">
-        <v>83.33</v>
+      <c r="G52" s="29"/>
+      <c r="H52" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="39">
         <v>82</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="51">
+        <v>38</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="61">
-        <v>66.67</v>
+      <c r="G53" s="29"/>
+      <c r="H53" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="39">
         <v>34</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="51">
+        <v>61</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="61">
-        <v>66.67</v>
+      <c r="G54" s="29"/>
+      <c r="H54" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="39">
         <v>64</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="51">
+        <v>85</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="61">
-        <v>77.78</v>
+      <c r="G55" s="29"/>
+      <c r="H55" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56" s="39">
         <v>63</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="50">
+        <v>31</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="61">
-        <v>77.78</v>
+      <c r="G56" s="30"/>
+      <c r="H56" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="39">
         <v>64</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="51">
+        <v>56</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="61">
-        <v>88.89</v>
+      <c r="G57" s="29"/>
+      <c r="H57" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="39">
         <v>73</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="51">
+        <v>100</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="61">
-        <v>88.89</v>
+      <c r="G58" s="29"/>
+      <c r="H58" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="54">
+      <c r="C59" s="39">
         <v>68</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="51">
+        <v>32</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="61">
-        <v>94.44</v>
+      <c r="G59" s="29"/>
+      <c r="H59" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="54">
+      <c r="C60" s="39">
         <v>68</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="51">
+        <v>97</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="61">
-        <v>88.89</v>
+      <c r="G60" s="29"/>
+      <c r="H60" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="61">
+      <c r="G61" s="29"/>
+      <c r="H61" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="39">
         <v>45</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="51">
+        <v>83</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="61">
-        <v>61.11</v>
+      <c r="G62" s="29"/>
+      <c r="H62" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63" s="39">
         <v>41</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="51">
+        <v>35</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="61">
-        <v>77.78</v>
+      <c r="G63" s="29"/>
+      <c r="H63" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="39">
         <v>30</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="51">
+        <v>70</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="61">
-        <v>94.44</v>
+      <c r="G64" s="29"/>
+      <c r="H64" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="54">
+      <c r="C65" s="39">
         <v>52</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="51">
+        <v>62</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="61">
-        <v>77.78</v>
+      <c r="G65" s="29"/>
+      <c r="H65" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="54">
+      <c r="C66" s="39">
         <v>83</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="51">
+        <v>100</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="61">
-        <v>94.44</v>
+      <c r="G66" s="29"/>
+      <c r="H66" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="39">
         <v>60</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="50">
+        <v>58</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="61">
-        <v>66.67</v>
+      <c r="G67" s="29"/>
+      <c r="H67" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="54">
+      <c r="C68" s="39">
         <v>66</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="51">
+        <v>86</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="61">
-        <v>83.33</v>
+      <c r="G68" s="29"/>
+      <c r="H68" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="54">
+      <c r="C69" s="39">
         <v>67</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="51">
+        <v>89</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="61">
-        <v>94.44</v>
+      <c r="G69" s="30"/>
+      <c r="H69" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="39">
         <v>82</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="51">
+        <v>68</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="61">
-        <v>88.89</v>
+      <c r="G70" s="29"/>
+      <c r="H70" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="39">
         <v>51</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="51">
+        <v>71</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="61">
-        <v>83.33</v>
+      <c r="G71" s="29"/>
+      <c r="H71" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="54">
+      <c r="C72" s="39">
         <v>96</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="51">
+        <v>100</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="61">
-        <v>88.89</v>
+      <c r="G72" s="29"/>
+      <c r="H72" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="39">
         <v>61</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="51">
+        <v>96</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="61">
-        <v>77.78</v>
+      <c r="G73" s="29"/>
+      <c r="H73" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="39">
         <v>0</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="51">
+        <v>36</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="61">
-        <v>61.11</v>
+      <c r="G74" s="30"/>
+      <c r="H74" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="39">
         <v>66</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="51">
+        <v>38</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="61">
-        <v>72.22</v>
+      <c r="G75" s="30"/>
+      <c r="H75" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="39">
         <v>28</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="51">
+        <v>66</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="61">
-        <v>55.559999999999995</v>
+      <c r="G76" s="29"/>
+      <c r="H76" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C77" s="39">
         <v>58</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="51">
+        <v>41</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="61">
-        <v>88.89</v>
+      <c r="G77" s="29"/>
+      <c r="H77" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="54">
+      <c r="C78" s="39">
         <v>52</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="51">
+        <v>67</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="61">
-        <v>88.89</v>
+      <c r="G78" s="29"/>
+      <c r="H78" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="61">
+      <c r="G79" s="29"/>
+      <c r="H79" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="54">
+      <c r="C80" s="39">
         <v>34</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="50">
+        <v>86</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="61">
-        <v>77.78</v>
+      <c r="G80" s="29"/>
+      <c r="H80" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="54">
+      <c r="C81" s="39">
         <v>72</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="50">
+        <v>67</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="61">
+      <c r="G81" s="29"/>
+      <c r="H81" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="39">
         <v>64</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="51">
+        <v>70</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="61">
-        <v>77.78</v>
+      <c r="G82" s="29"/>
+      <c r="H82" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="39">
         <v>44</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="51">
+        <v>16</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="61">
-        <v>83.33</v>
+      <c r="G83" s="29"/>
+      <c r="H83" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="39">
         <v>16</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="51">
+        <v>4</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="61">
-        <v>77.78</v>
+      <c r="G84" s="29"/>
+      <c r="H84" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="39">
         <v>37</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="51">
+        <v>85</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="61">
-        <v>88.89</v>
+      <c r="G85" s="29"/>
+      <c r="H85" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="54">
+      <c r="C86" s="39">
         <v>75</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="51">
+        <v>77</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="61">
-        <v>72.22</v>
+      <c r="G86" s="30"/>
+      <c r="H86" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="54">
+      <c r="C87" s="39">
         <v>57</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="51">
+        <v>100</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="61">
-        <v>94.44</v>
+      <c r="G87" s="29"/>
+      <c r="H87" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="61">
+      <c r="G88" s="29"/>
+      <c r="H88" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="39">
         <v>57</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="51">
+        <v>91</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="61">
-        <v>77.78</v>
+      <c r="G89" s="29"/>
+      <c r="H89" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="54">
+      <c r="C90" s="39">
         <v>70</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="51">
+        <v>87</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="61">
-        <v>83.33</v>
+      <c r="G90" s="29"/>
+      <c r="H90" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="39">
         <v>87</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="51">
+        <v>76</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="61">
-        <v>72.22</v>
+      <c r="G91" s="29"/>
+      <c r="H91" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="54">
+      <c r="C92" s="39">
         <v>34</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="50">
+        <v>53</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="61">
-        <v>88.89</v>
+      <c r="G92" s="29"/>
+      <c r="H92" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="54">
+      <c r="C93" s="39">
         <v>57</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="51">
+        <v>40</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="61">
-        <v>77.78</v>
+      <c r="G93" s="30"/>
+      <c r="H93" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="39">
         <v>37</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="51">
+        <v>34</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="61">
-        <v>94.44</v>
+      <c r="G94" s="29"/>
+      <c r="H94" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="54">
+      <c r="C95" s="39">
         <v>85</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="51">
+        <v>100</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="61">
-        <v>88.89</v>
+      <c r="G95" s="29"/>
+      <c r="H95" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="54">
+      <c r="C96" s="39">
         <v>29</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="50">
+        <v>30</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="61">
-        <v>77.78</v>
+      <c r="G96" s="29"/>
+      <c r="H96" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="39">
         <v>44</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="51">
+        <v>70</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="61">
-        <v>77.78</v>
+      <c r="G97" s="29"/>
+      <c r="H97" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="54">
+      <c r="C98" s="39">
         <v>84</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="51">
+        <v>82</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="61">
-        <v>94.44</v>
+      <c r="G98" s="29"/>
+      <c r="H98" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="39">
         <v>62</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="51">
+        <v>68</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="61">
-        <v>83.33</v>
+      <c r="G99" s="29"/>
+      <c r="H99" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="61">
+      <c r="G100" s="29"/>
+      <c r="H100" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="54">
+      <c r="C101" s="39">
         <v>72</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="51">
+        <v>40</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="61">
-        <v>83.33</v>
+      <c r="G101" s="29"/>
+      <c r="H101" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="54">
+      <c r="C102" s="39">
         <v>83</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="51">
+        <v>93</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="61">
+      <c r="G102" s="29"/>
+      <c r="H102" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="54">
+      <c r="C103" s="39">
         <v>25</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="50">
+        <v>58</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="61">
-        <v>66.67</v>
+      <c r="G103" s="30"/>
+      <c r="H103" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="54">
+      <c r="C104" s="39">
         <v>14</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="50">
+        <v>9</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="61">
-        <v>83.33</v>
+      <c r="G104" s="29"/>
+      <c r="H104" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="54">
+      <c r="C105" s="39">
         <v>75</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="51">
+        <v>26</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="61">
-        <v>66.67</v>
+      <c r="G105" s="29"/>
+      <c r="H105" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="39">
         <v>62</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="51">
+        <v>100</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="61">
-        <v>94.44</v>
+      <c r="G106" s="29"/>
+      <c r="H106" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="54">
+      <c r="C107" s="39">
         <v>94</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="52">
+        <v>69</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="61">
-        <v>94.44</v>
+      <c r="G107" s="29"/>
+      <c r="H107" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="54">
+      <c r="C108" s="39">
         <v>48</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="52">
+        <v>37</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="61">
-        <v>83.33</v>
+      <c r="G108" s="29"/>
+      <c r="H108" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="54">
+      <c r="C109" s="39">
         <v>43</v>
       </c>
-      <c r="D109" s="7"/>
+      <c r="D109" s="52">
+        <v>80</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="61">
-        <v>94.44</v>
+      <c r="G109" s="29"/>
+      <c r="H109" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="54">
+      <c r="C110" s="39">
         <v>78</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="52">
+        <v>83</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="61">
-        <v>77.78</v>
+      <c r="G110" s="29"/>
+      <c r="H110" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="54">
+      <c r="C111" s="39">
         <v>57</v>
       </c>
-      <c r="D111" s="7"/>
+      <c r="D111" s="52">
+        <v>77</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="61">
-        <v>83.33</v>
+      <c r="G111" s="29"/>
+      <c r="H111" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="54">
+      <c r="C112" s="39">
         <v>92</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="52">
+        <v>99</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="61">
+      <c r="G112" s="29"/>
+      <c r="H112" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="54">
+      <c r="C113" s="39">
         <v>89</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="52">
+        <v>100</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="61">
-        <v>88.89</v>
+      <c r="G113" s="29"/>
+      <c r="H113" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="54">
+      <c r="C114" s="39">
         <v>75</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="52">
+        <v>100</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="61">
-        <v>83.33</v>
+      <c r="G114" s="29"/>
+      <c r="H114" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="54">
+      <c r="C115" s="39">
         <v>76</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="52">
+        <v>97</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="61">
-        <v>77.78</v>
+      <c r="G115" s="29"/>
+      <c r="H115" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="39">
         <v>24</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="50">
+        <v>55</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="61">
-        <v>66.67</v>
+      <c r="G116" s="29"/>
+      <c r="H116" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="54">
+      <c r="C117" s="39">
         <v>31</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="50">
+        <v>91</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="61">
-        <v>72.22</v>
+      <c r="G117" s="29"/>
+      <c r="H117" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="54">
+      <c r="C118" s="39">
         <v>61</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="50">
+        <v>45</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="61">
-        <v>77.78</v>
+      <c r="G118" s="29"/>
+      <c r="H118" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="54">
+      <c r="C119" s="39">
         <v>61</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="52">
+        <v>40</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="61">
-        <v>72.22</v>
+      <c r="G119" s="29"/>
+      <c r="H119" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="54">
+      <c r="C120" s="39">
         <v>72</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="52">
+        <v>71</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="61">
-        <v>77.78</v>
+      <c r="G120" s="29"/>
+      <c r="H120" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="54">
+      <c r="C121" s="39">
         <v>75</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="52">
+        <v>90</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="61">
-        <v>88.89</v>
+      <c r="G121" s="29"/>
+      <c r="H121" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="54">
+      <c r="C122" s="39">
         <v>77</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="52">
+        <v>90</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="61">
-        <v>94.44</v>
+      <c r="G122" s="29"/>
+      <c r="H122" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="54">
+      <c r="C123" s="39">
         <v>78</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="50">
+        <v>98</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="61">
+      <c r="G123" s="29"/>
+      <c r="H123" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="39">
         <v>41</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="52">
+        <v>85</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="61">
-        <v>77.78</v>
+      <c r="G124" s="29"/>
+      <c r="H124" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="54">
+      <c r="C125" s="39">
         <v>28</v>
       </c>
-      <c r="D125" s="7"/>
+      <c r="D125" s="50">
+        <v>59</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="61">
-        <v>72.22</v>
+      <c r="G125" s="29"/>
+      <c r="H125" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="54">
+      <c r="C126" s="39">
         <v>71</v>
       </c>
-      <c r="D126" s="7"/>
+      <c r="D126" s="50">
+        <v>99</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="61">
-        <v>66.67</v>
+      <c r="G126" s="29"/>
+      <c r="H126" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="54">
+      <c r="C127" s="39">
         <v>41</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="52">
+        <v>5</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="61">
-        <v>72.22</v>
+      <c r="G127" s="29"/>
+      <c r="H127" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="54">
+      <c r="C128" s="39">
         <v>43</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="52">
+        <v>45</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="61">
-        <v>55.559999999999995</v>
+      <c r="G128" s="29"/>
+      <c r="H128" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C129" s="39">
         <v>50</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="52">
+        <v>9</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="61">
-        <v>77.78</v>
+      <c r="G129" s="29"/>
+      <c r="H129" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="39">
         <v>77</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="52">
+        <v>87</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="61">
+      <c r="G130" s="29"/>
+      <c r="H130" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="54">
+      <c r="C131" s="39">
         <v>86</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="52">
+        <v>100</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="61">
-        <v>77.78</v>
+      <c r="G131" s="29"/>
+      <c r="H131" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="54">
+      <c r="C132" s="39">
         <v>49</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="52">
+        <v>99</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="61">
-        <v>66.67</v>
+      <c r="G132" s="29"/>
+      <c r="H132" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="54">
+      <c r="C133" s="39">
         <v>41</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="52">
+        <v>84</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="61">
-        <v>66.67</v>
+      <c r="G133" s="29"/>
+      <c r="H133" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C134" s="39">
         <v>25</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="52">
+        <v>57</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="61">
-        <v>77.78</v>
+      <c r="G134" s="29"/>
+      <c r="H134" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="54">
+      <c r="C135" s="39">
         <v>54</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="52">
+        <v>86</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="61">
-        <v>88.89</v>
+      <c r="G135" s="29"/>
+      <c r="H135" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="54">
+      <c r="C136" s="39">
         <v>37</v>
       </c>
-      <c r="D136" s="7"/>
+      <c r="D136" s="52">
+        <v>83</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="61">
-        <v>72.22</v>
+      <c r="G136" s="29"/>
+      <c r="H136" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="54">
+      <c r="C137" s="39">
         <v>54</v>
       </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="52">
+        <v>50</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="61">
-        <v>83.33</v>
+      <c r="G137" s="29"/>
+      <c r="H137" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="54" t="s">
+      <c r="C138" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="61">
+      <c r="G138" s="29"/>
+      <c r="H138" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="54">
+      <c r="C139" s="39">
         <v>56</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="50">
+        <v>4</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="61">
-        <v>72.22</v>
+      <c r="G139" s="31"/>
+      <c r="H139" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="54">
+      <c r="C140" s="39">
         <v>84</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="52">
+        <v>66</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="61">
-        <v>77.78</v>
+      <c r="G140" s="32"/>
+      <c r="H140" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="54">
+      <c r="C141" s="39">
         <v>52</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="50">
+        <v>32</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="61">
-        <v>77.78</v>
+      <c r="G141" s="28"/>
+      <c r="H141" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="54">
+      <c r="C142" s="39">
         <v>20</v>
       </c>
-      <c r="D142" s="7"/>
+      <c r="D142" s="52">
+        <v>40</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="61">
-        <v>88.89</v>
+      <c r="G142" s="29"/>
+      <c r="H142" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="54" t="s">
+      <c r="C143" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="61">
-        <v>11.110000000000001</v>
+      <c r="G143" s="29"/>
+      <c r="H143" s="46">
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="54">
+      <c r="C144" s="39">
         <v>66</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="52">
+        <v>69</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="61">
-        <v>88.89</v>
+      <c r="G144" s="29"/>
+      <c r="H144" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="54">
+      <c r="C145" s="39">
         <v>49</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="52">
+        <v>87</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="61">
-        <v>83.33</v>
+      <c r="G145" s="29"/>
+      <c r="H145" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="54">
+      <c r="C146" s="39">
         <v>64</v>
       </c>
-      <c r="D146" s="7"/>
+      <c r="D146" s="52">
+        <v>69</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="61">
-        <v>83.33</v>
+      <c r="G146" s="29"/>
+      <c r="H146" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
-      <c r="A147" s="30" t="s">
+      <c r="A147" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="54">
+      <c r="C147" s="39">
         <v>54</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="52">
+        <v>100</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="61">
-        <v>83.33</v>
+      <c r="G147" s="29"/>
+      <c r="H147" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="54">
+      <c r="C148" s="39">
         <v>84</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="52">
+        <v>68</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="61">
-        <v>77.78</v>
+      <c r="G148" s="29"/>
+      <c r="H148" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="54">
+      <c r="C149" s="39">
         <v>61</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="52">
+        <v>61</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="61">
-        <v>72.22</v>
+      <c r="G149" s="29"/>
+      <c r="H149" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="54">
+      <c r="C150" s="39">
         <v>76</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="52">
+        <v>59</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="61">
-        <v>88.89</v>
+      <c r="G150" s="29"/>
+      <c r="H150" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="54">
+      <c r="C151" s="39">
         <v>81</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="52">
+        <v>30</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="61">
-        <v>88.89</v>
+      <c r="G151" s="29"/>
+      <c r="H151" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="54">
+      <c r="C152" s="39">
         <v>53</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="52">
+        <v>60</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="61">
-        <v>77.78</v>
+      <c r="G152" s="29"/>
+      <c r="H152" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="54">
+      <c r="C153" s="39">
         <v>62</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="52">
+        <v>81</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="61">
-        <v>94.44</v>
+      <c r="G153" s="29"/>
+      <c r="H153" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="54">
+      <c r="C154" s="39">
         <v>69</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="52">
+        <v>69</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="61">
-        <v>94.44</v>
+      <c r="G154" s="29"/>
+      <c r="H154" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="54">
+      <c r="C155" s="39">
         <v>74</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="52">
+        <v>81</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="61">
-        <v>77.78</v>
+      <c r="G155" s="29"/>
+      <c r="H155" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="54">
+      <c r="C156" s="39">
         <v>52</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="52">
+        <v>100</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="61">
-        <v>88.89</v>
+      <c r="G156" s="29"/>
+      <c r="H156" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="54" t="s">
+      <c r="C157" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="39" t="s">
+        <v>419</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="61">
+      <c r="G157" s="29"/>
+      <c r="H157" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="54">
+      <c r="C158" s="39">
         <v>26</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="50">
+        <v>41</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="61">
-        <v>61.11</v>
+      <c r="G158" s="29"/>
+      <c r="H158" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="54">
+      <c r="C159" s="39">
         <v>51</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="52">
+        <v>16</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="61">
-        <v>61.11</v>
+      <c r="G159" s="29"/>
+      <c r="H159" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="54">
+      <c r="C160" s="39">
         <v>35</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="52">
+        <v>44</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="61">
-        <v>88.89</v>
+      <c r="G160" s="29"/>
+      <c r="H160" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="54">
+      <c r="C161" s="39">
         <v>62</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="52">
+        <v>62</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="61">
-        <v>77.78</v>
+      <c r="G161" s="29"/>
+      <c r="H161" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="54">
+      <c r="C162" s="39">
         <v>63</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="52">
+        <v>61</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="61">
-        <v>72.22</v>
+      <c r="G162" s="29"/>
+      <c r="H162" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="54">
+      <c r="C163" s="39">
         <v>73</v>
       </c>
-      <c r="D163" s="7"/>
+      <c r="D163" s="50">
+        <v>56</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="61">
-        <v>83.33</v>
+      <c r="G163" s="29"/>
+      <c r="H163" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="54" t="s">
+      <c r="C164" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D164" s="7"/>
+      <c r="D164" s="39" t="s">
+        <v>418</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="61">
-        <v>5.56</v>
+      <c r="G164" s="29"/>
+      <c r="H164" s="46">
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="54">
+      <c r="C165" s="39">
         <v>53</v>
       </c>
-      <c r="D165" s="7"/>
+      <c r="D165" s="52">
+        <v>99</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="61">
-        <v>83.33</v>
+      <c r="G165" s="29"/>
+      <c r="H165" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="31" t="s">
+      <c r="A166" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="54">
+      <c r="C166" s="39">
         <v>64</v>
       </c>
-      <c r="D166" s="7"/>
+      <c r="D166" s="52">
+        <v>37</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="61">
-        <v>83.33</v>
+      <c r="G166" s="29"/>
+      <c r="H166" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="54" t="s">
+      <c r="C167" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D167" s="7"/>
+      <c r="D167" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="61">
+      <c r="G167" s="29"/>
+      <c r="H167" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="54">
+      <c r="C168" s="39">
         <v>79</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="52">
+        <v>53</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="61">
-        <v>77.78</v>
+      <c r="G168" s="29"/>
+      <c r="H168" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="54">
+      <c r="C169" s="39">
         <v>46</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="50">
+        <v>36</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="61">
-        <v>83.33</v>
+      <c r="G169" s="29"/>
+      <c r="H169" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="54">
+      <c r="C170" s="39">
         <v>79</v>
       </c>
-      <c r="D170" s="4"/>
+      <c r="D170" s="51">
+        <v>100</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="61">
-        <v>94.44</v>
+      <c r="G170" s="29"/>
+      <c r="H170" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="B171" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="54">
+      <c r="C171" s="39">
         <v>75</v>
       </c>
-      <c r="D171" s="8"/>
+      <c r="D171" s="50">
+        <v>77</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="61">
-        <v>77.78</v>
+      <c r="G171" s="31"/>
+      <c r="H171" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="B172" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="54">
+      <c r="C172" s="39">
         <v>62</v>
       </c>
-      <c r="D172" s="9"/>
+      <c r="D172" s="51">
+        <v>52</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="61">
-        <v>55.559999999999995</v>
+      <c r="G172" s="27"/>
+      <c r="H172" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="54">
+      <c r="C173" s="39">
         <v>35</v>
       </c>
-      <c r="D173" s="9"/>
+      <c r="D173" s="53">
+        <v>40</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="61">
-        <v>66.67</v>
+      <c r="G173" s="27"/>
+      <c r="H173" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="54">
+      <c r="C174" s="39">
         <v>59</v>
       </c>
-      <c r="D174" s="9"/>
+      <c r="D174" s="49">
+        <v>100</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="42"/>
-      <c r="H174" s="61">
-        <v>94.44</v>
+      <c r="G174" s="27"/>
+      <c r="H174" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="54">
+      <c r="C175" s="39">
         <v>73</v>
       </c>
-      <c r="D175" s="10"/>
+      <c r="D175" s="54">
+        <v>96</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="61">
-        <v>88.89</v>
+      <c r="G175" s="27"/>
+      <c r="H175" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="31" t="s">
+      <c r="A176" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="54">
+      <c r="C176" s="39">
         <v>55</v>
       </c>
-      <c r="D176" s="11"/>
+      <c r="D176" s="54">
+        <v>32</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="61">
-        <v>94.44</v>
+      <c r="G176" s="27"/>
+      <c r="H176" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="31" t="s">
+      <c r="A177" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="B177" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="54" t="s">
+      <c r="C177" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="13"/>
+      <c r="D177" s="49">
+        <v>6</v>
+      </c>
+      <c r="E177" s="5"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="61">
-        <v>61.11</v>
+      <c r="G177" s="27"/>
+      <c r="H177" s="46">
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="54">
+      <c r="C178" s="39">
         <v>0</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="13"/>
+      <c r="D178" s="49">
+        <v>26</v>
+      </c>
+      <c r="E178" s="5"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="61">
-        <v>61.11</v>
+      <c r="G178" s="33"/>
+      <c r="H178" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="31" t="s">
+      <c r="A179" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="56" t="s">
+      <c r="C179" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="D179" s="6"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="61">
+      <c r="D179" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E179" s="8"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="31" t="s">
+      <c r="A180" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="57">
+      <c r="C180" s="42">
         <v>50</v>
       </c>
-      <c r="D180" s="6"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="61">
-        <v>66.67</v>
+      <c r="D180" s="49">
+        <v>81</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="57">
+      <c r="C181" s="42">
         <v>82</v>
       </c>
-      <c r="D181" s="19"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="49"/>
-      <c r="H181" s="61">
-        <v>94.44</v>
+      <c r="D181" s="49">
+        <v>48</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="57">
+      <c r="C182" s="42">
         <v>33</v>
       </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="22"/>
+      <c r="D182" s="49">
+        <v>78</v>
+      </c>
+      <c r="E182" s="12"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="50"/>
-      <c r="H182" s="61">
-        <v>72.22</v>
+      <c r="G182" s="35"/>
+      <c r="H182" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="57">
+      <c r="C183" s="42">
         <v>49</v>
       </c>
-      <c r="D183" s="21"/>
-      <c r="E183" s="15"/>
+      <c r="D183" s="49">
+        <v>74</v>
+      </c>
+      <c r="E183" s="7"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="50"/>
-      <c r="H183" s="61">
-        <v>72.22</v>
+      <c r="G183" s="35"/>
+      <c r="H183" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="31" t="s">
+      <c r="A184" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="57">
+      <c r="C184" s="42">
         <v>45</v>
       </c>
-      <c r="D184" s="23"/>
+      <c r="D184" s="49">
+        <v>93</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="61">
-        <v>72.22</v>
+      <c r="G184" s="35"/>
+      <c r="H184" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="57">
+      <c r="C185" s="42">
         <v>57</v>
       </c>
-      <c r="D185" s="24"/>
-      <c r="E185" s="18"/>
+      <c r="D185" s="49">
+        <v>63</v>
+      </c>
+      <c r="E185" s="10"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="61">
-        <v>72.22</v>
+      <c r="G185" s="36"/>
+      <c r="H185" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="57">
+      <c r="C186" s="42">
         <v>51</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="18"/>
+      <c r="D186" s="49">
+        <v>52</v>
+      </c>
+      <c r="E186" s="10"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="61">
-        <v>55.559999999999995</v>
+      <c r="G186" s="36"/>
+      <c r="H186" s="46">
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="57">
+      <c r="C187" s="42">
         <v>79</v>
       </c>
-      <c r="D187" s="24"/>
-      <c r="E187" s="22"/>
+      <c r="D187" s="49">
+        <v>52</v>
+      </c>
+      <c r="E187" s="12"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="61">
-        <v>88.89</v>
+      <c r="G187" s="36"/>
+      <c r="H187" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="57">
+      <c r="C188" s="42">
         <v>55</v>
       </c>
-      <c r="D188" s="24"/>
-      <c r="E188" s="22"/>
+      <c r="D188" s="49">
+        <v>33</v>
+      </c>
+      <c r="E188" s="12"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="61">
-        <v>66.67</v>
+      <c r="G188" s="33"/>
+      <c r="H188" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="57">
+      <c r="C189" s="42">
         <v>66</v>
       </c>
-      <c r="D189" s="24"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="49">
+        <v>70</v>
+      </c>
+      <c r="E189" s="10"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="61">
-        <v>77.78</v>
+      <c r="G189" s="33"/>
+      <c r="H189" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="57">
+      <c r="C190" s="42">
         <v>16</v>
       </c>
-      <c r="D190" s="6"/>
+      <c r="D190" s="49">
+        <v>36</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="61">
-        <v>50</v>
+      <c r="G190" s="33"/>
+      <c r="H190" s="46">
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="30" t="s">
+      <c r="A191" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="57">
+      <c r="C191" s="42">
         <v>67</v>
       </c>
-      <c r="D191" s="6"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="49">
+        <v>82</v>
+      </c>
+      <c r="E191" s="10"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="61">
-        <v>83.33</v>
+      <c r="G191" s="33"/>
+      <c r="H191" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="30" t="s">
+      <c r="A192" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="57">
+      <c r="C192" s="42">
         <v>68</v>
       </c>
-      <c r="D192" s="24"/>
-      <c r="E192" s="15"/>
+      <c r="D192" s="49">
+        <v>26</v>
+      </c>
+      <c r="E192" s="7"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="61">
-        <v>77.78</v>
+      <c r="G192" s="33"/>
+      <c r="H192" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="57">
+      <c r="C193" s="42">
         <v>40</v>
       </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="25"/>
+      <c r="D193" s="49">
+        <v>88</v>
+      </c>
+      <c r="E193" s="13"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="61">
-        <v>83.33</v>
+      <c r="G193" s="33"/>
+      <c r="H193" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
-      <c r="A194" s="30" t="s">
+      <c r="A194" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="57">
+      <c r="C194" s="42">
         <v>74</v>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="61">
-        <v>88.89</v>
+      <c r="D194" s="49">
+        <v>100</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
-      <c r="A195" s="30" t="s">
+      <c r="A195" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="57">
+      <c r="C195" s="42">
         <v>58</v>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="61">
-        <v>72.22</v>
+      <c r="D195" s="49">
+        <v>32</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
-      <c r="A196" s="30" t="s">
+      <c r="A196" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="57">
+      <c r="C196" s="42">
         <v>54</v>
       </c>
-      <c r="D196" s="24"/>
-      <c r="E196" s="22"/>
+      <c r="D196" s="49">
+        <v>86</v>
+      </c>
+      <c r="E196" s="12"/>
       <c r="F196" s="3"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="61">
-        <v>72.22</v>
+      <c r="G196" s="33"/>
+      <c r="H196" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="57">
+      <c r="C197" s="42">
         <v>64</v>
       </c>
-      <c r="D197" s="24"/>
-      <c r="E197" s="22"/>
+      <c r="D197" s="49">
+        <v>63</v>
+      </c>
+      <c r="E197" s="12"/>
       <c r="F197" s="3"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="61">
-        <v>88.89</v>
+      <c r="G197" s="33"/>
+      <c r="H197" s="46">
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="57">
+      <c r="C198" s="42">
         <v>89</v>
       </c>
-      <c r="D198" s="23"/>
+      <c r="D198" s="49">
+        <v>60</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="61">
-        <v>77.78</v>
+      <c r="G198" s="33"/>
+      <c r="H198" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
-      <c r="A199" s="30" t="s">
+      <c r="A199" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="58">
+      <c r="C199" s="43">
         <v>78</v>
       </c>
-      <c r="D199" s="6"/>
-      <c r="E199" s="18"/>
+      <c r="D199" s="49">
+        <v>100</v>
+      </c>
+      <c r="E199" s="10"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="61">
-        <v>77.78</v>
+      <c r="G199" s="33"/>
+      <c r="H199" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="57">
+      <c r="C200" s="42">
         <v>73</v>
       </c>
-      <c r="D200" s="6"/>
-      <c r="E200" s="25"/>
+      <c r="D200" s="49">
+        <v>92</v>
+      </c>
+      <c r="E200" s="13"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="61">
-        <v>94.44</v>
+      <c r="G200" s="33"/>
+      <c r="H200" s="46">
+        <v>95</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
-      <c r="A201" s="34" t="s">
+      <c r="A201" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="34" t="s">
+      <c r="B201" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="57">
+      <c r="C201" s="42">
         <v>51</v>
       </c>
-      <c r="D201" s="35"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="52"/>
-      <c r="H201" s="61">
-        <v>72.22</v>
+      <c r="D201" s="49">
+        <v>66</v>
+      </c>
+      <c r="E201" s="21"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="37"/>
+      <c r="H201" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
-      <c r="A202" s="38" t="s">
+      <c r="A202" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="57">
+      <c r="C202" s="42">
         <v>60</v>
       </c>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="61">
-        <v>66.67</v>
+      <c r="D202" s="49">
+        <v>80</v>
+      </c>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="38"/>
+      <c r="H202" s="46">
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="40" t="s">
+      <c r="A203" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="57">
+      <c r="C203" s="42">
         <v>17</v>
       </c>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="53"/>
-      <c r="H203" s="61">
+      <c r="D203" s="49">
+        <v>16</v>
+      </c>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="38"/>
+      <c r="H203" s="46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75">
+      <c r="A204" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C204" s="42">
         <v>50</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.75">
-      <c r="A204" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="B204" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C204" s="57">
-        <v>50</v>
-      </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="53"/>
-      <c r="H204" s="61">
-        <v>83.33</v>
+      <c r="D204" s="50">
+        <v>93</v>
+      </c>
+      <c r="E204" s="24"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="38"/>
+      <c r="H204" s="46">
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
-      <c r="A205" s="40" t="s">
+      <c r="A205" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="41" t="s">
+      <c r="B205" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="54">
+      <c r="C205" s="42">
         <v>51</v>
       </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="61">
-        <v>72.22</v>
+      <c r="D205" s="50">
+        <v>69</v>
+      </c>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="38"/>
+      <c r="H205" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
-      <c r="A206" s="40" t="s">
+      <c r="A206" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="54">
+      <c r="C206" s="42">
         <v>43</v>
       </c>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="39"/>
-      <c r="G206" s="53"/>
-      <c r="H206" s="61">
-        <v>16.669999999999998</v>
+      <c r="D206" s="50">
+        <v>66</v>
+      </c>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="38"/>
+      <c r="H206" s="46">
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="57">
+      <c r="C207" s="42">
         <v>45</v>
       </c>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
-      <c r="F207" s="39"/>
-      <c r="G207" s="39"/>
-      <c r="H207" s="62"/>
+      <c r="D207" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="47"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="57">
+      <c r="C208" s="42">
         <v>79</v>
       </c>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="39"/>
-      <c r="G208" s="39"/>
-      <c r="H208" s="62"/>
+      <c r="D208" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="47"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C209" s="57">
+      <c r="C209" s="42">
         <v>68</v>
       </c>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="39"/>
-      <c r="H209" s="62"/>
+      <c r="D209" s="50">
+        <v>64</v>
+      </c>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="47"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="57">
+      <c r="C210" s="42">
         <v>81</v>
       </c>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="39"/>
-      <c r="G210" s="39"/>
-      <c r="H210" s="62"/>
+      <c r="D210" s="50">
+        <v>79</v>
+      </c>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="47"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="59" t="s">
+      <c r="A211" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C211" s="57">
+      <c r="C211" s="42">
         <v>48</v>
       </c>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="39"/>
-      <c r="H211" s="62"/>
+      <c r="D211" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="47"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C212" s="57">
+      <c r="C212" s="42">
         <v>36</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="39"/>
-      <c r="H212" s="62"/>
+      <c r="D212" s="56">
+        <v>58</v>
+      </c>
+      <c r="E212" s="24"/>
+      <c r="F212" s="24"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="47"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="59" t="s">
+      <c r="A213" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D213" s="56">
+        <v>59</v>
+      </c>
+      <c r="E213" s="24"/>
+      <c r="F213" s="24"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="47"/>
+    </row>
+    <row r="214" spans="1:8" ht="15.75">
+      <c r="A214" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B214" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C213" s="57">
+      <c r="C214" s="42">
         <v>80</v>
       </c>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-      <c r="H213" s="62"/>
-    </row>
-    <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="59" t="s">
+      <c r="D214" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="E214" s="24"/>
+      <c r="F214" s="24"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="47"/>
+    </row>
+    <row r="215" spans="1:8" ht="15.75">
+      <c r="A215" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B215" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C214" s="57">
+      <c r="C215" s="42">
         <v>38</v>
       </c>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
-      <c r="H214" s="62"/>
-    </row>
-    <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="59" t="s">
+      <c r="D215" s="49">
+        <v>64</v>
+      </c>
+      <c r="E215" s="24"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="47"/>
+    </row>
+    <row r="216" spans="1:8" ht="15.75">
+      <c r="A216" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B216" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C215" s="57">
+      <c r="C216" s="42">
         <v>79</v>
       </c>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
-      <c r="F215" s="39"/>
-      <c r="G215" s="39"/>
-      <c r="H215" s="62"/>
+      <c r="D216" s="55">
+        <v>30</v>
+      </c>
+      <c r="E216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="47"/>
+    </row>
+    <row r="217" spans="1:8" ht="15.75">
+      <c r="A217" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="D217" s="56">
+        <v>71</v>
+      </c>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6090,15 +6521,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6242,6 +6664,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6249,13 +6680,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2233,7 +2233,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="27"/>
       <c r="H2" s="46">
-        <v>70</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -2253,7 +2253,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="28"/>
       <c r="H3" s="46">
-        <v>65</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -2273,7 +2273,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="29"/>
       <c r="H4" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2293,7 +2293,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="29"/>
       <c r="H5" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -2313,7 +2313,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="29"/>
       <c r="H6" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -2333,7 +2333,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="29"/>
       <c r="H7" s="46">
-        <v>65</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -2353,7 +2353,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="29"/>
       <c r="H8" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
@@ -2373,7 +2373,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="29"/>
       <c r="H9" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
@@ -2393,7 +2393,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="29"/>
       <c r="H10" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
@@ -2413,7 +2413,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="29"/>
       <c r="H11" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -2433,7 +2433,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="29"/>
       <c r="H12" s="46">
-        <v>60</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -2453,7 +2453,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="29"/>
       <c r="H13" s="46">
-        <v>90</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
@@ -2473,7 +2473,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="29"/>
       <c r="H14" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -2493,7 +2493,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="29"/>
       <c r="H15" s="46">
-        <v>55.000000000000007</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -2513,7 +2513,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="29"/>
       <c r="H16" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
@@ -2553,7 +2553,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="29"/>
       <c r="H18" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
@@ -2573,7 +2573,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="29"/>
       <c r="H19" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -2593,7 +2593,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="29"/>
       <c r="H20" s="46">
-        <v>60</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
@@ -2613,7 +2613,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="29"/>
       <c r="H21" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
@@ -2633,7 +2633,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="29"/>
       <c r="H22" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
@@ -2653,7 +2653,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="29"/>
       <c r="H23" s="46">
-        <v>65</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -2673,7 +2673,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="29"/>
       <c r="H24" s="46">
-        <v>50</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
@@ -2693,7 +2693,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="29"/>
       <c r="H25" s="46">
-        <v>60</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
@@ -2713,7 +2713,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="29"/>
       <c r="H26" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
@@ -2733,7 +2733,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="29"/>
       <c r="H27" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -2753,7 +2753,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="29"/>
       <c r="H28" s="46">
-        <v>70</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -2773,7 +2773,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="29"/>
       <c r="H29" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
@@ -2793,7 +2793,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="29"/>
       <c r="H30" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -2813,7 +2813,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="29"/>
       <c r="H31" s="46">
-        <v>85</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
@@ -2833,7 +2833,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="30"/>
       <c r="H32" s="46">
-        <v>50</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
@@ -2853,7 +2853,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="29"/>
       <c r="H33" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -2873,7 +2873,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="29"/>
       <c r="H34" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
@@ -2893,7 +2893,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="29"/>
       <c r="H35" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -2933,7 +2933,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="29"/>
       <c r="H37" s="46">
-        <v>55.000000000000007</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -2953,7 +2953,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="29"/>
       <c r="H38" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
@@ -2973,7 +2973,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="29"/>
       <c r="H39" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
@@ -2993,7 +2993,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="29"/>
       <c r="H40" s="46">
-        <v>73.680000000000007</v>
+        <v>76.19</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
@@ -3013,7 +3013,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="29"/>
       <c r="H41" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
@@ -3033,7 +3033,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="29"/>
       <c r="H42" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -3053,7 +3053,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="29"/>
       <c r="H43" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
@@ -3073,7 +3073,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="29"/>
       <c r="H44" s="46">
-        <v>50</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
@@ -3093,7 +3093,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="29"/>
       <c r="H45" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -3113,7 +3113,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="29"/>
       <c r="H46" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -3133,7 +3133,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="29"/>
       <c r="H47" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -3153,7 +3153,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="29"/>
       <c r="H48" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
@@ -3173,7 +3173,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="30"/>
       <c r="H49" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
@@ -3193,7 +3193,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="29"/>
       <c r="H50" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
@@ -3213,7 +3213,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="29"/>
       <c r="H51" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
@@ -3233,7 +3233,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="29"/>
       <c r="H52" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
@@ -3253,7 +3253,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="29"/>
       <c r="H53" s="46">
-        <v>70</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -3273,7 +3273,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="29"/>
       <c r="H54" s="46">
-        <v>70</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
@@ -3293,7 +3293,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="29"/>
       <c r="H55" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
@@ -3313,7 +3313,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="30"/>
       <c r="H56" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
@@ -3333,7 +3333,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="29"/>
       <c r="H57" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
@@ -3353,7 +3353,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="29"/>
       <c r="H58" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
@@ -3373,7 +3373,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="29"/>
       <c r="H59" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
@@ -3393,7 +3393,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="29"/>
       <c r="H60" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
@@ -3433,7 +3433,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="29"/>
       <c r="H62" s="46">
-        <v>65</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
@@ -3453,7 +3453,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="29"/>
       <c r="H63" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
@@ -3473,7 +3473,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="29"/>
       <c r="H64" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -3493,7 +3493,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="29"/>
       <c r="H65" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
@@ -3513,7 +3513,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="29"/>
       <c r="H66" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -3533,7 +3533,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="29"/>
       <c r="H67" s="46">
-        <v>70</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -3553,7 +3553,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="29"/>
       <c r="H68" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -3573,7 +3573,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="30"/>
       <c r="H69" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
@@ -3593,7 +3593,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="29"/>
       <c r="H70" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
@@ -3613,7 +3613,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="29"/>
       <c r="H71" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
@@ -3633,7 +3633,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="29"/>
       <c r="H72" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
@@ -3653,7 +3653,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="29"/>
       <c r="H73" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -3673,7 +3673,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="30"/>
       <c r="H74" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
@@ -3693,7 +3693,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="30"/>
       <c r="H75" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
@@ -3713,7 +3713,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="29"/>
       <c r="H76" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
@@ -3733,7 +3733,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="29"/>
       <c r="H77" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
@@ -3753,7 +3753,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="29"/>
       <c r="H78" s="46">
-        <v>90</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
@@ -3793,7 +3793,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="29"/>
       <c r="H80" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
@@ -3813,7 +3813,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="29"/>
       <c r="H81" s="46">
-        <v>50</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -3833,7 +3833,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="29"/>
       <c r="H82" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
@@ -3853,7 +3853,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="29"/>
       <c r="H83" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
@@ -3873,7 +3873,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="29"/>
       <c r="H84" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
@@ -3893,7 +3893,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="29"/>
       <c r="H85" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
@@ -3913,7 +3913,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="30"/>
       <c r="H86" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
@@ -3933,7 +3933,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="29"/>
       <c r="H87" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
@@ -3973,7 +3973,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="29"/>
       <c r="H89" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
@@ -3993,7 +3993,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="29"/>
       <c r="H90" s="46">
-        <v>85</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
@@ -4013,7 +4013,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="29"/>
       <c r="H91" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
@@ -4033,7 +4033,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="29"/>
       <c r="H92" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
@@ -4053,7 +4053,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="30"/>
       <c r="H93" s="46">
-        <v>70</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
@@ -4073,7 +4073,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="29"/>
       <c r="H94" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
@@ -4093,7 +4093,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="29"/>
       <c r="H95" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
@@ -4113,7 +4113,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="29"/>
       <c r="H96" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
@@ -4133,7 +4133,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="29"/>
       <c r="H97" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
@@ -4153,7 +4153,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="29"/>
       <c r="H98" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -4173,7 +4173,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="29"/>
       <c r="H99" s="46">
-        <v>85</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
@@ -4213,7 +4213,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="29"/>
       <c r="H101" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
@@ -4233,7 +4233,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="29"/>
       <c r="H102" s="46">
-        <v>100</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
@@ -4253,7 +4253,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="30"/>
       <c r="H103" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
@@ -4273,7 +4273,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="29"/>
       <c r="H104" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
@@ -4293,7 +4293,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="29"/>
       <c r="H105" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
@@ -4313,7 +4313,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="29"/>
       <c r="H106" s="46">
-        <v>95</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
@@ -4333,7 +4333,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="29"/>
       <c r="H107" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
@@ -4353,7 +4353,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="29"/>
       <c r="H108" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
@@ -4373,7 +4373,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="29"/>
       <c r="H109" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -4393,7 +4393,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="29"/>
       <c r="H110" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -4413,7 +4413,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="29"/>
       <c r="H111" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
@@ -4453,7 +4453,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="29"/>
       <c r="H113" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -4473,7 +4473,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="29"/>
       <c r="H114" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
@@ -4493,7 +4493,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="29"/>
       <c r="H115" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
@@ -4513,7 +4513,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="29"/>
       <c r="H116" s="46">
-        <v>70</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
@@ -4533,7 +4533,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="29"/>
       <c r="H117" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
@@ -4553,7 +4553,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="29"/>
       <c r="H118" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
@@ -4573,7 +4573,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="29"/>
       <c r="H119" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
@@ -4593,7 +4593,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="29"/>
       <c r="H120" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
@@ -4613,7 +4613,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="29"/>
       <c r="H121" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
@@ -4633,7 +4633,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="29"/>
       <c r="H122" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
@@ -4673,7 +4673,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="29"/>
       <c r="H124" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
@@ -4693,7 +4693,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="29"/>
       <c r="H125" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
@@ -4713,7 +4713,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="29"/>
       <c r="H126" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
@@ -4733,7 +4733,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="29"/>
       <c r="H127" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -4753,7 +4753,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="29"/>
       <c r="H128" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
@@ -4773,7 +4773,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="29"/>
       <c r="H129" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
@@ -4813,7 +4813,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="29"/>
       <c r="H131" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
@@ -4833,7 +4833,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="29"/>
       <c r="H132" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
@@ -4853,7 +4853,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="29"/>
       <c r="H133" s="46">
-        <v>70</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
@@ -4873,7 +4873,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="29"/>
       <c r="H134" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
@@ -4893,7 +4893,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="29"/>
       <c r="H135" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
@@ -4913,7 +4913,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="29"/>
       <c r="H136" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
@@ -4933,7 +4933,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="29"/>
       <c r="H137" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -4973,7 +4973,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="31"/>
       <c r="H139" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
@@ -4993,7 +4993,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="32"/>
       <c r="H140" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
@@ -5013,7 +5013,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="28"/>
       <c r="H141" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
@@ -5033,7 +5033,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="29"/>
       <c r="H142" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
@@ -5053,7 +5053,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="29"/>
       <c r="H143" s="46">
-        <v>10</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
@@ -5073,7 +5073,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="29"/>
       <c r="H144" s="46">
-        <v>90</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
@@ -5093,7 +5093,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="29"/>
       <c r="H145" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
@@ -5113,7 +5113,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="29"/>
       <c r="H146" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
@@ -5133,7 +5133,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="29"/>
       <c r="H147" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
@@ -5153,7 +5153,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="29"/>
       <c r="H148" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
@@ -5173,7 +5173,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="29"/>
       <c r="H149" s="46">
-        <v>65</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
@@ -5193,7 +5193,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="29"/>
       <c r="H150" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
@@ -5213,7 +5213,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="29"/>
       <c r="H151" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
@@ -5233,7 +5233,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="29"/>
       <c r="H152" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
@@ -5253,7 +5253,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="29"/>
       <c r="H153" s="46">
-        <v>95</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
@@ -5273,7 +5273,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="29"/>
       <c r="H154" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
@@ -5293,7 +5293,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="29"/>
       <c r="H155" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
@@ -5313,7 +5313,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="29"/>
       <c r="H156" s="46">
-        <v>90</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
@@ -5353,7 +5353,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="29"/>
       <c r="H158" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
@@ -5373,7 +5373,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="29"/>
       <c r="H159" s="46">
-        <v>60</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
@@ -5393,7 +5393,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="29"/>
       <c r="H160" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
@@ -5413,7 +5413,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="29"/>
       <c r="H161" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
@@ -5433,7 +5433,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="29"/>
       <c r="H162" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
@@ -5453,7 +5453,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="29"/>
       <c r="H163" s="46">
-        <v>85</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
@@ -5473,7 +5473,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="29"/>
       <c r="H164" s="46">
-        <v>5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
@@ -5493,7 +5493,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="29"/>
       <c r="H165" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5513,7 +5513,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="29"/>
       <c r="H166" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5553,7 +5553,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="29"/>
       <c r="H168" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5573,7 +5573,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="29"/>
       <c r="H169" s="46">
-        <v>85</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5593,7 +5593,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="29"/>
       <c r="H170" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5613,7 +5613,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="31"/>
       <c r="H171" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5633,7 +5633,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="27"/>
       <c r="H172" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5653,7 +5653,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="27"/>
       <c r="H173" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5673,7 +5673,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="27"/>
       <c r="H174" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5693,7 +5693,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="27"/>
       <c r="H175" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5713,7 +5713,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="27"/>
       <c r="H176" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5733,7 +5733,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="27"/>
       <c r="H177" s="46">
-        <v>65</v>
+        <v>68.179999999999993</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5753,7 +5753,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="33"/>
       <c r="H178" s="46">
-        <v>60</v>
+        <v>59.089999999999996</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5793,7 +5793,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="8"/>
       <c r="H180" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5813,7 +5813,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="34"/>
       <c r="H181" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5833,7 +5833,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="35"/>
       <c r="H182" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5853,7 +5853,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="35"/>
       <c r="H183" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5873,7 +5873,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="35"/>
       <c r="H184" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5893,7 +5893,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="36"/>
       <c r="H185" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5913,7 +5913,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="36"/>
       <c r="H186" s="46">
-        <v>60</v>
+        <v>63.639999999999993</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5933,7 +5933,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="36"/>
       <c r="H187" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5953,7 +5953,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="33"/>
       <c r="H188" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -5973,7 +5973,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="33"/>
       <c r="H189" s="46">
-        <v>80</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
@@ -5993,7 +5993,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="33"/>
       <c r="H190" s="46">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75">
@@ -6013,7 +6013,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="33"/>
       <c r="H191" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
@@ -6033,7 +6033,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="33"/>
       <c r="H192" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
@@ -6053,7 +6053,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="33"/>
       <c r="H193" s="46">
-        <v>85</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
@@ -6073,7 +6073,7 @@
       <c r="F194" s="14"/>
       <c r="G194" s="33"/>
       <c r="H194" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
@@ -6093,7 +6093,7 @@
       <c r="F195" s="15"/>
       <c r="G195" s="33"/>
       <c r="H195" s="46">
-        <v>75</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
@@ -6113,7 +6113,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="33"/>
       <c r="H196" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
@@ -6133,7 +6133,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="33"/>
       <c r="H197" s="46">
-        <v>90</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
@@ -6153,7 +6153,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="33"/>
       <c r="H198" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
@@ -6173,7 +6173,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="33"/>
       <c r="H199" s="46">
-        <v>80</v>
+        <v>81.820000000000007</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
@@ -6193,7 +6193,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="33"/>
       <c r="H200" s="46">
-        <v>95</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -6213,7 +6213,7 @@
       <c r="F201" s="22"/>
       <c r="G201" s="37"/>
       <c r="H201" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
@@ -6233,7 +6233,7 @@
       <c r="F202" s="24"/>
       <c r="G202" s="38"/>
       <c r="H202" s="46">
-        <v>70</v>
+        <v>72.72999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
@@ -6253,7 +6253,7 @@
       <c r="F203" s="24"/>
       <c r="G203" s="38"/>
       <c r="H203" s="46">
-        <v>45</v>
+        <v>40.910000000000004</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
@@ -6273,7 +6273,7 @@
       <c r="F204" s="24"/>
       <c r="G204" s="38"/>
       <c r="H204" s="46">
-        <v>85</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
@@ -6293,7 +6293,7 @@
       <c r="F205" s="24"/>
       <c r="G205" s="38"/>
       <c r="H205" s="46">
-        <v>75</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
@@ -6313,7 +6313,7 @@
       <c r="F206" s="24"/>
       <c r="G206" s="38"/>
       <c r="H206" s="46">
-        <v>15</v>
+        <v>13.639999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
@@ -6521,6 +6521,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6664,15 +6673,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6680,13 +6680,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="451">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1345,6 +1345,33 @@
   </si>
   <si>
     <t>SAMARASINGHE S.A.C.A.</t>
+  </si>
+  <si>
+    <t>2020/E/021</t>
+  </si>
+  <si>
+    <t>2020/E/048</t>
+  </si>
+  <si>
+    <t>2020/E/098</t>
+  </si>
+  <si>
+    <t>2020/E/210</t>
+  </si>
+  <si>
+    <t>2022/E/131</t>
+  </si>
+  <si>
+    <t>2022/E/134</t>
+  </si>
+  <si>
+    <t>2022/E/150</t>
+  </si>
+  <si>
+    <t>2021/E/007</t>
+  </si>
+  <si>
+    <t>2021/E/062</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,12 +1436,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
@@ -1453,6 +1474,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1517,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1689,6 +1729,43 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1699,27 +1776,11 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1736,9 +1797,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,75 +1846,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="10" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1862,28 +1889,68 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2187,7 +2254,7 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -2212,7 +2279,7 @@
       <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="33" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2223,16 +2290,18 @@
       <c r="B2" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="27">
         <v>45</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="37">
         <v>27</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="46">
+      <c r="G2" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -2243,16 +2312,18 @@
       <c r="B3" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="28">
         <v>60</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="38">
         <v>28</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="46">
+      <c r="G3" s="46">
+        <v>70</v>
+      </c>
+      <c r="H3" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2263,16 +2334,18 @@
       <c r="B4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="39">
         <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="46">
+      <c r="G4" s="47">
+        <v>74</v>
+      </c>
+      <c r="H4" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -2283,16 +2356,18 @@
       <c r="B5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="27">
         <v>40</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="39">
         <v>34</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="46">
+      <c r="G5" s="47">
+        <v>82</v>
+      </c>
+      <c r="H5" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -2303,16 +2378,18 @@
       <c r="B6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="27">
         <v>77</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="39">
         <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="46">
+      <c r="G6" s="47">
+        <v>98</v>
+      </c>
+      <c r="H6" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -2323,16 +2400,18 @@
       <c r="B7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="27">
         <v>63</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="46">
+      <c r="G7" s="47">
+        <v>66</v>
+      </c>
+      <c r="H7" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2343,16 +2422,18 @@
       <c r="B8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="27">
         <v>77</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="39">
         <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="46">
+      <c r="G8" s="47">
+        <v>96</v>
+      </c>
+      <c r="H8" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -2363,16 +2444,18 @@
       <c r="B9" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="27">
         <v>63</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="39">
         <v>99</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="46">
+      <c r="G9" s="47">
+        <v>83</v>
+      </c>
+      <c r="H9" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -2383,16 +2466,18 @@
       <c r="B10" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="27">
         <v>73</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="39">
         <v>93</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="46">
+      <c r="G10" s="47">
+        <v>69</v>
+      </c>
+      <c r="H10" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -2403,16 +2488,18 @@
       <c r="B11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="27">
         <v>40</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="39">
         <v>95</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="46">
+      <c r="G11" s="47">
+        <v>93</v>
+      </c>
+      <c r="H11" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -2423,16 +2510,18 @@
       <c r="B12" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="27">
         <v>37</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="39">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="46">
+      <c r="G12" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -2443,16 +2532,18 @@
       <c r="B13" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="27">
         <v>91</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="39">
         <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="46">
+      <c r="G13" s="47">
+        <v>97</v>
+      </c>
+      <c r="H13" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -2463,16 +2554,18 @@
       <c r="B14" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="27">
         <v>29</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="39">
         <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="46">
+      <c r="G14" s="47">
+        <v>86</v>
+      </c>
+      <c r="H14" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -2483,16 +2576,18 @@
       <c r="B15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="27">
         <v>35</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="39">
         <v>60</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="46">
+      <c r="G15" s="47">
+        <v>78</v>
+      </c>
+      <c r="H15" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -2503,16 +2598,18 @@
       <c r="B16" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="27">
         <v>35</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="39">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="46">
+      <c r="G16" s="47">
+        <v>40</v>
+      </c>
+      <c r="H16" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -2523,7 +2620,7 @@
       <c r="B17" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="27" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2531,8 +2628,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="46">
+      <c r="G17" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2543,16 +2642,18 @@
       <c r="B18" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="27">
         <v>43</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="39">
         <v>99</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="46">
+      <c r="G18" s="47">
+        <v>85</v>
+      </c>
+      <c r="H18" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -2563,16 +2664,18 @@
       <c r="B19" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="27">
         <v>44</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="39">
         <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="46">
+      <c r="G19" s="47">
+        <v>58</v>
+      </c>
+      <c r="H19" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -2583,16 +2686,18 @@
       <c r="B20" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="27">
         <v>59</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="39">
         <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="46">
+      <c r="G20" s="47">
+        <v>50</v>
+      </c>
+      <c r="H20" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2603,16 +2708,18 @@
       <c r="B21" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="27">
         <v>42</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="39">
         <v>18</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="46">
+      <c r="G21" s="47">
+        <v>81</v>
+      </c>
+      <c r="H21" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -2623,16 +2730,18 @@
       <c r="B22" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="27">
         <v>59</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="39">
         <v>67</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="46">
+      <c r="G22" s="47">
+        <v>86</v>
+      </c>
+      <c r="H22" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -2643,16 +2752,18 @@
       <c r="B23" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="27">
         <v>55</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="39">
         <v>65</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="46">
+      <c r="G23" s="47">
+        <v>95</v>
+      </c>
+      <c r="H23" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2663,16 +2774,18 @@
       <c r="B24" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="27">
         <v>41</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="38">
         <v>64</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="46">
+      <c r="G24" s="47">
+        <v>94</v>
+      </c>
+      <c r="H24" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -2683,16 +2796,18 @@
       <c r="B25" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="27">
         <v>41</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="38">
         <v>28</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="46">
+      <c r="G25" s="47">
+        <v>64</v>
+      </c>
+      <c r="H25" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2703,16 +2818,18 @@
       <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="27">
         <v>46</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="38">
         <v>59</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="46">
+      <c r="G26" s="47">
+        <v>65</v>
+      </c>
+      <c r="H26" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -2723,16 +2840,18 @@
       <c r="B27" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="27">
         <v>26</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="38">
         <v>100</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="46">
+      <c r="G27" s="47">
+        <v>88</v>
+      </c>
+      <c r="H27" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -2743,16 +2862,18 @@
       <c r="B28" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="27">
         <v>57</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="39">
         <v>44</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="46">
+      <c r="G28" s="47">
+        <v>74</v>
+      </c>
+      <c r="H28" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -2763,16 +2884,18 @@
       <c r="B29" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="27">
         <v>43</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="39">
         <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="46">
+      <c r="G29" s="47">
+        <v>79</v>
+      </c>
+      <c r="H29" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -2783,16 +2906,18 @@
       <c r="B30" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="27">
         <v>49</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="39">
         <v>40</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="46">
+      <c r="G30" s="47">
+        <v>56</v>
+      </c>
+      <c r="H30" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -2803,16 +2928,18 @@
       <c r="B31" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="27">
         <v>58</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="38">
         <v>68</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="46">
+      <c r="G31" s="47">
+        <v>99</v>
+      </c>
+      <c r="H31" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -2823,16 +2950,18 @@
       <c r="B32" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="27">
         <v>10</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="38">
         <v>51</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="46">
+      <c r="G32" s="49">
+        <v>48</v>
+      </c>
+      <c r="H32" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -2843,16 +2972,18 @@
       <c r="B33" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="27">
         <v>75</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="38">
         <v>46</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="46">
+      <c r="G33" s="47">
+        <v>68</v>
+      </c>
+      <c r="H33" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -2863,16 +2994,18 @@
       <c r="B34" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="27">
         <v>59</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="39">
         <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="46">
+      <c r="G34" s="47">
+        <v>97</v>
+      </c>
+      <c r="H34" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -2883,16 +3016,18 @@
       <c r="B35" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="27">
         <v>49</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="38">
         <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="46">
+      <c r="G35" s="47">
+        <v>71</v>
+      </c>
+      <c r="H35" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -2903,16 +3038,18 @@
       <c r="B36" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="27">
         <v>39</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="38">
         <v>21</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="46">
+      <c r="G36" s="47">
+        <v>73</v>
+      </c>
+      <c r="H36" s="34">
         <v>50</v>
       </c>
     </row>
@@ -2923,16 +3060,18 @@
       <c r="B37" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="27">
         <v>31</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="46">
+      <c r="G37" s="47">
+        <v>84</v>
+      </c>
+      <c r="H37" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -2943,16 +3082,18 @@
       <c r="B38" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="27">
         <v>87</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="39">
         <v>94</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="46">
+      <c r="G38" s="47">
+        <v>85</v>
+      </c>
+      <c r="H38" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -2963,16 +3104,18 @@
       <c r="B39" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="27">
         <v>74</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="39">
         <v>100</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="46">
+      <c r="G39" s="47">
+        <v>82</v>
+      </c>
+      <c r="H39" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -2983,16 +3126,18 @@
       <c r="B40" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="27">
         <v>61</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="39">
         <v>60</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="46">
+      <c r="G40" s="47">
+        <v>81</v>
+      </c>
+      <c r="H40" s="34">
         <v>76.19</v>
       </c>
     </row>
@@ -3003,16 +3148,18 @@
       <c r="B41" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="27">
         <v>55</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="39">
         <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="46">
+      <c r="G41" s="47">
+        <v>90</v>
+      </c>
+      <c r="H41" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3023,16 +3170,18 @@
       <c r="B42" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="27">
         <v>47</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="39">
         <v>50</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="46">
+      <c r="G42" s="47">
+        <v>67</v>
+      </c>
+      <c r="H42" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3043,16 +3192,18 @@
       <c r="B43" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="27">
         <v>27</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="39">
         <v>60</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="46">
+      <c r="G43" s="47">
+        <v>83</v>
+      </c>
+      <c r="H43" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -3063,16 +3214,18 @@
       <c r="B44" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="27">
         <v>33</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="38">
         <v>27</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="46">
+      <c r="G44" s="47">
+        <v>31</v>
+      </c>
+      <c r="H44" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -3083,16 +3236,18 @@
       <c r="B45" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="27">
         <v>78</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="38">
         <v>68</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="46">
+      <c r="G45" s="47">
+        <v>97</v>
+      </c>
+      <c r="H45" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3103,16 +3258,18 @@
       <c r="B46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="27">
         <v>37</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="39">
         <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="46">
+      <c r="G46" s="47">
+        <v>76</v>
+      </c>
+      <c r="H46" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -3123,16 +3280,18 @@
       <c r="B47" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="27">
         <v>52</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="39">
         <v>59</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="46">
+      <c r="G47" s="47">
+        <v>68</v>
+      </c>
+      <c r="H47" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3143,16 +3302,18 @@
       <c r="B48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="27">
         <v>60</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="39">
         <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="46">
+      <c r="G48" s="47">
+        <v>96</v>
+      </c>
+      <c r="H48" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3163,16 +3324,18 @@
       <c r="B49" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="27">
         <v>59</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="39">
         <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="46">
+      <c r="G49" s="49">
+        <v>97</v>
+      </c>
+      <c r="H49" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3183,16 +3346,18 @@
       <c r="B50" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="27">
         <v>69</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="39">
         <v>55</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="46">
+      <c r="G50" s="47">
+        <v>91</v>
+      </c>
+      <c r="H50" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3203,16 +3368,18 @@
       <c r="B51" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="27">
         <v>69</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="39">
         <v>68</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="46">
+      <c r="G51" s="47">
+        <v>86</v>
+      </c>
+      <c r="H51" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3223,16 +3390,18 @@
       <c r="B52" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="27">
         <v>73</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="39">
         <v>43</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="46">
+      <c r="G52" s="47">
+        <v>55</v>
+      </c>
+      <c r="H52" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3243,16 +3412,18 @@
       <c r="B53" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="27">
         <v>82</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="39">
         <v>38</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="46">
+      <c r="G53" s="47">
+        <v>92</v>
+      </c>
+      <c r="H53" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -3263,16 +3434,18 @@
       <c r="B54" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="27">
         <v>34</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="39">
         <v>61</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="46">
+      <c r="G54" s="47">
+        <v>77</v>
+      </c>
+      <c r="H54" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -3283,16 +3456,18 @@
       <c r="B55" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="27">
         <v>64</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="39">
         <v>85</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="46">
+      <c r="G55" s="47">
+        <v>73</v>
+      </c>
+      <c r="H55" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -3303,16 +3478,18 @@
       <c r="B56" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="27">
         <v>63</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="38">
         <v>31</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="46">
+      <c r="G56" s="49">
+        <v>88</v>
+      </c>
+      <c r="H56" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -3323,16 +3500,18 @@
       <c r="B57" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="27">
         <v>64</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="39">
         <v>56</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="46">
+      <c r="G57" s="47">
+        <v>84</v>
+      </c>
+      <c r="H57" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3343,16 +3522,18 @@
       <c r="B58" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="27">
         <v>73</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="39">
         <v>100</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="46">
+      <c r="G58" s="47">
+        <v>95</v>
+      </c>
+      <c r="H58" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3363,16 +3544,18 @@
       <c r="B59" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="27">
         <v>68</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="39">
         <v>32</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="46">
+      <c r="G59" s="47">
+        <v>73</v>
+      </c>
+      <c r="H59" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3383,16 +3566,18 @@
       <c r="B60" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="27">
         <v>68</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="39">
         <v>97</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="46">
+      <c r="G60" s="47">
+        <v>100</v>
+      </c>
+      <c r="H60" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3403,16 +3588,18 @@
       <c r="B61" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="46">
+      <c r="G61" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3423,16 +3610,18 @@
       <c r="B62" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="27">
         <v>45</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="39">
         <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="46">
+      <c r="G62" s="47">
+        <v>77</v>
+      </c>
+      <c r="H62" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -3443,16 +3632,18 @@
       <c r="B63" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="27">
         <v>41</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="39">
         <v>35</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="46">
+      <c r="G63" s="47">
+        <v>68</v>
+      </c>
+      <c r="H63" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3463,16 +3654,18 @@
       <c r="B64" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="27">
         <v>30</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="39">
         <v>70</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="46">
+      <c r="G64" s="47">
+        <v>80</v>
+      </c>
+      <c r="H64" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3483,16 +3676,18 @@
       <c r="B65" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="27">
         <v>52</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="39">
         <v>62</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="46">
+      <c r="G65" s="47">
+        <v>60</v>
+      </c>
+      <c r="H65" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3503,16 +3698,18 @@
       <c r="B66" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="27">
         <v>83</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="39">
         <v>100</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="46">
+      <c r="G66" s="47">
+        <v>98</v>
+      </c>
+      <c r="H66" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3523,16 +3720,18 @@
       <c r="B67" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="27">
         <v>60</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="38">
         <v>58</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="46">
+      <c r="G67" s="47">
+        <v>97</v>
+      </c>
+      <c r="H67" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -3543,16 +3742,18 @@
       <c r="B68" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="27">
         <v>66</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="39">
         <v>86</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="46">
+      <c r="G68" s="47">
+        <v>79</v>
+      </c>
+      <c r="H68" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3563,16 +3764,18 @@
       <c r="B69" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="27">
         <v>67</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="39">
         <v>89</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="46">
+      <c r="G69" s="49">
+        <v>100</v>
+      </c>
+      <c r="H69" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3583,16 +3786,18 @@
       <c r="B70" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="27">
         <v>82</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="39">
         <v>68</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="46">
+      <c r="G70" s="47">
+        <v>89</v>
+      </c>
+      <c r="H70" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3603,16 +3808,18 @@
       <c r="B71" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="27">
         <v>51</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="39">
         <v>71</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="46">
+      <c r="G71" s="47">
+        <v>97</v>
+      </c>
+      <c r="H71" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3623,16 +3830,18 @@
       <c r="B72" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="27">
         <v>96</v>
       </c>
-      <c r="D72" s="51">
+      <c r="D72" s="39">
         <v>100</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="46">
+      <c r="G72" s="47">
+        <v>100</v>
+      </c>
+      <c r="H72" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3643,16 +3852,18 @@
       <c r="B73" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="27">
         <v>61</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="39">
         <v>96</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="46">
+      <c r="G73" s="47">
+        <v>89</v>
+      </c>
+      <c r="H73" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3663,16 +3874,18 @@
       <c r="B74" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="27">
         <v>0</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="39">
         <v>36</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="46">
+      <c r="G74" s="49">
+        <v>77</v>
+      </c>
+      <c r="H74" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -3683,16 +3896,18 @@
       <c r="B75" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="27">
         <v>66</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="39">
         <v>38</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="46">
+      <c r="G75" s="49">
+        <v>88</v>
+      </c>
+      <c r="H75" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -3703,16 +3918,18 @@
       <c r="B76" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="27">
         <v>28</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="39">
         <v>66</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="46">
+      <c r="G76" s="47">
+        <v>61</v>
+      </c>
+      <c r="H76" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -3723,16 +3940,18 @@
       <c r="B77" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="27">
         <v>58</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="39">
         <v>41</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="46">
+      <c r="G77" s="47">
+        <v>87</v>
+      </c>
+      <c r="H77" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3743,16 +3962,18 @@
       <c r="B78" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="27">
         <v>52</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="39">
         <v>67</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="46">
+      <c r="G78" s="47">
+        <v>78</v>
+      </c>
+      <c r="H78" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3763,16 +3984,18 @@
       <c r="B79" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="46">
+      <c r="G79" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H79" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3783,16 +4006,18 @@
       <c r="B80" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="27">
         <v>34</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="38">
         <v>86</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="46">
+      <c r="G80" s="47">
+        <v>63</v>
+      </c>
+      <c r="H80" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3803,16 +4028,18 @@
       <c r="B81" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="27">
         <v>72</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="38">
         <v>67</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="46">
+      <c r="G81" s="47">
+        <v>94</v>
+      </c>
+      <c r="H81" s="34">
         <v>54.55</v>
       </c>
     </row>
@@ -3823,16 +4050,18 @@
       <c r="B82" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="27">
         <v>64</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="39">
         <v>70</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="46">
+      <c r="G82" s="47">
+        <v>91</v>
+      </c>
+      <c r="H82" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3843,16 +4072,18 @@
       <c r="B83" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="27">
         <v>44</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="39">
         <v>16</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="46">
+      <c r="G83" s="47">
+        <v>74</v>
+      </c>
+      <c r="H83" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -3863,16 +4094,18 @@
       <c r="B84" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="27">
         <v>16</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="39">
         <v>4</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="46">
+      <c r="G84" s="47">
+        <v>23</v>
+      </c>
+      <c r="H84" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3883,16 +4116,18 @@
       <c r="B85" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="27">
         <v>37</v>
       </c>
-      <c r="D85" s="51">
+      <c r="D85" s="39">
         <v>85</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="46">
+      <c r="G85" s="47">
+        <v>98</v>
+      </c>
+      <c r="H85" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -3903,16 +4138,18 @@
       <c r="B86" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="27">
         <v>75</v>
       </c>
-      <c r="D86" s="51">
+      <c r="D86" s="39">
         <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="46">
+      <c r="G86" s="49">
+        <v>92</v>
+      </c>
+      <c r="H86" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -3923,16 +4160,18 @@
       <c r="B87" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="27">
         <v>57</v>
       </c>
-      <c r="D87" s="51">
+      <c r="D87" s="39">
         <v>100</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="46">
+      <c r="G87" s="47">
+        <v>89</v>
+      </c>
+      <c r="H87" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -3943,16 +4182,18 @@
       <c r="B88" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="39" t="s">
+      <c r="D88" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="46">
+      <c r="G88" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H88" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3963,16 +4204,18 @@
       <c r="B89" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="27">
         <v>57</v>
       </c>
-      <c r="D89" s="51">
+      <c r="D89" s="39">
         <v>91</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="46">
+      <c r="G89" s="47">
+        <v>93</v>
+      </c>
+      <c r="H89" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -3983,16 +4226,18 @@
       <c r="B90" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="27">
         <v>70</v>
       </c>
-      <c r="D90" s="51">
+      <c r="D90" s="39">
         <v>87</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="46">
+      <c r="G90" s="47">
+        <v>91</v>
+      </c>
+      <c r="H90" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4003,16 +4248,18 @@
       <c r="B91" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="27">
         <v>87</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="39">
         <v>76</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="46">
+      <c r="G91" s="47">
+        <v>98</v>
+      </c>
+      <c r="H91" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4023,16 +4270,18 @@
       <c r="B92" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="27">
         <v>34</v>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="38">
         <v>53</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="46">
+      <c r="G92" s="47">
+        <v>64</v>
+      </c>
+      <c r="H92" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4043,16 +4292,18 @@
       <c r="B93" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="27">
         <v>57</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="39">
         <v>40</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="46">
+      <c r="G93" s="49">
+        <v>78</v>
+      </c>
+      <c r="H93" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -4063,16 +4314,18 @@
       <c r="B94" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="27">
         <v>37</v>
       </c>
-      <c r="D94" s="51">
+      <c r="D94" s="39">
         <v>34</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="46">
+      <c r="G94" s="47">
+        <v>72</v>
+      </c>
+      <c r="H94" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4083,16 +4336,18 @@
       <c r="B95" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="27">
         <v>85</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D95" s="39">
         <v>100</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="46">
+      <c r="G95" s="47">
+        <v>93</v>
+      </c>
+      <c r="H95" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4103,16 +4358,18 @@
       <c r="B96" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="27">
         <v>29</v>
       </c>
-      <c r="D96" s="50">
+      <c r="D96" s="38">
         <v>30</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="46">
+      <c r="G96" s="47">
+        <v>74</v>
+      </c>
+      <c r="H96" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4123,16 +4380,18 @@
       <c r="B97" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="27">
         <v>44</v>
       </c>
-      <c r="D97" s="51">
+      <c r="D97" s="39">
         <v>70</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="46">
+      <c r="G97" s="47">
+        <v>100</v>
+      </c>
+      <c r="H97" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4143,16 +4402,18 @@
       <c r="B98" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="27">
         <v>84</v>
       </c>
-      <c r="D98" s="51">
+      <c r="D98" s="39">
         <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="46">
+      <c r="G98" s="47">
+        <v>99</v>
+      </c>
+      <c r="H98" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4163,16 +4424,18 @@
       <c r="B99" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="39">
+      <c r="C99" s="27">
         <v>62</v>
       </c>
-      <c r="D99" s="51">
+      <c r="D99" s="39">
         <v>68</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="46">
+      <c r="G99" s="47">
+        <v>91</v>
+      </c>
+      <c r="H99" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4183,16 +4446,18 @@
       <c r="B100" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="39" t="s">
+      <c r="C100" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="39" t="s">
+      <c r="D100" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="46">
+      <c r="G100" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H100" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4203,16 +4468,18 @@
       <c r="B101" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="27">
         <v>72</v>
       </c>
-      <c r="D101" s="51">
+      <c r="D101" s="39">
         <v>40</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="46">
+      <c r="G101" s="47">
+        <v>90</v>
+      </c>
+      <c r="H101" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4223,16 +4490,18 @@
       <c r="B102" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="27">
         <v>83</v>
       </c>
-      <c r="D102" s="51">
+      <c r="D102" s="39">
         <v>93</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="46">
+      <c r="G102" s="47">
+        <v>93</v>
+      </c>
+      <c r="H102" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4243,16 +4512,18 @@
       <c r="B103" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="27">
         <v>25</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="38">
         <v>58</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="46">
+      <c r="G103" s="47">
+        <v>76</v>
+      </c>
+      <c r="H103" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4263,16 +4534,18 @@
       <c r="B104" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="27">
         <v>14</v>
       </c>
-      <c r="D104" s="50">
+      <c r="D104" s="38">
         <v>9</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="46">
+      <c r="G104" s="49">
+        <v>55</v>
+      </c>
+      <c r="H104" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -4283,16 +4556,18 @@
       <c r="B105" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="27">
         <v>75</v>
       </c>
-      <c r="D105" s="51">
+      <c r="D105" s="39">
         <v>26</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="46">
+      <c r="G105" s="47">
+        <v>97</v>
+      </c>
+      <c r="H105" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4303,16 +4578,18 @@
       <c r="B106" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="39">
+      <c r="C106" s="27">
         <v>62</v>
       </c>
-      <c r="D106" s="51">
+      <c r="D106" s="39">
         <v>100</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="46">
+      <c r="G106" s="47">
+        <v>91</v>
+      </c>
+      <c r="H106" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4323,16 +4600,18 @@
       <c r="B107" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="39">
+      <c r="C107" s="27">
         <v>94</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="40">
         <v>69</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="46">
+      <c r="G107" s="47">
+        <v>80</v>
+      </c>
+      <c r="H107" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4343,16 +4622,18 @@
       <c r="B108" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="39">
+      <c r="C108" s="27">
         <v>48</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="40">
         <v>37</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="46">
+      <c r="G108" s="47">
+        <v>69</v>
+      </c>
+      <c r="H108" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -4363,16 +4644,18 @@
       <c r="B109" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="39">
+      <c r="C109" s="27">
         <v>43</v>
       </c>
-      <c r="D109" s="52">
+      <c r="D109" s="40">
         <v>80</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="46">
+      <c r="G109" s="47">
+        <v>88</v>
+      </c>
+      <c r="H109" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4383,16 +4666,18 @@
       <c r="B110" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="39">
+      <c r="C110" s="27">
         <v>78</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="40">
         <v>83</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="46">
+      <c r="G110" s="47">
+        <v>95</v>
+      </c>
+      <c r="H110" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4403,16 +4688,18 @@
       <c r="B111" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="39">
+      <c r="C111" s="27">
         <v>57</v>
       </c>
-      <c r="D111" s="52">
+      <c r="D111" s="40">
         <v>77</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="46">
+      <c r="G111" s="47">
+        <v>93</v>
+      </c>
+      <c r="H111" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4423,16 +4710,18 @@
       <c r="B112" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="39">
+      <c r="C112" s="27">
         <v>92</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="40">
         <v>99</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="46">
+      <c r="G112" s="47">
+        <v>100</v>
+      </c>
+      <c r="H112" s="34">
         <v>100</v>
       </c>
     </row>
@@ -4443,16 +4732,18 @@
       <c r="B113" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="39">
+      <c r="C113" s="27">
         <v>89</v>
       </c>
-      <c r="D113" s="52">
+      <c r="D113" s="40">
         <v>100</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="46">
+      <c r="G113" s="47">
+        <v>86</v>
+      </c>
+      <c r="H113" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4463,16 +4754,18 @@
       <c r="B114" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="39">
+      <c r="C114" s="27">
         <v>75</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="40">
         <v>100</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="46">
+      <c r="G114" s="47">
+        <v>96</v>
+      </c>
+      <c r="H114" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -4483,16 +4776,18 @@
       <c r="B115" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C115" s="39">
+      <c r="C115" s="27">
         <v>76</v>
       </c>
-      <c r="D115" s="52">
+      <c r="D115" s="40">
         <v>97</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="46">
+      <c r="G115" s="47">
+        <v>99</v>
+      </c>
+      <c r="H115" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4503,16 +4798,18 @@
       <c r="B116" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="39">
+      <c r="C116" s="27">
         <v>24</v>
       </c>
-      <c r="D116" s="50">
+      <c r="D116" s="38">
         <v>55</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="46">
+      <c r="G116" s="47">
+        <v>90</v>
+      </c>
+      <c r="H116" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -4523,16 +4820,18 @@
       <c r="B117" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="27">
         <v>31</v>
       </c>
-      <c r="D117" s="50">
+      <c r="D117" s="38">
         <v>91</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="46">
+      <c r="G117" s="47">
+        <v>90</v>
+      </c>
+      <c r="H117" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4543,16 +4842,18 @@
       <c r="B118" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="39">
+      <c r="C118" s="27">
         <v>61</v>
       </c>
-      <c r="D118" s="50">
+      <c r="D118" s="38">
         <v>45</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="46">
+      <c r="G118" s="47">
+        <v>98</v>
+      </c>
+      <c r="H118" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4563,16 +4864,18 @@
       <c r="B119" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="27">
         <v>61</v>
       </c>
-      <c r="D119" s="52">
+      <c r="D119" s="40">
         <v>40</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="46">
+      <c r="G119" s="47">
+        <v>91</v>
+      </c>
+      <c r="H119" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4583,16 +4886,18 @@
       <c r="B120" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="27">
         <v>72</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="40">
         <v>71</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="46">
+      <c r="G120" s="47">
+        <v>94</v>
+      </c>
+      <c r="H120" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4603,16 +4908,18 @@
       <c r="B121" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="27">
         <v>75</v>
       </c>
-      <c r="D121" s="52">
+      <c r="D121" s="40">
         <v>90</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="46">
+      <c r="G121" s="47">
+        <v>84</v>
+      </c>
+      <c r="H121" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4623,16 +4930,18 @@
       <c r="B122" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C122" s="39">
+      <c r="C122" s="27">
         <v>77</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="40">
         <v>90</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="46">
+      <c r="G122" s="47">
+        <v>86</v>
+      </c>
+      <c r="H122" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -4643,16 +4952,18 @@
       <c r="B123" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="39">
+      <c r="C123" s="27">
         <v>78</v>
       </c>
-      <c r="D123" s="50">
+      <c r="D123" s="38">
         <v>98</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="46">
+      <c r="G123" s="47">
+        <v>100</v>
+      </c>
+      <c r="H123" s="34">
         <v>100</v>
       </c>
     </row>
@@ -4663,16 +4974,18 @@
       <c r="B124" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="27">
         <v>41</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="40">
         <v>85</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="46">
+      <c r="G124" s="47">
+        <v>73</v>
+      </c>
+      <c r="H124" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4683,16 +4996,18 @@
       <c r="B125" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C125" s="39">
+      <c r="C125" s="27">
         <v>28</v>
       </c>
-      <c r="D125" s="50">
+      <c r="D125" s="38">
         <v>59</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="46">
+      <c r="G125" s="47">
+        <v>78</v>
+      </c>
+      <c r="H125" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4703,16 +5018,18 @@
       <c r="B126" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C126" s="39">
+      <c r="C126" s="27">
         <v>71</v>
       </c>
-      <c r="D126" s="50">
+      <c r="D126" s="38">
         <v>99</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="46">
+      <c r="G126" s="47">
+        <v>73</v>
+      </c>
+      <c r="H126" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -4723,16 +5040,18 @@
       <c r="B127" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="39">
+      <c r="C127" s="27">
         <v>41</v>
       </c>
-      <c r="D127" s="52">
+      <c r="D127" s="40">
         <v>5</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="46">
+      <c r="G127" s="47">
+        <v>85</v>
+      </c>
+      <c r="H127" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4743,16 +5062,18 @@
       <c r="B128" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="39">
+      <c r="C128" s="27">
         <v>43</v>
       </c>
-      <c r="D128" s="52">
+      <c r="D128" s="40">
         <v>45</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="46">
+      <c r="G128" s="47">
+        <v>77</v>
+      </c>
+      <c r="H128" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -4763,16 +5084,18 @@
       <c r="B129" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="39">
+      <c r="C129" s="27">
         <v>50</v>
       </c>
-      <c r="D129" s="52">
+      <c r="D129" s="40">
         <v>9</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="46">
+      <c r="G129" s="47">
+        <v>70</v>
+      </c>
+      <c r="H129" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4783,16 +5106,18 @@
       <c r="B130" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="39">
+      <c r="C130" s="27">
         <v>77</v>
       </c>
-      <c r="D130" s="52">
+      <c r="D130" s="40">
         <v>87</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="46">
+      <c r="G130" s="47">
+        <v>88</v>
+      </c>
+      <c r="H130" s="34">
         <v>100</v>
       </c>
     </row>
@@ -4803,16 +5128,18 @@
       <c r="B131" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C131" s="39">
+      <c r="C131" s="27">
         <v>86</v>
       </c>
-      <c r="D131" s="52">
+      <c r="D131" s="40">
         <v>100</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="46">
+      <c r="G131" s="47">
+        <v>96</v>
+      </c>
+      <c r="H131" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4823,16 +5150,18 @@
       <c r="B132" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C132" s="39">
+      <c r="C132" s="27">
         <v>49</v>
       </c>
-      <c r="D132" s="52">
+      <c r="D132" s="40">
         <v>99</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="46">
+      <c r="G132" s="47">
+        <v>83</v>
+      </c>
+      <c r="H132" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -4843,16 +5172,18 @@
       <c r="B133" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C133" s="39">
+      <c r="C133" s="27">
         <v>41</v>
       </c>
-      <c r="D133" s="52">
+      <c r="D133" s="40">
         <v>84</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="46">
+      <c r="G133" s="47">
+        <v>90</v>
+      </c>
+      <c r="H133" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -4863,16 +5194,18 @@
       <c r="B134" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="39">
+      <c r="C134" s="27">
         <v>25</v>
       </c>
-      <c r="D134" s="52">
+      <c r="D134" s="40">
         <v>57</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="46">
+      <c r="G134" s="47">
+        <v>92</v>
+      </c>
+      <c r="H134" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -4883,16 +5216,18 @@
       <c r="B135" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C135" s="39">
+      <c r="C135" s="27">
         <v>54</v>
       </c>
-      <c r="D135" s="52">
+      <c r="D135" s="40">
         <v>86</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="46">
+      <c r="G135" s="47">
+        <v>63</v>
+      </c>
+      <c r="H135" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -4903,16 +5238,18 @@
       <c r="B136" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="39">
+      <c r="C136" s="27">
         <v>37</v>
       </c>
-      <c r="D136" s="52">
+      <c r="D136" s="40">
         <v>83</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="46">
+      <c r="G136" s="47">
+        <v>92</v>
+      </c>
+      <c r="H136" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4923,16 +5260,18 @@
       <c r="B137" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="27">
         <v>54</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D137" s="40">
         <v>50</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="46">
+      <c r="G137" s="47">
+        <v>75</v>
+      </c>
+      <c r="H137" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -4943,16 +5282,18 @@
       <c r="B138" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="39" t="s">
+      <c r="C138" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="46">
+      <c r="G138" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H138" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4963,16 +5304,18 @@
       <c r="B139" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="39">
+      <c r="C139" s="27">
         <v>56</v>
       </c>
-      <c r="D139" s="50">
+      <c r="D139" s="38">
         <v>4</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="46">
+      <c r="G139" s="47">
+        <v>54</v>
+      </c>
+      <c r="H139" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -4983,16 +5326,18 @@
       <c r="B140" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="39">
+      <c r="C140" s="27">
         <v>84</v>
       </c>
-      <c r="D140" s="52">
+      <c r="D140" s="40">
         <v>66</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="46">
+      <c r="G140" s="50">
+        <v>82</v>
+      </c>
+      <c r="H140" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5003,16 +5348,18 @@
       <c r="B141" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="39">
+      <c r="C141" s="27">
         <v>52</v>
       </c>
-      <c r="D141" s="50">
+      <c r="D141" s="38">
         <v>32</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="46">
+      <c r="G141" s="51">
+        <v>82</v>
+      </c>
+      <c r="H141" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5023,16 +5370,18 @@
       <c r="B142" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C142" s="39">
+      <c r="C142" s="27">
         <v>20</v>
       </c>
-      <c r="D142" s="52">
+      <c r="D142" s="40">
         <v>40</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="46">
+      <c r="G142" s="46">
+        <v>62</v>
+      </c>
+      <c r="H142" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5043,16 +5392,18 @@
       <c r="B143" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="39" t="s">
+      <c r="C143" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D143" s="39" t="s">
+      <c r="D143" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="46">
+      <c r="G143" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H143" s="34">
         <v>9.09</v>
       </c>
     </row>
@@ -5063,16 +5414,18 @@
       <c r="B144" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="39">
+      <c r="C144" s="27">
         <v>66</v>
       </c>
-      <c r="D144" s="52">
+      <c r="D144" s="40">
         <v>69</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="46">
+      <c r="G144" s="47">
+        <v>72</v>
+      </c>
+      <c r="H144" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5083,16 +5436,18 @@
       <c r="B145" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="39">
+      <c r="C145" s="27">
         <v>49</v>
       </c>
-      <c r="D145" s="52">
+      <c r="D145" s="40">
         <v>87</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="46">
+      <c r="G145" s="47">
+        <v>70</v>
+      </c>
+      <c r="H145" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5103,16 +5458,18 @@
       <c r="B146" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C146" s="39">
+      <c r="C146" s="27">
         <v>64</v>
       </c>
-      <c r="D146" s="52">
+      <c r="D146" s="40">
         <v>69</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="46">
+      <c r="G146" s="47">
+        <v>100</v>
+      </c>
+      <c r="H146" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5123,16 +5480,18 @@
       <c r="B147" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="39">
+      <c r="C147" s="27">
         <v>54</v>
       </c>
-      <c r="D147" s="52">
+      <c r="D147" s="40">
         <v>100</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="46">
+      <c r="G147" s="47">
+        <v>95</v>
+      </c>
+      <c r="H147" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5143,16 +5502,18 @@
       <c r="B148" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="39">
+      <c r="C148" s="27">
         <v>84</v>
       </c>
-      <c r="D148" s="52">
+      <c r="D148" s="40">
         <v>68</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="46">
+      <c r="G148" s="47">
+        <v>92</v>
+      </c>
+      <c r="H148" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5163,16 +5524,18 @@
       <c r="B149" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C149" s="39">
+      <c r="C149" s="27">
         <v>61</v>
       </c>
-      <c r="D149" s="52">
+      <c r="D149" s="40">
         <v>61</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="46">
+      <c r="G149" s="47">
+        <v>80</v>
+      </c>
+      <c r="H149" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -5183,16 +5546,18 @@
       <c r="B150" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="39">
+      <c r="C150" s="27">
         <v>76</v>
       </c>
-      <c r="D150" s="52">
+      <c r="D150" s="40">
         <v>59</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="46">
+      <c r="G150" s="47">
+        <v>97</v>
+      </c>
+      <c r="H150" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5203,16 +5568,18 @@
       <c r="B151" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C151" s="39">
+      <c r="C151" s="27">
         <v>81</v>
       </c>
-      <c r="D151" s="52">
+      <c r="D151" s="40">
         <v>30</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="46">
+      <c r="G151" s="47">
+        <v>81</v>
+      </c>
+      <c r="H151" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5223,16 +5590,18 @@
       <c r="B152" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="39">
+      <c r="C152" s="27">
         <v>53</v>
       </c>
-      <c r="D152" s="52">
+      <c r="D152" s="40">
         <v>60</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="46">
+      <c r="G152" s="47">
+        <v>86</v>
+      </c>
+      <c r="H152" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5243,16 +5612,18 @@
       <c r="B153" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C153" s="39">
+      <c r="C153" s="27">
         <v>62</v>
       </c>
-      <c r="D153" s="52">
+      <c r="D153" s="40">
         <v>81</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="46">
+      <c r="G153" s="47">
+        <v>73</v>
+      </c>
+      <c r="H153" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5263,16 +5634,18 @@
       <c r="B154" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C154" s="39">
+      <c r="C154" s="27">
         <v>69</v>
       </c>
-      <c r="D154" s="52">
+      <c r="D154" s="40">
         <v>69</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="46">
+      <c r="G154" s="47">
+        <v>90</v>
+      </c>
+      <c r="H154" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -5283,16 +5656,18 @@
       <c r="B155" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C155" s="39">
+      <c r="C155" s="27">
         <v>74</v>
       </c>
-      <c r="D155" s="52">
+      <c r="D155" s="40">
         <v>81</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="46">
+      <c r="G155" s="47">
+        <v>80</v>
+      </c>
+      <c r="H155" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5303,16 +5678,18 @@
       <c r="B156" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="39">
+      <c r="C156" s="27">
         <v>52</v>
       </c>
-      <c r="D156" s="52">
+      <c r="D156" s="40">
         <v>100</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="46">
+      <c r="G156" s="47">
+        <v>93</v>
+      </c>
+      <c r="H156" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5323,16 +5700,18 @@
       <c r="B157" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="C157" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="D157" s="39" t="s">
+      <c r="D157" s="27" t="s">
         <v>419</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="46">
+      <c r="G157" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H157" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5343,16 +5722,18 @@
       <c r="B158" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="39">
+      <c r="C158" s="27">
         <v>26</v>
       </c>
-      <c r="D158" s="50">
+      <c r="D158" s="38">
         <v>41</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="46">
+      <c r="G158" s="47">
+        <v>67</v>
+      </c>
+      <c r="H158" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -5363,16 +5744,18 @@
       <c r="B159" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="39">
+      <c r="C159" s="27">
         <v>51</v>
       </c>
-      <c r="D159" s="52">
+      <c r="D159" s="40">
         <v>16</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="46">
+      <c r="G159" s="47">
+        <v>65</v>
+      </c>
+      <c r="H159" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -5383,16 +5766,18 @@
       <c r="B160" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C160" s="39">
+      <c r="C160" s="27">
         <v>35</v>
       </c>
-      <c r="D160" s="52">
+      <c r="D160" s="40">
         <v>44</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="46">
+      <c r="G160" s="47">
+        <v>83</v>
+      </c>
+      <c r="H160" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5403,16 +5788,18 @@
       <c r="B161" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C161" s="39">
+      <c r="C161" s="27">
         <v>62</v>
       </c>
-      <c r="D161" s="52">
+      <c r="D161" s="40">
         <v>62</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="46">
+      <c r="G161" s="47">
+        <v>59</v>
+      </c>
+      <c r="H161" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5423,16 +5810,18 @@
       <c r="B162" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="39">
+      <c r="C162" s="27">
         <v>63</v>
       </c>
-      <c r="D162" s="52">
+      <c r="D162" s="40">
         <v>61</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="46">
+      <c r="G162" s="47">
+        <v>83</v>
+      </c>
+      <c r="H162" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -5443,16 +5832,18 @@
       <c r="B163" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="39">
+      <c r="C163" s="27">
         <v>73</v>
       </c>
-      <c r="D163" s="50">
+      <c r="D163" s="38">
         <v>56</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="46">
+      <c r="G163" s="47">
+        <v>63</v>
+      </c>
+      <c r="H163" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5463,16 +5854,18 @@
       <c r="B164" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C164" s="39" t="s">
+      <c r="C164" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D164" s="39" t="s">
+      <c r="D164" s="27" t="s">
         <v>418</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="46">
+      <c r="G164" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="H164" s="34">
         <v>4.55</v>
       </c>
     </row>
@@ -5483,16 +5876,18 @@
       <c r="B165" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="39">
+      <c r="C165" s="27">
         <v>53</v>
       </c>
-      <c r="D165" s="52">
+      <c r="D165" s="40">
         <v>99</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="46">
+      <c r="G165" s="47">
+        <v>100</v>
+      </c>
+      <c r="H165" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5503,16 +5898,18 @@
       <c r="B166" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C166" s="39">
+      <c r="C166" s="27">
         <v>64</v>
       </c>
-      <c r="D166" s="52">
+      <c r="D166" s="40">
         <v>37</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="46">
+      <c r="G166" s="47">
+        <v>92</v>
+      </c>
+      <c r="H166" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -5523,7 +5920,7 @@
       <c r="B167" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C167" s="39" t="s">
+      <c r="C167" s="27" t="s">
         <v>418</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -5531,8 +5928,10 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="46">
+      <c r="G167" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="H167" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5543,16 +5942,18 @@
       <c r="B168" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="39">
+      <c r="C168" s="27">
         <v>79</v>
       </c>
-      <c r="D168" s="52">
+      <c r="D168" s="40">
         <v>53</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="46">
+      <c r="G168" s="47">
+        <v>92</v>
+      </c>
+      <c r="H168" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5563,16 +5964,18 @@
       <c r="B169" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C169" s="39">
+      <c r="C169" s="27">
         <v>46</v>
       </c>
-      <c r="D169" s="50">
+      <c r="D169" s="38">
         <v>36</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="46">
+      <c r="G169" s="47">
+        <v>70</v>
+      </c>
+      <c r="H169" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5583,16 +5986,18 @@
       <c r="B170" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C170" s="39">
+      <c r="C170" s="27">
         <v>79</v>
       </c>
-      <c r="D170" s="51">
+      <c r="D170" s="39">
         <v>100</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="46">
+      <c r="G170" s="47">
+        <v>91</v>
+      </c>
+      <c r="H170" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -5603,16 +6008,18 @@
       <c r="B171" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C171" s="39">
+      <c r="C171" s="27">
         <v>75</v>
       </c>
-      <c r="D171" s="50">
+      <c r="D171" s="38">
         <v>77</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="46">
+      <c r="G171" s="47">
+        <v>86</v>
+      </c>
+      <c r="H171" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -5623,16 +6030,18 @@
       <c r="B172" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="39">
+      <c r="C172" s="27">
         <v>62</v>
       </c>
-      <c r="D172" s="51">
+      <c r="D172" s="39">
         <v>52</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="46">
+      <c r="G172" s="47">
+        <v>74</v>
+      </c>
+      <c r="H172" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -5643,16 +6052,18 @@
       <c r="B173" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="39">
+      <c r="C173" s="27">
         <v>35</v>
       </c>
-      <c r="D173" s="53">
+      <c r="D173" s="41">
         <v>40</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="46">
+      <c r="G173" s="50">
+        <v>79</v>
+      </c>
+      <c r="H173" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -5663,16 +6074,18 @@
       <c r="B174" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C174" s="39">
+      <c r="C174" s="27">
         <v>59</v>
       </c>
-      <c r="D174" s="49">
+      <c r="D174" s="37">
         <v>100</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="46">
+      <c r="G174" s="45">
+        <v>100</v>
+      </c>
+      <c r="H174" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -5683,16 +6096,18 @@
       <c r="B175" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="39">
+      <c r="C175" s="27">
         <v>73</v>
       </c>
-      <c r="D175" s="54">
+      <c r="D175" s="42">
         <v>96</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="46">
+      <c r="G175" s="45">
+        <v>92</v>
+      </c>
+      <c r="H175" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5703,16 +6118,18 @@
       <c r="B176" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="39">
+      <c r="C176" s="27">
         <v>55</v>
       </c>
-      <c r="D176" s="54">
+      <c r="D176" s="42">
         <v>32</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="46">
+      <c r="G176" s="45">
+        <v>71</v>
+      </c>
+      <c r="H176" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -5723,16 +6140,18 @@
       <c r="B177" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="39" t="s">
+      <c r="C177" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D177" s="49">
+      <c r="D177" s="37">
         <v>6</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="46">
+      <c r="G177" s="45">
+        <v>50</v>
+      </c>
+      <c r="H177" s="34">
         <v>68.179999999999993</v>
       </c>
     </row>
@@ -5743,16 +6162,18 @@
       <c r="B178" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C178" s="39">
+      <c r="C178" s="27">
         <v>0</v>
       </c>
-      <c r="D178" s="49">
+      <c r="D178" s="37">
         <v>26</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="46">
+      <c r="G178" s="45">
+        <v>53</v>
+      </c>
+      <c r="H178" s="34">
         <v>59.089999999999996</v>
       </c>
     </row>
@@ -5763,7 +6184,7 @@
       <c r="B179" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="41" t="s">
+      <c r="C179" s="29" t="s">
         <v>419</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -5771,8 +6192,10 @@
       </c>
       <c r="E179" s="8"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="46">
+      <c r="G179" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="H179" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5783,16 +6206,18 @@
       <c r="B180" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C180" s="42">
+      <c r="C180" s="30">
         <v>50</v>
       </c>
-      <c r="D180" s="49">
+      <c r="D180" s="37">
         <v>81</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="46">
+      <c r="G180" s="53">
+        <v>92</v>
+      </c>
+      <c r="H180" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -5803,16 +6228,18 @@
       <c r="B181" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="42">
+      <c r="C181" s="30">
         <v>82</v>
       </c>
-      <c r="D181" s="49">
+      <c r="D181" s="37">
         <v>48</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="11"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="46">
+      <c r="G181" s="53">
+        <v>89</v>
+      </c>
+      <c r="H181" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -5823,16 +6250,18 @@
       <c r="B182" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C182" s="42">
+      <c r="C182" s="30">
         <v>33</v>
       </c>
-      <c r="D182" s="49">
+      <c r="D182" s="37">
         <v>78</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="46">
+      <c r="G182" s="53">
+        <v>69</v>
+      </c>
+      <c r="H182" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5843,16 +6272,18 @@
       <c r="B183" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C183" s="42">
+      <c r="C183" s="30">
         <v>49</v>
       </c>
-      <c r="D183" s="49">
+      <c r="D183" s="37">
         <v>74</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="46">
+      <c r="G183" s="53">
+        <v>90</v>
+      </c>
+      <c r="H183" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5863,16 +6294,18 @@
       <c r="B184" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C184" s="42">
+      <c r="C184" s="30">
         <v>45</v>
       </c>
-      <c r="D184" s="49">
+      <c r="D184" s="37">
         <v>93</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="46">
+      <c r="G184" s="53">
+        <v>92</v>
+      </c>
+      <c r="H184" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5883,16 +6316,18 @@
       <c r="B185" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C185" s="42">
+      <c r="C185" s="30">
         <v>57</v>
       </c>
-      <c r="D185" s="49">
+      <c r="D185" s="37">
         <v>63</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="46">
+      <c r="G185" s="53">
+        <v>71</v>
+      </c>
+      <c r="H185" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -5903,16 +6338,18 @@
       <c r="B186" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="42">
+      <c r="C186" s="30">
         <v>51</v>
       </c>
-      <c r="D186" s="49">
+      <c r="D186" s="37">
         <v>52</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="46">
+      <c r="G186" s="53">
+        <v>93</v>
+      </c>
+      <c r="H186" s="34">
         <v>63.639999999999993</v>
       </c>
     </row>
@@ -5923,16 +6360,18 @@
       <c r="B187" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="42">
+      <c r="C187" s="30">
         <v>79</v>
       </c>
-      <c r="D187" s="49">
+      <c r="D187" s="37">
         <v>52</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="46">
+      <c r="G187" s="53">
+        <v>79</v>
+      </c>
+      <c r="H187" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -5943,16 +6382,18 @@
       <c r="B188" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="42">
+      <c r="C188" s="30">
         <v>55</v>
       </c>
-      <c r="D188" s="49">
+      <c r="D188" s="37">
         <v>33</v>
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="46">
+      <c r="G188" s="53">
+        <v>67</v>
+      </c>
+      <c r="H188" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -5963,16 +6404,18 @@
       <c r="B189" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C189" s="42">
+      <c r="C189" s="30">
         <v>66</v>
       </c>
-      <c r="D189" s="49">
+      <c r="D189" s="37">
         <v>70</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="46">
+      <c r="G189" s="53">
+        <v>74</v>
+      </c>
+      <c r="H189" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -5983,16 +6426,18 @@
       <c r="B190" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="42">
+      <c r="C190" s="30">
         <v>16</v>
       </c>
-      <c r="D190" s="49">
+      <c r="D190" s="37">
         <v>36</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="46">
+      <c r="G190" s="53">
+        <v>79</v>
+      </c>
+      <c r="H190" s="34">
         <v>50</v>
       </c>
     </row>
@@ -6003,16 +6448,18 @@
       <c r="B191" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C191" s="42">
+      <c r="C191" s="30">
         <v>67</v>
       </c>
-      <c r="D191" s="49">
+      <c r="D191" s="37">
         <v>82</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="46">
+      <c r="G191" s="53">
+        <v>74</v>
+      </c>
+      <c r="H191" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -6023,16 +6470,18 @@
       <c r="B192" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="42">
+      <c r="C192" s="30">
         <v>68</v>
       </c>
-      <c r="D192" s="49">
+      <c r="D192" s="37">
         <v>26</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="46">
+      <c r="G192" s="53">
+        <v>81</v>
+      </c>
+      <c r="H192" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -6043,16 +6492,18 @@
       <c r="B193" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C193" s="42">
+      <c r="C193" s="30">
         <v>40</v>
       </c>
-      <c r="D193" s="49">
+      <c r="D193" s="37">
         <v>88</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="46">
+      <c r="G193" s="53">
+        <v>84</v>
+      </c>
+      <c r="H193" s="34">
         <v>86.36</v>
       </c>
     </row>
@@ -6063,16 +6514,18 @@
       <c r="B194" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="42">
+      <c r="C194" s="30">
         <v>74</v>
       </c>
-      <c r="D194" s="49">
+      <c r="D194" s="37">
         <v>100</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="14"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="46">
+      <c r="G194" s="53">
+        <v>97</v>
+      </c>
+      <c r="H194" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -6083,16 +6536,18 @@
       <c r="B195" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C195" s="42">
+      <c r="C195" s="30">
         <v>58</v>
       </c>
-      <c r="D195" s="49">
+      <c r="D195" s="37">
         <v>32</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="15"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="46">
+      <c r="G195" s="53">
+        <v>69</v>
+      </c>
+      <c r="H195" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -6103,16 +6558,18 @@
       <c r="B196" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C196" s="42">
+      <c r="C196" s="30">
         <v>54</v>
       </c>
-      <c r="D196" s="49">
+      <c r="D196" s="37">
         <v>86</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="3"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="46">
+      <c r="G196" s="53">
+        <v>78</v>
+      </c>
+      <c r="H196" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -6123,16 +6580,18 @@
       <c r="B197" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C197" s="42">
+      <c r="C197" s="30">
         <v>64</v>
       </c>
-      <c r="D197" s="49">
+      <c r="D197" s="37">
         <v>63</v>
       </c>
       <c r="E197" s="12"/>
       <c r="F197" s="3"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="46">
+      <c r="G197" s="53">
+        <v>84</v>
+      </c>
+      <c r="H197" s="34">
         <v>90.91</v>
       </c>
     </row>
@@ -6143,16 +6602,18 @@
       <c r="B198" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="42">
+      <c r="C198" s="30">
         <v>89</v>
       </c>
-      <c r="D198" s="49">
+      <c r="D198" s="37">
         <v>60</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="46">
+      <c r="G198" s="53">
+        <v>95</v>
+      </c>
+      <c r="H198" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -6163,16 +6624,18 @@
       <c r="B199" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="43">
+      <c r="C199" s="31">
         <v>78</v>
       </c>
-      <c r="D199" s="49">
+      <c r="D199" s="37">
         <v>100</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="46">
+      <c r="G199" s="54">
+        <v>99</v>
+      </c>
+      <c r="H199" s="34">
         <v>81.820000000000007</v>
       </c>
     </row>
@@ -6183,16 +6646,18 @@
       <c r="B200" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="42">
+      <c r="C200" s="30">
         <v>73</v>
       </c>
-      <c r="D200" s="49">
+      <c r="D200" s="37">
         <v>92</v>
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="46">
+      <c r="G200" s="55">
+        <v>96</v>
+      </c>
+      <c r="H200" s="34">
         <v>95.45</v>
       </c>
     </row>
@@ -6203,16 +6668,18 @@
       <c r="B201" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="42">
+      <c r="C201" s="30">
         <v>51</v>
       </c>
-      <c r="D201" s="49">
+      <c r="D201" s="37">
         <v>66</v>
       </c>
       <c r="E201" s="21"/>
       <c r="F201" s="22"/>
-      <c r="G201" s="37"/>
-      <c r="H201" s="46">
+      <c r="G201" s="55">
+        <v>95</v>
+      </c>
+      <c r="H201" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -6223,16 +6690,18 @@
       <c r="B202" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="C202" s="42">
+      <c r="C202" s="30">
         <v>60</v>
       </c>
-      <c r="D202" s="49">
+      <c r="D202" s="37">
         <v>80</v>
       </c>
       <c r="E202" s="24"/>
       <c r="F202" s="24"/>
-      <c r="G202" s="38"/>
-      <c r="H202" s="46">
+      <c r="G202" s="56">
+        <v>79</v>
+      </c>
+      <c r="H202" s="34">
         <v>72.72999999999999</v>
       </c>
     </row>
@@ -6243,16 +6712,18 @@
       <c r="B203" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="42">
+      <c r="C203" s="30">
         <v>17</v>
       </c>
-      <c r="D203" s="49">
+      <c r="D203" s="37">
         <v>16</v>
       </c>
       <c r="E203" s="24"/>
       <c r="F203" s="24"/>
-      <c r="G203" s="38"/>
-      <c r="H203" s="46">
+      <c r="G203" s="58">
+        <v>30</v>
+      </c>
+      <c r="H203" s="34">
         <v>40.910000000000004</v>
       </c>
     </row>
@@ -6263,16 +6734,18 @@
       <c r="B204" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="42">
+      <c r="C204" s="30">
         <v>50</v>
       </c>
-      <c r="D204" s="50">
+      <c r="D204" s="38">
         <v>93</v>
       </c>
       <c r="E204" s="24"/>
       <c r="F204" s="24"/>
-      <c r="G204" s="38"/>
-      <c r="H204" s="46">
+      <c r="G204" s="58">
+        <v>90</v>
+      </c>
+      <c r="H204" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -6283,16 +6756,18 @@
       <c r="B205" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="42">
+      <c r="C205" s="30">
         <v>51</v>
       </c>
-      <c r="D205" s="50">
+      <c r="D205" s="38">
         <v>69</v>
       </c>
       <c r="E205" s="24"/>
       <c r="F205" s="24"/>
-      <c r="G205" s="38"/>
-      <c r="H205" s="46">
+      <c r="G205" s="58">
+        <v>91</v>
+      </c>
+      <c r="H205" s="34">
         <v>77.27000000000001</v>
       </c>
     </row>
@@ -6303,216 +6778,366 @@
       <c r="B206" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="42">
+      <c r="C206" s="30">
         <v>43</v>
       </c>
-      <c r="D206" s="50">
+      <c r="D206" s="38">
         <v>66</v>
       </c>
       <c r="E206" s="24"/>
       <c r="F206" s="24"/>
-      <c r="G206" s="38"/>
-      <c r="H206" s="46">
+      <c r="G206" s="58">
+        <v>76</v>
+      </c>
+      <c r="H206" s="34">
         <v>13.639999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
-      <c r="A207" s="44" t="s">
+      <c r="A207" s="32" t="s">
         <v>420</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="42">
+      <c r="C207" s="30">
         <v>45</v>
       </c>
-      <c r="D207" s="50" t="s">
+      <c r="D207" s="38" t="s">
         <v>418</v>
       </c>
       <c r="E207" s="24"/>
       <c r="F207" s="24"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="47"/>
+      <c r="G207" s="58">
+        <v>60</v>
+      </c>
+      <c r="H207" s="35"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="44" t="s">
+      <c r="A208" s="32" t="s">
         <v>421</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="42">
+      <c r="C208" s="30">
         <v>79</v>
       </c>
-      <c r="D208" s="55" t="s">
+      <c r="D208" s="43" t="s">
         <v>418</v>
       </c>
       <c r="E208" s="24"/>
       <c r="F208" s="24"/>
-      <c r="G208" s="24"/>
-      <c r="H208" s="47"/>
+      <c r="G208" s="58">
+        <v>85</v>
+      </c>
+      <c r="H208" s="35"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="44" t="s">
+      <c r="A209" s="32" t="s">
         <v>422</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C209" s="42">
+      <c r="C209" s="30">
         <v>68</v>
       </c>
-      <c r="D209" s="50">
+      <c r="D209" s="38">
         <v>64</v>
       </c>
       <c r="E209" s="24"/>
       <c r="F209" s="24"/>
-      <c r="G209" s="24"/>
-      <c r="H209" s="47"/>
+      <c r="G209" s="58">
+        <v>87</v>
+      </c>
+      <c r="H209" s="35"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="44" t="s">
+      <c r="A210" s="32" t="s">
         <v>423</v>
       </c>
       <c r="B210" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C210" s="42">
+      <c r="C210" s="30">
         <v>81</v>
       </c>
-      <c r="D210" s="50">
+      <c r="D210" s="38">
         <v>79</v>
       </c>
       <c r="E210" s="24"/>
       <c r="F210" s="24"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="47"/>
+      <c r="G210" s="58">
+        <v>98</v>
+      </c>
+      <c r="H210" s="35"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="44" t="s">
+      <c r="A211" s="32" t="s">
         <v>424</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C211" s="42">
+      <c r="C211" s="30">
         <v>48</v>
       </c>
-      <c r="D211" s="55" t="s">
+      <c r="D211" s="43" t="s">
         <v>418</v>
       </c>
       <c r="E211" s="24"/>
       <c r="F211" s="24"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="47"/>
+      <c r="G211" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="44" t="s">
+      <c r="A212" s="32" t="s">
         <v>425</v>
       </c>
       <c r="B212" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C212" s="42">
+      <c r="C212" s="30">
         <v>36</v>
       </c>
-      <c r="D212" s="56">
+      <c r="D212" s="44">
         <v>58</v>
       </c>
       <c r="E212" s="24"/>
       <c r="F212" s="24"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="47"/>
+      <c r="G212" s="58">
+        <v>75</v>
+      </c>
+      <c r="H212" s="35"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="44" t="s">
+      <c r="A213" s="32" t="s">
         <v>438</v>
       </c>
       <c r="B213" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="C213" s="42" t="s">
+      <c r="C213" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D213" s="56">
+      <c r="D213" s="44">
         <v>59</v>
       </c>
       <c r="E213" s="24"/>
       <c r="F213" s="24"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="47"/>
+      <c r="G213" s="58">
+        <v>87</v>
+      </c>
+      <c r="H213" s="35"/>
     </row>
     <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="44" t="s">
+      <c r="A214" s="32" t="s">
         <v>426</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C214" s="42">
+      <c r="C214" s="30">
         <v>80</v>
       </c>
-      <c r="D214" s="42" t="s">
+      <c r="D214" s="30" t="s">
         <v>418</v>
       </c>
       <c r="E214" s="24"/>
       <c r="F214" s="24"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="47"/>
+      <c r="G214" s="58">
+        <v>84</v>
+      </c>
+      <c r="H214" s="35"/>
     </row>
     <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="44" t="s">
+      <c r="A215" s="32" t="s">
         <v>427</v>
       </c>
       <c r="B215" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C215" s="42">
+      <c r="C215" s="30">
         <v>38</v>
       </c>
-      <c r="D215" s="49">
+      <c r="D215" s="37">
         <v>64</v>
       </c>
       <c r="E215" s="24"/>
       <c r="F215" s="24"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="47"/>
+      <c r="G215" s="58">
+        <v>61</v>
+      </c>
+      <c r="H215" s="35"/>
     </row>
     <row r="216" spans="1:8" ht="15.75">
-      <c r="A216" s="44" t="s">
+      <c r="A216" s="32" t="s">
         <v>428</v>
       </c>
       <c r="B216" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C216" s="42">
+      <c r="C216" s="30">
         <v>79</v>
       </c>
-      <c r="D216" s="55">
+      <c r="D216" s="43">
         <v>30</v>
       </c>
       <c r="E216" s="24"/>
       <c r="F216" s="24"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="47"/>
+      <c r="G216" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="H216" s="35"/>
     </row>
     <row r="217" spans="1:8" ht="15.75">
-      <c r="A217" s="44" t="s">
+      <c r="A217" s="32" t="s">
         <v>439</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="C217" s="42" t="s">
+      <c r="C217" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D217" s="56">
+      <c r="D217" s="44">
         <v>71</v>
       </c>
       <c r="E217" s="24"/>
       <c r="F217" s="24"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="47"/>
+      <c r="G217" s="58">
+        <v>44</v>
+      </c>
+      <c r="H217" s="35"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="58">
+        <v>52</v>
+      </c>
+      <c r="H218" s="35"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="58">
+        <v>87</v>
+      </c>
+      <c r="H219" s="35"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="58">
+        <v>96</v>
+      </c>
+      <c r="H220" s="35"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="58">
+        <v>90</v>
+      </c>
+      <c r="H221" s="35"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="58">
+        <v>75</v>
+      </c>
+      <c r="H222" s="35"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="58">
+        <v>69</v>
+      </c>
+      <c r="H223" s="35"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="58">
+        <v>93</v>
+      </c>
+      <c r="H224" s="35"/>
+    </row>
+    <row r="225" spans="1:8" ht="15.75">
+      <c r="A225" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="58">
+        <v>68</v>
+      </c>
+      <c r="H225" s="35"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="58">
+        <v>1</v>
+      </c>
+      <c r="H226" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6521,15 +7146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6673,6 +7289,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6680,13 +7305,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2242,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+      <selection activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2302,7 +2302,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -2324,7 +2324,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -2346,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2368,7 +2368,7 @@
         <v>82</v>
       </c>
       <c r="H5" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -2390,7 +2390,7 @@
         <v>98</v>
       </c>
       <c r="H6" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -2412,7 +2412,7 @@
         <v>66</v>
       </c>
       <c r="H7" s="34">
-        <v>63.639999999999993</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -2434,7 +2434,7 @@
         <v>96</v>
       </c>
       <c r="H8" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
@@ -2456,7 +2456,7 @@
         <v>83</v>
       </c>
       <c r="H9" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
@@ -2478,7 +2478,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
@@ -2500,7 +2500,7 @@
         <v>93</v>
       </c>
       <c r="H11" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -2522,7 +2522,7 @@
         <v>418</v>
       </c>
       <c r="H12" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -2544,7 +2544,7 @@
         <v>97</v>
       </c>
       <c r="H13" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
@@ -2566,7 +2566,7 @@
         <v>86</v>
       </c>
       <c r="H14" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -2588,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="34">
-        <v>54.55</v>
+        <v>54.169999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
@@ -2654,7 +2654,7 @@
         <v>85</v>
       </c>
       <c r="H18" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
@@ -2676,7 +2676,7 @@
         <v>58</v>
       </c>
       <c r="H19" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -2698,7 +2698,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
@@ -2720,7 +2720,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
@@ -2742,7 +2742,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="34">
-        <v>72.72999999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
@@ -2764,7 +2764,7 @@
         <v>95</v>
       </c>
       <c r="H23" s="34">
-        <v>63.639999999999993</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -2786,7 +2786,7 @@
         <v>94</v>
       </c>
       <c r="H24" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
@@ -2830,7 +2830,7 @@
         <v>65</v>
       </c>
       <c r="H26" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
@@ -2852,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -2874,7 +2874,7 @@
         <v>74</v>
       </c>
       <c r="H28" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -2896,7 +2896,7 @@
         <v>79</v>
       </c>
       <c r="H29" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
@@ -2918,7 +2918,7 @@
         <v>56</v>
       </c>
       <c r="H30" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -2940,7 +2940,7 @@
         <v>99</v>
       </c>
       <c r="H31" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
@@ -2962,7 +2962,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
@@ -2984,7 +2984,7 @@
         <v>68</v>
       </c>
       <c r="H33" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -3006,7 +3006,7 @@
         <v>97</v>
       </c>
       <c r="H34" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
@@ -3028,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -3050,7 +3050,7 @@
         <v>73</v>
       </c>
       <c r="H36" s="34">
-        <v>50</v>
+        <v>54.169999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
@@ -3072,7 +3072,7 @@
         <v>84</v>
       </c>
       <c r="H37" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -3094,7 +3094,7 @@
         <v>85</v>
       </c>
       <c r="H38" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
@@ -3116,7 +3116,7 @@
         <v>82</v>
       </c>
       <c r="H39" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
@@ -3138,7 +3138,7 @@
         <v>81</v>
       </c>
       <c r="H40" s="34">
-        <v>76.19</v>
+        <v>78.259999999999991</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
@@ -3160,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="H41" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
@@ -3182,7 +3182,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -3204,7 +3204,7 @@
         <v>83</v>
       </c>
       <c r="H43" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
@@ -3226,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="H44" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
@@ -3248,7 +3248,7 @@
         <v>97</v>
       </c>
       <c r="H45" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -3270,7 +3270,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -3292,7 +3292,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -3314,7 +3314,7 @@
         <v>96</v>
       </c>
       <c r="H48" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
@@ -3336,7 +3336,7 @@
         <v>97</v>
       </c>
       <c r="H49" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
@@ -3358,7 +3358,7 @@
         <v>91</v>
       </c>
       <c r="H50" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
@@ -3380,7 +3380,7 @@
         <v>86</v>
       </c>
       <c r="H51" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
@@ -3402,7 +3402,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
@@ -3424,7 +3424,7 @@
         <v>92</v>
       </c>
       <c r="H53" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -3446,7 +3446,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="34">
-        <v>63.639999999999993</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
@@ -3468,7 +3468,7 @@
         <v>73</v>
       </c>
       <c r="H55" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
@@ -3490,7 +3490,7 @@
         <v>88</v>
       </c>
       <c r="H56" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
@@ -3512,7 +3512,7 @@
         <v>84</v>
       </c>
       <c r="H57" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
@@ -3534,7 +3534,7 @@
         <v>95</v>
       </c>
       <c r="H58" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
@@ -3556,7 +3556,7 @@
         <v>73</v>
       </c>
       <c r="H59" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
@@ -3578,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="34">
-        <v>90.91</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
@@ -3622,7 +3622,7 @@
         <v>77</v>
       </c>
       <c r="H62" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
@@ -3644,7 +3644,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
@@ -3666,7 +3666,7 @@
         <v>80</v>
       </c>
       <c r="H64" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -3688,7 +3688,7 @@
         <v>60</v>
       </c>
       <c r="H65" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
@@ -3710,7 +3710,7 @@
         <v>98</v>
       </c>
       <c r="H66" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -3732,7 +3732,7 @@
         <v>97</v>
       </c>
       <c r="H67" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -3754,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="H68" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -3776,7 +3776,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
@@ -3798,7 +3798,7 @@
         <v>89</v>
       </c>
       <c r="H70" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
@@ -3820,7 +3820,7 @@
         <v>97</v>
       </c>
       <c r="H71" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
@@ -3842,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
@@ -3864,7 +3864,7 @@
         <v>89</v>
       </c>
       <c r="H73" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -3886,7 +3886,7 @@
         <v>77</v>
       </c>
       <c r="H74" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
@@ -3908,7 +3908,7 @@
         <v>88</v>
       </c>
       <c r="H75" s="34">
-        <v>77.27000000000001</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
@@ -3930,7 +3930,7 @@
         <v>61</v>
       </c>
       <c r="H76" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
@@ -3952,7 +3952,7 @@
         <v>87</v>
       </c>
       <c r="H77" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
@@ -3974,7 +3974,7 @@
         <v>78</v>
       </c>
       <c r="H78" s="34">
-        <v>86.36</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
@@ -4018,7 +4018,7 @@
         <v>63</v>
       </c>
       <c r="H80" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
@@ -4040,7 +4040,7 @@
         <v>94</v>
       </c>
       <c r="H81" s="34">
-        <v>54.55</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -4062,7 +4062,7 @@
         <v>91</v>
       </c>
       <c r="H82" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
@@ -4084,7 +4084,7 @@
         <v>74</v>
       </c>
       <c r="H83" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
@@ -4106,7 +4106,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
@@ -4128,7 +4128,7 @@
         <v>98</v>
       </c>
       <c r="H85" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
@@ -4150,7 +4150,7 @@
         <v>92</v>
       </c>
       <c r="H86" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
@@ -4172,7 +4172,7 @@
         <v>89</v>
       </c>
       <c r="H87" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
@@ -4216,7 +4216,7 @@
         <v>93</v>
       </c>
       <c r="H89" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
@@ -4238,7 +4238,7 @@
         <v>91</v>
       </c>
       <c r="H90" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
@@ -4260,7 +4260,7 @@
         <v>98</v>
       </c>
       <c r="H91" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
@@ -4282,7 +4282,7 @@
         <v>64</v>
       </c>
       <c r="H92" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
@@ -4304,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="H93" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
@@ -4326,7 +4326,7 @@
         <v>72</v>
       </c>
       <c r="H94" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
@@ -4348,7 +4348,7 @@
         <v>93</v>
       </c>
       <c r="H95" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
@@ -4370,7 +4370,7 @@
         <v>74</v>
       </c>
       <c r="H96" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
@@ -4392,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
@@ -4414,7 +4414,7 @@
         <v>99</v>
       </c>
       <c r="H98" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -4436,7 +4436,7 @@
         <v>91</v>
       </c>
       <c r="H99" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
@@ -4480,7 +4480,7 @@
         <v>90</v>
       </c>
       <c r="H101" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
@@ -4502,7 +4502,7 @@
         <v>93</v>
       </c>
       <c r="H102" s="34">
-        <v>95.45</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
@@ -4524,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="H103" s="34">
-        <v>72.72999999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
@@ -4546,7 +4546,7 @@
         <v>55</v>
       </c>
       <c r="H104" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
@@ -4568,7 +4568,7 @@
         <v>97</v>
       </c>
       <c r="H105" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
@@ -4590,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="H106" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
@@ -4612,7 +4612,7 @@
         <v>80</v>
       </c>
       <c r="H107" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
@@ -4634,7 +4634,7 @@
         <v>69</v>
       </c>
       <c r="H108" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
@@ -4656,7 +4656,7 @@
         <v>88</v>
       </c>
       <c r="H109" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -4678,7 +4678,7 @@
         <v>95</v>
       </c>
       <c r="H110" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -4700,7 +4700,7 @@
         <v>93</v>
       </c>
       <c r="H111" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
@@ -4744,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="H113" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -4766,7 +4766,7 @@
         <v>96</v>
       </c>
       <c r="H114" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
@@ -4788,7 +4788,7 @@
         <v>99</v>
       </c>
       <c r="H115" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
@@ -4810,7 +4810,7 @@
         <v>90</v>
       </c>
       <c r="H116" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
@@ -4832,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="H117" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
@@ -4854,7 +4854,7 @@
         <v>98</v>
       </c>
       <c r="H118" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
@@ -4876,7 +4876,7 @@
         <v>91</v>
       </c>
       <c r="H119" s="34">
-        <v>72.72999999999999</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
@@ -4898,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="H120" s="34">
-        <v>77.27000000000001</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
@@ -4920,7 +4920,7 @@
         <v>84</v>
       </c>
       <c r="H121" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
@@ -4942,7 +4942,7 @@
         <v>86</v>
       </c>
       <c r="H122" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
@@ -4986,7 +4986,7 @@
         <v>73</v>
       </c>
       <c r="H124" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
@@ -5008,7 +5008,7 @@
         <v>78</v>
       </c>
       <c r="H125" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
@@ -5030,7 +5030,7 @@
         <v>73</v>
       </c>
       <c r="H126" s="34">
-        <v>68.179999999999993</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
@@ -5052,7 +5052,7 @@
         <v>85</v>
       </c>
       <c r="H127" s="34">
-        <v>72.72999999999999</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -5074,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="H128" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
@@ -5096,7 +5096,7 @@
         <v>70</v>
       </c>
       <c r="H129" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
@@ -5140,7 +5140,7 @@
         <v>96</v>
       </c>
       <c r="H131" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
@@ -5162,7 +5162,7 @@
         <v>83</v>
       </c>
       <c r="H132" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
@@ -5184,7 +5184,7 @@
         <v>90</v>
       </c>
       <c r="H133" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
@@ -5206,7 +5206,7 @@
         <v>92</v>
       </c>
       <c r="H134" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
@@ -5228,7 +5228,7 @@
         <v>63</v>
       </c>
       <c r="H135" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
@@ -5250,7 +5250,7 @@
         <v>92</v>
       </c>
       <c r="H136" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
@@ -5272,7 +5272,7 @@
         <v>75</v>
       </c>
       <c r="H137" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -5294,7 +5294,7 @@
         <v>419</v>
       </c>
       <c r="H138" s="34">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
@@ -5316,7 +5316,7 @@
         <v>54</v>
       </c>
       <c r="H139" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
@@ -5338,7 +5338,7 @@
         <v>82</v>
       </c>
       <c r="H140" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
@@ -5360,7 +5360,7 @@
         <v>82</v>
       </c>
       <c r="H141" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
@@ -5382,7 +5382,7 @@
         <v>62</v>
       </c>
       <c r="H142" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
@@ -5404,7 +5404,7 @@
         <v>419</v>
       </c>
       <c r="H143" s="34">
-        <v>9.09</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
@@ -5426,7 +5426,7 @@
         <v>72</v>
       </c>
       <c r="H144" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
@@ -5448,7 +5448,7 @@
         <v>70</v>
       </c>
       <c r="H145" s="34">
-        <v>86.36</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
@@ -5470,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="H146" s="34">
-        <v>86.36</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
@@ -5492,7 +5492,7 @@
         <v>95</v>
       </c>
       <c r="H147" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
@@ -5514,7 +5514,7 @@
         <v>92</v>
       </c>
       <c r="H148" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
@@ -5536,7 +5536,7 @@
         <v>80</v>
       </c>
       <c r="H149" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
@@ -5558,7 +5558,7 @@
         <v>97</v>
       </c>
       <c r="H150" s="34">
-        <v>90.91</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
@@ -5580,7 +5580,7 @@
         <v>81</v>
       </c>
       <c r="H151" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
@@ -5602,7 +5602,7 @@
         <v>86</v>
       </c>
       <c r="H152" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
@@ -5624,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="H153" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
@@ -5646,7 +5646,7 @@
         <v>90</v>
       </c>
       <c r="H154" s="34">
-        <v>95.45</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
@@ -5668,7 +5668,7 @@
         <v>80</v>
       </c>
       <c r="H155" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
@@ -5690,7 +5690,7 @@
         <v>93</v>
       </c>
       <c r="H156" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
@@ -5734,7 +5734,7 @@
         <v>67</v>
       </c>
       <c r="H158" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
@@ -5756,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="H159" s="34">
-        <v>63.639999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
@@ -5778,7 +5778,7 @@
         <v>83</v>
       </c>
       <c r="H160" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
@@ -5800,7 +5800,7 @@
         <v>59</v>
       </c>
       <c r="H161" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
@@ -5822,7 +5822,7 @@
         <v>83</v>
       </c>
       <c r="H162" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
@@ -5844,7 +5844,7 @@
         <v>63</v>
       </c>
       <c r="H163" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
@@ -5866,7 +5866,7 @@
         <v>418</v>
       </c>
       <c r="H164" s="34">
-        <v>4.55</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
@@ -5888,7 +5888,7 @@
         <v>100</v>
       </c>
       <c r="H165" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5910,7 +5910,7 @@
         <v>92</v>
       </c>
       <c r="H166" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5954,7 +5954,7 @@
         <v>92</v>
       </c>
       <c r="H168" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5976,7 +5976,7 @@
         <v>70</v>
       </c>
       <c r="H169" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5998,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="H170" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6020,7 +6020,7 @@
         <v>86</v>
       </c>
       <c r="H171" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6042,7 +6042,7 @@
         <v>74</v>
       </c>
       <c r="H172" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6064,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="H173" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>100</v>
       </c>
       <c r="H174" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6108,7 +6108,7 @@
         <v>92</v>
       </c>
       <c r="H175" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6130,7 +6130,7 @@
         <v>71</v>
       </c>
       <c r="H176" s="34">
-        <v>95.45</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6152,7 +6152,7 @@
         <v>50</v>
       </c>
       <c r="H177" s="34">
-        <v>68.179999999999993</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6174,7 +6174,7 @@
         <v>53</v>
       </c>
       <c r="H178" s="34">
-        <v>59.089999999999996</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6218,7 +6218,7 @@
         <v>92</v>
       </c>
       <c r="H180" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6240,7 +6240,7 @@
         <v>89</v>
       </c>
       <c r="H181" s="34">
-        <v>95.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6262,7 +6262,7 @@
         <v>69</v>
       </c>
       <c r="H182" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6284,7 +6284,7 @@
         <v>90</v>
       </c>
       <c r="H183" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6306,7 +6306,7 @@
         <v>92</v>
       </c>
       <c r="H184" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6328,7 +6328,7 @@
         <v>71</v>
       </c>
       <c r="H185" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6350,7 +6350,7 @@
         <v>93</v>
       </c>
       <c r="H186" s="34">
-        <v>63.639999999999993</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>79</v>
       </c>
       <c r="H187" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6394,7 +6394,7 @@
         <v>67</v>
       </c>
       <c r="H188" s="34">
-        <v>72.72999999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -6416,7 +6416,7 @@
         <v>74</v>
       </c>
       <c r="H189" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
@@ -6460,7 +6460,7 @@
         <v>74</v>
       </c>
       <c r="H191" s="34">
-        <v>86.36</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="H192" s="34">
-        <v>81.820000000000007</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
@@ -6504,7 +6504,7 @@
         <v>84</v>
       </c>
       <c r="H193" s="34">
-        <v>86.36</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
@@ -6526,7 +6526,7 @@
         <v>97</v>
       </c>
       <c r="H194" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
@@ -6548,7 +6548,7 @@
         <v>69</v>
       </c>
       <c r="H195" s="34">
-        <v>72.72999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
@@ -6570,7 +6570,7 @@
         <v>78</v>
       </c>
       <c r="H196" s="34">
-        <v>77.27000000000001</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
@@ -6592,7 +6592,7 @@
         <v>84</v>
       </c>
       <c r="H197" s="34">
-        <v>90.91</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
@@ -6614,7 +6614,7 @@
         <v>95</v>
       </c>
       <c r="H198" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
@@ -6636,7 +6636,7 @@
         <v>99</v>
       </c>
       <c r="H199" s="34">
-        <v>81.820000000000007</v>
+        <v>79.17</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
@@ -6658,7 +6658,7 @@
         <v>96</v>
       </c>
       <c r="H200" s="34">
-        <v>95.45</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -6680,7 +6680,7 @@
         <v>95</v>
       </c>
       <c r="H201" s="34">
-        <v>77.27000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
@@ -6702,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="H202" s="34">
-        <v>72.72999999999999</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
@@ -6724,7 +6724,7 @@
         <v>30</v>
       </c>
       <c r="H203" s="34">
-        <v>40.910000000000004</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
@@ -6746,7 +6746,7 @@
         <v>90</v>
       </c>
       <c r="H204" s="34">
-        <v>77.27000000000001</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
@@ -6768,7 +6768,7 @@
         <v>91</v>
       </c>
       <c r="H205" s="34">
-        <v>77.27000000000001</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
@@ -6790,7 +6790,7 @@
         <v>76</v>
       </c>
       <c r="H206" s="34">
-        <v>13.639999999999999</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
@@ -7146,6 +7146,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -7289,34 +7304,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7330,4 +7318,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -2245,7 +2245,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L194" sqref="L194"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2302,7 +2302,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -2324,7 +2324,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -2346,7 +2346,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2368,7 +2368,7 @@
         <v>82</v>
       </c>
       <c r="H5" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -2390,7 +2390,7 @@
         <v>98</v>
       </c>
       <c r="H6" s="34">
-        <v>75</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
@@ -2412,7 +2412,7 @@
         <v>66</v>
       </c>
       <c r="H7" s="34">
-        <v>62.5</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -2434,7 +2434,7 @@
         <v>96</v>
       </c>
       <c r="H8" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
@@ -2456,7 +2456,7 @@
         <v>83</v>
       </c>
       <c r="H9" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
@@ -2478,7 +2478,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
@@ -2500,7 +2500,7 @@
         <v>93</v>
       </c>
       <c r="H11" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -2522,7 +2522,7 @@
         <v>418</v>
       </c>
       <c r="H12" s="34">
-        <v>58.330000000000005</v>
+        <v>53.849999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -2544,7 +2544,7 @@
         <v>97</v>
       </c>
       <c r="H13" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
@@ -2566,7 +2566,7 @@
         <v>86</v>
       </c>
       <c r="H14" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -2588,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="34">
-        <v>54.169999999999995</v>
+        <v>53.849999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
@@ -2654,7 +2654,7 @@
         <v>85</v>
       </c>
       <c r="H18" s="34">
-        <v>83.33</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
@@ -2676,7 +2676,7 @@
         <v>58</v>
       </c>
       <c r="H19" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -2698,7 +2698,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
@@ -2720,7 +2720,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
@@ -2742,7 +2742,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="34">
-        <v>70.83</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
@@ -2764,7 +2764,7 @@
         <v>95</v>
       </c>
       <c r="H23" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -2786,7 +2786,7 @@
         <v>94</v>
       </c>
       <c r="H24" s="34">
-        <v>58.330000000000005</v>
+        <v>53.849999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
@@ -2830,7 +2830,7 @@
         <v>65</v>
       </c>
       <c r="H26" s="34">
-        <v>79.17</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
@@ -2852,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -2874,7 +2874,7 @@
         <v>74</v>
       </c>
       <c r="H28" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -2896,7 +2896,7 @@
         <v>79</v>
       </c>
       <c r="H29" s="34">
-        <v>91.67</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
@@ -2918,7 +2918,7 @@
         <v>56</v>
       </c>
       <c r="H30" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -2940,7 +2940,7 @@
         <v>99</v>
       </c>
       <c r="H31" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
@@ -2962,7 +2962,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="34">
-        <v>58.330000000000005</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
@@ -2984,7 +2984,7 @@
         <v>68</v>
       </c>
       <c r="H33" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -3006,7 +3006,7 @@
         <v>97</v>
       </c>
       <c r="H34" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
@@ -3028,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="34">
-        <v>91.67</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -3050,7 +3050,7 @@
         <v>73</v>
       </c>
       <c r="H36" s="34">
-        <v>54.169999999999995</v>
+        <v>53.849999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
@@ -3072,7 +3072,7 @@
         <v>84</v>
       </c>
       <c r="H37" s="34">
-        <v>58.330000000000005</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -3094,7 +3094,7 @@
         <v>85</v>
       </c>
       <c r="H38" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
@@ -3116,7 +3116,7 @@
         <v>82</v>
       </c>
       <c r="H39" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
@@ -3138,7 +3138,7 @@
         <v>81</v>
       </c>
       <c r="H40" s="34">
-        <v>78.259999999999991</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
@@ -3160,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="H41" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
@@ -3182,7 +3182,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -3204,7 +3204,7 @@
         <v>83</v>
       </c>
       <c r="H43" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
@@ -3226,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="H44" s="34">
-        <v>58.330000000000005</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
@@ -3248,7 +3248,7 @@
         <v>97</v>
       </c>
       <c r="H45" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
@@ -3270,7 +3270,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -3292,7 +3292,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -3314,7 +3314,7 @@
         <v>96</v>
       </c>
       <c r="H48" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
@@ -3336,7 +3336,7 @@
         <v>97</v>
       </c>
       <c r="H49" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
@@ -3358,7 +3358,7 @@
         <v>91</v>
       </c>
       <c r="H50" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
@@ -3380,7 +3380,7 @@
         <v>86</v>
       </c>
       <c r="H51" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
@@ -3402,7 +3402,7 @@
         <v>55</v>
       </c>
       <c r="H52" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
@@ -3424,7 +3424,7 @@
         <v>92</v>
       </c>
       <c r="H53" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
@@ -3446,7 +3446,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
@@ -3468,7 +3468,7 @@
         <v>73</v>
       </c>
       <c r="H55" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
@@ -3490,7 +3490,7 @@
         <v>88</v>
       </c>
       <c r="H56" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
@@ -3512,7 +3512,7 @@
         <v>84</v>
       </c>
       <c r="H57" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
@@ -3534,7 +3534,7 @@
         <v>95</v>
       </c>
       <c r="H58" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
@@ -3556,7 +3556,7 @@
         <v>73</v>
       </c>
       <c r="H59" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
@@ -3578,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
@@ -3622,7 +3622,7 @@
         <v>77</v>
       </c>
       <c r="H62" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
@@ -3644,7 +3644,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
@@ -3666,7 +3666,7 @@
         <v>80</v>
       </c>
       <c r="H64" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -3688,7 +3688,7 @@
         <v>60</v>
       </c>
       <c r="H65" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
@@ -3710,7 +3710,7 @@
         <v>98</v>
       </c>
       <c r="H66" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -3732,7 +3732,7 @@
         <v>97</v>
       </c>
       <c r="H67" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -3754,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="H68" s="34">
-        <v>83.33</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -3776,7 +3776,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
@@ -3798,7 +3798,7 @@
         <v>89</v>
       </c>
       <c r="H70" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
@@ -3820,7 +3820,7 @@
         <v>97</v>
       </c>
       <c r="H71" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
@@ -3842,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
@@ -3864,7 +3864,7 @@
         <v>89</v>
       </c>
       <c r="H73" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -3886,7 +3886,7 @@
         <v>77</v>
       </c>
       <c r="H74" s="34">
-        <v>70.83</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
@@ -3908,7 +3908,7 @@
         <v>88</v>
       </c>
       <c r="H75" s="34">
-        <v>70.83</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
@@ -3930,7 +3930,7 @@
         <v>61</v>
       </c>
       <c r="H76" s="34">
-        <v>62.5</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
@@ -3952,7 +3952,7 @@
         <v>87</v>
       </c>
       <c r="H77" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
@@ -3974,7 +3974,7 @@
         <v>78</v>
       </c>
       <c r="H78" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
@@ -4018,7 +4018,7 @@
         <v>63</v>
       </c>
       <c r="H80" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
@@ -4040,7 +4040,7 @@
         <v>94</v>
       </c>
       <c r="H81" s="34">
-        <v>58.330000000000005</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -4062,7 +4062,7 @@
         <v>91</v>
       </c>
       <c r="H82" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
@@ -4084,7 +4084,7 @@
         <v>74</v>
       </c>
       <c r="H83" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
@@ -4106,7 +4106,7 @@
         <v>23</v>
       </c>
       <c r="H84" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
@@ -4128,7 +4128,7 @@
         <v>98</v>
       </c>
       <c r="H85" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
@@ -4150,7 +4150,7 @@
         <v>92</v>
       </c>
       <c r="H86" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
@@ -4172,7 +4172,7 @@
         <v>89</v>
       </c>
       <c r="H87" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
@@ -4216,7 +4216,7 @@
         <v>93</v>
       </c>
       <c r="H89" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
@@ -4238,7 +4238,7 @@
         <v>91</v>
       </c>
       <c r="H90" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
@@ -4260,7 +4260,7 @@
         <v>98</v>
       </c>
       <c r="H91" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
@@ -4282,7 +4282,7 @@
         <v>64</v>
       </c>
       <c r="H92" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
@@ -4304,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="H93" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
@@ -4326,7 +4326,7 @@
         <v>72</v>
       </c>
       <c r="H94" s="34">
-        <v>91.67</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
@@ -4348,7 +4348,7 @@
         <v>93</v>
       </c>
       <c r="H95" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
@@ -4370,7 +4370,7 @@
         <v>74</v>
       </c>
       <c r="H96" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
@@ -4392,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
@@ -4414,7 +4414,7 @@
         <v>99</v>
       </c>
       <c r="H98" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -4436,7 +4436,7 @@
         <v>91</v>
       </c>
       <c r="H99" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
@@ -4480,7 +4480,7 @@
         <v>90</v>
       </c>
       <c r="H101" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
@@ -4502,7 +4502,7 @@
         <v>93</v>
       </c>
       <c r="H102" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
@@ -4524,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="H103" s="34">
-        <v>70.83</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
@@ -4546,7 +4546,7 @@
         <v>55</v>
       </c>
       <c r="H104" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
@@ -4568,7 +4568,7 @@
         <v>97</v>
       </c>
       <c r="H105" s="34">
-        <v>75</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
@@ -4590,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="H106" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
@@ -4612,7 +4612,7 @@
         <v>80</v>
       </c>
       <c r="H107" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
@@ -4634,7 +4634,7 @@
         <v>69</v>
       </c>
       <c r="H108" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
@@ -4656,7 +4656,7 @@
         <v>88</v>
       </c>
       <c r="H109" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -4678,7 +4678,7 @@
         <v>95</v>
       </c>
       <c r="H110" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -4700,7 +4700,7 @@
         <v>93</v>
       </c>
       <c r="H111" s="34">
-        <v>83.33</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
@@ -4744,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="H113" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -4766,7 +4766,7 @@
         <v>96</v>
       </c>
       <c r="H114" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
@@ -4788,7 +4788,7 @@
         <v>99</v>
       </c>
       <c r="H115" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75">
@@ -4810,7 +4810,7 @@
         <v>90</v>
       </c>
       <c r="H116" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75">
@@ -4832,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="H117" s="34">
-        <v>79.17</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75">
@@ -4854,7 +4854,7 @@
         <v>98</v>
       </c>
       <c r="H118" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
@@ -4876,7 +4876,7 @@
         <v>91</v>
       </c>
       <c r="H119" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75">
@@ -4898,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="H120" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75">
@@ -4920,7 +4920,7 @@
         <v>84</v>
       </c>
       <c r="H121" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75">
@@ -4942,7 +4942,7 @@
         <v>86</v>
       </c>
       <c r="H122" s="34">
-        <v>95.83</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
@@ -4964,7 +4964,7 @@
         <v>100</v>
       </c>
       <c r="H123" s="34">
-        <v>100</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75">
@@ -4986,7 +4986,7 @@
         <v>73</v>
       </c>
       <c r="H124" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75">
@@ -5008,7 +5008,7 @@
         <v>78</v>
       </c>
       <c r="H125" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
@@ -5030,7 +5030,7 @@
         <v>73</v>
       </c>
       <c r="H126" s="34">
-        <v>70.83</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
@@ -5052,7 +5052,7 @@
         <v>85</v>
       </c>
       <c r="H127" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -5074,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="H128" s="34">
-        <v>62.5</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75">
@@ -5096,7 +5096,7 @@
         <v>70</v>
       </c>
       <c r="H129" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75">
@@ -5140,7 +5140,7 @@
         <v>96</v>
       </c>
       <c r="H131" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75">
@@ -5162,7 +5162,7 @@
         <v>83</v>
       </c>
       <c r="H132" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75">
@@ -5184,7 +5184,7 @@
         <v>90</v>
       </c>
       <c r="H133" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75">
@@ -5206,7 +5206,7 @@
         <v>92</v>
       </c>
       <c r="H134" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75">
@@ -5228,7 +5228,7 @@
         <v>63</v>
       </c>
       <c r="H135" s="34">
-        <v>91.67</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75">
@@ -5250,7 +5250,7 @@
         <v>92</v>
       </c>
       <c r="H136" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75">
@@ -5272,7 +5272,7 @@
         <v>75</v>
       </c>
       <c r="H137" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -5294,7 +5294,7 @@
         <v>419</v>
       </c>
       <c r="H138" s="34">
-        <v>4.17</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75">
@@ -5316,7 +5316,7 @@
         <v>54</v>
       </c>
       <c r="H139" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75">
@@ -5338,7 +5338,7 @@
         <v>82</v>
       </c>
       <c r="H140" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75">
@@ -5360,7 +5360,7 @@
         <v>82</v>
       </c>
       <c r="H141" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75">
@@ -5382,7 +5382,7 @@
         <v>62</v>
       </c>
       <c r="H142" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75">
@@ -5404,7 +5404,7 @@
         <v>419</v>
       </c>
       <c r="H143" s="34">
-        <v>8.33</v>
+        <v>7.6899999999999995</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75">
@@ -5426,7 +5426,7 @@
         <v>72</v>
       </c>
       <c r="H144" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75">
@@ -5448,7 +5448,7 @@
         <v>70</v>
       </c>
       <c r="H145" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75">
@@ -5470,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="H146" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75">
@@ -5492,7 +5492,7 @@
         <v>95</v>
       </c>
       <c r="H147" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75">
@@ -5514,7 +5514,7 @@
         <v>92</v>
       </c>
       <c r="H148" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75">
@@ -5536,7 +5536,7 @@
         <v>80</v>
       </c>
       <c r="H149" s="34">
-        <v>66.67</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75">
@@ -5558,7 +5558,7 @@
         <v>97</v>
       </c>
       <c r="H150" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75">
@@ -5580,7 +5580,7 @@
         <v>81</v>
       </c>
       <c r="H151" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75">
@@ -5602,7 +5602,7 @@
         <v>86</v>
       </c>
       <c r="H152" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75">
@@ -5624,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="H153" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75">
@@ -5646,7 +5646,7 @@
         <v>90</v>
       </c>
       <c r="H154" s="34">
-        <v>87.5</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75">
@@ -5668,7 +5668,7 @@
         <v>80</v>
       </c>
       <c r="H155" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75">
@@ -5690,7 +5690,7 @@
         <v>93</v>
       </c>
       <c r="H156" s="34">
-        <v>87.5</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75">
@@ -5734,7 +5734,7 @@
         <v>67</v>
       </c>
       <c r="H158" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75">
@@ -5756,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="H159" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75">
@@ -5778,7 +5778,7 @@
         <v>83</v>
       </c>
       <c r="H160" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75">
@@ -5800,7 +5800,7 @@
         <v>59</v>
       </c>
       <c r="H161" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75">
@@ -5822,7 +5822,7 @@
         <v>83</v>
       </c>
       <c r="H162" s="34">
-        <v>75</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75">
@@ -5844,7 +5844,7 @@
         <v>63</v>
       </c>
       <c r="H163" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75">
@@ -5866,7 +5866,7 @@
         <v>418</v>
       </c>
       <c r="H164" s="34">
-        <v>4.17</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75">
@@ -5888,7 +5888,7 @@
         <v>100</v>
       </c>
       <c r="H165" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5910,7 +5910,7 @@
         <v>92</v>
       </c>
       <c r="H166" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5954,7 +5954,7 @@
         <v>92</v>
       </c>
       <c r="H168" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5976,7 +5976,7 @@
         <v>70</v>
       </c>
       <c r="H169" s="34">
-        <v>83.33</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5998,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="H170" s="34">
-        <v>95.83</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6020,7 +6020,7 @@
         <v>86</v>
       </c>
       <c r="H171" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6042,7 +6042,7 @@
         <v>74</v>
       </c>
       <c r="H172" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6064,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="H173" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>100</v>
       </c>
       <c r="H174" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6108,7 +6108,7 @@
         <v>92</v>
       </c>
       <c r="H175" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6130,7 +6130,7 @@
         <v>71</v>
       </c>
       <c r="H176" s="34">
-        <v>91.67</v>
+        <v>84.61999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6152,7 +6152,7 @@
         <v>50</v>
       </c>
       <c r="H177" s="34">
-        <v>66.67</v>
+        <v>61.539999999999992</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6174,7 +6174,7 @@
         <v>53</v>
       </c>
       <c r="H178" s="34">
-        <v>62.5</v>
+        <v>57.69</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6218,7 +6218,7 @@
         <v>92</v>
       </c>
       <c r="H180" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6240,7 +6240,7 @@
         <v>89</v>
       </c>
       <c r="H181" s="34">
-        <v>95.83</v>
+        <v>96.15</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6262,7 +6262,7 @@
         <v>69</v>
       </c>
       <c r="H182" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6284,7 +6284,7 @@
         <v>90</v>
       </c>
       <c r="H183" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6306,7 +6306,7 @@
         <v>92</v>
       </c>
       <c r="H184" s="34">
-        <v>79.17</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6328,7 +6328,7 @@
         <v>71</v>
       </c>
       <c r="H185" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6350,7 +6350,7 @@
         <v>93</v>
       </c>
       <c r="H186" s="34">
-        <v>58.330000000000005</v>
+        <v>53.849999999999994</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>79</v>
       </c>
       <c r="H187" s="34">
-        <v>91.67</v>
+        <v>88.460000000000008</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6394,7 +6394,7 @@
         <v>67</v>
       </c>
       <c r="H188" s="34">
-        <v>70.83</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75">
@@ -6416,7 +6416,7 @@
         <v>74</v>
       </c>
       <c r="H189" s="34">
-        <v>75</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75">
@@ -6460,7 +6460,7 @@
         <v>74</v>
       </c>
       <c r="H191" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75">
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="H192" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75">
@@ -6504,7 +6504,7 @@
         <v>84</v>
       </c>
       <c r="H193" s="34">
-        <v>83.33</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75">
@@ -6526,7 +6526,7 @@
         <v>97</v>
       </c>
       <c r="H194" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75">
@@ -6548,7 +6548,7 @@
         <v>69</v>
       </c>
       <c r="H195" s="34">
-        <v>75</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75">
@@ -6570,7 +6570,7 @@
         <v>78</v>
       </c>
       <c r="H196" s="34">
-        <v>79.17</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75">
@@ -6592,7 +6592,7 @@
         <v>84</v>
       </c>
       <c r="H197" s="34">
-        <v>91.67</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75">
@@ -6614,7 +6614,7 @@
         <v>95</v>
       </c>
       <c r="H198" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75">
@@ -6636,7 +6636,7 @@
         <v>99</v>
       </c>
       <c r="H199" s="34">
-        <v>79.17</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
@@ -6658,7 +6658,7 @@
         <v>96</v>
       </c>
       <c r="H200" s="34">
-        <v>87.5</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -6680,7 +6680,7 @@
         <v>95</v>
       </c>
       <c r="H201" s="34">
-        <v>75</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75">
@@ -6702,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="H202" s="34">
-        <v>70.83</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75">
@@ -6724,7 +6724,7 @@
         <v>30</v>
       </c>
       <c r="H203" s="34">
-        <v>37.5</v>
+        <v>34.619999999999997</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75">
@@ -6746,7 +6746,7 @@
         <v>90</v>
       </c>
       <c r="H204" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75">
@@ -6768,7 +6768,7 @@
         <v>91</v>
       </c>
       <c r="H205" s="34">
-        <v>70.83</v>
+        <v>65.38000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75">
@@ -6790,7 +6790,7 @@
         <v>76</v>
       </c>
       <c r="H206" s="34">
-        <v>12.5</v>
+        <v>11.540000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75">
@@ -7146,21 +7146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -7304,7 +7289,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7318,16 +7330,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/MC3020_2025.xlsx
+++ b/MC3020_2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="451">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1426,12 +1426,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -1494,8 +1488,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,8 +1556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1649,17 +1655,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1785,6 +1780,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1797,47 +1812,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1846,65 +1834,62 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="10" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="10" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1913,44 +1898,74 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2244,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="M227" sqref="M227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2254,4890 +2269,5342 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="23" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="17">
         <v>45</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="27">
         <v>27</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="45">
+      <c r="E2" s="50">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="35">
         <v>70</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="18">
         <v>60</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="28">
         <v>28</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="46">
+      <c r="E3" s="51">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="36">
         <v>70</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>77</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="47">
+      <c r="E4" s="28">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="37">
         <v>74</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="17">
         <v>40</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>34</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="47">
+      <c r="E5" s="51">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="37">
         <v>82</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="17">
         <v>77</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>73</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="47">
+      <c r="E6" s="51">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="37">
         <v>98</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="17">
         <v>63</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="47">
+      <c r="E7" s="51">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="37">
         <v>66</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="17">
         <v>77</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="29">
         <v>97</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="47">
+      <c r="E8" s="51">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="37">
         <v>96</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="17">
         <v>63</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="29">
         <v>99</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="47">
+      <c r="E9" s="51">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="37">
         <v>83</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="17">
         <v>73</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="29">
         <v>93</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="47">
+      <c r="E10" s="51">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="37">
         <v>69</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="17">
         <v>40</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="29">
         <v>95</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="47">
+      <c r="E11" s="51">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="37">
         <v>93</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="17">
         <v>37</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="51">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="24">
         <v>53.849999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="17">
         <v>91</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="29">
         <v>75</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="47">
+      <c r="E13" s="51">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="37">
         <v>97</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="17">
         <v>29</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="29">
         <v>81</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="47">
+      <c r="E14" s="51">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="37">
         <v>86</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="17">
         <v>35</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="29">
         <v>60</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="47">
+      <c r="E15" s="51">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="37">
         <v>78</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="24">
         <v>53.849999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="17">
         <v>35</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="29">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="47">
+      <c r="E16" s="51">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="37">
         <v>40</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="48" t="s">
+      <c r="E17" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H17" s="34">
+      <c r="F17" s="2"/>
+      <c r="G17" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="17">
         <v>43</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="29">
         <v>99</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="47">
+      <c r="E18" s="51">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="37">
         <v>85</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="17">
         <v>44</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="29">
         <v>38</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="47">
+      <c r="E19" s="51">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="37">
         <v>58</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="17">
         <v>59</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="29">
         <v>39</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="47">
+      <c r="E20" s="51">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="37">
         <v>50</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="17">
         <v>42</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="29">
         <v>18</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="47">
+      <c r="E21" s="51">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="37">
         <v>81</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="17">
         <v>59</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="29">
         <v>67</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="47">
+      <c r="E22" s="51">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="37">
         <v>86</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="17">
         <v>55</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="29">
         <v>65</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="47">
+      <c r="E23" s="51">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="37">
         <v>95</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="17">
         <v>41</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="28">
         <v>64</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="47">
+      <c r="E24" s="51">
+        <v>95</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="37">
         <v>94</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="24">
         <v>53.849999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="17">
         <v>41</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="28">
         <v>28</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="47">
+      <c r="E25" s="51">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="37">
         <v>64</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="17">
         <v>46</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="28">
         <v>59</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="47">
+      <c r="E26" s="51">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="37">
         <v>65</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="17">
         <v>26</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="28">
         <v>100</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="47">
+      <c r="E27" s="51">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="37">
         <v>88</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="17">
         <v>57</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="29">
         <v>44</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="47">
+      <c r="E28" s="51">
+        <v>75</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="37">
         <v>74</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="17">
         <v>43</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="29">
         <v>38</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="47">
+      <c r="E29" s="51">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="37">
         <v>79</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="17">
         <v>49</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="29">
         <v>40</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="47">
+      <c r="E30" s="51">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="37">
         <v>56</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="17">
         <v>58</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="28">
         <v>68</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="47">
+      <c r="E31" s="51">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="37">
         <v>99</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="17">
         <v>10</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="28">
         <v>51</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="49">
+      <c r="E32" s="51">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="39">
         <v>48</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="17">
         <v>75</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="28">
         <v>46</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="47">
+      <c r="E33" s="51">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="37">
         <v>68</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="17">
         <v>59</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="29">
         <v>81</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="47">
+      <c r="E34" s="51">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="37">
         <v>97</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="17">
         <v>49</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="28">
         <v>37</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="47">
+      <c r="E35" s="51">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="37">
         <v>71</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="17">
         <v>39</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="28">
         <v>21</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="47">
+      <c r="E36" s="51">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="37">
         <v>73</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="24">
         <v>53.849999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="17">
         <v>31</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="29">
         <v>54</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="47">
+      <c r="E37" s="51">
+        <v>49</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="37">
         <v>84</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="17">
         <v>87</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="29">
         <v>94</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="47">
+      <c r="E38" s="51">
+        <v>87</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="37">
         <v>85</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="17">
         <v>74</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="29">
         <v>100</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="47">
+      <c r="E39" s="51">
+        <v>66</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="37">
         <v>82</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="17">
         <v>61</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="29">
         <v>60</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="47">
+      <c r="E40" s="51">
+        <v>58</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="37">
         <v>81</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="24">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="17">
         <v>55</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="29">
         <v>76</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="47">
+      <c r="E41" s="51">
+        <v>54</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="37">
         <v>90</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="17">
         <v>47</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="29">
         <v>50</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="47">
+      <c r="E42" s="51">
+        <v>34</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="37">
         <v>67</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="17">
         <v>27</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="29">
         <v>60</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="47">
+      <c r="E43" s="51">
+        <v>64</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="37">
         <v>83</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="17">
         <v>33</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="28">
         <v>27</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="47">
+      <c r="E44" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="37">
         <v>31</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="17">
         <v>78</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="28">
         <v>68</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="47">
+      <c r="E45" s="51">
+        <v>100</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="37">
         <v>97</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="17">
         <v>37</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="29">
         <v>75</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="47">
+      <c r="E46" s="51">
+        <v>57</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="37">
         <v>76</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="17">
         <v>52</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="29">
         <v>59</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="47">
+      <c r="E47" s="51">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="37">
         <v>68</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="17">
         <v>60</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="29">
         <v>75</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="47">
+      <c r="E48" s="51">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="37">
         <v>96</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="17">
         <v>59</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="29">
         <v>79</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="49">
+      <c r="E49" s="51">
+        <v>70</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="39">
         <v>97</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="17">
         <v>69</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="29">
         <v>55</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="47">
+      <c r="E50" s="51">
+        <v>60</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="37">
         <v>91</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="17">
         <v>69</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="29">
         <v>68</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="47">
+      <c r="E51" s="51">
         <v>86</v>
       </c>
-      <c r="H51" s="34">
+      <c r="F51" s="2"/>
+      <c r="G51" s="37">
+        <v>86</v>
+      </c>
+      <c r="H51" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="17">
         <v>73</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="29">
         <v>43</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="47">
+      <c r="E52" s="51">
+        <v>49</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="37">
         <v>55</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="17">
         <v>82</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="29">
         <v>38</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="47">
+      <c r="E53" s="51">
+        <v>88</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="37">
         <v>92</v>
       </c>
-      <c r="H53" s="34">
+      <c r="H53" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="17">
         <v>34</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="29">
         <v>61</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="47">
+      <c r="E54" s="51">
+        <v>59</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="37">
         <v>77</v>
       </c>
-      <c r="H54" s="34">
+      <c r="H54" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="17">
         <v>64</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="29">
         <v>85</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="47">
+      <c r="E55" s="51">
+        <v>95</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="37">
         <v>73</v>
       </c>
-      <c r="H55" s="34">
+      <c r="H55" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="17">
         <v>63</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="28">
         <v>31</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="49">
+      <c r="E56" s="51">
+        <v>83</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="39">
         <v>88</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="17">
         <v>64</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="29">
         <v>56</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="47">
+      <c r="E57" s="51">
+        <v>67</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="37">
         <v>84</v>
       </c>
-      <c r="H57" s="34">
+      <c r="H57" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="17">
         <v>73</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="29">
         <v>100</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="47">
+      <c r="E58" s="51">
+        <v>76</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="37">
         <v>95</v>
       </c>
-      <c r="H58" s="34">
+      <c r="H58" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="17">
         <v>68</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="29">
         <v>32</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="47">
+      <c r="E59" s="51">
+        <v>39</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="37">
         <v>73</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="17">
         <v>68</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="29">
         <v>97</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="47">
+      <c r="E60" s="51">
+        <v>97</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="37">
         <v>100</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="48" t="s">
+      <c r="E61" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H61" s="34">
+      <c r="F61" s="2"/>
+      <c r="G61" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="17">
         <v>45</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="29">
         <v>83</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="47">
+      <c r="E62" s="51">
+        <v>76</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="37">
         <v>77</v>
       </c>
-      <c r="H62" s="34">
+      <c r="H62" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="17">
         <v>41</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="29">
         <v>35</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="47">
+      <c r="E63" s="51">
+        <v>42</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="37">
         <v>68</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="17">
         <v>30</v>
       </c>
-      <c r="D64" s="39">
+      <c r="D64" s="29">
         <v>70</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="47">
+      <c r="E64" s="51">
+        <v>49</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="37">
         <v>80</v>
       </c>
-      <c r="H64" s="34">
+      <c r="H64" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="17">
         <v>52</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="29">
         <v>62</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="47">
+      <c r="E65" s="51">
+        <v>83</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="37">
         <v>60</v>
       </c>
-      <c r="H65" s="34">
+      <c r="H65" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="17">
         <v>83</v>
       </c>
-      <c r="D66" s="39">
+      <c r="D66" s="29">
         <v>100</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="47">
+      <c r="E66" s="51">
+        <v>94</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="37">
         <v>98</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H66" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="17">
         <v>60</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="28">
         <v>58</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="47">
+      <c r="E67" s="51">
+        <v>52</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="37">
         <v>97</v>
       </c>
-      <c r="H67" s="34">
+      <c r="H67" s="24">
         <v>65.38000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="17">
         <v>66</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="29">
         <v>86</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="47">
+      <c r="E68" s="51">
+        <v>76</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="37">
         <v>79</v>
       </c>
-      <c r="H68" s="34">
+      <c r="H68" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="17">
         <v>67</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="29">
         <v>89</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="49">
+      <c r="E69" s="51">
+        <v>99</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="39">
         <v>100</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="17">
         <v>82</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="29">
         <v>68</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="47">
+      <c r="E70" s="51">
+        <v>99</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="37">
         <v>89</v>
       </c>
-      <c r="H70" s="34">
+      <c r="H70" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="17">
         <v>51</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="29">
         <v>71</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="47">
+      <c r="E71" s="51">
+        <v>78</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="37">
         <v>97</v>
       </c>
-      <c r="H71" s="34">
+      <c r="H71" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="17">
         <v>96</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="29">
         <v>100</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="47">
+      <c r="E72" s="51">
+        <v>95</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="37">
         <v>100</v>
       </c>
-      <c r="H72" s="34">
+      <c r="H72" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="17">
         <v>61</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="29">
         <v>96</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="47">
+      <c r="E73" s="51">
+        <v>83</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="37">
         <v>89</v>
       </c>
-      <c r="H73" s="34">
+      <c r="H73" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="17">
         <v>0</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="29">
         <v>36</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="49">
+      <c r="E74" s="51">
+        <v>47</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="39">
         <v>77</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H74" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="17">
         <v>66</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="29">
         <v>38</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="49">
+      <c r="E75" s="51">
+        <v>53</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="39">
         <v>88</v>
       </c>
-      <c r="H75" s="34">
+      <c r="H75" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="17">
         <v>28</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="29">
         <v>66</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="47">
+      <c r="E76" s="51">
+        <v>40</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="37">
         <v>61</v>
       </c>
-      <c r="H76" s="34">
+      <c r="H76" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="17">
         <v>58</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="29">
         <v>41</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="47">
+      <c r="E77" s="51">
+        <v>44</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="37">
         <v>87</v>
       </c>
-      <c r="H77" s="34">
+      <c r="H77" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="17">
         <v>52</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="29">
         <v>67</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="47">
+      <c r="E78" s="51">
+        <v>55</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="37">
         <v>78</v>
       </c>
-      <c r="H78" s="34">
+      <c r="H78" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="48" t="s">
+      <c r="E79" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H79" s="34">
+      <c r="F79" s="2"/>
+      <c r="G79" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="H79" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="17">
         <v>34</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="28">
         <v>86</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="47">
+      <c r="E80" s="51">
         <v>63</v>
       </c>
-      <c r="H80" s="34">
+      <c r="F80" s="2"/>
+      <c r="G80" s="37">
+        <v>63</v>
+      </c>
+      <c r="H80" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="17">
         <v>72</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="28">
         <v>67</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="47">
+      <c r="E81" s="51">
+        <v>81</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="37">
         <v>94</v>
       </c>
-      <c r="H81" s="34">
+      <c r="H81" s="24">
         <v>57.69</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="17">
         <v>64</v>
       </c>
-      <c r="D82" s="39">
+      <c r="D82" s="29">
         <v>70</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="47">
+      <c r="E82" s="51">
+        <v>56</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="37">
         <v>91</v>
       </c>
-      <c r="H82" s="34">
+      <c r="H82" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="17">
         <v>44</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="29">
         <v>16</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="47">
+      <c r="E83" s="51">
+        <v>27</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="37">
         <v>74</v>
       </c>
-      <c r="H83" s="34">
+      <c r="H83" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="17">
         <v>16</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="29">
         <v>4</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="47">
+      <c r="E84" s="51">
+        <v>6</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="37">
         <v>23</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H84" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="17">
         <v>37</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="29">
         <v>85</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="47">
+      <c r="E85" s="51">
+        <v>86</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="37">
         <v>98</v>
       </c>
-      <c r="H85" s="34">
+      <c r="H85" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="17">
         <v>75</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D86" s="29">
         <v>77</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="49">
+      <c r="E86" s="51">
+        <v>75</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="39">
         <v>92</v>
       </c>
-      <c r="H86" s="34">
+      <c r="H86" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="17">
         <v>57</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="29">
         <v>100</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="47">
+      <c r="E87" s="51">
+        <v>100</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="37">
         <v>89</v>
       </c>
-      <c r="H87" s="34">
+      <c r="H87" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="48" t="s">
+      <c r="E88" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H88" s="34">
+      <c r="F88" s="2"/>
+      <c r="G88" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="H88" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="17">
         <v>57</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D89" s="29">
         <v>91</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="47">
+      <c r="E89" s="51">
+        <v>78</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="37">
         <v>93</v>
       </c>
-      <c r="H89" s="34">
+      <c r="H89" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="17">
         <v>70</v>
       </c>
-      <c r="D90" s="39">
+      <c r="D90" s="29">
         <v>87</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="47">
+      <c r="E90" s="51">
+        <v>81</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="37">
         <v>91</v>
       </c>
-      <c r="H90" s="34">
+      <c r="H90" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="17">
         <v>87</v>
       </c>
-      <c r="D91" s="39">
+      <c r="D91" s="29">
         <v>76</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="47">
+      <c r="E91" s="51">
+        <v>85</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="37">
         <v>98</v>
       </c>
-      <c r="H91" s="34">
+      <c r="H91" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="17">
         <v>34</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="28">
         <v>53</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="47">
+      <c r="E92" s="51">
+        <v>65</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="37">
         <v>64</v>
       </c>
-      <c r="H92" s="34">
+      <c r="H92" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="17">
         <v>57</v>
       </c>
-      <c r="D93" s="39">
+      <c r="D93" s="29">
         <v>40</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="49">
+      <c r="E93" s="51">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="39">
         <v>78</v>
       </c>
-      <c r="H93" s="34">
+      <c r="H93" s="24">
         <v>61.539999999999992</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="17">
         <v>37</v>
       </c>
-      <c r="D94" s="39">
+      <c r="D94" s="29">
         <v>34</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="47">
+      <c r="E94" s="51">
+        <v>36</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="37">
         <v>72</v>
       </c>
-      <c r="H94" s="34">
+      <c r="H94" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="17">
         <v>85</v>
       </c>
-      <c r="D95" s="39">
+      <c r="D95" s="29">
         <v>100</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="47">
+      <c r="E95" s="51">
+        <v>100</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="37">
         <v>93</v>
       </c>
-      <c r="H95" s="34">
+      <c r="H95" s="24">
         <v>92.31</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="17">
         <v>29</v>
       </c>
-      <c r="D96" s="38">
+      <c r="D96" s="28">
         <v>30</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="47">
+      <c r="E96" s="51">
+        <v>68</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="37">
         <v>74</v>
       </c>
-      <c r="H96" s="34">
+      <c r="H96" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="17">
         <v>44</v>
       </c>
-      <c r="D97" s="39">
+      <c r="D97" s="29">
         <v>70</v>
       </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="47">
+      <c r="E97" s="51">
+        <v>82</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="37">
         <v>100</v>
       </c>
-      <c r="H97" s="34">
+      <c r="H97" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="17">
         <v>84</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="29">
         <v>82</v>
       </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="47">
+      <c r="E98" s="51">
+        <v>83</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="37">
         <v>99</v>
       </c>
-      <c r="H98" s="34">
+      <c r="H98" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="17">
         <v>62</v>
       </c>
-      <c r="D99" s="39">
+      <c r="D99" s="29">
         <v>68</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="47">
+      <c r="E99" s="51">
+        <v>76</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="37">
         <v>91</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="48" t="s">
+      <c r="E100" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H100" s="34">
+      <c r="F100" s="2"/>
+      <c r="G100" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="H100" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="17">
         <v>72</v>
       </c>
-      <c r="D101" s="39">
+      <c r="D101" s="29">
         <v>40</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="47">
+      <c r="E101" s="51">
+        <v>52</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="37">
         <v>90</v>
       </c>
-      <c r="H101" s="34">
+      <c r="H101" s="24">
         <v>73.08</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="17">
         <v>83</v>
       </c>
-      <c r="D102" s="39">
+      <c r="D102" s="29">
         <v>93</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="47">
+      <c r="E102" s="51">
+        <v>70</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="37">
         <v>93</v>
       </c>
-      <c r="H102" s="34">
+      <c r="H102" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="27">
+      <c r="C103" s="17">
         <v>25</v>
       </c>
-      <c r="D103" s="38">
+      <c r="D103" s="28">
         <v>58</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="47">
+      <c r="E103" s="51">
+        <v>68</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="37">
         <v>76</v>
       </c>
-      <c r="H103" s="34">
+      <c r="H103" s="24">
         <v>69.23</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="17">
         <v>14</v>
       </c>
-      <c r="D104" s="38">
+      <c r="D104" s="28">
         <v>9</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="49">
+      <c r="E104" s="51">
+        <v>70</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="39">
         <v>55</v>
       </c>
-      <c r="H104" s="34">
+      <c r="H104" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="27">
+      <c r="C105" s="17">
         <v>75</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="29">
         <v>26</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="47">
+      <c r="E105" s="51">
+        <v>60</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="37">
         <v>97</v>
       </c>
-      <c r="H105" s="34">
+      <c r="H105" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="27">
+      <c r="C106" s="17">
         <v>62</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D106" s="29">
         <v>100</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="47">
+      <c r="E106" s="51">
+        <v>85</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="37">
         <v>91</v>
       </c>
-      <c r="H106" s="34">
+      <c r="H106" s="24">
         <v>88.460000000000008</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="27">
+      <c r="C107" s="17">
         <v>94</v>
       </c>
-      <c r="D107" s="40">
+      <c r="D107" s="30">
         <v>69</v>
       </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="47">
+      <c r="E107" s="51">
+        <v>74</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="37">
         <v>80</v>
       </c>
-      <c r="H107" s="34">
+      <c r="H107" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="27">
+      <c r="C108" s="17">
         <v>48</v>
       </c>
-      <c r="D108" s="40">
+      <c r="D108" s="30">
         <v>37</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="47">
+      <c r="E108" s="51">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="37">
         <v>69</v>
       </c>
-      <c r="H108" s="34">
+      <c r="H108" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="17">
         <v>43</v>
       </c>
-      <c r="D109" s="40">
+      <c r="D109" s="30">
         <v>80</v>
       </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="47">
+      <c r="E109" s="51">
+        <v>74</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="37">
         <v>88</v>
       </c>
-      <c r="H109" s="34">
+      <c r="H109" s="24">
         <v>96.15</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="17">
         <v>78</v>
       </c>
-      <c r="D110" s="40">
+      <c r="D110" s="30">
         <v>83</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="47">
+      <c r="E110" s="51">
+        <v>92</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="37">
         <v>95</v>
       </c>
-      <c r="H110" s="34">
+      <c r="H110" s="24">
         <v>76.92</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C111" s="17">
         <v>57</v>
       </c>
-      <c r="D111" s="40">
+      <c r="D111" s="30">
         <v>77</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="47">
+      <c r="E111" s="51">
+        <v>64</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="37">
         <v>93</v>
       </c>
-      <c r="H111" s="34">
+      <c r="H111" s="24">
         <v>84.61999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112" s="17">
         <v>92</v>
       </c>
-      <c r="D112" s="40">
+      <c r="D112" s="30">
         <v>99</v>
       </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="47">
+      <c r="E112" s="51">
         <v>100</v>
       </c>
-      <c r="H112" s="34">
+      <c r="F112" s="2"/>
+      <c r="G112" s="37">
         <v>100</v>
       </c>
+      <c r="H112" s="24">
+        <v>100</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="27">
+      <c r="C113" s="17">
         <v>89</v>
       </c>
-      <c r="D113" s="40">
+      <c r="D113" s="30">
         <v>100</v>
       </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="47">
+      <c r="E113" s="51">
+        <v>91</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="37">
         <v>86</v>
       </c>
-      <c r="H113" s="34">
+      <c r="H113" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="17">
         <v>75</v>
       </c>
-      <c r="D114" s="40">
+      <c r="D114" s="30">
         <v>100</v>
       </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="47">
+      <c r="E114" s="51">
+        <v>87</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="37">
         <v>96</v>
       </c>
-      <c r="H114" s="34">
+      <c r="H114" s="24">
         <v>80.77</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s=